--- a/프로젝트 산출물/5. 테이블명세서/캠플렉스 테이블 명세서.xlsx
+++ b/프로젝트 산출물/5. 테이블명세서/캠플렉스 테이블 명세서.xlsx
@@ -2366,6 +2366,17 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2374,21 +2385,10 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="3" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="표준" xfId="0" builtinId="0"/>
@@ -2610,7 +2610,7 @@
   <dimension ref="A1:Y892"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="D69" sqref="D69"/>
+      <selection activeCell="B20" sqref="B20:J20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1"/>
@@ -2655,17 +2655,17 @@
     </row>
     <row r="2" spans="1:25" ht="15.75" customHeight="1">
       <c r="A2" s="1"/>
-      <c r="B2" s="34" t="s">
+      <c r="B2" s="39" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="35"/>
-      <c r="D2" s="35"/>
-      <c r="E2" s="35"/>
-      <c r="F2" s="35"/>
-      <c r="G2" s="35"/>
-      <c r="H2" s="35"/>
-      <c r="I2" s="35"/>
-      <c r="J2" s="36"/>
+      <c r="C2" s="40"/>
+      <c r="D2" s="40"/>
+      <c r="E2" s="40"/>
+      <c r="F2" s="40"/>
+      <c r="G2" s="40"/>
+      <c r="H2" s="40"/>
+      <c r="I2" s="40"/>
+      <c r="J2" s="41"/>
       <c r="K2" s="2"/>
       <c r="L2" s="2"/>
       <c r="M2" s="2"/>
@@ -2684,15 +2684,15 @@
     </row>
     <row r="3" spans="1:25" ht="15.75" customHeight="1">
       <c r="A3" s="1"/>
-      <c r="B3" s="37"/>
-      <c r="C3" s="38"/>
-      <c r="D3" s="38"/>
-      <c r="E3" s="38"/>
-      <c r="F3" s="38"/>
-      <c r="G3" s="38"/>
-      <c r="H3" s="38"/>
-      <c r="I3" s="38"/>
-      <c r="J3" s="39"/>
+      <c r="B3" s="42"/>
+      <c r="C3" s="43"/>
+      <c r="D3" s="43"/>
+      <c r="E3" s="43"/>
+      <c r="F3" s="43"/>
+      <c r="G3" s="43"/>
+      <c r="H3" s="43"/>
+      <c r="I3" s="43"/>
+      <c r="J3" s="44"/>
       <c r="K3" s="2"/>
       <c r="L3" s="2"/>
       <c r="M3" s="2"/>
@@ -2765,17 +2765,17 @@
     </row>
     <row r="6" spans="1:25" ht="15.75" customHeight="1">
       <c r="A6" s="17"/>
-      <c r="B6" s="43" t="s">
+      <c r="B6" s="45" t="s">
         <v>116</v>
       </c>
-      <c r="C6" s="44"/>
-      <c r="D6" s="44"/>
-      <c r="E6" s="44"/>
-      <c r="F6" s="44"/>
-      <c r="G6" s="44"/>
-      <c r="H6" s="44"/>
-      <c r="I6" s="44"/>
-      <c r="J6" s="44"/>
+      <c r="C6" s="46"/>
+      <c r="D6" s="46"/>
+      <c r="E6" s="46"/>
+      <c r="F6" s="46"/>
+      <c r="G6" s="46"/>
+      <c r="H6" s="46"/>
+      <c r="I6" s="46"/>
+      <c r="J6" s="46"/>
       <c r="K6" s="2"/>
       <c r="L6" s="2"/>
       <c r="M6" s="2"/>
@@ -3303,17 +3303,17 @@
     </row>
     <row r="20" spans="1:25" ht="15.75" customHeight="1">
       <c r="A20" s="4"/>
-      <c r="B20" s="40" t="s">
+      <c r="B20" s="36" t="s">
         <v>43</v>
       </c>
-      <c r="C20" s="41"/>
-      <c r="D20" s="41"/>
-      <c r="E20" s="41"/>
-      <c r="F20" s="41"/>
-      <c r="G20" s="41"/>
-      <c r="H20" s="41"/>
-      <c r="I20" s="41"/>
-      <c r="J20" s="42"/>
+      <c r="C20" s="37"/>
+      <c r="D20" s="37"/>
+      <c r="E20" s="37"/>
+      <c r="F20" s="37"/>
+      <c r="G20" s="37"/>
+      <c r="H20" s="37"/>
+      <c r="I20" s="37"/>
+      <c r="J20" s="38"/>
       <c r="K20" s="2"/>
       <c r="L20" s="2"/>
       <c r="M20" s="2"/>
@@ -3380,7 +3380,7 @@
       <c r="B22" s="5">
         <v>1</v>
       </c>
-      <c r="C22" s="19" t="s">
+      <c r="C22" s="16" t="s">
         <v>14</v>
       </c>
       <c r="D22" s="7" t="s">
@@ -3876,17 +3876,17 @@
     </row>
     <row r="35" spans="1:25" ht="15.75" customHeight="1">
       <c r="A35" s="3"/>
-      <c r="B35" s="43" t="s">
+      <c r="B35" s="45" t="s">
         <v>127</v>
       </c>
-      <c r="C35" s="44"/>
-      <c r="D35" s="44"/>
-      <c r="E35" s="44"/>
-      <c r="F35" s="44"/>
-      <c r="G35" s="44"/>
-      <c r="H35" s="44"/>
-      <c r="I35" s="44"/>
-      <c r="J35" s="44"/>
+      <c r="C35" s="46"/>
+      <c r="D35" s="46"/>
+      <c r="E35" s="46"/>
+      <c r="F35" s="46"/>
+      <c r="G35" s="46"/>
+      <c r="H35" s="46"/>
+      <c r="I35" s="46"/>
+      <c r="J35" s="46"/>
       <c r="K35" s="2"/>
       <c r="L35" s="2"/>
       <c r="M35" s="2"/>
@@ -4248,17 +4248,17 @@
     </row>
     <row r="45" spans="1:25" ht="15.75" customHeight="1">
       <c r="A45" s="3"/>
-      <c r="B45" s="43" t="s">
+      <c r="B45" s="45" t="s">
         <v>100</v>
       </c>
-      <c r="C45" s="44"/>
-      <c r="D45" s="44"/>
-      <c r="E45" s="44"/>
-      <c r="F45" s="44"/>
-      <c r="G45" s="44"/>
-      <c r="H45" s="44"/>
-      <c r="I45" s="44"/>
-      <c r="J45" s="44"/>
+      <c r="C45" s="46"/>
+      <c r="D45" s="46"/>
+      <c r="E45" s="46"/>
+      <c r="F45" s="46"/>
+      <c r="G45" s="46"/>
+      <c r="H45" s="46"/>
+      <c r="I45" s="46"/>
+      <c r="J45" s="46"/>
       <c r="K45" s="2"/>
       <c r="L45" s="2"/>
       <c r="M45" s="2"/>
@@ -4622,17 +4622,17 @@
     </row>
     <row r="55" spans="1:25" ht="15.75" customHeight="1">
       <c r="A55" s="3"/>
-      <c r="B55" s="43" t="s">
+      <c r="B55" s="45" t="s">
         <v>65</v>
       </c>
-      <c r="C55" s="44"/>
-      <c r="D55" s="44"/>
-      <c r="E55" s="44"/>
-      <c r="F55" s="44"/>
-      <c r="G55" s="44"/>
-      <c r="H55" s="44"/>
-      <c r="I55" s="44"/>
-      <c r="J55" s="44"/>
+      <c r="C55" s="46"/>
+      <c r="D55" s="46"/>
+      <c r="E55" s="46"/>
+      <c r="F55" s="46"/>
+      <c r="G55" s="46"/>
+      <c r="H55" s="46"/>
+      <c r="I55" s="46"/>
+      <c r="J55" s="46"/>
       <c r="K55" s="2"/>
       <c r="L55" s="2"/>
       <c r="M55" s="2"/>
@@ -4965,17 +4965,17 @@
     </row>
     <row r="64" spans="1:25" ht="15.75" customHeight="1">
       <c r="A64" s="3"/>
-      <c r="B64" s="40" t="s">
+      <c r="B64" s="36" t="s">
         <v>142</v>
       </c>
-      <c r="C64" s="41"/>
-      <c r="D64" s="41"/>
-      <c r="E64" s="41"/>
-      <c r="F64" s="41"/>
-      <c r="G64" s="41"/>
-      <c r="H64" s="41"/>
-      <c r="I64" s="41"/>
-      <c r="J64" s="42"/>
+      <c r="C64" s="37"/>
+      <c r="D64" s="37"/>
+      <c r="E64" s="37"/>
+      <c r="F64" s="37"/>
+      <c r="G64" s="37"/>
+      <c r="H64" s="37"/>
+      <c r="I64" s="37"/>
+      <c r="J64" s="38"/>
       <c r="K64" s="2"/>
       <c r="L64" s="2"/>
       <c r="M64" s="2"/>
@@ -4996,28 +4996,28 @@
       <c r="B65" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="C65" s="45" t="s">
+      <c r="C65" s="34" t="s">
         <v>2</v>
       </c>
-      <c r="D65" s="45" t="s">
+      <c r="D65" s="34" t="s">
         <v>3</v>
       </c>
-      <c r="E65" s="45" t="s">
+      <c r="E65" s="34" t="s">
         <v>4</v>
       </c>
-      <c r="F65" s="45" t="s">
+      <c r="F65" s="34" t="s">
         <v>5</v>
       </c>
-      <c r="G65" s="45" t="s">
+      <c r="G65" s="34" t="s">
         <v>6</v>
       </c>
-      <c r="H65" s="45" t="s">
+      <c r="H65" s="34" t="s">
         <v>143</v>
       </c>
-      <c r="I65" s="45" t="s">
+      <c r="I65" s="34" t="s">
         <v>8</v>
       </c>
-      <c r="J65" s="45" t="s">
+      <c r="J65" s="34" t="s">
         <v>9</v>
       </c>
       <c r="K65" s="3"/>
@@ -5029,49 +5029,49 @@
       <c r="C66" s="25" t="s">
         <v>95</v>
       </c>
-      <c r="D66" s="46" t="s">
+      <c r="D66" s="35" t="s">
         <v>144</v>
       </c>
-      <c r="E66" s="45" t="s">
+      <c r="E66" s="34" t="s">
         <v>10</v>
       </c>
-      <c r="F66" s="45">
+      <c r="F66" s="34">
         <v>70</v>
       </c>
-      <c r="G66" s="45" t="s">
+      <c r="G66" s="34" t="s">
         <v>11</v>
       </c>
-      <c r="H66" s="45" t="s">
+      <c r="H66" s="34" t="s">
         <v>12</v>
       </c>
-      <c r="I66" s="45" t="s">
+      <c r="I66" s="34" t="s">
         <v>13</v>
       </c>
-      <c r="J66" s="45"/>
+      <c r="J66" s="34"/>
       <c r="K66" s="3"/>
     </row>
     <row r="67" spans="1:25" ht="15" customHeight="1">
       <c r="B67" s="5">
         <v>2</v>
       </c>
-      <c r="C67" s="45" t="s">
+      <c r="C67" s="34" t="s">
         <v>145</v>
       </c>
-      <c r="D67" s="46" t="s">
+      <c r="D67" s="35" t="s">
         <v>146</v>
       </c>
-      <c r="E67" s="45" t="s">
+      <c r="E67" s="34" t="s">
         <v>10</v>
       </c>
-      <c r="F67" s="45">
+      <c r="F67" s="34">
         <v>70</v>
       </c>
-      <c r="G67" s="45" t="s">
+      <c r="G67" s="34" t="s">
         <v>11</v>
       </c>
-      <c r="H67" s="45"/>
-      <c r="I67" s="45"/>
-      <c r="J67" s="45"/>
+      <c r="H67" s="34"/>
+      <c r="I67" s="34"/>
+      <c r="J67" s="34"/>
       <c r="K67" s="3"/>
     </row>
     <row r="68" spans="1:25" ht="15" customHeight="1">

--- a/프로젝트 산출물/5. 테이블명세서/캠플렉스 테이블 명세서.xlsx
+++ b/프로젝트 산출물/5. 테이블명세서/캠플렉스 테이블 명세서.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="274" uniqueCount="147">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="279" uniqueCount="150">
   <si>
     <t>테이블 명세서</t>
   </si>
@@ -138,21 +138,6 @@
         <rFont val="Arial"/>
         <family val="2"/>
       </rPr>
-      <t>_date</t>
-    </r>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>r</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
       <t>_price</t>
     </r>
     <phoneticPr fontId="7" type="noConversion"/>
@@ -201,10 +186,6 @@
   </si>
   <si>
     <t>예약 신청일</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>예약 날짜</t>
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
@@ -341,57 +322,6 @@
         <family val="2"/>
       </rPr>
       <t>K</t>
-    </r>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="돋움"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>예약</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="돋움"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>신청한</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="돋움"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>날짜</t>
     </r>
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
@@ -1966,6 +1896,135 @@
   <si>
     <t>솔트</t>
   </si>
+  <si>
+    <r>
+      <t>r</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>_startdate</t>
+    </r>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>r_enddate</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>예약 시작날짜</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>예약 종료날짜</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>예약</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>시작</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>날짜</t>
+    </r>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>예약</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>종료</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>날짜</t>
+    </r>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
@@ -2607,10 +2666,10 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:Y892"/>
+  <dimension ref="A1:Y893"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="B20" sqref="B20:J20"/>
+    <sheetView tabSelected="1" topLeftCell="A7" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="G19" sqref="G19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1"/>
@@ -2766,7 +2825,7 @@
     <row r="6" spans="1:25" ht="15.75" customHeight="1">
       <c r="A6" s="17"/>
       <c r="B6" s="45" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="C6" s="46"/>
       <c r="D6" s="46"/>
@@ -2843,28 +2902,28 @@
         <v>1</v>
       </c>
       <c r="C8" s="25" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="D8" s="26" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="E8" s="25" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="F8" s="25">
         <v>50</v>
       </c>
       <c r="G8" s="25" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="H8" s="25" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="I8" s="25" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="J8" s="26" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="K8" s="2"/>
       <c r="L8" s="2"/>
@@ -2888,24 +2947,24 @@
         <v>2</v>
       </c>
       <c r="C9" s="25" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="D9" s="26" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="E9" s="25" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="F9" s="24">
         <v>20</v>
       </c>
       <c r="G9" s="25" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="H9" s="25"/>
       <c r="I9" s="27"/>
       <c r="J9" s="25" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="K9" s="2"/>
       <c r="L9" s="2"/>
@@ -2929,24 +2988,24 @@
         <v>3</v>
       </c>
       <c r="C10" s="25" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="D10" s="26" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="E10" s="25" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="F10" s="25">
         <v>10</v>
       </c>
       <c r="G10" s="25" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="H10" s="24"/>
       <c r="I10" s="24"/>
       <c r="J10" s="26" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="K10" s="2"/>
       <c r="L10" s="2"/>
@@ -2970,24 +3029,24 @@
         <v>4</v>
       </c>
       <c r="C11" s="25" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="D11" s="26" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="E11" s="25" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="F11" s="25">
         <v>11</v>
       </c>
       <c r="G11" s="25" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="H11" s="25"/>
       <c r="I11" s="24"/>
       <c r="J11" s="25" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="K11" s="2"/>
       <c r="L11" s="2"/>
@@ -3011,22 +3070,22 @@
         <v>5</v>
       </c>
       <c r="C12" s="25" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="D12" s="26" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="E12" s="25" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="F12" s="25"/>
       <c r="G12" s="25" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="H12" s="25"/>
       <c r="I12" s="24"/>
       <c r="J12" s="25" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="K12" s="2"/>
       <c r="L12" s="2"/>
@@ -3050,19 +3109,19 @@
         <v>6</v>
       </c>
       <c r="C13" s="25" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="D13" s="26" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="E13" s="25" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="F13" s="25">
         <v>50</v>
       </c>
       <c r="G13" s="25" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="H13" s="25"/>
       <c r="I13" s="24"/>
@@ -3089,24 +3148,24 @@
         <v>7</v>
       </c>
       <c r="C14" s="25" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="D14" s="26" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="E14" s="19" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="F14" s="25">
         <v>1</v>
       </c>
       <c r="G14" s="25" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="H14" s="25"/>
       <c r="I14" s="24"/>
       <c r="J14" s="25" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="K14" s="2"/>
       <c r="L14" s="2"/>
@@ -3130,24 +3189,24 @@
         <v>8</v>
       </c>
       <c r="C15" s="25" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="D15" s="26" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
       <c r="E15" s="19" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="F15" s="25">
         <v>1</v>
       </c>
       <c r="G15" s="25" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="H15" s="25"/>
       <c r="I15" s="24"/>
       <c r="J15" s="25" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="K15" s="2"/>
       <c r="L15" s="2"/>
@@ -3171,24 +3230,24 @@
         <v>9</v>
       </c>
       <c r="C16" s="25" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="D16" s="26" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="E16" s="19" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="F16" s="25">
         <v>1</v>
       </c>
       <c r="G16" s="25" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="H16" s="25"/>
       <c r="I16" s="24"/>
       <c r="J16" s="25" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="K16" s="2"/>
       <c r="L16" s="2"/>
@@ -3212,24 +3271,24 @@
         <v>10</v>
       </c>
       <c r="C17" s="25" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="D17" s="26" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="E17" s="19" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="F17" s="25">
         <v>1</v>
       </c>
       <c r="G17" s="25" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="H17" s="25"/>
       <c r="I17" s="24"/>
       <c r="J17" s="25" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="K17" s="2"/>
       <c r="L17" s="2"/>
@@ -3304,7 +3363,7 @@
     <row r="20" spans="1:25" ht="15.75" customHeight="1">
       <c r="A20" s="4"/>
       <c r="B20" s="36" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="C20" s="37"/>
       <c r="D20" s="37"/>
@@ -3384,10 +3443,10 @@
         <v>14</v>
       </c>
       <c r="D22" s="7" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E22" s="19" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="F22" s="8"/>
       <c r="G22" s="6" t="s">
@@ -3400,7 +3459,7 @@
         <v>13</v>
       </c>
       <c r="J22" s="22" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="K22" s="2"/>
       <c r="L22" s="2"/>
@@ -3427,7 +3486,7 @@
         <v>15</v>
       </c>
       <c r="D23" s="7" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E23" s="6" t="s">
         <v>10</v>
@@ -3442,7 +3501,7 @@
         <v>12</v>
       </c>
       <c r="I23" s="21" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="J23" s="6"/>
       <c r="K23" s="2"/>
@@ -3470,10 +3529,10 @@
         <v>16</v>
       </c>
       <c r="D24" s="7" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E24" s="19" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="F24" s="6"/>
       <c r="G24" s="6" t="s">
@@ -3483,7 +3542,7 @@
         <v>12</v>
       </c>
       <c r="I24" s="21" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="J24" s="7"/>
       <c r="K24" s="2"/>
@@ -3511,10 +3570,10 @@
         <v>17</v>
       </c>
       <c r="D25" s="7" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E25" s="19" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="F25" s="8"/>
       <c r="G25" s="6" t="s">
@@ -3523,7 +3582,7 @@
       <c r="H25" s="6"/>
       <c r="I25" s="9"/>
       <c r="J25" s="19" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="K25" s="2"/>
       <c r="L25" s="2"/>
@@ -3546,14 +3605,14 @@
       <c r="B26" s="5">
         <v>5</v>
       </c>
-      <c r="C26" s="19" t="s">
-        <v>18</v>
+      <c r="C26" s="16" t="s">
+        <v>144</v>
       </c>
       <c r="D26" s="7" t="s">
-        <v>26</v>
+        <v>146</v>
       </c>
       <c r="E26" s="19" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="F26" s="6"/>
       <c r="G26" s="6" t="s">
@@ -3561,8 +3620,8 @@
       </c>
       <c r="H26" s="9"/>
       <c r="I26" s="9"/>
-      <c r="J26" s="19" t="s">
-        <v>39</v>
+      <c r="J26" s="16" t="s">
+        <v>148</v>
       </c>
       <c r="K26" s="2"/>
       <c r="L26" s="2"/>
@@ -3583,25 +3642,25 @@
     <row r="27" spans="1:25" ht="15.75" customHeight="1">
       <c r="A27" s="4"/>
       <c r="B27" s="5">
-        <v>6</v>
-      </c>
-      <c r="C27" s="19" t="s">
-        <v>19</v>
+        <v>5</v>
+      </c>
+      <c r="C27" s="16" t="s">
+        <v>145</v>
       </c>
       <c r="D27" s="7" t="s">
-        <v>27</v>
+        <v>147</v>
       </c>
       <c r="E27" s="19" t="s">
-        <v>33</v>
-      </c>
-      <c r="F27" s="8"/>
-      <c r="G27" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="F27" s="16"/>
+      <c r="G27" s="16" t="s">
         <v>11</v>
       </c>
       <c r="H27" s="9"/>
       <c r="I27" s="9"/>
-      <c r="J27" s="19" t="s">
-        <v>40</v>
+      <c r="J27" s="16" t="s">
+        <v>149</v>
       </c>
       <c r="K27" s="2"/>
       <c r="L27" s="2"/>
@@ -3622,27 +3681,25 @@
     <row r="28" spans="1:25" ht="15.75" customHeight="1">
       <c r="A28" s="4"/>
       <c r="B28" s="5">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C28" s="19" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="D28" s="7" t="s">
-        <v>28</v>
-      </c>
-      <c r="E28" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="F28" s="8">
-        <v>20</v>
-      </c>
+        <v>25</v>
+      </c>
+      <c r="E28" s="19" t="s">
+        <v>31</v>
+      </c>
+      <c r="F28" s="8"/>
       <c r="G28" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="H28" s="6"/>
+      <c r="H28" s="9"/>
       <c r="I28" s="9"/>
       <c r="J28" s="19" t="s">
-        <v>122</v>
+        <v>37</v>
       </c>
       <c r="K28" s="2"/>
       <c r="L28" s="2"/>
@@ -3663,27 +3720,27 @@
     <row r="29" spans="1:25" ht="15.75" customHeight="1">
       <c r="A29" s="4"/>
       <c r="B29" s="5">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C29" s="19" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="D29" s="7" t="s">
-        <v>29</v>
-      </c>
-      <c r="E29" s="19" t="s">
-        <v>33</v>
+        <v>26</v>
+      </c>
+      <c r="E29" s="6" t="s">
+        <v>10</v>
       </c>
       <c r="F29" s="8">
-        <v>2</v>
+        <v>20</v>
       </c>
       <c r="G29" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="H29" s="9"/>
+      <c r="H29" s="6"/>
       <c r="I29" s="9"/>
       <c r="J29" s="19" t="s">
-        <v>41</v>
+        <v>119</v>
       </c>
       <c r="K29" s="2"/>
       <c r="L29" s="2"/>
@@ -3702,29 +3759,29 @@
       <c r="Y29" s="2"/>
     </row>
     <row r="30" spans="1:25" ht="15.75" customHeight="1">
-      <c r="A30" s="3"/>
+      <c r="A30" s="4"/>
       <c r="B30" s="5">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C30" s="19" t="s">
-        <v>123</v>
-      </c>
-      <c r="D30" s="20" t="s">
-        <v>30</v>
+        <v>20</v>
+      </c>
+      <c r="D30" s="7" t="s">
+        <v>27</v>
       </c>
       <c r="E30" s="19" t="s">
-        <v>33</v>
-      </c>
-      <c r="F30" s="8"/>
+        <v>31</v>
+      </c>
+      <c r="F30" s="8">
+        <v>2</v>
+      </c>
       <c r="G30" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="H30" s="21" t="s">
-        <v>36</v>
-      </c>
+      <c r="H30" s="9"/>
       <c r="I30" s="9"/>
-      <c r="J30" s="22" t="s">
-        <v>44</v>
+      <c r="J30" s="19" t="s">
+        <v>38</v>
       </c>
       <c r="K30" s="2"/>
       <c r="L30" s="2"/>
@@ -3745,25 +3802,27 @@
     <row r="31" spans="1:25" ht="15.75" customHeight="1">
       <c r="A31" s="3"/>
       <c r="B31" s="5">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C31" s="19" t="s">
-        <v>124</v>
-      </c>
-      <c r="D31" s="19" t="s">
+        <v>120</v>
+      </c>
+      <c r="D31" s="20" t="s">
+        <v>28</v>
+      </c>
+      <c r="E31" s="19" t="s">
         <v>31</v>
-      </c>
-      <c r="E31" s="19" t="s">
-        <v>35</v>
       </c>
       <c r="F31" s="8"/>
       <c r="G31" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="H31" s="9"/>
+      <c r="H31" s="21" t="s">
+        <v>34</v>
+      </c>
       <c r="I31" s="9"/>
-      <c r="J31" s="19" t="s">
-        <v>126</v>
+      <c r="J31" s="22" t="s">
+        <v>41</v>
       </c>
       <c r="K31" s="2"/>
       <c r="L31" s="2"/>
@@ -3784,26 +3843,26 @@
     <row r="32" spans="1:25" ht="15.75" customHeight="1">
       <c r="A32" s="3"/>
       <c r="B32" s="5">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C32" s="19" t="s">
-        <v>125</v>
+        <v>121</v>
       </c>
       <c r="D32" s="19" t="s">
-        <v>32</v>
-      </c>
-      <c r="E32" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="F32" s="8">
-        <v>2000</v>
-      </c>
+        <v>29</v>
+      </c>
+      <c r="E32" s="19" t="s">
+        <v>33</v>
+      </c>
+      <c r="F32" s="8"/>
       <c r="G32" s="6" t="s">
         <v>11</v>
       </c>
       <c r="H32" s="9"/>
       <c r="I32" s="9"/>
-      <c r="J32" s="10"/>
+      <c r="J32" s="19" t="s">
+        <v>123</v>
+      </c>
       <c r="K32" s="2"/>
       <c r="L32" s="2"/>
       <c r="M32" s="2"/>
@@ -3821,16 +3880,28 @@
       <c r="Y32" s="2"/>
     </row>
     <row r="33" spans="1:25" ht="15.75" customHeight="1">
-      <c r="A33" s="17"/>
-      <c r="B33" s="18"/>
-      <c r="C33" s="29"/>
-      <c r="D33" s="29"/>
-      <c r="E33" s="18"/>
-      <c r="F33" s="18"/>
-      <c r="G33" s="18"/>
-      <c r="H33" s="17"/>
-      <c r="I33" s="17"/>
-      <c r="J33" s="31"/>
+      <c r="A33" s="3"/>
+      <c r="B33" s="5">
+        <v>11</v>
+      </c>
+      <c r="C33" s="19" t="s">
+        <v>122</v>
+      </c>
+      <c r="D33" s="19" t="s">
+        <v>30</v>
+      </c>
+      <c r="E33" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="F33" s="8">
+        <v>2000</v>
+      </c>
+      <c r="G33" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="H33" s="9"/>
+      <c r="I33" s="9"/>
+      <c r="J33" s="10"/>
       <c r="K33" s="2"/>
       <c r="L33" s="2"/>
       <c r="M33" s="2"/>
@@ -3848,16 +3919,16 @@
       <c r="Y33" s="2"/>
     </row>
     <row r="34" spans="1:25" ht="15.75" customHeight="1">
-      <c r="A34" s="3"/>
-      <c r="B34" s="11"/>
-      <c r="C34" s="12"/>
-      <c r="D34" s="12"/>
-      <c r="E34" s="12"/>
-      <c r="F34" s="12"/>
-      <c r="G34" s="13"/>
-      <c r="H34" s="14"/>
-      <c r="I34" s="14"/>
-      <c r="J34" s="15"/>
+      <c r="A34" s="17"/>
+      <c r="B34" s="18"/>
+      <c r="C34" s="29"/>
+      <c r="D34" s="29"/>
+      <c r="E34" s="18"/>
+      <c r="F34" s="18"/>
+      <c r="G34" s="18"/>
+      <c r="H34" s="17"/>
+      <c r="I34" s="17"/>
+      <c r="J34" s="31"/>
       <c r="K34" s="2"/>
       <c r="L34" s="2"/>
       <c r="M34" s="2"/>
@@ -3876,17 +3947,15 @@
     </row>
     <row r="35" spans="1:25" ht="15.75" customHeight="1">
       <c r="A35" s="3"/>
-      <c r="B35" s="45" t="s">
-        <v>127</v>
-      </c>
-      <c r="C35" s="46"/>
-      <c r="D35" s="46"/>
-      <c r="E35" s="46"/>
-      <c r="F35" s="46"/>
-      <c r="G35" s="46"/>
-      <c r="H35" s="46"/>
-      <c r="I35" s="46"/>
-      <c r="J35" s="46"/>
+      <c r="B35" s="11"/>
+      <c r="C35" s="12"/>
+      <c r="D35" s="12"/>
+      <c r="E35" s="12"/>
+      <c r="F35" s="12"/>
+      <c r="G35" s="13"/>
+      <c r="H35" s="14"/>
+      <c r="I35" s="14"/>
+      <c r="J35" s="15"/>
       <c r="K35" s="2"/>
       <c r="L35" s="2"/>
       <c r="M35" s="2"/>
@@ -3905,33 +3974,17 @@
     </row>
     <row r="36" spans="1:25" ht="15.75" customHeight="1">
       <c r="A36" s="3"/>
-      <c r="B36" s="25" t="s">
-        <v>1</v>
-      </c>
-      <c r="C36" s="25" t="s">
-        <v>2</v>
-      </c>
-      <c r="D36" s="25" t="s">
-        <v>3</v>
-      </c>
-      <c r="E36" s="25" t="s">
-        <v>4</v>
-      </c>
-      <c r="F36" s="25" t="s">
-        <v>5</v>
-      </c>
-      <c r="G36" s="25" t="s">
-        <v>6</v>
-      </c>
-      <c r="H36" s="25" t="s">
-        <v>7</v>
-      </c>
-      <c r="I36" s="25" t="s">
-        <v>8</v>
-      </c>
-      <c r="J36" s="25" t="s">
-        <v>9</v>
-      </c>
+      <c r="B36" s="45" t="s">
+        <v>124</v>
+      </c>
+      <c r="C36" s="46"/>
+      <c r="D36" s="46"/>
+      <c r="E36" s="46"/>
+      <c r="F36" s="46"/>
+      <c r="G36" s="46"/>
+      <c r="H36" s="46"/>
+      <c r="I36" s="46"/>
+      <c r="J36" s="46"/>
       <c r="K36" s="2"/>
       <c r="L36" s="2"/>
       <c r="M36" s="2"/>
@@ -3950,30 +4003,32 @@
     </row>
     <row r="37" spans="1:25" ht="15.75" customHeight="1">
       <c r="A37" s="3"/>
-      <c r="B37" s="25">
+      <c r="B37" s="25" t="s">
         <v>1</v>
       </c>
       <c r="C37" s="25" t="s">
-        <v>82</v>
-      </c>
-      <c r="D37" s="26" t="s">
-        <v>81</v>
-      </c>
-      <c r="E37" s="19" t="s">
-        <v>33</v>
-      </c>
-      <c r="F37" s="25"/>
+        <v>2</v>
+      </c>
+      <c r="D37" s="25" t="s">
+        <v>3</v>
+      </c>
+      <c r="E37" s="25" t="s">
+        <v>4</v>
+      </c>
+      <c r="F37" s="25" t="s">
+        <v>5</v>
+      </c>
       <c r="G37" s="25" t="s">
-        <v>51</v>
+        <v>6</v>
       </c>
       <c r="H37" s="25" t="s">
-        <v>80</v>
+        <v>7</v>
       </c>
       <c r="I37" s="25" t="s">
-        <v>79</v>
-      </c>
-      <c r="J37" s="26" t="s">
-        <v>78</v>
+        <v>8</v>
+      </c>
+      <c r="J37" s="25" t="s">
+        <v>9</v>
       </c>
       <c r="K37" s="2"/>
       <c r="L37" s="2"/>
@@ -3994,26 +4049,28 @@
     <row r="38" spans="1:25" ht="15.75" customHeight="1">
       <c r="A38" s="3"/>
       <c r="B38" s="25">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C38" s="25" t="s">
+        <v>79</v>
+      </c>
+      <c r="D38" s="26" t="s">
+        <v>78</v>
+      </c>
+      <c r="E38" s="19" t="s">
+        <v>31</v>
+      </c>
+      <c r="F38" s="25"/>
+      <c r="G38" s="25" t="s">
+        <v>48</v>
+      </c>
+      <c r="H38" s="25" t="s">
         <v>77</v>
       </c>
-      <c r="D38" s="26" t="s">
+      <c r="I38" s="25" t="s">
         <v>76</v>
       </c>
-      <c r="E38" s="25" t="s">
-        <v>121</v>
-      </c>
-      <c r="F38" s="24">
-        <v>10</v>
-      </c>
-      <c r="G38" s="25" t="s">
-        <v>51</v>
-      </c>
-      <c r="H38" s="25"/>
-      <c r="I38" s="27"/>
-      <c r="J38" s="25" t="s">
+      <c r="J38" s="26" t="s">
         <v>75</v>
       </c>
       <c r="K38" s="2"/>
@@ -4035,7 +4092,7 @@
     <row r="39" spans="1:25" ht="15.75" customHeight="1">
       <c r="A39" s="3"/>
       <c r="B39" s="25">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C39" s="25" t="s">
         <v>74</v>
@@ -4044,17 +4101,19 @@
         <v>73</v>
       </c>
       <c r="E39" s="25" t="s">
-        <v>121</v>
-      </c>
-      <c r="F39" s="25">
-        <v>20</v>
+        <v>118</v>
+      </c>
+      <c r="F39" s="24">
+        <v>10</v>
       </c>
       <c r="G39" s="25" t="s">
-        <v>47</v>
-      </c>
-      <c r="H39" s="24"/>
-      <c r="I39" s="24"/>
-      <c r="J39" s="26"/>
+        <v>48</v>
+      </c>
+      <c r="H39" s="25"/>
+      <c r="I39" s="27"/>
+      <c r="J39" s="25" t="s">
+        <v>72</v>
+      </c>
       <c r="K39" s="2"/>
       <c r="L39" s="2"/>
       <c r="M39" s="2"/>
@@ -4074,26 +4133,26 @@
     <row r="40" spans="1:25" ht="15.75" customHeight="1">
       <c r="A40" s="3"/>
       <c r="B40" s="25">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C40" s="25" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="D40" s="26" t="s">
-        <v>71</v>
-      </c>
-      <c r="E40" s="19" t="s">
-        <v>33</v>
-      </c>
-      <c r="F40" s="25"/>
+        <v>70</v>
+      </c>
+      <c r="E40" s="25" t="s">
+        <v>118</v>
+      </c>
+      <c r="F40" s="25">
+        <v>20</v>
+      </c>
       <c r="G40" s="25" t="s">
-        <v>51</v>
-      </c>
-      <c r="H40" s="25"/>
+        <v>44</v>
+      </c>
+      <c r="H40" s="24"/>
       <c r="I40" s="24"/>
-      <c r="J40" s="23" t="s">
-        <v>70</v>
-      </c>
+      <c r="J40" s="26"/>
       <c r="K40" s="2"/>
       <c r="L40" s="2"/>
       <c r="M40" s="2"/>
@@ -4113,7 +4172,7 @@
     <row r="41" spans="1:25" ht="15.75" customHeight="1">
       <c r="A41" s="3"/>
       <c r="B41" s="25">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C41" s="25" t="s">
         <v>69</v>
@@ -4121,19 +4180,17 @@
       <c r="D41" s="26" t="s">
         <v>68</v>
       </c>
-      <c r="E41" s="25" t="s">
-        <v>121</v>
-      </c>
-      <c r="F41" s="25">
-        <v>2000</v>
-      </c>
+      <c r="E41" s="19" t="s">
+        <v>31</v>
+      </c>
+      <c r="F41" s="25"/>
       <c r="G41" s="25" t="s">
-        <v>51</v>
-      </c>
-      <c r="H41" s="24"/>
+        <v>48</v>
+      </c>
+      <c r="H41" s="25"/>
       <c r="I41" s="24"/>
-      <c r="J41" s="25" t="s">
-        <v>102</v>
+      <c r="J41" s="23" t="s">
+        <v>67</v>
       </c>
       <c r="K41" s="2"/>
       <c r="L41" s="2"/>
@@ -4154,27 +4211,27 @@
     <row r="42" spans="1:25" ht="15.75" customHeight="1">
       <c r="A42" s="3"/>
       <c r="B42" s="25">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C42" s="25" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="D42" s="26" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="E42" s="25" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="F42" s="25">
-        <v>50</v>
+        <v>2000</v>
       </c>
       <c r="G42" s="25" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="H42" s="24"/>
       <c r="I42" s="24"/>
       <c r="J42" s="25" t="s">
-        <v>141</v>
+        <v>99</v>
       </c>
       <c r="K42" s="2"/>
       <c r="L42" s="2"/>
@@ -4194,15 +4251,29 @@
     </row>
     <row r="43" spans="1:25" ht="15.75" customHeight="1">
       <c r="A43" s="3"/>
-      <c r="B43" s="29"/>
-      <c r="C43" s="29"/>
-      <c r="D43" s="30"/>
-      <c r="E43" s="29"/>
-      <c r="F43" s="29"/>
-      <c r="G43" s="29"/>
-      <c r="H43" s="29"/>
-      <c r="I43" s="17"/>
-      <c r="J43" s="29"/>
+      <c r="B43" s="25">
+        <v>6</v>
+      </c>
+      <c r="C43" s="25" t="s">
+        <v>64</v>
+      </c>
+      <c r="D43" s="26" t="s">
+        <v>63</v>
+      </c>
+      <c r="E43" s="25" t="s">
+        <v>118</v>
+      </c>
+      <c r="F43" s="25">
+        <v>50</v>
+      </c>
+      <c r="G43" s="25" t="s">
+        <v>48</v>
+      </c>
+      <c r="H43" s="24"/>
+      <c r="I43" s="24"/>
+      <c r="J43" s="25" t="s">
+        <v>138</v>
+      </c>
       <c r="K43" s="2"/>
       <c r="L43" s="2"/>
       <c r="M43" s="2"/>
@@ -4227,7 +4298,7 @@
       <c r="E44" s="29"/>
       <c r="F44" s="29"/>
       <c r="G44" s="29"/>
-      <c r="H44" s="17"/>
+      <c r="H44" s="29"/>
       <c r="I44" s="17"/>
       <c r="J44" s="29"/>
       <c r="K44" s="2"/>
@@ -4248,17 +4319,15 @@
     </row>
     <row r="45" spans="1:25" ht="15.75" customHeight="1">
       <c r="A45" s="3"/>
-      <c r="B45" s="45" t="s">
-        <v>100</v>
-      </c>
-      <c r="C45" s="46"/>
-      <c r="D45" s="46"/>
-      <c r="E45" s="46"/>
-      <c r="F45" s="46"/>
-      <c r="G45" s="46"/>
-      <c r="H45" s="46"/>
-      <c r="I45" s="46"/>
-      <c r="J45" s="46"/>
+      <c r="B45" s="29"/>
+      <c r="C45" s="29"/>
+      <c r="D45" s="30"/>
+      <c r="E45" s="29"/>
+      <c r="F45" s="29"/>
+      <c r="G45" s="29"/>
+      <c r="H45" s="17"/>
+      <c r="I45" s="17"/>
+      <c r="J45" s="29"/>
       <c r="K45" s="2"/>
       <c r="L45" s="2"/>
       <c r="M45" s="2"/>
@@ -4277,33 +4346,17 @@
     </row>
     <row r="46" spans="1:25" ht="15.75" customHeight="1">
       <c r="A46" s="3"/>
-      <c r="B46" s="25" t="s">
-        <v>1</v>
-      </c>
-      <c r="C46" s="25" t="s">
-        <v>2</v>
-      </c>
-      <c r="D46" s="25" t="s">
-        <v>3</v>
-      </c>
-      <c r="E46" s="25" t="s">
-        <v>4</v>
-      </c>
-      <c r="F46" s="25" t="s">
-        <v>5</v>
-      </c>
-      <c r="G46" s="25" t="s">
-        <v>6</v>
-      </c>
-      <c r="H46" s="25" t="s">
-        <v>7</v>
-      </c>
-      <c r="I46" s="25" t="s">
-        <v>8</v>
-      </c>
-      <c r="J46" s="25" t="s">
-        <v>9</v>
-      </c>
+      <c r="B46" s="45" t="s">
+        <v>97</v>
+      </c>
+      <c r="C46" s="46"/>
+      <c r="D46" s="46"/>
+      <c r="E46" s="46"/>
+      <c r="F46" s="46"/>
+      <c r="G46" s="46"/>
+      <c r="H46" s="46"/>
+      <c r="I46" s="46"/>
+      <c r="J46" s="46"/>
       <c r="K46" s="2"/>
       <c r="L46" s="2"/>
       <c r="M46" s="2"/>
@@ -4322,30 +4375,32 @@
     </row>
     <row r="47" spans="1:25" ht="15.75" customHeight="1">
       <c r="A47" s="3"/>
-      <c r="B47" s="25">
+      <c r="B47" s="25" t="s">
         <v>1</v>
       </c>
       <c r="C47" s="25" t="s">
-        <v>99</v>
-      </c>
-      <c r="D47" s="26" t="s">
-        <v>98</v>
-      </c>
-      <c r="E47" s="19" t="s">
-        <v>33</v>
-      </c>
-      <c r="F47" s="25"/>
+        <v>2</v>
+      </c>
+      <c r="D47" s="25" t="s">
+        <v>3</v>
+      </c>
+      <c r="E47" s="25" t="s">
+        <v>4</v>
+      </c>
+      <c r="F47" s="25" t="s">
+        <v>5</v>
+      </c>
       <c r="G47" s="25" t="s">
-        <v>51</v>
+        <v>6</v>
       </c>
       <c r="H47" s="25" t="s">
-        <v>54</v>
+        <v>7</v>
       </c>
       <c r="I47" s="25" t="s">
-        <v>97</v>
-      </c>
-      <c r="J47" s="26" t="s">
-        <v>96</v>
+        <v>8</v>
+      </c>
+      <c r="J47" s="25" t="s">
+        <v>9</v>
       </c>
       <c r="K47" s="2"/>
       <c r="L47" s="2"/>
@@ -4366,31 +4421,29 @@
     <row r="48" spans="1:25" ht="15.75" customHeight="1">
       <c r="A48" s="3"/>
       <c r="B48" s="25">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C48" s="25" t="s">
+        <v>96</v>
+      </c>
+      <c r="D48" s="26" t="s">
         <v>95</v>
       </c>
-      <c r="D48" s="26" t="s">
+      <c r="E48" s="19" t="s">
+        <v>31</v>
+      </c>
+      <c r="F48" s="25"/>
+      <c r="G48" s="25" t="s">
+        <v>48</v>
+      </c>
+      <c r="H48" s="25" t="s">
+        <v>51</v>
+      </c>
+      <c r="I48" s="25" t="s">
         <v>94</v>
       </c>
-      <c r="E48" s="25" t="s">
-        <v>121</v>
-      </c>
-      <c r="F48" s="24">
-        <v>50</v>
-      </c>
-      <c r="G48" s="25" t="s">
-        <v>51</v>
-      </c>
-      <c r="H48" s="25" t="s">
-        <v>54</v>
-      </c>
-      <c r="I48" s="27" t="s">
+      <c r="J48" s="26" t="s">
         <v>93</v>
-      </c>
-      <c r="J48" s="25" t="s">
-        <v>101</v>
       </c>
       <c r="K48" s="2"/>
       <c r="L48" s="2"/>
@@ -4411,7 +4464,7 @@
     <row r="49" spans="1:25" ht="15.75" customHeight="1">
       <c r="A49" s="3"/>
       <c r="B49" s="25">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C49" s="25" t="s">
         <v>92</v>
@@ -4420,17 +4473,23 @@
         <v>91</v>
       </c>
       <c r="E49" s="25" t="s">
-        <v>121</v>
-      </c>
-      <c r="F49" s="25">
+        <v>118</v>
+      </c>
+      <c r="F49" s="24">
         <v>50</v>
       </c>
       <c r="G49" s="25" t="s">
+        <v>48</v>
+      </c>
+      <c r="H49" s="25" t="s">
         <v>51</v>
       </c>
-      <c r="H49" s="24"/>
-      <c r="I49" s="24"/>
-      <c r="J49" s="26"/>
+      <c r="I49" s="27" t="s">
+        <v>90</v>
+      </c>
+      <c r="J49" s="25" t="s">
+        <v>98</v>
+      </c>
       <c r="K49" s="2"/>
       <c r="L49" s="2"/>
       <c r="M49" s="2"/>
@@ -4450,28 +4509,26 @@
     <row r="50" spans="1:25" ht="15.75" customHeight="1">
       <c r="A50" s="3"/>
       <c r="B50" s="25">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C50" s="25" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="D50" s="26" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="E50" s="25" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="F50" s="25">
-        <v>10</v>
+        <v>50</v>
       </c>
       <c r="G50" s="25" t="s">
-        <v>47</v>
-      </c>
-      <c r="H50" s="25"/>
+        <v>48</v>
+      </c>
+      <c r="H50" s="24"/>
       <c r="I50" s="24"/>
-      <c r="J50" s="25" t="s">
-        <v>88</v>
-      </c>
+      <c r="J50" s="26"/>
       <c r="K50" s="2"/>
       <c r="L50" s="2"/>
       <c r="M50" s="2"/>
@@ -4491,7 +4548,7 @@
     <row r="51" spans="1:25" ht="15.75" customHeight="1">
       <c r="A51" s="3"/>
       <c r="B51" s="25">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C51" s="25" t="s">
         <v>87</v>
@@ -4500,16 +4557,18 @@
         <v>86</v>
       </c>
       <c r="E51" s="25" t="s">
+        <v>118</v>
+      </c>
+      <c r="F51" s="25">
+        <v>10</v>
+      </c>
+      <c r="G51" s="25" t="s">
+        <v>44</v>
+      </c>
+      <c r="H51" s="25"/>
+      <c r="I51" s="24"/>
+      <c r="J51" s="25" t="s">
         <v>85</v>
-      </c>
-      <c r="F51" s="25"/>
-      <c r="G51" s="25" t="s">
-        <v>51</v>
-      </c>
-      <c r="H51" s="24"/>
-      <c r="I51" s="24"/>
-      <c r="J51" s="23" t="s">
-        <v>50</v>
       </c>
       <c r="K51" s="2"/>
       <c r="L51" s="2"/>
@@ -4530,7 +4589,7 @@
     <row r="52" spans="1:25" ht="15.75" customHeight="1">
       <c r="A52" s="3"/>
       <c r="B52" s="25">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C52" s="25" t="s">
         <v>84</v>
@@ -4539,17 +4598,17 @@
         <v>83</v>
       </c>
       <c r="E52" s="25" t="s">
-        <v>121</v>
-      </c>
-      <c r="F52" s="25">
-        <v>2000</v>
-      </c>
+        <v>82</v>
+      </c>
+      <c r="F52" s="25"/>
       <c r="G52" s="25" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="H52" s="24"/>
       <c r="I52" s="24"/>
-      <c r="J52" s="25"/>
+      <c r="J52" s="23" t="s">
+        <v>47</v>
+      </c>
       <c r="K52" s="2"/>
       <c r="L52" s="2"/>
       <c r="M52" s="2"/>
@@ -4568,15 +4627,27 @@
     </row>
     <row r="53" spans="1:25" ht="15.75" customHeight="1">
       <c r="A53" s="3"/>
-      <c r="B53" s="29"/>
-      <c r="C53" s="29"/>
-      <c r="D53" s="30"/>
-      <c r="E53" s="29"/>
-      <c r="F53" s="29"/>
-      <c r="G53" s="29"/>
-      <c r="H53" s="29"/>
-      <c r="I53" s="17"/>
-      <c r="J53" s="29"/>
+      <c r="B53" s="25">
+        <v>6</v>
+      </c>
+      <c r="C53" s="25" t="s">
+        <v>81</v>
+      </c>
+      <c r="D53" s="26" t="s">
+        <v>80</v>
+      </c>
+      <c r="E53" s="25" t="s">
+        <v>118</v>
+      </c>
+      <c r="F53" s="25">
+        <v>2000</v>
+      </c>
+      <c r="G53" s="25" t="s">
+        <v>44</v>
+      </c>
+      <c r="H53" s="24"/>
+      <c r="I53" s="24"/>
+      <c r="J53" s="25"/>
       <c r="K53" s="2"/>
       <c r="L53" s="2"/>
       <c r="M53" s="2"/>
@@ -4597,13 +4668,13 @@
       <c r="A54" s="3"/>
       <c r="B54" s="29"/>
       <c r="C54" s="29"/>
-      <c r="D54" s="29"/>
+      <c r="D54" s="30"/>
       <c r="E54" s="29"/>
       <c r="F54" s="29"/>
       <c r="G54" s="29"/>
-      <c r="H54" s="17"/>
+      <c r="H54" s="29"/>
       <c r="I54" s="17"/>
-      <c r="J54" s="28"/>
+      <c r="J54" s="29"/>
       <c r="K54" s="2"/>
       <c r="L54" s="2"/>
       <c r="M54" s="2"/>
@@ -4622,17 +4693,15 @@
     </row>
     <row r="55" spans="1:25" ht="15.75" customHeight="1">
       <c r="A55" s="3"/>
-      <c r="B55" s="45" t="s">
-        <v>65</v>
-      </c>
-      <c r="C55" s="46"/>
-      <c r="D55" s="46"/>
-      <c r="E55" s="46"/>
-      <c r="F55" s="46"/>
-      <c r="G55" s="46"/>
-      <c r="H55" s="46"/>
-      <c r="I55" s="46"/>
-      <c r="J55" s="46"/>
+      <c r="B55" s="29"/>
+      <c r="C55" s="29"/>
+      <c r="D55" s="29"/>
+      <c r="E55" s="29"/>
+      <c r="F55" s="29"/>
+      <c r="G55" s="29"/>
+      <c r="H55" s="17"/>
+      <c r="I55" s="17"/>
+      <c r="J55" s="28"/>
       <c r="K55" s="2"/>
       <c r="L55" s="2"/>
       <c r="M55" s="2"/>
@@ -4651,33 +4720,17 @@
     </row>
     <row r="56" spans="1:25" ht="15.75" customHeight="1">
       <c r="A56" s="3"/>
-      <c r="B56" s="25" t="s">
-        <v>1</v>
-      </c>
-      <c r="C56" s="25" t="s">
-        <v>2</v>
-      </c>
-      <c r="D56" s="25" t="s">
-        <v>3</v>
-      </c>
-      <c r="E56" s="25" t="s">
-        <v>4</v>
-      </c>
-      <c r="F56" s="25" t="s">
-        <v>5</v>
-      </c>
-      <c r="G56" s="25" t="s">
-        <v>6</v>
-      </c>
-      <c r="H56" s="25" t="s">
-        <v>7</v>
-      </c>
-      <c r="I56" s="25" t="s">
-        <v>8</v>
-      </c>
-      <c r="J56" s="25" t="s">
-        <v>9</v>
-      </c>
+      <c r="B56" s="45" t="s">
+        <v>62</v>
+      </c>
+      <c r="C56" s="46"/>
+      <c r="D56" s="46"/>
+      <c r="E56" s="46"/>
+      <c r="F56" s="46"/>
+      <c r="G56" s="46"/>
+      <c r="H56" s="46"/>
+      <c r="I56" s="46"/>
+      <c r="J56" s="46"/>
       <c r="K56" s="2"/>
       <c r="L56" s="2"/>
       <c r="M56" s="2"/>
@@ -4696,30 +4749,32 @@
     </row>
     <row r="57" spans="1:25" ht="15.75" customHeight="1">
       <c r="A57" s="3"/>
-      <c r="B57" s="25">
+      <c r="B57" s="25" t="s">
         <v>1</v>
       </c>
       <c r="C57" s="25" t="s">
-        <v>64</v>
-      </c>
-      <c r="D57" s="26" t="s">
-        <v>63</v>
-      </c>
-      <c r="E57" s="19" t="s">
-        <v>33</v>
-      </c>
-      <c r="F57" s="25"/>
+        <v>2</v>
+      </c>
+      <c r="D57" s="25" t="s">
+        <v>3</v>
+      </c>
+      <c r="E57" s="25" t="s">
+        <v>4</v>
+      </c>
+      <c r="F57" s="25" t="s">
+        <v>5</v>
+      </c>
       <c r="G57" s="25" t="s">
-        <v>51</v>
+        <v>6</v>
       </c>
       <c r="H57" s="25" t="s">
-        <v>54</v>
+        <v>7</v>
       </c>
       <c r="I57" s="25" t="s">
-        <v>62</v>
-      </c>
-      <c r="J57" s="26" t="s">
-        <v>61</v>
+        <v>8</v>
+      </c>
+      <c r="J57" s="25" t="s">
+        <v>9</v>
       </c>
       <c r="K57" s="2"/>
       <c r="L57" s="2"/>
@@ -4740,26 +4795,30 @@
     <row r="58" spans="1:25" ht="15.75" customHeight="1">
       <c r="A58" s="3"/>
       <c r="B58" s="25">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C58" s="25" t="s">
+        <v>61</v>
+      </c>
+      <c r="D58" s="26" t="s">
         <v>60</v>
       </c>
-      <c r="D58" s="26" t="s">
+      <c r="E58" s="19" t="s">
+        <v>31</v>
+      </c>
+      <c r="F58" s="25"/>
+      <c r="G58" s="25" t="s">
+        <v>48</v>
+      </c>
+      <c r="H58" s="25" t="s">
+        <v>51</v>
+      </c>
+      <c r="I58" s="25" t="s">
         <v>59</v>
       </c>
-      <c r="E58" s="25" t="s">
-        <v>121</v>
-      </c>
-      <c r="F58" s="24">
-        <v>50</v>
-      </c>
-      <c r="G58" s="25" t="s">
-        <v>51</v>
-      </c>
-      <c r="H58" s="25"/>
-      <c r="I58" s="27"/>
-      <c r="J58" s="25"/>
+      <c r="J58" s="26" t="s">
+        <v>58</v>
+      </c>
       <c r="K58" s="2"/>
       <c r="L58" s="2"/>
       <c r="M58" s="2"/>
@@ -4779,26 +4838,26 @@
     <row r="59" spans="1:25" ht="15.75" customHeight="1">
       <c r="A59" s="3"/>
       <c r="B59" s="25">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C59" s="25" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="D59" s="26" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="E59" s="25" t="s">
-        <v>121</v>
-      </c>
-      <c r="F59" s="25">
-        <v>2000</v>
+        <v>118</v>
+      </c>
+      <c r="F59" s="24">
+        <v>50</v>
       </c>
       <c r="G59" s="25" t="s">
-        <v>47</v>
-      </c>
-      <c r="H59" s="24"/>
-      <c r="I59" s="24"/>
-      <c r="J59" s="26"/>
+        <v>48</v>
+      </c>
+      <c r="H59" s="25"/>
+      <c r="I59" s="27"/>
+      <c r="J59" s="25"/>
       <c r="K59" s="2"/>
       <c r="L59" s="2"/>
       <c r="M59" s="2"/>
@@ -4818,28 +4877,26 @@
     <row r="60" spans="1:25" ht="15.75" customHeight="1">
       <c r="A60" s="3"/>
       <c r="B60" s="25">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C60" s="25" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D60" s="26" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="E60" s="25" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="F60" s="25">
-        <v>50</v>
+        <v>2000</v>
       </c>
       <c r="G60" s="25" t="s">
-        <v>54</v>
-      </c>
-      <c r="H60" s="25"/>
+        <v>44</v>
+      </c>
+      <c r="H60" s="24"/>
       <c r="I60" s="24"/>
-      <c r="J60" s="25" t="s">
-        <v>141</v>
-      </c>
+      <c r="J60" s="26"/>
       <c r="K60" s="2"/>
       <c r="L60" s="2"/>
       <c r="M60" s="2"/>
@@ -4859,7 +4916,7 @@
     <row r="61" spans="1:25" ht="15.75" customHeight="1">
       <c r="A61" s="3"/>
       <c r="B61" s="25">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C61" s="25" t="s">
         <v>53</v>
@@ -4868,16 +4925,18 @@
         <v>52</v>
       </c>
       <c r="E61" s="25" t="s">
-        <v>85</v>
-      </c>
-      <c r="F61" s="25"/>
+        <v>118</v>
+      </c>
+      <c r="F61" s="25">
+        <v>50</v>
+      </c>
       <c r="G61" s="25" t="s">
         <v>51</v>
       </c>
-      <c r="H61" s="24"/>
+      <c r="H61" s="25"/>
       <c r="I61" s="24"/>
       <c r="J61" s="25" t="s">
-        <v>50</v>
+        <v>138</v>
       </c>
       <c r="K61" s="2"/>
       <c r="L61" s="2"/>
@@ -4898,27 +4957,25 @@
     <row r="62" spans="1:25" ht="15.75" customHeight="1">
       <c r="A62" s="3"/>
       <c r="B62" s="25">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C62" s="25" t="s">
+        <v>50</v>
+      </c>
+      <c r="D62" s="26" t="s">
         <v>49</v>
       </c>
-      <c r="D62" s="26" t="s">
+      <c r="E62" s="25" t="s">
+        <v>82</v>
+      </c>
+      <c r="F62" s="25"/>
+      <c r="G62" s="25" t="s">
         <v>48</v>
-      </c>
-      <c r="E62" s="25" t="s">
-        <v>121</v>
-      </c>
-      <c r="F62" s="25">
-        <v>20</v>
-      </c>
-      <c r="G62" s="25" t="s">
-        <v>47</v>
       </c>
       <c r="H62" s="24"/>
       <c r="I62" s="24"/>
-      <c r="J62" s="23" t="s">
-        <v>46</v>
+      <c r="J62" s="25" t="s">
+        <v>47</v>
       </c>
       <c r="K62" s="2"/>
       <c r="L62" s="2"/>
@@ -4938,15 +4995,29 @@
     </row>
     <row r="63" spans="1:25" ht="15.75" customHeight="1">
       <c r="A63" s="3"/>
-      <c r="B63" s="3"/>
-      <c r="C63" s="3"/>
-      <c r="D63" s="3"/>
-      <c r="E63" s="3"/>
-      <c r="F63" s="3"/>
-      <c r="G63" s="3"/>
-      <c r="H63" s="3"/>
-      <c r="I63" s="3"/>
-      <c r="J63" s="4"/>
+      <c r="B63" s="25">
+        <v>6</v>
+      </c>
+      <c r="C63" s="25" t="s">
+        <v>46</v>
+      </c>
+      <c r="D63" s="26" t="s">
+        <v>45</v>
+      </c>
+      <c r="E63" s="25" t="s">
+        <v>118</v>
+      </c>
+      <c r="F63" s="25">
+        <v>20</v>
+      </c>
+      <c r="G63" s="25" t="s">
+        <v>44</v>
+      </c>
+      <c r="H63" s="24"/>
+      <c r="I63" s="24"/>
+      <c r="J63" s="23" t="s">
+        <v>43</v>
+      </c>
       <c r="K63" s="2"/>
       <c r="L63" s="2"/>
       <c r="M63" s="2"/>
@@ -4965,17 +5036,15 @@
     </row>
     <row r="64" spans="1:25" ht="15.75" customHeight="1">
       <c r="A64" s="3"/>
-      <c r="B64" s="36" t="s">
-        <v>142</v>
-      </c>
-      <c r="C64" s="37"/>
-      <c r="D64" s="37"/>
-      <c r="E64" s="37"/>
-      <c r="F64" s="37"/>
-      <c r="G64" s="37"/>
-      <c r="H64" s="37"/>
-      <c r="I64" s="37"/>
-      <c r="J64" s="38"/>
+      <c r="B64" s="3"/>
+      <c r="C64" s="3"/>
+      <c r="D64" s="3"/>
+      <c r="E64" s="3"/>
+      <c r="F64" s="3"/>
+      <c r="G64" s="3"/>
+      <c r="H64" s="3"/>
+      <c r="I64" s="3"/>
+      <c r="J64" s="4"/>
       <c r="K64" s="2"/>
       <c r="L64" s="2"/>
       <c r="M64" s="2"/>
@@ -4992,73 +5061,74 @@
       <c r="X64" s="2"/>
       <c r="Y64" s="2"/>
     </row>
-    <row r="65" spans="1:25" ht="15" customHeight="1">
-      <c r="B65" s="5" t="s">
+    <row r="65" spans="1:25" ht="15.75" customHeight="1">
+      <c r="A65" s="3"/>
+      <c r="B65" s="36" t="s">
+        <v>139</v>
+      </c>
+      <c r="C65" s="37"/>
+      <c r="D65" s="37"/>
+      <c r="E65" s="37"/>
+      <c r="F65" s="37"/>
+      <c r="G65" s="37"/>
+      <c r="H65" s="37"/>
+      <c r="I65" s="37"/>
+      <c r="J65" s="38"/>
+      <c r="K65" s="2"/>
+      <c r="L65" s="2"/>
+      <c r="M65" s="2"/>
+      <c r="N65" s="2"/>
+      <c r="O65" s="2"/>
+      <c r="P65" s="2"/>
+      <c r="Q65" s="2"/>
+      <c r="R65" s="2"/>
+      <c r="S65" s="2"/>
+      <c r="T65" s="2"/>
+      <c r="U65" s="2"/>
+      <c r="V65" s="2"/>
+      <c r="W65" s="2"/>
+      <c r="X65" s="2"/>
+      <c r="Y65" s="2"/>
+    </row>
+    <row r="66" spans="1:25" ht="15" customHeight="1">
+      <c r="B66" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="C65" s="34" t="s">
+      <c r="C66" s="34" t="s">
         <v>2</v>
       </c>
-      <c r="D65" s="34" t="s">
+      <c r="D66" s="34" t="s">
         <v>3</v>
       </c>
-      <c r="E65" s="34" t="s">
+      <c r="E66" s="34" t="s">
         <v>4</v>
       </c>
-      <c r="F65" s="34" t="s">
+      <c r="F66" s="34" t="s">
         <v>5</v>
       </c>
-      <c r="G65" s="34" t="s">
+      <c r="G66" s="34" t="s">
         <v>6</v>
       </c>
-      <c r="H65" s="34" t="s">
-        <v>143</v>
-      </c>
-      <c r="I65" s="34" t="s">
+      <c r="H66" s="34" t="s">
+        <v>140</v>
+      </c>
+      <c r="I66" s="34" t="s">
         <v>8</v>
       </c>
-      <c r="J65" s="34" t="s">
+      <c r="J66" s="34" t="s">
         <v>9</v>
       </c>
-      <c r="K65" s="3"/>
-    </row>
-    <row r="66" spans="1:25" ht="15" customHeight="1">
-      <c r="B66" s="5">
-        <v>1</v>
-      </c>
-      <c r="C66" s="25" t="s">
-        <v>95</v>
-      </c>
-      <c r="D66" s="35" t="s">
-        <v>144</v>
-      </c>
-      <c r="E66" s="34" t="s">
-        <v>10</v>
-      </c>
-      <c r="F66" s="34">
-        <v>70</v>
-      </c>
-      <c r="G66" s="34" t="s">
-        <v>11</v>
-      </c>
-      <c r="H66" s="34" t="s">
-        <v>12</v>
-      </c>
-      <c r="I66" s="34" t="s">
-        <v>13</v>
-      </c>
-      <c r="J66" s="34"/>
       <c r="K66" s="3"/>
     </row>
     <row r="67" spans="1:25" ht="15" customHeight="1">
       <c r="B67" s="5">
-        <v>2</v>
-      </c>
-      <c r="C67" s="34" t="s">
-        <v>145</v>
+        <v>1</v>
+      </c>
+      <c r="C67" s="25" t="s">
+        <v>92</v>
       </c>
       <c r="D67" s="35" t="s">
-        <v>146</v>
+        <v>141</v>
       </c>
       <c r="E67" s="34" t="s">
         <v>10</v>
@@ -5069,21 +5139,37 @@
       <c r="G67" s="34" t="s">
         <v>11</v>
       </c>
-      <c r="H67" s="34"/>
-      <c r="I67" s="34"/>
+      <c r="H67" s="34" t="s">
+        <v>12</v>
+      </c>
+      <c r="I67" s="34" t="s">
+        <v>13</v>
+      </c>
       <c r="J67" s="34"/>
       <c r="K67" s="3"/>
     </row>
     <row r="68" spans="1:25" ht="15" customHeight="1">
-      <c r="B68" s="3"/>
-      <c r="C68" s="3"/>
-      <c r="D68" s="3"/>
-      <c r="E68" s="3"/>
-      <c r="F68" s="3"/>
-      <c r="G68" s="3"/>
-      <c r="H68" s="3"/>
-      <c r="I68" s="3"/>
-      <c r="J68" s="3"/>
+      <c r="B68" s="5">
+        <v>2</v>
+      </c>
+      <c r="C68" s="34" t="s">
+        <v>142</v>
+      </c>
+      <c r="D68" s="35" t="s">
+        <v>143</v>
+      </c>
+      <c r="E68" s="34" t="s">
+        <v>10</v>
+      </c>
+      <c r="F68" s="34">
+        <v>70</v>
+      </c>
+      <c r="G68" s="34" t="s">
+        <v>11</v>
+      </c>
+      <c r="H68" s="34"/>
+      <c r="I68" s="34"/>
+      <c r="J68" s="34"/>
       <c r="K68" s="3"/>
     </row>
     <row r="69" spans="1:25" ht="15" customHeight="1">
@@ -5134,8 +5220,7 @@
       <c r="J72" s="3"/>
       <c r="K72" s="3"/>
     </row>
-    <row r="73" spans="1:25" ht="15.75" customHeight="1">
-      <c r="A73" s="3"/>
+    <row r="73" spans="1:25" ht="15" customHeight="1">
       <c r="B73" s="3"/>
       <c r="C73" s="3"/>
       <c r="D73" s="3"/>
@@ -5146,20 +5231,6 @@
       <c r="I73" s="3"/>
       <c r="J73" s="3"/>
       <c r="K73" s="3"/>
-      <c r="L73" s="2"/>
-      <c r="M73" s="2"/>
-      <c r="N73" s="2"/>
-      <c r="O73" s="2"/>
-      <c r="P73" s="2"/>
-      <c r="Q73" s="2"/>
-      <c r="R73" s="2"/>
-      <c r="S73" s="2"/>
-      <c r="T73" s="2"/>
-      <c r="U73" s="2"/>
-      <c r="V73" s="2"/>
-      <c r="W73" s="2"/>
-      <c r="X73" s="2"/>
-      <c r="Y73" s="2"/>
     </row>
     <row r="74" spans="1:25" ht="15.75" customHeight="1">
       <c r="A74" s="3"/>
@@ -5279,8 +5350,8 @@
       <c r="G78" s="3"/>
       <c r="H78" s="3"/>
       <c r="I78" s="3"/>
-      <c r="J78" s="4"/>
-      <c r="K78" s="2"/>
+      <c r="J78" s="3"/>
+      <c r="K78" s="3"/>
       <c r="L78" s="2"/>
       <c r="M78" s="2"/>
       <c r="N78" s="2"/>
@@ -7404,15 +7475,15 @@
     </row>
     <row r="157" spans="1:25" ht="15.75" customHeight="1">
       <c r="A157" s="3"/>
-      <c r="B157" s="2"/>
-      <c r="C157" s="2"/>
-      <c r="D157" s="2"/>
-      <c r="E157" s="2"/>
-      <c r="F157" s="2"/>
-      <c r="G157" s="2"/>
-      <c r="H157" s="2"/>
-      <c r="I157" s="2"/>
-      <c r="J157" s="2"/>
+      <c r="B157" s="3"/>
+      <c r="C157" s="3"/>
+      <c r="D157" s="3"/>
+      <c r="E157" s="3"/>
+      <c r="F157" s="3"/>
+      <c r="G157" s="3"/>
+      <c r="H157" s="3"/>
+      <c r="I157" s="3"/>
+      <c r="J157" s="4"/>
       <c r="K157" s="2"/>
       <c r="L157" s="2"/>
       <c r="M157" s="2"/>
@@ -7430,7 +7501,7 @@
       <c r="Y157" s="2"/>
     </row>
     <row r="158" spans="1:25" ht="15.75" customHeight="1">
-      <c r="A158" s="2"/>
+      <c r="A158" s="3"/>
       <c r="B158" s="2"/>
       <c r="C158" s="2"/>
       <c r="D158" s="2"/>
@@ -27249,6 +27320,15 @@
     </row>
     <row r="892" spans="1:25" ht="15.75" customHeight="1">
       <c r="A892" s="2"/>
+      <c r="B892" s="2"/>
+      <c r="C892" s="2"/>
+      <c r="D892" s="2"/>
+      <c r="E892" s="2"/>
+      <c r="F892" s="2"/>
+      <c r="G892" s="2"/>
+      <c r="H892" s="2"/>
+      <c r="I892" s="2"/>
+      <c r="J892" s="2"/>
       <c r="K892" s="2"/>
       <c r="L892" s="2"/>
       <c r="M892" s="2"/>
@@ -27265,14 +27345,32 @@
       <c r="X892" s="2"/>
       <c r="Y892" s="2"/>
     </row>
+    <row r="893" spans="1:25" ht="15.75" customHeight="1">
+      <c r="A893" s="2"/>
+      <c r="K893" s="2"/>
+      <c r="L893" s="2"/>
+      <c r="M893" s="2"/>
+      <c r="N893" s="2"/>
+      <c r="O893" s="2"/>
+      <c r="P893" s="2"/>
+      <c r="Q893" s="2"/>
+      <c r="R893" s="2"/>
+      <c r="S893" s="2"/>
+      <c r="T893" s="2"/>
+      <c r="U893" s="2"/>
+      <c r="V893" s="2"/>
+      <c r="W893" s="2"/>
+      <c r="X893" s="2"/>
+      <c r="Y893" s="2"/>
+    </row>
   </sheetData>
   <mergeCells count="7">
-    <mergeCell ref="B64:J64"/>
+    <mergeCell ref="B65:J65"/>
     <mergeCell ref="B2:J3"/>
     <mergeCell ref="B20:J20"/>
-    <mergeCell ref="B45:J45"/>
-    <mergeCell ref="B35:J35"/>
-    <mergeCell ref="B55:J55"/>
+    <mergeCell ref="B46:J46"/>
+    <mergeCell ref="B36:J36"/>
+    <mergeCell ref="B56:J56"/>
     <mergeCell ref="B6:J6"/>
   </mergeCells>
   <phoneticPr fontId="7" type="noConversion"/>

--- a/프로젝트 산출물/5. 테이블명세서/캠플렉스 테이블 명세서.xlsx
+++ b/프로젝트 산출물/5. 테이블명세서/캠플렉스 테이블 명세서.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="279" uniqueCount="150">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="274" uniqueCount="147">
   <si>
     <t>테이블 명세서</t>
   </si>
@@ -158,21 +158,6 @@
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
-    <r>
-      <t>r</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>_count</t>
-    </r>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
     <t>예약번호</t>
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
@@ -194,10 +179,6 @@
   </si>
   <si>
     <t>예약상태</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>수량</t>
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
@@ -392,76 +373,6 @@
         <charset val="129"/>
       </rPr>
       <t>금액</t>
-    </r>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="돋움"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>렌탈</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="돋움"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>상품에</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="돋움"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>관한</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="돋움"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>수량</t>
     </r>
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
@@ -2666,10 +2577,10 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:Y893"/>
+  <dimension ref="A1:Y892"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="G19" sqref="G19"/>
+    <sheetView tabSelected="1" topLeftCell="A10" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="C28" sqref="C28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1"/>
@@ -2825,7 +2736,7 @@
     <row r="6" spans="1:25" ht="15.75" customHeight="1">
       <c r="A6" s="17"/>
       <c r="B6" s="45" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="C6" s="46"/>
       <c r="D6" s="46"/>
@@ -2902,28 +2813,28 @@
         <v>1</v>
       </c>
       <c r="C8" s="25" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="D8" s="26" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="E8" s="25" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="F8" s="25">
         <v>50</v>
       </c>
       <c r="G8" s="25" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="H8" s="25" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="I8" s="25" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="J8" s="26" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="K8" s="2"/>
       <c r="L8" s="2"/>
@@ -2947,24 +2858,24 @@
         <v>2</v>
       </c>
       <c r="C9" s="25" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="D9" s="26" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="E9" s="25" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="F9" s="24">
         <v>20</v>
       </c>
       <c r="G9" s="25" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="H9" s="25"/>
       <c r="I9" s="27"/>
       <c r="J9" s="25" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="K9" s="2"/>
       <c r="L9" s="2"/>
@@ -2988,24 +2899,24 @@
         <v>3</v>
       </c>
       <c r="C10" s="25" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="D10" s="26" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="E10" s="25" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="F10" s="25">
         <v>10</v>
       </c>
       <c r="G10" s="25" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="H10" s="24"/>
       <c r="I10" s="24"/>
       <c r="J10" s="26" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="K10" s="2"/>
       <c r="L10" s="2"/>
@@ -3029,24 +2940,24 @@
         <v>4</v>
       </c>
       <c r="C11" s="25" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="D11" s="26" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="E11" s="25" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="F11" s="25">
         <v>11</v>
       </c>
       <c r="G11" s="25" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="H11" s="25"/>
       <c r="I11" s="24"/>
       <c r="J11" s="25" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="K11" s="2"/>
       <c r="L11" s="2"/>
@@ -3070,22 +2981,22 @@
         <v>5</v>
       </c>
       <c r="C12" s="25" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="D12" s="26" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="E12" s="25" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="F12" s="25"/>
       <c r="G12" s="25" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="H12" s="25"/>
       <c r="I12" s="24"/>
       <c r="J12" s="25" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="K12" s="2"/>
       <c r="L12" s="2"/>
@@ -3109,19 +3020,19 @@
         <v>6</v>
       </c>
       <c r="C13" s="25" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="D13" s="26" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="E13" s="25" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="F13" s="25">
         <v>50</v>
       </c>
       <c r="G13" s="25" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="H13" s="25"/>
       <c r="I13" s="24"/>
@@ -3148,24 +3059,24 @@
         <v>7</v>
       </c>
       <c r="C14" s="25" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="D14" s="26" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="E14" s="19" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="F14" s="25">
         <v>1</v>
       </c>
       <c r="G14" s="25" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="H14" s="25"/>
       <c r="I14" s="24"/>
       <c r="J14" s="25" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="K14" s="2"/>
       <c r="L14" s="2"/>
@@ -3189,24 +3100,24 @@
         <v>8</v>
       </c>
       <c r="C15" s="25" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="D15" s="26" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="E15" s="19" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="F15" s="25">
         <v>1</v>
       </c>
       <c r="G15" s="25" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="H15" s="25"/>
       <c r="I15" s="24"/>
       <c r="J15" s="25" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
       <c r="K15" s="2"/>
       <c r="L15" s="2"/>
@@ -3230,24 +3141,24 @@
         <v>9</v>
       </c>
       <c r="C16" s="25" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="D16" s="26" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="E16" s="19" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="F16" s="25">
         <v>1</v>
       </c>
       <c r="G16" s="25" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="H16" s="25"/>
       <c r="I16" s="24"/>
       <c r="J16" s="25" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
       <c r="K16" s="2"/>
       <c r="L16" s="2"/>
@@ -3271,24 +3182,24 @@
         <v>10</v>
       </c>
       <c r="C17" s="25" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="D17" s="26" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="E17" s="19" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="F17" s="25">
         <v>1</v>
       </c>
       <c r="G17" s="25" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="H17" s="25"/>
       <c r="I17" s="24"/>
       <c r="J17" s="25" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
       <c r="K17" s="2"/>
       <c r="L17" s="2"/>
@@ -3363,7 +3274,7 @@
     <row r="20" spans="1:25" ht="15.75" customHeight="1">
       <c r="A20" s="4"/>
       <c r="B20" s="36" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="C20" s="37"/>
       <c r="D20" s="37"/>
@@ -3443,10 +3354,10 @@
         <v>14</v>
       </c>
       <c r="D22" s="7" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E22" s="19" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="F22" s="8"/>
       <c r="G22" s="6" t="s">
@@ -3459,7 +3370,7 @@
         <v>13</v>
       </c>
       <c r="J22" s="22" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="K22" s="2"/>
       <c r="L22" s="2"/>
@@ -3486,7 +3397,7 @@
         <v>15</v>
       </c>
       <c r="D23" s="7" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E23" s="6" t="s">
         <v>10</v>
@@ -3501,7 +3412,7 @@
         <v>12</v>
       </c>
       <c r="I23" s="21" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="J23" s="6"/>
       <c r="K23" s="2"/>
@@ -3529,10 +3440,10 @@
         <v>16</v>
       </c>
       <c r="D24" s="7" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E24" s="19" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="F24" s="6"/>
       <c r="G24" s="6" t="s">
@@ -3542,7 +3453,7 @@
         <v>12</v>
       </c>
       <c r="I24" s="21" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="J24" s="7"/>
       <c r="K24" s="2"/>
@@ -3570,10 +3481,10 @@
         <v>17</v>
       </c>
       <c r="D25" s="7" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E25" s="19" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="F25" s="8"/>
       <c r="G25" s="6" t="s">
@@ -3582,7 +3493,7 @@
       <c r="H25" s="6"/>
       <c r="I25" s="9"/>
       <c r="J25" s="19" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="K25" s="2"/>
       <c r="L25" s="2"/>
@@ -3606,13 +3517,13 @@
         <v>5</v>
       </c>
       <c r="C26" s="16" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
       <c r="D26" s="7" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="E26" s="19" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="F26" s="6"/>
       <c r="G26" s="6" t="s">
@@ -3621,7 +3532,7 @@
       <c r="H26" s="9"/>
       <c r="I26" s="9"/>
       <c r="J26" s="16" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="K26" s="2"/>
       <c r="L26" s="2"/>
@@ -3645,13 +3556,13 @@
         <v>5</v>
       </c>
       <c r="C27" s="16" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="D27" s="7" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="E27" s="19" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="F27" s="16"/>
       <c r="G27" s="16" t="s">
@@ -3660,7 +3571,7 @@
       <c r="H27" s="9"/>
       <c r="I27" s="9"/>
       <c r="J27" s="16" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="K27" s="2"/>
       <c r="L27" s="2"/>
@@ -3687,10 +3598,10 @@
         <v>18</v>
       </c>
       <c r="D28" s="7" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E28" s="19" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="F28" s="8"/>
       <c r="G28" s="6" t="s">
@@ -3699,7 +3610,7 @@
       <c r="H28" s="9"/>
       <c r="I28" s="9"/>
       <c r="J28" s="19" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="K28" s="2"/>
       <c r="L28" s="2"/>
@@ -3726,7 +3637,7 @@
         <v>19</v>
       </c>
       <c r="D29" s="7" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E29" s="6" t="s">
         <v>10</v>
@@ -3740,7 +3651,7 @@
       <c r="H29" s="6"/>
       <c r="I29" s="9"/>
       <c r="J29" s="19" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="K29" s="2"/>
       <c r="L29" s="2"/>
@@ -3759,28 +3670,28 @@
       <c r="Y29" s="2"/>
     </row>
     <row r="30" spans="1:25" ht="15.75" customHeight="1">
-      <c r="A30" s="4"/>
+      <c r="A30" s="3"/>
       <c r="B30" s="5">
         <v>8</v>
       </c>
       <c r="C30" s="19" t="s">
-        <v>20</v>
-      </c>
-      <c r="D30" s="7" t="s">
-        <v>27</v>
+        <v>117</v>
+      </c>
+      <c r="D30" s="20" t="s">
+        <v>26</v>
       </c>
       <c r="E30" s="19" t="s">
-        <v>31</v>
-      </c>
-      <c r="F30" s="8">
-        <v>2</v>
-      </c>
+        <v>29</v>
+      </c>
+      <c r="F30" s="8"/>
       <c r="G30" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="H30" s="9"/>
+      <c r="H30" s="21" t="s">
+        <v>32</v>
+      </c>
       <c r="I30" s="9"/>
-      <c r="J30" s="19" t="s">
+      <c r="J30" s="22" t="s">
         <v>38</v>
       </c>
       <c r="K30" s="2"/>
@@ -3805,10 +3716,10 @@
         <v>9</v>
       </c>
       <c r="C31" s="19" t="s">
-        <v>120</v>
-      </c>
-      <c r="D31" s="20" t="s">
-        <v>28</v>
+        <v>118</v>
+      </c>
+      <c r="D31" s="19" t="s">
+        <v>27</v>
       </c>
       <c r="E31" s="19" t="s">
         <v>31</v>
@@ -3817,12 +3728,10 @@
       <c r="G31" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="H31" s="21" t="s">
-        <v>34</v>
-      </c>
+      <c r="H31" s="9"/>
       <c r="I31" s="9"/>
-      <c r="J31" s="22" t="s">
-        <v>41</v>
+      <c r="J31" s="19" t="s">
+        <v>120</v>
       </c>
       <c r="K31" s="2"/>
       <c r="L31" s="2"/>
@@ -3846,23 +3755,23 @@
         <v>10</v>
       </c>
       <c r="C32" s="19" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="D32" s="19" t="s">
-        <v>29</v>
-      </c>
-      <c r="E32" s="19" t="s">
-        <v>33</v>
-      </c>
-      <c r="F32" s="8"/>
+        <v>28</v>
+      </c>
+      <c r="E32" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="F32" s="8">
+        <v>2000</v>
+      </c>
       <c r="G32" s="6" t="s">
         <v>11</v>
       </c>
       <c r="H32" s="9"/>
       <c r="I32" s="9"/>
-      <c r="J32" s="19" t="s">
-        <v>123</v>
-      </c>
+      <c r="J32" s="10"/>
       <c r="K32" s="2"/>
       <c r="L32" s="2"/>
       <c r="M32" s="2"/>
@@ -3880,28 +3789,16 @@
       <c r="Y32" s="2"/>
     </row>
     <row r="33" spans="1:25" ht="15.75" customHeight="1">
-      <c r="A33" s="3"/>
-      <c r="B33" s="5">
-        <v>11</v>
-      </c>
-      <c r="C33" s="19" t="s">
-        <v>122</v>
-      </c>
-      <c r="D33" s="19" t="s">
-        <v>30</v>
-      </c>
-      <c r="E33" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="F33" s="8">
-        <v>2000</v>
-      </c>
-      <c r="G33" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="H33" s="9"/>
-      <c r="I33" s="9"/>
-      <c r="J33" s="10"/>
+      <c r="A33" s="17"/>
+      <c r="B33" s="18"/>
+      <c r="C33" s="29"/>
+      <c r="D33" s="29"/>
+      <c r="E33" s="18"/>
+      <c r="F33" s="18"/>
+      <c r="G33" s="18"/>
+      <c r="H33" s="17"/>
+      <c r="I33" s="17"/>
+      <c r="J33" s="31"/>
       <c r="K33" s="2"/>
       <c r="L33" s="2"/>
       <c r="M33" s="2"/>
@@ -3919,16 +3816,16 @@
       <c r="Y33" s="2"/>
     </row>
     <row r="34" spans="1:25" ht="15.75" customHeight="1">
-      <c r="A34" s="17"/>
-      <c r="B34" s="18"/>
-      <c r="C34" s="29"/>
-      <c r="D34" s="29"/>
-      <c r="E34" s="18"/>
-      <c r="F34" s="18"/>
-      <c r="G34" s="18"/>
-      <c r="H34" s="17"/>
-      <c r="I34" s="17"/>
-      <c r="J34" s="31"/>
+      <c r="A34" s="3"/>
+      <c r="B34" s="11"/>
+      <c r="C34" s="12"/>
+      <c r="D34" s="12"/>
+      <c r="E34" s="12"/>
+      <c r="F34" s="12"/>
+      <c r="G34" s="13"/>
+      <c r="H34" s="14"/>
+      <c r="I34" s="14"/>
+      <c r="J34" s="15"/>
       <c r="K34" s="2"/>
       <c r="L34" s="2"/>
       <c r="M34" s="2"/>
@@ -3947,15 +3844,17 @@
     </row>
     <row r="35" spans="1:25" ht="15.75" customHeight="1">
       <c r="A35" s="3"/>
-      <c r="B35" s="11"/>
-      <c r="C35" s="12"/>
-      <c r="D35" s="12"/>
-      <c r="E35" s="12"/>
-      <c r="F35" s="12"/>
-      <c r="G35" s="13"/>
-      <c r="H35" s="14"/>
-      <c r="I35" s="14"/>
-      <c r="J35" s="15"/>
+      <c r="B35" s="45" t="s">
+        <v>121</v>
+      </c>
+      <c r="C35" s="46"/>
+      <c r="D35" s="46"/>
+      <c r="E35" s="46"/>
+      <c r="F35" s="46"/>
+      <c r="G35" s="46"/>
+      <c r="H35" s="46"/>
+      <c r="I35" s="46"/>
+      <c r="J35" s="46"/>
       <c r="K35" s="2"/>
       <c r="L35" s="2"/>
       <c r="M35" s="2"/>
@@ -3974,17 +3873,33 @@
     </row>
     <row r="36" spans="1:25" ht="15.75" customHeight="1">
       <c r="A36" s="3"/>
-      <c r="B36" s="45" t="s">
-        <v>124</v>
-      </c>
-      <c r="C36" s="46"/>
-      <c r="D36" s="46"/>
-      <c r="E36" s="46"/>
-      <c r="F36" s="46"/>
-      <c r="G36" s="46"/>
-      <c r="H36" s="46"/>
-      <c r="I36" s="46"/>
-      <c r="J36" s="46"/>
+      <c r="B36" s="25" t="s">
+        <v>1</v>
+      </c>
+      <c r="C36" s="25" t="s">
+        <v>2</v>
+      </c>
+      <c r="D36" s="25" t="s">
+        <v>3</v>
+      </c>
+      <c r="E36" s="25" t="s">
+        <v>4</v>
+      </c>
+      <c r="F36" s="25" t="s">
+        <v>5</v>
+      </c>
+      <c r="G36" s="25" t="s">
+        <v>6</v>
+      </c>
+      <c r="H36" s="25" t="s">
+        <v>7</v>
+      </c>
+      <c r="I36" s="25" t="s">
+        <v>8</v>
+      </c>
+      <c r="J36" s="25" t="s">
+        <v>9</v>
+      </c>
       <c r="K36" s="2"/>
       <c r="L36" s="2"/>
       <c r="M36" s="2"/>
@@ -4003,32 +3918,30 @@
     </row>
     <row r="37" spans="1:25" ht="15.75" customHeight="1">
       <c r="A37" s="3"/>
-      <c r="B37" s="25" t="s">
+      <c r="B37" s="25">
         <v>1</v>
       </c>
       <c r="C37" s="25" t="s">
-        <v>2</v>
-      </c>
-      <c r="D37" s="25" t="s">
-        <v>3</v>
-      </c>
-      <c r="E37" s="25" t="s">
-        <v>4</v>
-      </c>
-      <c r="F37" s="25" t="s">
-        <v>5</v>
-      </c>
+        <v>76</v>
+      </c>
+      <c r="D37" s="26" t="s">
+        <v>75</v>
+      </c>
+      <c r="E37" s="19" t="s">
+        <v>29</v>
+      </c>
+      <c r="F37" s="25"/>
       <c r="G37" s="25" t="s">
-        <v>6</v>
+        <v>45</v>
       </c>
       <c r="H37" s="25" t="s">
-        <v>7</v>
+        <v>74</v>
       </c>
       <c r="I37" s="25" t="s">
-        <v>8</v>
-      </c>
-      <c r="J37" s="25" t="s">
-        <v>9</v>
+        <v>73</v>
+      </c>
+      <c r="J37" s="26" t="s">
+        <v>72</v>
       </c>
       <c r="K37" s="2"/>
       <c r="L37" s="2"/>
@@ -4049,29 +3962,27 @@
     <row r="38" spans="1:25" ht="15.75" customHeight="1">
       <c r="A38" s="3"/>
       <c r="B38" s="25">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C38" s="25" t="s">
-        <v>79</v>
+        <v>71</v>
       </c>
       <c r="D38" s="26" t="s">
-        <v>78</v>
-      </c>
-      <c r="E38" s="19" t="s">
-        <v>31</v>
-      </c>
-      <c r="F38" s="25"/>
+        <v>70</v>
+      </c>
+      <c r="E38" s="25" t="s">
+        <v>115</v>
+      </c>
+      <c r="F38" s="24">
+        <v>10</v>
+      </c>
       <c r="G38" s="25" t="s">
-        <v>48</v>
-      </c>
-      <c r="H38" s="25" t="s">
-        <v>77</v>
-      </c>
-      <c r="I38" s="25" t="s">
-        <v>76</v>
-      </c>
-      <c r="J38" s="26" t="s">
-        <v>75</v>
+        <v>45</v>
+      </c>
+      <c r="H38" s="25"/>
+      <c r="I38" s="27"/>
+      <c r="J38" s="25" t="s">
+        <v>69</v>
       </c>
       <c r="K38" s="2"/>
       <c r="L38" s="2"/>
@@ -4092,28 +4003,26 @@
     <row r="39" spans="1:25" ht="15.75" customHeight="1">
       <c r="A39" s="3"/>
       <c r="B39" s="25">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C39" s="25" t="s">
-        <v>74</v>
+        <v>68</v>
       </c>
       <c r="D39" s="26" t="s">
-        <v>73</v>
+        <v>67</v>
       </c>
       <c r="E39" s="25" t="s">
-        <v>118</v>
-      </c>
-      <c r="F39" s="24">
-        <v>10</v>
+        <v>115</v>
+      </c>
+      <c r="F39" s="25">
+        <v>20</v>
       </c>
       <c r="G39" s="25" t="s">
-        <v>48</v>
-      </c>
-      <c r="H39" s="25"/>
-      <c r="I39" s="27"/>
-      <c r="J39" s="25" t="s">
-        <v>72</v>
-      </c>
+        <v>41</v>
+      </c>
+      <c r="H39" s="24"/>
+      <c r="I39" s="24"/>
+      <c r="J39" s="26"/>
       <c r="K39" s="2"/>
       <c r="L39" s="2"/>
       <c r="M39" s="2"/>
@@ -4133,26 +4042,26 @@
     <row r="40" spans="1:25" ht="15.75" customHeight="1">
       <c r="A40" s="3"/>
       <c r="B40" s="25">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C40" s="25" t="s">
-        <v>71</v>
+        <v>66</v>
       </c>
       <c r="D40" s="26" t="s">
-        <v>70</v>
-      </c>
-      <c r="E40" s="25" t="s">
-        <v>118</v>
-      </c>
-      <c r="F40" s="25">
-        <v>20</v>
-      </c>
+        <v>65</v>
+      </c>
+      <c r="E40" s="19" t="s">
+        <v>29</v>
+      </c>
+      <c r="F40" s="25"/>
       <c r="G40" s="25" t="s">
-        <v>44</v>
-      </c>
-      <c r="H40" s="24"/>
+        <v>45</v>
+      </c>
+      <c r="H40" s="25"/>
       <c r="I40" s="24"/>
-      <c r="J40" s="26"/>
+      <c r="J40" s="23" t="s">
+        <v>64</v>
+      </c>
       <c r="K40" s="2"/>
       <c r="L40" s="2"/>
       <c r="M40" s="2"/>
@@ -4172,25 +4081,27 @@
     <row r="41" spans="1:25" ht="15.75" customHeight="1">
       <c r="A41" s="3"/>
       <c r="B41" s="25">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C41" s="25" t="s">
-        <v>69</v>
+        <v>63</v>
       </c>
       <c r="D41" s="26" t="s">
-        <v>68</v>
-      </c>
-      <c r="E41" s="19" t="s">
-        <v>31</v>
-      </c>
-      <c r="F41" s="25"/>
+        <v>62</v>
+      </c>
+      <c r="E41" s="25" t="s">
+        <v>115</v>
+      </c>
+      <c r="F41" s="25">
+        <v>2000</v>
+      </c>
       <c r="G41" s="25" t="s">
-        <v>48</v>
-      </c>
-      <c r="H41" s="25"/>
+        <v>45</v>
+      </c>
+      <c r="H41" s="24"/>
       <c r="I41" s="24"/>
-      <c r="J41" s="23" t="s">
-        <v>67</v>
+      <c r="J41" s="25" t="s">
+        <v>96</v>
       </c>
       <c r="K41" s="2"/>
       <c r="L41" s="2"/>
@@ -4211,27 +4122,27 @@
     <row r="42" spans="1:25" ht="15.75" customHeight="1">
       <c r="A42" s="3"/>
       <c r="B42" s="25">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C42" s="25" t="s">
-        <v>66</v>
+        <v>61</v>
       </c>
       <c r="D42" s="26" t="s">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="E42" s="25" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="F42" s="25">
-        <v>2000</v>
+        <v>50</v>
       </c>
       <c r="G42" s="25" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="H42" s="24"/>
       <c r="I42" s="24"/>
       <c r="J42" s="25" t="s">
-        <v>99</v>
+        <v>135</v>
       </c>
       <c r="K42" s="2"/>
       <c r="L42" s="2"/>
@@ -4251,29 +4162,15 @@
     </row>
     <row r="43" spans="1:25" ht="15.75" customHeight="1">
       <c r="A43" s="3"/>
-      <c r="B43" s="25">
-        <v>6</v>
-      </c>
-      <c r="C43" s="25" t="s">
-        <v>64</v>
-      </c>
-      <c r="D43" s="26" t="s">
-        <v>63</v>
-      </c>
-      <c r="E43" s="25" t="s">
-        <v>118</v>
-      </c>
-      <c r="F43" s="25">
-        <v>50</v>
-      </c>
-      <c r="G43" s="25" t="s">
-        <v>48</v>
-      </c>
-      <c r="H43" s="24"/>
-      <c r="I43" s="24"/>
-      <c r="J43" s="25" t="s">
-        <v>138</v>
-      </c>
+      <c r="B43" s="29"/>
+      <c r="C43" s="29"/>
+      <c r="D43" s="30"/>
+      <c r="E43" s="29"/>
+      <c r="F43" s="29"/>
+      <c r="G43" s="29"/>
+      <c r="H43" s="29"/>
+      <c r="I43" s="17"/>
+      <c r="J43" s="29"/>
       <c r="K43" s="2"/>
       <c r="L43" s="2"/>
       <c r="M43" s="2"/>
@@ -4298,7 +4195,7 @@
       <c r="E44" s="29"/>
       <c r="F44" s="29"/>
       <c r="G44" s="29"/>
-      <c r="H44" s="29"/>
+      <c r="H44" s="17"/>
       <c r="I44" s="17"/>
       <c r="J44" s="29"/>
       <c r="K44" s="2"/>
@@ -4319,15 +4216,17 @@
     </row>
     <row r="45" spans="1:25" ht="15.75" customHeight="1">
       <c r="A45" s="3"/>
-      <c r="B45" s="29"/>
-      <c r="C45" s="29"/>
-      <c r="D45" s="30"/>
-      <c r="E45" s="29"/>
-      <c r="F45" s="29"/>
-      <c r="G45" s="29"/>
-      <c r="H45" s="17"/>
-      <c r="I45" s="17"/>
-      <c r="J45" s="29"/>
+      <c r="B45" s="45" t="s">
+        <v>94</v>
+      </c>
+      <c r="C45" s="46"/>
+      <c r="D45" s="46"/>
+      <c r="E45" s="46"/>
+      <c r="F45" s="46"/>
+      <c r="G45" s="46"/>
+      <c r="H45" s="46"/>
+      <c r="I45" s="46"/>
+      <c r="J45" s="46"/>
       <c r="K45" s="2"/>
       <c r="L45" s="2"/>
       <c r="M45" s="2"/>
@@ -4346,17 +4245,33 @@
     </row>
     <row r="46" spans="1:25" ht="15.75" customHeight="1">
       <c r="A46" s="3"/>
-      <c r="B46" s="45" t="s">
-        <v>97</v>
-      </c>
-      <c r="C46" s="46"/>
-      <c r="D46" s="46"/>
-      <c r="E46" s="46"/>
-      <c r="F46" s="46"/>
-      <c r="G46" s="46"/>
-      <c r="H46" s="46"/>
-      <c r="I46" s="46"/>
-      <c r="J46" s="46"/>
+      <c r="B46" s="25" t="s">
+        <v>1</v>
+      </c>
+      <c r="C46" s="25" t="s">
+        <v>2</v>
+      </c>
+      <c r="D46" s="25" t="s">
+        <v>3</v>
+      </c>
+      <c r="E46" s="25" t="s">
+        <v>4</v>
+      </c>
+      <c r="F46" s="25" t="s">
+        <v>5</v>
+      </c>
+      <c r="G46" s="25" t="s">
+        <v>6</v>
+      </c>
+      <c r="H46" s="25" t="s">
+        <v>7</v>
+      </c>
+      <c r="I46" s="25" t="s">
+        <v>8</v>
+      </c>
+      <c r="J46" s="25" t="s">
+        <v>9</v>
+      </c>
       <c r="K46" s="2"/>
       <c r="L46" s="2"/>
       <c r="M46" s="2"/>
@@ -4375,32 +4290,30 @@
     </row>
     <row r="47" spans="1:25" ht="15.75" customHeight="1">
       <c r="A47" s="3"/>
-      <c r="B47" s="25" t="s">
+      <c r="B47" s="25">
         <v>1</v>
       </c>
       <c r="C47" s="25" t="s">
-        <v>2</v>
-      </c>
-      <c r="D47" s="25" t="s">
-        <v>3</v>
-      </c>
-      <c r="E47" s="25" t="s">
-        <v>4</v>
-      </c>
-      <c r="F47" s="25" t="s">
-        <v>5</v>
-      </c>
+        <v>93</v>
+      </c>
+      <c r="D47" s="26" t="s">
+        <v>92</v>
+      </c>
+      <c r="E47" s="19" t="s">
+        <v>29</v>
+      </c>
+      <c r="F47" s="25"/>
       <c r="G47" s="25" t="s">
-        <v>6</v>
+        <v>45</v>
       </c>
       <c r="H47" s="25" t="s">
-        <v>7</v>
+        <v>48</v>
       </c>
       <c r="I47" s="25" t="s">
-        <v>8</v>
-      </c>
-      <c r="J47" s="25" t="s">
-        <v>9</v>
+        <v>91</v>
+      </c>
+      <c r="J47" s="26" t="s">
+        <v>90</v>
       </c>
       <c r="K47" s="2"/>
       <c r="L47" s="2"/>
@@ -4421,29 +4334,31 @@
     <row r="48" spans="1:25" ht="15.75" customHeight="1">
       <c r="A48" s="3"/>
       <c r="B48" s="25">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C48" s="25" t="s">
-        <v>96</v>
+        <v>89</v>
       </c>
       <c r="D48" s="26" t="s">
+        <v>88</v>
+      </c>
+      <c r="E48" s="25" t="s">
+        <v>115</v>
+      </c>
+      <c r="F48" s="24">
+        <v>50</v>
+      </c>
+      <c r="G48" s="25" t="s">
+        <v>45</v>
+      </c>
+      <c r="H48" s="25" t="s">
+        <v>48</v>
+      </c>
+      <c r="I48" s="27" t="s">
+        <v>87</v>
+      </c>
+      <c r="J48" s="25" t="s">
         <v>95</v>
-      </c>
-      <c r="E48" s="19" t="s">
-        <v>31</v>
-      </c>
-      <c r="F48" s="25"/>
-      <c r="G48" s="25" t="s">
-        <v>48</v>
-      </c>
-      <c r="H48" s="25" t="s">
-        <v>51</v>
-      </c>
-      <c r="I48" s="25" t="s">
-        <v>94</v>
-      </c>
-      <c r="J48" s="26" t="s">
-        <v>93</v>
       </c>
       <c r="K48" s="2"/>
       <c r="L48" s="2"/>
@@ -4464,32 +4379,26 @@
     <row r="49" spans="1:25" ht="15.75" customHeight="1">
       <c r="A49" s="3"/>
       <c r="B49" s="25">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C49" s="25" t="s">
-        <v>92</v>
+        <v>86</v>
       </c>
       <c r="D49" s="26" t="s">
-        <v>91</v>
+        <v>85</v>
       </c>
       <c r="E49" s="25" t="s">
-        <v>118</v>
-      </c>
-      <c r="F49" s="24">
+        <v>115</v>
+      </c>
+      <c r="F49" s="25">
         <v>50</v>
       </c>
       <c r="G49" s="25" t="s">
-        <v>48</v>
-      </c>
-      <c r="H49" s="25" t="s">
-        <v>51</v>
-      </c>
-      <c r="I49" s="27" t="s">
-        <v>90</v>
-      </c>
-      <c r="J49" s="25" t="s">
-        <v>98</v>
-      </c>
+        <v>45</v>
+      </c>
+      <c r="H49" s="24"/>
+      <c r="I49" s="24"/>
+      <c r="J49" s="26"/>
       <c r="K49" s="2"/>
       <c r="L49" s="2"/>
       <c r="M49" s="2"/>
@@ -4509,26 +4418,28 @@
     <row r="50" spans="1:25" ht="15.75" customHeight="1">
       <c r="A50" s="3"/>
       <c r="B50" s="25">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C50" s="25" t="s">
-        <v>89</v>
+        <v>84</v>
       </c>
       <c r="D50" s="26" t="s">
-        <v>88</v>
+        <v>83</v>
       </c>
       <c r="E50" s="25" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="F50" s="25">
-        <v>50</v>
+        <v>10</v>
       </c>
       <c r="G50" s="25" t="s">
-        <v>48</v>
-      </c>
-      <c r="H50" s="24"/>
+        <v>41</v>
+      </c>
+      <c r="H50" s="25"/>
       <c r="I50" s="24"/>
-      <c r="J50" s="26"/>
+      <c r="J50" s="25" t="s">
+        <v>82</v>
+      </c>
       <c r="K50" s="2"/>
       <c r="L50" s="2"/>
       <c r="M50" s="2"/>
@@ -4548,27 +4459,25 @@
     <row r="51" spans="1:25" ht="15.75" customHeight="1">
       <c r="A51" s="3"/>
       <c r="B51" s="25">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C51" s="25" t="s">
-        <v>87</v>
+        <v>81</v>
       </c>
       <c r="D51" s="26" t="s">
-        <v>86</v>
+        <v>80</v>
       </c>
       <c r="E51" s="25" t="s">
-        <v>118</v>
-      </c>
-      <c r="F51" s="25">
-        <v>10</v>
-      </c>
+        <v>79</v>
+      </c>
+      <c r="F51" s="25"/>
       <c r="G51" s="25" t="s">
+        <v>45</v>
+      </c>
+      <c r="H51" s="24"/>
+      <c r="I51" s="24"/>
+      <c r="J51" s="23" t="s">
         <v>44</v>
-      </c>
-      <c r="H51" s="25"/>
-      <c r="I51" s="24"/>
-      <c r="J51" s="25" t="s">
-        <v>85</v>
       </c>
       <c r="K51" s="2"/>
       <c r="L51" s="2"/>
@@ -4589,26 +4498,26 @@
     <row r="52" spans="1:25" ht="15.75" customHeight="1">
       <c r="A52" s="3"/>
       <c r="B52" s="25">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C52" s="25" t="s">
-        <v>84</v>
+        <v>78</v>
       </c>
       <c r="D52" s="26" t="s">
-        <v>83</v>
+        <v>77</v>
       </c>
       <c r="E52" s="25" t="s">
-        <v>82</v>
-      </c>
-      <c r="F52" s="25"/>
+        <v>115</v>
+      </c>
+      <c r="F52" s="25">
+        <v>2000</v>
+      </c>
       <c r="G52" s="25" t="s">
-        <v>48</v>
+        <v>41</v>
       </c>
       <c r="H52" s="24"/>
       <c r="I52" s="24"/>
-      <c r="J52" s="23" t="s">
-        <v>47</v>
-      </c>
+      <c r="J52" s="25"/>
       <c r="K52" s="2"/>
       <c r="L52" s="2"/>
       <c r="M52" s="2"/>
@@ -4627,27 +4536,15 @@
     </row>
     <row r="53" spans="1:25" ht="15.75" customHeight="1">
       <c r="A53" s="3"/>
-      <c r="B53" s="25">
-        <v>6</v>
-      </c>
-      <c r="C53" s="25" t="s">
-        <v>81</v>
-      </c>
-      <c r="D53" s="26" t="s">
-        <v>80</v>
-      </c>
-      <c r="E53" s="25" t="s">
-        <v>118</v>
-      </c>
-      <c r="F53" s="25">
-        <v>2000</v>
-      </c>
-      <c r="G53" s="25" t="s">
-        <v>44</v>
-      </c>
-      <c r="H53" s="24"/>
-      <c r="I53" s="24"/>
-      <c r="J53" s="25"/>
+      <c r="B53" s="29"/>
+      <c r="C53" s="29"/>
+      <c r="D53" s="30"/>
+      <c r="E53" s="29"/>
+      <c r="F53" s="29"/>
+      <c r="G53" s="29"/>
+      <c r="H53" s="29"/>
+      <c r="I53" s="17"/>
+      <c r="J53" s="29"/>
       <c r="K53" s="2"/>
       <c r="L53" s="2"/>
       <c r="M53" s="2"/>
@@ -4668,13 +4565,13 @@
       <c r="A54" s="3"/>
       <c r="B54" s="29"/>
       <c r="C54" s="29"/>
-      <c r="D54" s="30"/>
+      <c r="D54" s="29"/>
       <c r="E54" s="29"/>
       <c r="F54" s="29"/>
       <c r="G54" s="29"/>
-      <c r="H54" s="29"/>
+      <c r="H54" s="17"/>
       <c r="I54" s="17"/>
-      <c r="J54" s="29"/>
+      <c r="J54" s="28"/>
       <c r="K54" s="2"/>
       <c r="L54" s="2"/>
       <c r="M54" s="2"/>
@@ -4693,15 +4590,17 @@
     </row>
     <row r="55" spans="1:25" ht="15.75" customHeight="1">
       <c r="A55" s="3"/>
-      <c r="B55" s="29"/>
-      <c r="C55" s="29"/>
-      <c r="D55" s="29"/>
-      <c r="E55" s="29"/>
-      <c r="F55" s="29"/>
-      <c r="G55" s="29"/>
-      <c r="H55" s="17"/>
-      <c r="I55" s="17"/>
-      <c r="J55" s="28"/>
+      <c r="B55" s="45" t="s">
+        <v>59</v>
+      </c>
+      <c r="C55" s="46"/>
+      <c r="D55" s="46"/>
+      <c r="E55" s="46"/>
+      <c r="F55" s="46"/>
+      <c r="G55" s="46"/>
+      <c r="H55" s="46"/>
+      <c r="I55" s="46"/>
+      <c r="J55" s="46"/>
       <c r="K55" s="2"/>
       <c r="L55" s="2"/>
       <c r="M55" s="2"/>
@@ -4720,17 +4619,33 @@
     </row>
     <row r="56" spans="1:25" ht="15.75" customHeight="1">
       <c r="A56" s="3"/>
-      <c r="B56" s="45" t="s">
-        <v>62</v>
-      </c>
-      <c r="C56" s="46"/>
-      <c r="D56" s="46"/>
-      <c r="E56" s="46"/>
-      <c r="F56" s="46"/>
-      <c r="G56" s="46"/>
-      <c r="H56" s="46"/>
-      <c r="I56" s="46"/>
-      <c r="J56" s="46"/>
+      <c r="B56" s="25" t="s">
+        <v>1</v>
+      </c>
+      <c r="C56" s="25" t="s">
+        <v>2</v>
+      </c>
+      <c r="D56" s="25" t="s">
+        <v>3</v>
+      </c>
+      <c r="E56" s="25" t="s">
+        <v>4</v>
+      </c>
+      <c r="F56" s="25" t="s">
+        <v>5</v>
+      </c>
+      <c r="G56" s="25" t="s">
+        <v>6</v>
+      </c>
+      <c r="H56" s="25" t="s">
+        <v>7</v>
+      </c>
+      <c r="I56" s="25" t="s">
+        <v>8</v>
+      </c>
+      <c r="J56" s="25" t="s">
+        <v>9</v>
+      </c>
       <c r="K56" s="2"/>
       <c r="L56" s="2"/>
       <c r="M56" s="2"/>
@@ -4749,32 +4664,30 @@
     </row>
     <row r="57" spans="1:25" ht="15.75" customHeight="1">
       <c r="A57" s="3"/>
-      <c r="B57" s="25" t="s">
+      <c r="B57" s="25">
         <v>1</v>
       </c>
       <c r="C57" s="25" t="s">
-        <v>2</v>
-      </c>
-      <c r="D57" s="25" t="s">
-        <v>3</v>
-      </c>
-      <c r="E57" s="25" t="s">
-        <v>4</v>
-      </c>
-      <c r="F57" s="25" t="s">
-        <v>5</v>
-      </c>
+        <v>58</v>
+      </c>
+      <c r="D57" s="26" t="s">
+        <v>57</v>
+      </c>
+      <c r="E57" s="19" t="s">
+        <v>29</v>
+      </c>
+      <c r="F57" s="25"/>
       <c r="G57" s="25" t="s">
-        <v>6</v>
+        <v>45</v>
       </c>
       <c r="H57" s="25" t="s">
-        <v>7</v>
+        <v>48</v>
       </c>
       <c r="I57" s="25" t="s">
-        <v>8</v>
-      </c>
-      <c r="J57" s="25" t="s">
-        <v>9</v>
+        <v>56</v>
+      </c>
+      <c r="J57" s="26" t="s">
+        <v>55</v>
       </c>
       <c r="K57" s="2"/>
       <c r="L57" s="2"/>
@@ -4795,30 +4708,26 @@
     <row r="58" spans="1:25" ht="15.75" customHeight="1">
       <c r="A58" s="3"/>
       <c r="B58" s="25">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C58" s="25" t="s">
-        <v>61</v>
+        <v>54</v>
       </c>
       <c r="D58" s="26" t="s">
-        <v>60</v>
-      </c>
-      <c r="E58" s="19" t="s">
-        <v>31</v>
-      </c>
-      <c r="F58" s="25"/>
+        <v>53</v>
+      </c>
+      <c r="E58" s="25" t="s">
+        <v>115</v>
+      </c>
+      <c r="F58" s="24">
+        <v>50</v>
+      </c>
       <c r="G58" s="25" t="s">
-        <v>48</v>
-      </c>
-      <c r="H58" s="25" t="s">
-        <v>51</v>
-      </c>
-      <c r="I58" s="25" t="s">
-        <v>59</v>
-      </c>
-      <c r="J58" s="26" t="s">
-        <v>58</v>
-      </c>
+        <v>45</v>
+      </c>
+      <c r="H58" s="25"/>
+      <c r="I58" s="27"/>
+      <c r="J58" s="25"/>
       <c r="K58" s="2"/>
       <c r="L58" s="2"/>
       <c r="M58" s="2"/>
@@ -4838,26 +4747,26 @@
     <row r="59" spans="1:25" ht="15.75" customHeight="1">
       <c r="A59" s="3"/>
       <c r="B59" s="25">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C59" s="25" t="s">
-        <v>57</v>
+        <v>52</v>
       </c>
       <c r="D59" s="26" t="s">
-        <v>56</v>
+        <v>51</v>
       </c>
       <c r="E59" s="25" t="s">
-        <v>118</v>
-      </c>
-      <c r="F59" s="24">
-        <v>50</v>
+        <v>115</v>
+      </c>
+      <c r="F59" s="25">
+        <v>2000</v>
       </c>
       <c r="G59" s="25" t="s">
-        <v>48</v>
-      </c>
-      <c r="H59" s="25"/>
-      <c r="I59" s="27"/>
-      <c r="J59" s="25"/>
+        <v>41</v>
+      </c>
+      <c r="H59" s="24"/>
+      <c r="I59" s="24"/>
+      <c r="J59" s="26"/>
       <c r="K59" s="2"/>
       <c r="L59" s="2"/>
       <c r="M59" s="2"/>
@@ -4877,26 +4786,28 @@
     <row r="60" spans="1:25" ht="15.75" customHeight="1">
       <c r="A60" s="3"/>
       <c r="B60" s="25">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C60" s="25" t="s">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="D60" s="26" t="s">
-        <v>54</v>
+        <v>49</v>
       </c>
       <c r="E60" s="25" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="F60" s="25">
-        <v>2000</v>
+        <v>50</v>
       </c>
       <c r="G60" s="25" t="s">
-        <v>44</v>
-      </c>
-      <c r="H60" s="24"/>
+        <v>48</v>
+      </c>
+      <c r="H60" s="25"/>
       <c r="I60" s="24"/>
-      <c r="J60" s="26"/>
+      <c r="J60" s="25" t="s">
+        <v>135</v>
+      </c>
       <c r="K60" s="2"/>
       <c r="L60" s="2"/>
       <c r="M60" s="2"/>
@@ -4916,27 +4827,25 @@
     <row r="61" spans="1:25" ht="15.75" customHeight="1">
       <c r="A61" s="3"/>
       <c r="B61" s="25">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C61" s="25" t="s">
-        <v>53</v>
+        <v>47</v>
       </c>
       <c r="D61" s="26" t="s">
-        <v>52</v>
+        <v>46</v>
       </c>
       <c r="E61" s="25" t="s">
-        <v>118</v>
-      </c>
-      <c r="F61" s="25">
-        <v>50</v>
-      </c>
+        <v>79</v>
+      </c>
+      <c r="F61" s="25"/>
       <c r="G61" s="25" t="s">
-        <v>51</v>
-      </c>
-      <c r="H61" s="25"/>
+        <v>45</v>
+      </c>
+      <c r="H61" s="24"/>
       <c r="I61" s="24"/>
       <c r="J61" s="25" t="s">
-        <v>138</v>
+        <v>44</v>
       </c>
       <c r="K61" s="2"/>
       <c r="L61" s="2"/>
@@ -4957,25 +4866,27 @@
     <row r="62" spans="1:25" ht="15.75" customHeight="1">
       <c r="A62" s="3"/>
       <c r="B62" s="25">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C62" s="25" t="s">
-        <v>50</v>
+        <v>43</v>
       </c>
       <c r="D62" s="26" t="s">
-        <v>49</v>
+        <v>42</v>
       </c>
       <c r="E62" s="25" t="s">
-        <v>82</v>
-      </c>
-      <c r="F62" s="25"/>
+        <v>115</v>
+      </c>
+      <c r="F62" s="25">
+        <v>20</v>
+      </c>
       <c r="G62" s="25" t="s">
-        <v>48</v>
+        <v>41</v>
       </c>
       <c r="H62" s="24"/>
       <c r="I62" s="24"/>
-      <c r="J62" s="25" t="s">
-        <v>47</v>
+      <c r="J62" s="23" t="s">
+        <v>40</v>
       </c>
       <c r="K62" s="2"/>
       <c r="L62" s="2"/>
@@ -4995,29 +4906,15 @@
     </row>
     <row r="63" spans="1:25" ht="15.75" customHeight="1">
       <c r="A63" s="3"/>
-      <c r="B63" s="25">
-        <v>6</v>
-      </c>
-      <c r="C63" s="25" t="s">
-        <v>46</v>
-      </c>
-      <c r="D63" s="26" t="s">
-        <v>45</v>
-      </c>
-      <c r="E63" s="25" t="s">
-        <v>118</v>
-      </c>
-      <c r="F63" s="25">
-        <v>20</v>
-      </c>
-      <c r="G63" s="25" t="s">
-        <v>44</v>
-      </c>
-      <c r="H63" s="24"/>
-      <c r="I63" s="24"/>
-      <c r="J63" s="23" t="s">
-        <v>43</v>
-      </c>
+      <c r="B63" s="3"/>
+      <c r="C63" s="3"/>
+      <c r="D63" s="3"/>
+      <c r="E63" s="3"/>
+      <c r="F63" s="3"/>
+      <c r="G63" s="3"/>
+      <c r="H63" s="3"/>
+      <c r="I63" s="3"/>
+      <c r="J63" s="4"/>
       <c r="K63" s="2"/>
       <c r="L63" s="2"/>
       <c r="M63" s="2"/>
@@ -5036,15 +4933,17 @@
     </row>
     <row r="64" spans="1:25" ht="15.75" customHeight="1">
       <c r="A64" s="3"/>
-      <c r="B64" s="3"/>
-      <c r="C64" s="3"/>
-      <c r="D64" s="3"/>
-      <c r="E64" s="3"/>
-      <c r="F64" s="3"/>
-      <c r="G64" s="3"/>
-      <c r="H64" s="3"/>
-      <c r="I64" s="3"/>
-      <c r="J64" s="4"/>
+      <c r="B64" s="36" t="s">
+        <v>136</v>
+      </c>
+      <c r="C64" s="37"/>
+      <c r="D64" s="37"/>
+      <c r="E64" s="37"/>
+      <c r="F64" s="37"/>
+      <c r="G64" s="37"/>
+      <c r="H64" s="37"/>
+      <c r="I64" s="37"/>
+      <c r="J64" s="38"/>
       <c r="K64" s="2"/>
       <c r="L64" s="2"/>
       <c r="M64" s="2"/>
@@ -5061,74 +4960,73 @@
       <c r="X64" s="2"/>
       <c r="Y64" s="2"/>
     </row>
-    <row r="65" spans="1:25" ht="15.75" customHeight="1">
-      <c r="A65" s="3"/>
-      <c r="B65" s="36" t="s">
-        <v>139</v>
-      </c>
-      <c r="C65" s="37"/>
-      <c r="D65" s="37"/>
-      <c r="E65" s="37"/>
-      <c r="F65" s="37"/>
-      <c r="G65" s="37"/>
-      <c r="H65" s="37"/>
-      <c r="I65" s="37"/>
-      <c r="J65" s="38"/>
-      <c r="K65" s="2"/>
-      <c r="L65" s="2"/>
-      <c r="M65" s="2"/>
-      <c r="N65" s="2"/>
-      <c r="O65" s="2"/>
-      <c r="P65" s="2"/>
-      <c r="Q65" s="2"/>
-      <c r="R65" s="2"/>
-      <c r="S65" s="2"/>
-      <c r="T65" s="2"/>
-      <c r="U65" s="2"/>
-      <c r="V65" s="2"/>
-      <c r="W65" s="2"/>
-      <c r="X65" s="2"/>
-      <c r="Y65" s="2"/>
+    <row r="65" spans="1:25" ht="15" customHeight="1">
+      <c r="B65" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="C65" s="34" t="s">
+        <v>2</v>
+      </c>
+      <c r="D65" s="34" t="s">
+        <v>3</v>
+      </c>
+      <c r="E65" s="34" t="s">
+        <v>4</v>
+      </c>
+      <c r="F65" s="34" t="s">
+        <v>5</v>
+      </c>
+      <c r="G65" s="34" t="s">
+        <v>6</v>
+      </c>
+      <c r="H65" s="34" t="s">
+        <v>137</v>
+      </c>
+      <c r="I65" s="34" t="s">
+        <v>8</v>
+      </c>
+      <c r="J65" s="34" t="s">
+        <v>9</v>
+      </c>
+      <c r="K65" s="3"/>
     </row>
     <row r="66" spans="1:25" ht="15" customHeight="1">
-      <c r="B66" s="5" t="s">
+      <c r="B66" s="5">
         <v>1</v>
       </c>
-      <c r="C66" s="34" t="s">
-        <v>2</v>
-      </c>
-      <c r="D66" s="34" t="s">
-        <v>3</v>
+      <c r="C66" s="25" t="s">
+        <v>89</v>
+      </c>
+      <c r="D66" s="35" t="s">
+        <v>138</v>
       </c>
       <c r="E66" s="34" t="s">
-        <v>4</v>
-      </c>
-      <c r="F66" s="34" t="s">
-        <v>5</v>
+        <v>10</v>
+      </c>
+      <c r="F66" s="34">
+        <v>70</v>
       </c>
       <c r="G66" s="34" t="s">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="H66" s="34" t="s">
-        <v>140</v>
+        <v>12</v>
       </c>
       <c r="I66" s="34" t="s">
-        <v>8</v>
-      </c>
-      <c r="J66" s="34" t="s">
-        <v>9</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="J66" s="34"/>
       <c r="K66" s="3"/>
     </row>
     <row r="67" spans="1:25" ht="15" customHeight="1">
       <c r="B67" s="5">
-        <v>1</v>
-      </c>
-      <c r="C67" s="25" t="s">
-        <v>92</v>
+        <v>2</v>
+      </c>
+      <c r="C67" s="34" t="s">
+        <v>139</v>
       </c>
       <c r="D67" s="35" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="E67" s="34" t="s">
         <v>10</v>
@@ -5139,37 +5037,21 @@
       <c r="G67" s="34" t="s">
         <v>11</v>
       </c>
-      <c r="H67" s="34" t="s">
-        <v>12</v>
-      </c>
-      <c r="I67" s="34" t="s">
-        <v>13</v>
-      </c>
+      <c r="H67" s="34"/>
+      <c r="I67" s="34"/>
       <c r="J67" s="34"/>
       <c r="K67" s="3"/>
     </row>
     <row r="68" spans="1:25" ht="15" customHeight="1">
-      <c r="B68" s="5">
-        <v>2</v>
-      </c>
-      <c r="C68" s="34" t="s">
-        <v>142</v>
-      </c>
-      <c r="D68" s="35" t="s">
-        <v>143</v>
-      </c>
-      <c r="E68" s="34" t="s">
-        <v>10</v>
-      </c>
-      <c r="F68" s="34">
-        <v>70</v>
-      </c>
-      <c r="G68" s="34" t="s">
-        <v>11</v>
-      </c>
-      <c r="H68" s="34"/>
-      <c r="I68" s="34"/>
-      <c r="J68" s="34"/>
+      <c r="B68" s="3"/>
+      <c r="C68" s="3"/>
+      <c r="D68" s="3"/>
+      <c r="E68" s="3"/>
+      <c r="F68" s="3"/>
+      <c r="G68" s="3"/>
+      <c r="H68" s="3"/>
+      <c r="I68" s="3"/>
+      <c r="J68" s="3"/>
       <c r="K68" s="3"/>
     </row>
     <row r="69" spans="1:25" ht="15" customHeight="1">
@@ -5220,7 +5102,8 @@
       <c r="J72" s="3"/>
       <c r="K72" s="3"/>
     </row>
-    <row r="73" spans="1:25" ht="15" customHeight="1">
+    <row r="73" spans="1:25" ht="15.75" customHeight="1">
+      <c r="A73" s="3"/>
       <c r="B73" s="3"/>
       <c r="C73" s="3"/>
       <c r="D73" s="3"/>
@@ -5231,6 +5114,20 @@
       <c r="I73" s="3"/>
       <c r="J73" s="3"/>
       <c r="K73" s="3"/>
+      <c r="L73" s="2"/>
+      <c r="M73" s="2"/>
+      <c r="N73" s="2"/>
+      <c r="O73" s="2"/>
+      <c r="P73" s="2"/>
+      <c r="Q73" s="2"/>
+      <c r="R73" s="2"/>
+      <c r="S73" s="2"/>
+      <c r="T73" s="2"/>
+      <c r="U73" s="2"/>
+      <c r="V73" s="2"/>
+      <c r="W73" s="2"/>
+      <c r="X73" s="2"/>
+      <c r="Y73" s="2"/>
     </row>
     <row r="74" spans="1:25" ht="15.75" customHeight="1">
       <c r="A74" s="3"/>
@@ -5350,8 +5247,8 @@
       <c r="G78" s="3"/>
       <c r="H78" s="3"/>
       <c r="I78" s="3"/>
-      <c r="J78" s="3"/>
-      <c r="K78" s="3"/>
+      <c r="J78" s="4"/>
+      <c r="K78" s="2"/>
       <c r="L78" s="2"/>
       <c r="M78" s="2"/>
       <c r="N78" s="2"/>
@@ -7475,15 +7372,15 @@
     </row>
     <row r="157" spans="1:25" ht="15.75" customHeight="1">
       <c r="A157" s="3"/>
-      <c r="B157" s="3"/>
-      <c r="C157" s="3"/>
-      <c r="D157" s="3"/>
-      <c r="E157" s="3"/>
-      <c r="F157" s="3"/>
-      <c r="G157" s="3"/>
-      <c r="H157" s="3"/>
-      <c r="I157" s="3"/>
-      <c r="J157" s="4"/>
+      <c r="B157" s="2"/>
+      <c r="C157" s="2"/>
+      <c r="D157" s="2"/>
+      <c r="E157" s="2"/>
+      <c r="F157" s="2"/>
+      <c r="G157" s="2"/>
+      <c r="H157" s="2"/>
+      <c r="I157" s="2"/>
+      <c r="J157" s="2"/>
       <c r="K157" s="2"/>
       <c r="L157" s="2"/>
       <c r="M157" s="2"/>
@@ -7501,7 +7398,7 @@
       <c r="Y157" s="2"/>
     </row>
     <row r="158" spans="1:25" ht="15.75" customHeight="1">
-      <c r="A158" s="3"/>
+      <c r="A158" s="2"/>
       <c r="B158" s="2"/>
       <c r="C158" s="2"/>
       <c r="D158" s="2"/>
@@ -27320,15 +27217,6 @@
     </row>
     <row r="892" spans="1:25" ht="15.75" customHeight="1">
       <c r="A892" s="2"/>
-      <c r="B892" s="2"/>
-      <c r="C892" s="2"/>
-      <c r="D892" s="2"/>
-      <c r="E892" s="2"/>
-      <c r="F892" s="2"/>
-      <c r="G892" s="2"/>
-      <c r="H892" s="2"/>
-      <c r="I892" s="2"/>
-      <c r="J892" s="2"/>
       <c r="K892" s="2"/>
       <c r="L892" s="2"/>
       <c r="M892" s="2"/>
@@ -27345,32 +27233,14 @@
       <c r="X892" s="2"/>
       <c r="Y892" s="2"/>
     </row>
-    <row r="893" spans="1:25" ht="15.75" customHeight="1">
-      <c r="A893" s="2"/>
-      <c r="K893" s="2"/>
-      <c r="L893" s="2"/>
-      <c r="M893" s="2"/>
-      <c r="N893" s="2"/>
-      <c r="O893" s="2"/>
-      <c r="P893" s="2"/>
-      <c r="Q893" s="2"/>
-      <c r="R893" s="2"/>
-      <c r="S893" s="2"/>
-      <c r="T893" s="2"/>
-      <c r="U893" s="2"/>
-      <c r="V893" s="2"/>
-      <c r="W893" s="2"/>
-      <c r="X893" s="2"/>
-      <c r="Y893" s="2"/>
-    </row>
   </sheetData>
   <mergeCells count="7">
-    <mergeCell ref="B65:J65"/>
+    <mergeCell ref="B64:J64"/>
     <mergeCell ref="B2:J3"/>
     <mergeCell ref="B20:J20"/>
-    <mergeCell ref="B46:J46"/>
-    <mergeCell ref="B36:J36"/>
-    <mergeCell ref="B56:J56"/>
+    <mergeCell ref="B45:J45"/>
+    <mergeCell ref="B35:J35"/>
+    <mergeCell ref="B55:J55"/>
     <mergeCell ref="B6:J6"/>
   </mergeCells>
   <phoneticPr fontId="7" type="noConversion"/>

--- a/프로젝트 산출물/5. 테이블명세서/캠플렉스 테이블 명세서.xlsx
+++ b/프로젝트 산출물/5. 테이블명세서/캠플렉스 테이블 명세서.xlsx
@@ -542,9 +542,6 @@
     <t>n_title</t>
   </si>
   <si>
-    <t>p_name</t>
-  </si>
-  <si>
     <t>NUMBER</t>
   </si>
   <si>
@@ -589,9 +586,6 @@
   </si>
   <si>
     <t>이용안내</t>
-  </si>
-  <si>
-    <t>p_price</t>
   </si>
   <si>
     <r>
@@ -1869,6 +1863,14 @@
     <t>상품 대표사진</t>
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
+  <si>
+    <t>p_name</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>p_price</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
@@ -2432,8 +2434,8 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:Y894"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="L19" sqref="L19"/>
+    <sheetView tabSelected="1" topLeftCell="A16" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="D39" sqref="D39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="12.75"/>
@@ -2589,7 +2591,7 @@
     <row r="6" spans="1:25" ht="15.75" customHeight="1">
       <c r="A6" s="17"/>
       <c r="B6" s="45" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="C6" s="46"/>
       <c r="D6" s="46"/>
@@ -2618,31 +2620,31 @@
     <row r="7" spans="1:25" ht="15.75" customHeight="1">
       <c r="A7" s="17"/>
       <c r="B7" s="25" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="C7" s="25" t="s">
+        <v>85</v>
+      </c>
+      <c r="D7" s="25" t="s">
         <v>87</v>
-      </c>
-      <c r="D7" s="25" t="s">
-        <v>89</v>
       </c>
       <c r="E7" s="25" t="s">
         <v>16</v>
       </c>
       <c r="F7" s="25" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="G7" s="25" t="s">
         <v>13</v>
       </c>
       <c r="H7" s="25" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="I7" s="25" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="J7" s="25" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="K7" s="2"/>
       <c r="L7" s="2"/>
@@ -2669,22 +2671,22 @@
         <v>22</v>
       </c>
       <c r="D8" s="26" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="E8" s="25" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="F8" s="25">
         <v>50</v>
       </c>
       <c r="G8" s="25" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="H8" s="25" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="I8" s="25" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="J8" s="26" t="s">
         <v>10</v>
@@ -2711,19 +2713,19 @@
         <v>2</v>
       </c>
       <c r="C9" s="25" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="D9" s="26" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="E9" s="25" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="F9" s="24">
         <v>20</v>
       </c>
       <c r="G9" s="25" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="H9" s="25"/>
       <c r="I9" s="27"/>
@@ -2752,24 +2754,24 @@
         <v>3</v>
       </c>
       <c r="C10" s="25" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="D10" s="26" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="E10" s="25" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="F10" s="25">
         <v>10</v>
       </c>
       <c r="G10" s="25" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="H10" s="24"/>
       <c r="I10" s="24"/>
       <c r="J10" s="26" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="K10" s="2"/>
       <c r="L10" s="2"/>
@@ -2793,24 +2795,24 @@
         <v>4</v>
       </c>
       <c r="C11" s="25" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="D11" s="26" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="E11" s="25" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="F11" s="25">
         <v>11</v>
       </c>
       <c r="G11" s="25" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="H11" s="25"/>
       <c r="I11" s="24"/>
       <c r="J11" s="25" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="K11" s="2"/>
       <c r="L11" s="2"/>
@@ -2834,22 +2836,22 @@
         <v>5</v>
       </c>
       <c r="C12" s="25" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="D12" s="26" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="E12" s="25" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="F12" s="25"/>
       <c r="G12" s="25" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="H12" s="25"/>
       <c r="I12" s="24"/>
       <c r="J12" s="25" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="K12" s="2"/>
       <c r="L12" s="2"/>
@@ -2924,7 +2926,7 @@
     <row r="15" spans="1:25" ht="15.75" customHeight="1">
       <c r="A15" s="4"/>
       <c r="B15" s="36" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="C15" s="37"/>
       <c r="D15" s="37"/>
@@ -2953,31 +2955,31 @@
     <row r="16" spans="1:25" ht="15.75" customHeight="1">
       <c r="A16" s="4"/>
       <c r="B16" s="5" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="C16" s="6" t="s">
+        <v>85</v>
+      </c>
+      <c r="D16" s="6" t="s">
         <v>87</v>
-      </c>
-      <c r="D16" s="6" t="s">
-        <v>89</v>
       </c>
       <c r="E16" s="6" t="s">
         <v>16</v>
       </c>
       <c r="F16" s="6" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="G16" s="6" t="s">
         <v>13</v>
       </c>
       <c r="H16" s="6" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="I16" s="6" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="J16" s="6" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="K16" s="2"/>
       <c r="L16" s="2"/>
@@ -3001,23 +3003,23 @@
         <v>1</v>
       </c>
       <c r="C17" s="16" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="D17" s="7" t="s">
         <v>12</v>
       </c>
       <c r="E17" s="19" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="F17" s="8"/>
       <c r="G17" s="6" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="H17" s="6" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="I17" s="6" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="J17" s="22" t="s">
         <v>1</v>
@@ -3044,25 +3046,25 @@
         <v>2</v>
       </c>
       <c r="C18" s="19" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="D18" s="7" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="E18" s="6" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="F18" s="25">
         <v>50</v>
       </c>
       <c r="G18" s="6" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="H18" s="16" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="I18" s="21" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="J18" s="6"/>
       <c r="K18" s="2"/>
@@ -3087,23 +3089,23 @@
         <v>3</v>
       </c>
       <c r="C19" s="19" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="D19" s="7" t="s">
         <v>14</v>
       </c>
       <c r="E19" s="19" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="F19" s="6"/>
       <c r="G19" s="6" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="H19" s="16" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="I19" s="21" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="J19" s="7"/>
       <c r="K19" s="2"/>
@@ -3134,11 +3136,11 @@
         <v>20</v>
       </c>
       <c r="E20" s="19" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="F20" s="8"/>
       <c r="G20" s="6" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="H20" s="6"/>
       <c r="I20" s="9"/>
@@ -3167,22 +3169,22 @@
         <v>5</v>
       </c>
       <c r="C21" s="19" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="D21" s="7" t="s">
         <v>15</v>
       </c>
       <c r="E21" s="19" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="F21" s="6"/>
       <c r="G21" s="6" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="H21" s="9"/>
       <c r="I21" s="9"/>
       <c r="J21" s="19" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="K21" s="2"/>
       <c r="L21" s="2"/>
@@ -3206,22 +3208,22 @@
         <v>6</v>
       </c>
       <c r="C22" s="19" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="D22" s="7" t="s">
         <v>17</v>
       </c>
       <c r="E22" s="19" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="F22" s="8"/>
       <c r="G22" s="6" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="H22" s="9"/>
       <c r="I22" s="9"/>
       <c r="J22" s="19" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="K22" s="2"/>
       <c r="L22" s="2"/>
@@ -3245,24 +3247,24 @@
         <v>7</v>
       </c>
       <c r="C23" s="19" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="D23" s="7" t="s">
         <v>18</v>
       </c>
       <c r="E23" s="6" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="F23" s="8">
         <v>20</v>
       </c>
       <c r="G23" s="6" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="H23" s="6"/>
       <c r="I23" s="9"/>
       <c r="J23" s="19" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="K23" s="2"/>
       <c r="L23" s="2"/>
@@ -3286,24 +3288,24 @@
         <v>8</v>
       </c>
       <c r="C24" s="19" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="D24" s="7" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="E24" s="19" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="F24" s="8">
         <v>2</v>
       </c>
       <c r="G24" s="6" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="H24" s="9"/>
       <c r="I24" s="9"/>
       <c r="J24" s="19" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="K24" s="2"/>
       <c r="L24" s="2"/>
@@ -3327,24 +3329,24 @@
         <v>9</v>
       </c>
       <c r="C25" s="19" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="D25" s="20" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="E25" s="19" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="F25" s="8"/>
       <c r="G25" s="6" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="H25" s="21" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="I25" s="9"/>
       <c r="J25" s="22" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="K25" s="2"/>
       <c r="L25" s="2"/>
@@ -3368,17 +3370,17 @@
         <v>10</v>
       </c>
       <c r="C26" s="19" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="D26" s="19" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="E26" s="19" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="F26" s="8"/>
       <c r="G26" s="6" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="H26" s="9"/>
       <c r="I26" s="9"/>
@@ -3407,19 +3409,19 @@
         <v>11</v>
       </c>
       <c r="C27" s="19" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="D27" s="19" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="E27" s="8" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="F27" s="8">
         <v>2000</v>
       </c>
       <c r="G27" s="6" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="H27" s="9"/>
       <c r="I27" s="9"/>
@@ -3446,19 +3448,19 @@
         <v>12</v>
       </c>
       <c r="C28" s="25" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="D28" s="26" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="E28" s="19" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="F28" s="25">
         <v>1</v>
       </c>
       <c r="G28" s="25" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="H28" s="25"/>
       <c r="I28" s="24"/>
@@ -3487,24 +3489,24 @@
         <v>13</v>
       </c>
       <c r="C29" s="25" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="D29" s="26" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="E29" s="19" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="F29" s="25">
         <v>1</v>
       </c>
       <c r="G29" s="25" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="H29" s="25"/>
       <c r="I29" s="24"/>
       <c r="J29" s="25" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="K29" s="2"/>
       <c r="L29" s="2"/>
@@ -3528,24 +3530,24 @@
         <v>14</v>
       </c>
       <c r="C30" s="25" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="D30" s="26" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="E30" s="19" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="F30" s="25">
         <v>1</v>
       </c>
       <c r="G30" s="25" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="H30" s="25"/>
       <c r="I30" s="24"/>
       <c r="J30" s="25" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="K30" s="2"/>
       <c r="L30" s="2"/>
@@ -3569,24 +3571,24 @@
         <v>15</v>
       </c>
       <c r="C31" s="25" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="D31" s="26" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="E31" s="19" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="F31" s="25">
         <v>1</v>
       </c>
       <c r="G31" s="25" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="H31" s="25"/>
       <c r="I31" s="24"/>
       <c r="J31" s="25" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="K31" s="2"/>
       <c r="L31" s="2"/>
@@ -3690,31 +3692,31 @@
     <row r="35" spans="1:25" ht="15.75" customHeight="1">
       <c r="A35" s="3"/>
       <c r="B35" s="25" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="C35" s="25" t="s">
+        <v>85</v>
+      </c>
+      <c r="D35" s="25" t="s">
         <v>87</v>
-      </c>
-      <c r="D35" s="25" t="s">
-        <v>89</v>
       </c>
       <c r="E35" s="25" t="s">
         <v>16</v>
       </c>
       <c r="F35" s="25" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="G35" s="25" t="s">
         <v>13</v>
       </c>
       <c r="H35" s="25" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="I35" s="25" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="J35" s="25" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="K35" s="2"/>
       <c r="L35" s="2"/>
@@ -3738,26 +3740,26 @@
         <v>1</v>
       </c>
       <c r="C36" s="25" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="D36" s="26" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E36" s="19" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="F36" s="25"/>
       <c r="G36" s="25" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="H36" s="25" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="I36" s="25" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="J36" s="26" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="K36" s="2"/>
       <c r="L36" s="2"/>
@@ -3781,24 +3783,24 @@
         <v>2</v>
       </c>
       <c r="C37" s="25" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="D37" s="26" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="E37" s="25" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="F37" s="24">
         <v>10</v>
       </c>
       <c r="G37" s="25" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="H37" s="25"/>
       <c r="I37" s="27"/>
       <c r="J37" s="25" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="K37" s="2"/>
       <c r="L37" s="2"/>
@@ -3822,19 +3824,19 @@
         <v>3</v>
       </c>
       <c r="C38" s="25" t="s">
-        <v>24</v>
+        <v>131</v>
       </c>
       <c r="D38" s="26" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="E38" s="25" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="F38" s="25">
         <v>20</v>
       </c>
       <c r="G38" s="25" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="H38" s="24"/>
       <c r="I38" s="24"/>
@@ -3861,22 +3863,22 @@
         <v>4</v>
       </c>
       <c r="C39" s="25" t="s">
-        <v>31</v>
+        <v>132</v>
       </c>
       <c r="D39" s="26" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="E39" s="19" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="F39" s="25"/>
       <c r="G39" s="25" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="H39" s="25"/>
       <c r="I39" s="24"/>
       <c r="J39" s="23" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="K39" s="2"/>
       <c r="L39" s="2"/>
@@ -3900,19 +3902,19 @@
         <v>5</v>
       </c>
       <c r="C40" s="25" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="D40" s="26" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="E40" s="25" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="F40" s="25">
         <v>2000</v>
       </c>
       <c r="G40" s="25" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="H40" s="24"/>
       <c r="I40" s="24"/>
@@ -3941,24 +3943,24 @@
         <v>6</v>
       </c>
       <c r="C41" s="25" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="D41" s="26" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="E41" s="25" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="F41" s="25">
         <v>50</v>
       </c>
       <c r="G41" s="25" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="H41" s="24"/>
       <c r="I41" s="24"/>
       <c r="J41" s="25" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="K41" s="2"/>
       <c r="L41" s="2"/>
@@ -3982,24 +3984,24 @@
         <v>7</v>
       </c>
       <c r="C42" s="25" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="D42" s="26" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="E42" s="25" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="F42" s="25">
         <v>50</v>
       </c>
       <c r="G42" s="25" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="H42" s="24"/>
       <c r="I42" s="24"/>
       <c r="J42" s="25" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="K42" s="2"/>
       <c r="L42" s="2"/>
@@ -4023,24 +4025,24 @@
         <v>8</v>
       </c>
       <c r="C43" s="25" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="D43" s="26" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="E43" s="25" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="F43" s="25">
         <v>50</v>
       </c>
       <c r="G43" s="25" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="H43" s="24"/>
       <c r="I43" s="24"/>
       <c r="J43" s="25" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="K43" s="2"/>
       <c r="L43" s="2"/>
@@ -4064,24 +4066,24 @@
         <v>9</v>
       </c>
       <c r="C44" s="25" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="D44" s="26" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="E44" s="25" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="F44" s="25">
         <v>50</v>
       </c>
       <c r="G44" s="25" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="H44" s="24"/>
       <c r="I44" s="24"/>
       <c r="J44" s="25" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="K44" s="2"/>
       <c r="L44" s="2"/>
@@ -4156,7 +4158,7 @@
     <row r="47" spans="1:25" ht="15.75" customHeight="1">
       <c r="A47" s="3"/>
       <c r="B47" s="45" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="C47" s="46"/>
       <c r="D47" s="46"/>
@@ -4185,31 +4187,31 @@
     <row r="48" spans="1:25" ht="15.75" customHeight="1">
       <c r="A48" s="3"/>
       <c r="B48" s="25" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="C48" s="25" t="s">
+        <v>85</v>
+      </c>
+      <c r="D48" s="25" t="s">
         <v>87</v>
-      </c>
-      <c r="D48" s="25" t="s">
-        <v>89</v>
       </c>
       <c r="E48" s="25" t="s">
         <v>16</v>
       </c>
       <c r="F48" s="25" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="G48" s="25" t="s">
         <v>13</v>
       </c>
       <c r="H48" s="25" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="I48" s="25" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="J48" s="25" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="K48" s="2"/>
       <c r="L48" s="2"/>
@@ -4233,26 +4235,26 @@
         <v>1</v>
       </c>
       <c r="C49" s="25" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="D49" s="26" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="E49" s="19" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="F49" s="25"/>
       <c r="G49" s="25" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="H49" s="25" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="I49" s="25" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="J49" s="26" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="K49" s="2"/>
       <c r="L49" s="2"/>
@@ -4279,25 +4281,25 @@
         <v>22</v>
       </c>
       <c r="D50" s="26" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="E50" s="25" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="F50" s="24">
         <v>50</v>
       </c>
       <c r="G50" s="25" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="H50" s="25" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="I50" s="27" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="J50" s="25" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="K50" s="2"/>
       <c r="L50" s="2"/>
@@ -4324,16 +4326,16 @@
         <v>21</v>
       </c>
       <c r="D51" s="26" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="E51" s="25" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="F51" s="25">
         <v>50</v>
       </c>
       <c r="G51" s="25" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="H51" s="24"/>
       <c r="I51" s="24"/>
@@ -4360,19 +4362,19 @@
         <v>4</v>
       </c>
       <c r="C52" s="25" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D52" s="26" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="E52" s="25" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="F52" s="25">
         <v>10</v>
       </c>
       <c r="G52" s="25" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="H52" s="25"/>
       <c r="I52" s="24"/>
@@ -4401,22 +4403,22 @@
         <v>5</v>
       </c>
       <c r="C53" s="25" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="D53" s="26" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="E53" s="25" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="F53" s="25"/>
       <c r="G53" s="25" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="H53" s="24"/>
       <c r="I53" s="24"/>
       <c r="J53" s="23" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="K53" s="2"/>
       <c r="L53" s="2"/>
@@ -4440,19 +4442,19 @@
         <v>6</v>
       </c>
       <c r="C54" s="25" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="D54" s="26" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="E54" s="25" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="F54" s="25">
         <v>2000</v>
       </c>
       <c r="G54" s="25" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="H54" s="24"/>
       <c r="I54" s="24"/>
@@ -4559,31 +4561,31 @@
     <row r="58" spans="1:25" ht="15.75" customHeight="1">
       <c r="A58" s="3"/>
       <c r="B58" s="25" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="C58" s="25" t="s">
+        <v>85</v>
+      </c>
+      <c r="D58" s="25" t="s">
         <v>87</v>
-      </c>
-      <c r="D58" s="25" t="s">
-        <v>89</v>
       </c>
       <c r="E58" s="25" t="s">
         <v>16</v>
       </c>
       <c r="F58" s="25" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="G58" s="25" t="s">
         <v>13</v>
       </c>
       <c r="H58" s="25" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="I58" s="25" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="J58" s="25" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="K58" s="2"/>
       <c r="L58" s="2"/>
@@ -4607,26 +4609,26 @@
         <v>1</v>
       </c>
       <c r="C59" s="25" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="D59" s="26" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="E59" s="19" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="F59" s="25"/>
       <c r="G59" s="25" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="H59" s="25" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="I59" s="25" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="J59" s="26" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="K59" s="2"/>
       <c r="L59" s="2"/>
@@ -4653,16 +4655,16 @@
         <v>23</v>
       </c>
       <c r="D60" s="26" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="E60" s="25" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="F60" s="24">
         <v>50</v>
       </c>
       <c r="G60" s="25" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="H60" s="25"/>
       <c r="I60" s="27"/>
@@ -4689,19 +4691,19 @@
         <v>3</v>
       </c>
       <c r="C61" s="25" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="D61" s="26" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="E61" s="25" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="F61" s="25">
         <v>2000</v>
       </c>
       <c r="G61" s="25" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="H61" s="24"/>
       <c r="I61" s="24"/>
@@ -4728,24 +4730,24 @@
         <v>4</v>
       </c>
       <c r="C62" s="25" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="D62" s="26" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="E62" s="25" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="F62" s="25">
         <v>50</v>
       </c>
       <c r="G62" s="25" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="H62" s="25"/>
       <c r="I62" s="24"/>
       <c r="J62" s="25" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="K62" s="2"/>
       <c r="L62" s="2"/>
@@ -4769,22 +4771,22 @@
         <v>5</v>
       </c>
       <c r="C63" s="25" t="s">
+        <v>41</v>
+      </c>
+      <c r="D63" s="26" t="s">
+        <v>100</v>
+      </c>
+      <c r="E63" s="25" t="s">
         <v>43</v>
-      </c>
-      <c r="D63" s="26" t="s">
-        <v>102</v>
-      </c>
-      <c r="E63" s="25" t="s">
-        <v>45</v>
       </c>
       <c r="F63" s="25"/>
       <c r="G63" s="25" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="H63" s="24"/>
       <c r="I63" s="24"/>
       <c r="J63" s="25" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="K63" s="2"/>
       <c r="L63" s="2"/>
@@ -4808,24 +4810,24 @@
         <v>6</v>
       </c>
       <c r="C64" s="25" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="D64" s="26" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="E64" s="25" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="F64" s="25">
         <v>20</v>
       </c>
       <c r="G64" s="25" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="H64" s="24"/>
       <c r="I64" s="24"/>
       <c r="J64" s="23" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="K64" s="2"/>
       <c r="L64" s="2"/>
@@ -4901,31 +4903,31 @@
     </row>
     <row r="67" spans="1:25" ht="15" customHeight="1">
       <c r="B67" s="5" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="C67" s="34" t="s">
+        <v>85</v>
+      </c>
+      <c r="D67" s="34" t="s">
         <v>87</v>
-      </c>
-      <c r="D67" s="34" t="s">
-        <v>89</v>
       </c>
       <c r="E67" s="34" t="s">
         <v>16</v>
       </c>
       <c r="F67" s="34" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="G67" s="34" t="s">
         <v>13</v>
       </c>
       <c r="H67" s="34" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="I67" s="34" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="J67" s="34" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="K67" s="3"/>
     </row>
@@ -4937,22 +4939,22 @@
         <v>22</v>
       </c>
       <c r="D68" s="35" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="E68" s="34" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="F68" s="34">
         <v>70</v>
       </c>
       <c r="G68" s="34" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="H68" s="34" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="I68" s="34" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="J68" s="34"/>
       <c r="K68" s="3"/>
@@ -4962,19 +4964,19 @@
         <v>2</v>
       </c>
       <c r="C69" s="34" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="D69" s="35" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="E69" s="34" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="F69" s="34">
         <v>70</v>
       </c>
       <c r="G69" s="34" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="H69" s="34"/>
       <c r="I69" s="34"/>

--- a/프로젝트 산출물/5. 테이블명세서/캠플렉스 테이블 명세서.xlsx
+++ b/프로젝트 산출물/5. 테이블명세서/캠플렉스 테이블 명세서.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="285" uniqueCount="133">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="290" uniqueCount="135">
   <si>
     <r>
       <rPr>
@@ -1158,113 +1158,6 @@
     <t>1:1 문의 (INQUIRY_TBL)</t>
   </si>
   <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="돋움"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>대기</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> / </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="돋움"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>확정</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> / </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="돋움"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>취소</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="돋움"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>중</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> 1</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="돋움"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>가지</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="돋움"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>선택</t>
-    </r>
-  </si>
-  <si>
     <t>번호</t>
   </si>
   <si>
@@ -1871,6 +1764,143 @@
     <t>p_price</t>
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
+  <si>
+    <t>p_state</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">ture / false </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>선택</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>, Default true</t>
+    </r>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>대기</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> / </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>확정</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> / </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>취소</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>중</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> 1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>가지</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>선택</t>
+    </r>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
@@ -2432,10 +2462,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:Y894"/>
+  <dimension ref="A1:Y895"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="D39" sqref="D39"/>
+    <sheetView tabSelected="1" topLeftCell="A10" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="L25" sqref="L25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="12.75"/>
@@ -2620,31 +2650,31 @@
     <row r="7" spans="1:25" ht="15.75" customHeight="1">
       <c r="A7" s="17"/>
       <c r="B7" s="25" t="s">
+        <v>83</v>
+      </c>
+      <c r="C7" s="25" t="s">
         <v>84</v>
       </c>
-      <c r="C7" s="25" t="s">
-        <v>85</v>
-      </c>
       <c r="D7" s="25" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="E7" s="25" t="s">
         <v>16</v>
       </c>
       <c r="F7" s="25" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="G7" s="25" t="s">
         <v>13</v>
       </c>
       <c r="H7" s="25" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="I7" s="25" t="s">
+        <v>87</v>
+      </c>
+      <c r="J7" s="25" t="s">
         <v>88</v>
-      </c>
-      <c r="J7" s="25" t="s">
-        <v>89</v>
       </c>
       <c r="K7" s="2"/>
       <c r="L7" s="2"/>
@@ -2671,22 +2701,22 @@
         <v>22</v>
       </c>
       <c r="D8" s="26" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="E8" s="25" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="F8" s="25">
         <v>50</v>
       </c>
       <c r="G8" s="25" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="H8" s="25" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="I8" s="25" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="J8" s="26" t="s">
         <v>10</v>
@@ -2719,13 +2749,13 @@
         <v>44</v>
       </c>
       <c r="E9" s="25" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="F9" s="24">
         <v>20</v>
       </c>
       <c r="G9" s="25" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="H9" s="25"/>
       <c r="I9" s="27"/>
@@ -2760,18 +2790,18 @@
         <v>48</v>
       </c>
       <c r="E10" s="25" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="F10" s="25">
         <v>10</v>
       </c>
       <c r="G10" s="25" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="H10" s="24"/>
       <c r="I10" s="24"/>
       <c r="J10" s="26" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="K10" s="2"/>
       <c r="L10" s="2"/>
@@ -2801,18 +2831,18 @@
         <v>51</v>
       </c>
       <c r="E11" s="25" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="F11" s="25">
         <v>11</v>
       </c>
       <c r="G11" s="25" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="H11" s="25"/>
       <c r="I11" s="24"/>
       <c r="J11" s="25" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="K11" s="2"/>
       <c r="L11" s="2"/>
@@ -2839,14 +2869,14 @@
         <v>60</v>
       </c>
       <c r="D12" s="26" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="E12" s="25" t="s">
         <v>43</v>
       </c>
       <c r="F12" s="25"/>
       <c r="G12" s="25" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="H12" s="25"/>
       <c r="I12" s="24"/>
@@ -2955,31 +2985,31 @@
     <row r="16" spans="1:25" ht="15.75" customHeight="1">
       <c r="A16" s="4"/>
       <c r="B16" s="5" t="s">
+        <v>83</v>
+      </c>
+      <c r="C16" s="6" t="s">
         <v>84</v>
       </c>
-      <c r="C16" s="6" t="s">
-        <v>85</v>
-      </c>
       <c r="D16" s="6" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="E16" s="6" t="s">
         <v>16</v>
       </c>
       <c r="F16" s="6" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="G16" s="6" t="s">
         <v>13</v>
       </c>
       <c r="H16" s="6" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="I16" s="6" t="s">
+        <v>87</v>
+      </c>
+      <c r="J16" s="6" t="s">
         <v>88</v>
-      </c>
-      <c r="J16" s="6" t="s">
-        <v>89</v>
       </c>
       <c r="K16" s="2"/>
       <c r="L16" s="2"/>
@@ -3003,7 +3033,7 @@
         <v>1</v>
       </c>
       <c r="C17" s="16" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="D17" s="7" t="s">
         <v>12</v>
@@ -3013,13 +3043,13 @@
       </c>
       <c r="F17" s="8"/>
       <c r="G17" s="6" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="H17" s="6" t="s">
+        <v>90</v>
+      </c>
+      <c r="I17" s="6" t="s">
         <v>91</v>
-      </c>
-      <c r="I17" s="6" t="s">
-        <v>92</v>
       </c>
       <c r="J17" s="22" t="s">
         <v>1</v>
@@ -3049,22 +3079,22 @@
         <v>63</v>
       </c>
       <c r="D18" s="7" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="E18" s="6" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="F18" s="25">
         <v>50</v>
       </c>
       <c r="G18" s="6" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="H18" s="16" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="I18" s="21" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="J18" s="6"/>
       <c r="K18" s="2"/>
@@ -3089,7 +3119,7 @@
         <v>3</v>
       </c>
       <c r="C19" s="19" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="D19" s="7" t="s">
         <v>14</v>
@@ -3099,13 +3129,13 @@
       </c>
       <c r="F19" s="6"/>
       <c r="G19" s="6" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="H19" s="16" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="I19" s="21" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="J19" s="7"/>
       <c r="K19" s="2"/>
@@ -3140,7 +3170,7 @@
       </c>
       <c r="F20" s="8"/>
       <c r="G20" s="6" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="H20" s="6"/>
       <c r="I20" s="9"/>
@@ -3179,12 +3209,12 @@
       </c>
       <c r="F21" s="6"/>
       <c r="G21" s="6" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="H21" s="9"/>
       <c r="I21" s="9"/>
       <c r="J21" s="19" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="K21" s="2"/>
       <c r="L21" s="2"/>
@@ -3218,12 +3248,12 @@
       </c>
       <c r="F22" s="8"/>
       <c r="G22" s="6" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="H22" s="9"/>
       <c r="I22" s="9"/>
       <c r="J22" s="19" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="K22" s="2"/>
       <c r="L22" s="2"/>
@@ -3253,18 +3283,18 @@
         <v>18</v>
       </c>
       <c r="E23" s="6" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="F23" s="8">
         <v>20</v>
       </c>
       <c r="G23" s="6" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="H23" s="6"/>
       <c r="I23" s="9"/>
       <c r="J23" s="19" t="s">
-        <v>83</v>
+        <v>134</v>
       </c>
       <c r="K23" s="2"/>
       <c r="L23" s="2"/>
@@ -3291,7 +3321,7 @@
         <v>57</v>
       </c>
       <c r="D24" s="7" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="E24" s="19" t="s">
         <v>24</v>
@@ -3300,7 +3330,7 @@
         <v>2</v>
       </c>
       <c r="G24" s="6" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="H24" s="9"/>
       <c r="I24" s="9"/>
@@ -3329,7 +3359,7 @@
         <v>9</v>
       </c>
       <c r="C25" s="19" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="D25" s="20" t="s">
         <v>37</v>
@@ -3339,10 +3369,10 @@
       </c>
       <c r="F25" s="8"/>
       <c r="G25" s="6" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="H25" s="21" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="I25" s="9"/>
       <c r="J25" s="22" t="s">
@@ -3380,7 +3410,7 @@
       </c>
       <c r="F26" s="8"/>
       <c r="G26" s="6" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="H26" s="9"/>
       <c r="I26" s="9"/>
@@ -3409,19 +3439,19 @@
         <v>11</v>
       </c>
       <c r="C27" s="19" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="D27" s="19" t="s">
         <v>32</v>
       </c>
       <c r="E27" s="8" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="F27" s="8">
         <v>2000</v>
       </c>
       <c r="G27" s="6" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="H27" s="9"/>
       <c r="I27" s="9"/>
@@ -3451,7 +3481,7 @@
         <v>46</v>
       </c>
       <c r="D28" s="26" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="E28" s="19" t="s">
         <v>24</v>
@@ -3460,7 +3490,7 @@
         <v>1</v>
       </c>
       <c r="G28" s="25" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="H28" s="25"/>
       <c r="I28" s="24"/>
@@ -3489,7 +3519,7 @@
         <v>13</v>
       </c>
       <c r="C29" s="25" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="D29" s="26" t="s">
         <v>49</v>
@@ -3501,7 +3531,7 @@
         <v>1</v>
       </c>
       <c r="G29" s="25" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="H29" s="25"/>
       <c r="I29" s="24"/>
@@ -3530,7 +3560,7 @@
         <v>14</v>
       </c>
       <c r="C30" s="25" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="D30" s="26" t="s">
         <v>47</v>
@@ -3542,7 +3572,7 @@
         <v>1</v>
       </c>
       <c r="G30" s="25" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="H30" s="25"/>
       <c r="I30" s="24"/>
@@ -3574,7 +3604,7 @@
         <v>54</v>
       </c>
       <c r="D31" s="26" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="E31" s="19" t="s">
         <v>24</v>
@@ -3583,7 +3613,7 @@
         <v>1</v>
       </c>
       <c r="G31" s="25" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="H31" s="25"/>
       <c r="I31" s="24"/>
@@ -3692,31 +3722,31 @@
     <row r="35" spans="1:25" ht="15.75" customHeight="1">
       <c r="A35" s="3"/>
       <c r="B35" s="25" t="s">
+        <v>83</v>
+      </c>
+      <c r="C35" s="25" t="s">
         <v>84</v>
       </c>
-      <c r="C35" s="25" t="s">
-        <v>85</v>
-      </c>
       <c r="D35" s="25" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="E35" s="25" t="s">
         <v>16</v>
       </c>
       <c r="F35" s="25" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="G35" s="25" t="s">
         <v>13</v>
       </c>
       <c r="H35" s="25" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="I35" s="25" t="s">
+        <v>87</v>
+      </c>
+      <c r="J35" s="25" t="s">
         <v>88</v>
-      </c>
-      <c r="J35" s="25" t="s">
-        <v>89</v>
       </c>
       <c r="K35" s="2"/>
       <c r="L35" s="2"/>
@@ -3740,7 +3770,7 @@
         <v>1</v>
       </c>
       <c r="C36" s="25" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="D36" s="26" t="s">
         <v>28</v>
@@ -3750,13 +3780,13 @@
       </c>
       <c r="F36" s="25"/>
       <c r="G36" s="25" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="H36" s="25" t="s">
+        <v>90</v>
+      </c>
+      <c r="I36" s="25" t="s">
         <v>91</v>
-      </c>
-      <c r="I36" s="25" t="s">
-        <v>92</v>
       </c>
       <c r="J36" s="26" t="s">
         <v>81</v>
@@ -3789,18 +3819,18 @@
         <v>27</v>
       </c>
       <c r="E37" s="25" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="F37" s="24">
         <v>10</v>
       </c>
       <c r="G37" s="25" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="H37" s="25"/>
       <c r="I37" s="27"/>
       <c r="J37" s="25" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="K37" s="2"/>
       <c r="L37" s="2"/>
@@ -3824,19 +3854,19 @@
         <v>3</v>
       </c>
       <c r="C38" s="25" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="D38" s="26" t="s">
         <v>36</v>
       </c>
       <c r="E38" s="25" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="F38" s="25">
         <v>20</v>
       </c>
       <c r="G38" s="25" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="H38" s="24"/>
       <c r="I38" s="24"/>
@@ -3863,22 +3893,22 @@
         <v>4</v>
       </c>
       <c r="C39" s="25" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="D39" s="26" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="E39" s="19" t="s">
         <v>24</v>
       </c>
       <c r="F39" s="25"/>
       <c r="G39" s="25" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="H39" s="25"/>
       <c r="I39" s="24"/>
       <c r="J39" s="23" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="K39" s="2"/>
       <c r="L39" s="2"/>
@@ -3908,13 +3938,13 @@
         <v>29</v>
       </c>
       <c r="E40" s="25" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="F40" s="25">
         <v>2000</v>
       </c>
       <c r="G40" s="25" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="H40" s="24"/>
       <c r="I40" s="24"/>
@@ -3946,21 +3976,21 @@
         <v>67</v>
       </c>
       <c r="D41" s="26" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="E41" s="25" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="F41" s="25">
         <v>50</v>
       </c>
       <c r="G41" s="25" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="H41" s="24"/>
       <c r="I41" s="24"/>
       <c r="J41" s="25" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="K41" s="2"/>
       <c r="L41" s="2"/>
@@ -3990,18 +4020,18 @@
         <v>64</v>
       </c>
       <c r="E42" s="25" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="F42" s="25">
         <v>50</v>
       </c>
       <c r="G42" s="25" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="H42" s="24"/>
       <c r="I42" s="24"/>
       <c r="J42" s="25" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="K42" s="2"/>
       <c r="L42" s="2"/>
@@ -4031,18 +4061,18 @@
         <v>65</v>
       </c>
       <c r="E43" s="25" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="F43" s="25">
         <v>50</v>
       </c>
       <c r="G43" s="25" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="H43" s="24"/>
       <c r="I43" s="24"/>
       <c r="J43" s="25" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="K43" s="2"/>
       <c r="L43" s="2"/>
@@ -4072,18 +4102,18 @@
         <v>66</v>
       </c>
       <c r="E44" s="25" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="F44" s="25">
         <v>50</v>
       </c>
       <c r="G44" s="25" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="H44" s="24"/>
       <c r="I44" s="24"/>
       <c r="J44" s="25" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="K44" s="2"/>
       <c r="L44" s="2"/>
@@ -4102,16 +4132,30 @@
       <c r="Y44" s="2"/>
     </row>
     <row r="45" spans="1:25" ht="15.75" customHeight="1">
-      <c r="A45" s="3"/>
-      <c r="B45" s="29"/>
-      <c r="C45" s="29"/>
-      <c r="D45" s="30"/>
-      <c r="E45" s="29"/>
-      <c r="F45" s="29"/>
-      <c r="G45" s="29"/>
-      <c r="H45" s="29"/>
-      <c r="I45" s="17"/>
-      <c r="J45" s="29"/>
+      <c r="A45" s="31"/>
+      <c r="B45" s="25">
+        <v>10</v>
+      </c>
+      <c r="C45" s="34" t="s">
+        <v>132</v>
+      </c>
+      <c r="D45" s="35" t="s">
+        <v>18</v>
+      </c>
+      <c r="E45" s="34" t="s">
+        <v>106</v>
+      </c>
+      <c r="F45" s="34">
+        <v>20</v>
+      </c>
+      <c r="G45" s="34" t="s">
+        <v>92</v>
+      </c>
+      <c r="H45" s="34"/>
+      <c r="I45" s="21"/>
+      <c r="J45" s="34" t="s">
+        <v>133</v>
+      </c>
       <c r="K45" s="2"/>
       <c r="L45" s="2"/>
       <c r="M45" s="2"/>
@@ -4136,7 +4180,7 @@
       <c r="E46" s="29"/>
       <c r="F46" s="29"/>
       <c r="G46" s="29"/>
-      <c r="H46" s="17"/>
+      <c r="H46" s="29"/>
       <c r="I46" s="17"/>
       <c r="J46" s="29"/>
       <c r="K46" s="2"/>
@@ -4157,17 +4201,15 @@
     </row>
     <row r="47" spans="1:25" ht="15.75" customHeight="1">
       <c r="A47" s="3"/>
-      <c r="B47" s="45" t="s">
-        <v>82</v>
-      </c>
-      <c r="C47" s="46"/>
-      <c r="D47" s="46"/>
-      <c r="E47" s="46"/>
-      <c r="F47" s="46"/>
-      <c r="G47" s="46"/>
-      <c r="H47" s="46"/>
-      <c r="I47" s="46"/>
-      <c r="J47" s="46"/>
+      <c r="B47" s="29"/>
+      <c r="C47" s="29"/>
+      <c r="D47" s="30"/>
+      <c r="E47" s="29"/>
+      <c r="F47" s="29"/>
+      <c r="G47" s="29"/>
+      <c r="H47" s="17"/>
+      <c r="I47" s="17"/>
+      <c r="J47" s="29"/>
       <c r="K47" s="2"/>
       <c r="L47" s="2"/>
       <c r="M47" s="2"/>
@@ -4186,33 +4228,17 @@
     </row>
     <row r="48" spans="1:25" ht="15.75" customHeight="1">
       <c r="A48" s="3"/>
-      <c r="B48" s="25" t="s">
-        <v>84</v>
-      </c>
-      <c r="C48" s="25" t="s">
-        <v>85</v>
-      </c>
-      <c r="D48" s="25" t="s">
-        <v>87</v>
-      </c>
-      <c r="E48" s="25" t="s">
-        <v>16</v>
-      </c>
-      <c r="F48" s="25" t="s">
-        <v>86</v>
-      </c>
-      <c r="G48" s="25" t="s">
-        <v>13</v>
-      </c>
-      <c r="H48" s="25" t="s">
-        <v>106</v>
-      </c>
-      <c r="I48" s="25" t="s">
-        <v>88</v>
-      </c>
-      <c r="J48" s="25" t="s">
-        <v>89</v>
-      </c>
+      <c r="B48" s="45" t="s">
+        <v>82</v>
+      </c>
+      <c r="C48" s="46"/>
+      <c r="D48" s="46"/>
+      <c r="E48" s="46"/>
+      <c r="F48" s="46"/>
+      <c r="G48" s="46"/>
+      <c r="H48" s="46"/>
+      <c r="I48" s="46"/>
+      <c r="J48" s="46"/>
       <c r="K48" s="2"/>
       <c r="L48" s="2"/>
       <c r="M48" s="2"/>
@@ -4231,30 +4257,32 @@
     </row>
     <row r="49" spans="1:25" ht="15.75" customHeight="1">
       <c r="A49" s="3"/>
-      <c r="B49" s="25">
-        <v>1</v>
+      <c r="B49" s="25" t="s">
+        <v>83</v>
       </c>
       <c r="C49" s="25" t="s">
-        <v>115</v>
-      </c>
-      <c r="D49" s="26" t="s">
-        <v>31</v>
-      </c>
-      <c r="E49" s="19" t="s">
-        <v>24</v>
-      </c>
-      <c r="F49" s="25"/>
+        <v>84</v>
+      </c>
+      <c r="D49" s="25" t="s">
+        <v>86</v>
+      </c>
+      <c r="E49" s="25" t="s">
+        <v>16</v>
+      </c>
+      <c r="F49" s="25" t="s">
+        <v>85</v>
+      </c>
       <c r="G49" s="25" t="s">
-        <v>93</v>
+        <v>13</v>
       </c>
       <c r="H49" s="25" t="s">
-        <v>91</v>
+        <v>105</v>
       </c>
       <c r="I49" s="25" t="s">
-        <v>104</v>
-      </c>
-      <c r="J49" s="26" t="s">
-        <v>80</v>
+        <v>87</v>
+      </c>
+      <c r="J49" s="25" t="s">
+        <v>88</v>
       </c>
       <c r="K49" s="2"/>
       <c r="L49" s="2"/>
@@ -4275,31 +4303,29 @@
     <row r="50" spans="1:25" ht="15.75" customHeight="1">
       <c r="A50" s="3"/>
       <c r="B50" s="25">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C50" s="25" t="s">
-        <v>22</v>
+        <v>114</v>
       </c>
       <c r="D50" s="26" t="s">
+        <v>31</v>
+      </c>
+      <c r="E50" s="19" t="s">
+        <v>24</v>
+      </c>
+      <c r="F50" s="25"/>
+      <c r="G50" s="25" t="s">
+        <v>92</v>
+      </c>
+      <c r="H50" s="25" t="s">
         <v>90</v>
       </c>
-      <c r="E50" s="25" t="s">
-        <v>107</v>
-      </c>
-      <c r="F50" s="24">
-        <v>50</v>
-      </c>
-      <c r="G50" s="25" t="s">
-        <v>93</v>
-      </c>
-      <c r="H50" s="25" t="s">
-        <v>91</v>
-      </c>
-      <c r="I50" s="27" t="s">
-        <v>105</v>
-      </c>
-      <c r="J50" s="25" t="s">
-        <v>25</v>
+      <c r="I50" s="25" t="s">
+        <v>103</v>
+      </c>
+      <c r="J50" s="26" t="s">
+        <v>80</v>
       </c>
       <c r="K50" s="2"/>
       <c r="L50" s="2"/>
@@ -4320,26 +4346,32 @@
     <row r="51" spans="1:25" ht="15.75" customHeight="1">
       <c r="A51" s="3"/>
       <c r="B51" s="25">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C51" s="25" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D51" s="26" t="s">
-        <v>33</v>
+        <v>89</v>
       </c>
       <c r="E51" s="25" t="s">
-        <v>107</v>
-      </c>
-      <c r="F51" s="25">
+        <v>106</v>
+      </c>
+      <c r="F51" s="24">
         <v>50</v>
       </c>
       <c r="G51" s="25" t="s">
-        <v>93</v>
-      </c>
-      <c r="H51" s="24"/>
-      <c r="I51" s="24"/>
-      <c r="J51" s="26"/>
+        <v>92</v>
+      </c>
+      <c r="H51" s="25" t="s">
+        <v>90</v>
+      </c>
+      <c r="I51" s="27" t="s">
+        <v>104</v>
+      </c>
+      <c r="J51" s="25" t="s">
+        <v>25</v>
+      </c>
       <c r="K51" s="2"/>
       <c r="L51" s="2"/>
       <c r="M51" s="2"/>
@@ -4359,28 +4391,26 @@
     <row r="52" spans="1:25" ht="15.75" customHeight="1">
       <c r="A52" s="3"/>
       <c r="B52" s="25">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C52" s="25" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="D52" s="26" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="E52" s="25" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="F52" s="25">
-        <v>10</v>
+        <v>50</v>
       </c>
       <c r="G52" s="25" t="s">
-        <v>93</v>
-      </c>
-      <c r="H52" s="25"/>
+        <v>92</v>
+      </c>
+      <c r="H52" s="24"/>
       <c r="I52" s="24"/>
-      <c r="J52" s="25" t="s">
-        <v>8</v>
-      </c>
+      <c r="J52" s="26"/>
       <c r="K52" s="2"/>
       <c r="L52" s="2"/>
       <c r="M52" s="2"/>
@@ -4400,25 +4430,27 @@
     <row r="53" spans="1:25" ht="15.75" customHeight="1">
       <c r="A53" s="3"/>
       <c r="B53" s="25">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C53" s="25" t="s">
-        <v>40</v>
+        <v>26</v>
       </c>
       <c r="D53" s="26" t="s">
-        <v>100</v>
+        <v>34</v>
       </c>
       <c r="E53" s="25" t="s">
-        <v>43</v>
-      </c>
-      <c r="F53" s="25"/>
+        <v>106</v>
+      </c>
+      <c r="F53" s="25">
+        <v>10</v>
+      </c>
       <c r="G53" s="25" t="s">
-        <v>93</v>
-      </c>
-      <c r="H53" s="24"/>
+        <v>92</v>
+      </c>
+      <c r="H53" s="25"/>
       <c r="I53" s="24"/>
-      <c r="J53" s="23" t="s">
-        <v>74</v>
+      <c r="J53" s="25" t="s">
+        <v>8</v>
       </c>
       <c r="K53" s="2"/>
       <c r="L53" s="2"/>
@@ -4439,26 +4471,26 @@
     <row r="54" spans="1:25" ht="15.75" customHeight="1">
       <c r="A54" s="3"/>
       <c r="B54" s="25">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C54" s="25" t="s">
-        <v>129</v>
+        <v>40</v>
       </c>
       <c r="D54" s="26" t="s">
-        <v>42</v>
+        <v>99</v>
       </c>
       <c r="E54" s="25" t="s">
-        <v>107</v>
-      </c>
-      <c r="F54" s="25">
-        <v>2000</v>
-      </c>
+        <v>43</v>
+      </c>
+      <c r="F54" s="25"/>
       <c r="G54" s="25" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="H54" s="24"/>
       <c r="I54" s="24"/>
-      <c r="J54" s="25"/>
+      <c r="J54" s="23" t="s">
+        <v>74</v>
+      </c>
       <c r="K54" s="2"/>
       <c r="L54" s="2"/>
       <c r="M54" s="2"/>
@@ -4477,15 +4509,27 @@
     </row>
     <row r="55" spans="1:25" ht="15.75" customHeight="1">
       <c r="A55" s="3"/>
-      <c r="B55" s="29"/>
-      <c r="C55" s="29"/>
-      <c r="D55" s="30"/>
-      <c r="E55" s="29"/>
-      <c r="F55" s="29"/>
-      <c r="G55" s="29"/>
-      <c r="H55" s="29"/>
-      <c r="I55" s="17"/>
-      <c r="J55" s="29"/>
+      <c r="B55" s="25">
+        <v>6</v>
+      </c>
+      <c r="C55" s="25" t="s">
+        <v>128</v>
+      </c>
+      <c r="D55" s="26" t="s">
+        <v>42</v>
+      </c>
+      <c r="E55" s="25" t="s">
+        <v>106</v>
+      </c>
+      <c r="F55" s="25">
+        <v>2000</v>
+      </c>
+      <c r="G55" s="25" t="s">
+        <v>92</v>
+      </c>
+      <c r="H55" s="24"/>
+      <c r="I55" s="24"/>
+      <c r="J55" s="25"/>
       <c r="K55" s="2"/>
       <c r="L55" s="2"/>
       <c r="M55" s="2"/>
@@ -4506,13 +4550,13 @@
       <c r="A56" s="3"/>
       <c r="B56" s="29"/>
       <c r="C56" s="29"/>
-      <c r="D56" s="29"/>
+      <c r="D56" s="30"/>
       <c r="E56" s="29"/>
       <c r="F56" s="29"/>
       <c r="G56" s="29"/>
-      <c r="H56" s="17"/>
+      <c r="H56" s="29"/>
       <c r="I56" s="17"/>
-      <c r="J56" s="28"/>
+      <c r="J56" s="29"/>
       <c r="K56" s="2"/>
       <c r="L56" s="2"/>
       <c r="M56" s="2"/>
@@ -4531,17 +4575,15 @@
     </row>
     <row r="57" spans="1:25" ht="15.75" customHeight="1">
       <c r="A57" s="3"/>
-      <c r="B57" s="45" t="s">
-        <v>6</v>
-      </c>
-      <c r="C57" s="46"/>
-      <c r="D57" s="46"/>
-      <c r="E57" s="46"/>
-      <c r="F57" s="46"/>
-      <c r="G57" s="46"/>
-      <c r="H57" s="46"/>
-      <c r="I57" s="46"/>
-      <c r="J57" s="46"/>
+      <c r="B57" s="29"/>
+      <c r="C57" s="29"/>
+      <c r="D57" s="29"/>
+      <c r="E57" s="29"/>
+      <c r="F57" s="29"/>
+      <c r="G57" s="29"/>
+      <c r="H57" s="17"/>
+      <c r="I57" s="17"/>
+      <c r="J57" s="28"/>
       <c r="K57" s="2"/>
       <c r="L57" s="2"/>
       <c r="M57" s="2"/>
@@ -4560,33 +4602,17 @@
     </row>
     <row r="58" spans="1:25" ht="15.75" customHeight="1">
       <c r="A58" s="3"/>
-      <c r="B58" s="25" t="s">
-        <v>84</v>
-      </c>
-      <c r="C58" s="25" t="s">
-        <v>85</v>
-      </c>
-      <c r="D58" s="25" t="s">
-        <v>87</v>
-      </c>
-      <c r="E58" s="25" t="s">
-        <v>16</v>
-      </c>
-      <c r="F58" s="25" t="s">
-        <v>86</v>
-      </c>
-      <c r="G58" s="25" t="s">
-        <v>13</v>
-      </c>
-      <c r="H58" s="25" t="s">
-        <v>106</v>
-      </c>
-      <c r="I58" s="25" t="s">
-        <v>88</v>
-      </c>
-      <c r="J58" s="25" t="s">
-        <v>89</v>
-      </c>
+      <c r="B58" s="45" t="s">
+        <v>6</v>
+      </c>
+      <c r="C58" s="46"/>
+      <c r="D58" s="46"/>
+      <c r="E58" s="46"/>
+      <c r="F58" s="46"/>
+      <c r="G58" s="46"/>
+      <c r="H58" s="46"/>
+      <c r="I58" s="46"/>
+      <c r="J58" s="46"/>
       <c r="K58" s="2"/>
       <c r="L58" s="2"/>
       <c r="M58" s="2"/>
@@ -4605,30 +4631,32 @@
     </row>
     <row r="59" spans="1:25" ht="15.75" customHeight="1">
       <c r="A59" s="3"/>
-      <c r="B59" s="25">
-        <v>1</v>
+      <c r="B59" s="25" t="s">
+        <v>83</v>
       </c>
       <c r="C59" s="25" t="s">
-        <v>111</v>
-      </c>
-      <c r="D59" s="26" t="s">
-        <v>39</v>
-      </c>
-      <c r="E59" s="19" t="s">
-        <v>24</v>
-      </c>
-      <c r="F59" s="25"/>
+        <v>84</v>
+      </c>
+      <c r="D59" s="25" t="s">
+        <v>86</v>
+      </c>
+      <c r="E59" s="25" t="s">
+        <v>16</v>
+      </c>
+      <c r="F59" s="25" t="s">
+        <v>85</v>
+      </c>
       <c r="G59" s="25" t="s">
-        <v>93</v>
+        <v>13</v>
       </c>
       <c r="H59" s="25" t="s">
-        <v>91</v>
+        <v>105</v>
       </c>
       <c r="I59" s="25" t="s">
-        <v>104</v>
-      </c>
-      <c r="J59" s="26" t="s">
-        <v>78</v>
+        <v>87</v>
+      </c>
+      <c r="J59" s="25" t="s">
+        <v>88</v>
       </c>
       <c r="K59" s="2"/>
       <c r="L59" s="2"/>
@@ -4649,26 +4677,30 @@
     <row r="60" spans="1:25" ht="15.75" customHeight="1">
       <c r="A60" s="3"/>
       <c r="B60" s="25">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C60" s="25" t="s">
-        <v>23</v>
+        <v>110</v>
       </c>
       <c r="D60" s="26" t="s">
-        <v>99</v>
-      </c>
-      <c r="E60" s="25" t="s">
-        <v>107</v>
-      </c>
-      <c r="F60" s="24">
-        <v>50</v>
-      </c>
+        <v>39</v>
+      </c>
+      <c r="E60" s="19" t="s">
+        <v>24</v>
+      </c>
+      <c r="F60" s="25"/>
       <c r="G60" s="25" t="s">
-        <v>93</v>
-      </c>
-      <c r="H60" s="25"/>
-      <c r="I60" s="27"/>
-      <c r="J60" s="25"/>
+        <v>92</v>
+      </c>
+      <c r="H60" s="25" t="s">
+        <v>90</v>
+      </c>
+      <c r="I60" s="25" t="s">
+        <v>103</v>
+      </c>
+      <c r="J60" s="26" t="s">
+        <v>78</v>
+      </c>
       <c r="K60" s="2"/>
       <c r="L60" s="2"/>
       <c r="M60" s="2"/>
@@ -4688,26 +4720,26 @@
     <row r="61" spans="1:25" ht="15.75" customHeight="1">
       <c r="A61" s="3"/>
       <c r="B61" s="25">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C61" s="25" t="s">
-        <v>109</v>
+        <v>23</v>
       </c>
       <c r="D61" s="26" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="E61" s="25" t="s">
-        <v>107</v>
-      </c>
-      <c r="F61" s="25">
-        <v>2000</v>
+        <v>106</v>
+      </c>
+      <c r="F61" s="24">
+        <v>50</v>
       </c>
       <c r="G61" s="25" t="s">
-        <v>93</v>
-      </c>
-      <c r="H61" s="24"/>
-      <c r="I61" s="24"/>
-      <c r="J61" s="26"/>
+        <v>92</v>
+      </c>
+      <c r="H61" s="25"/>
+      <c r="I61" s="27"/>
+      <c r="J61" s="25"/>
       <c r="K61" s="2"/>
       <c r="L61" s="2"/>
       <c r="M61" s="2"/>
@@ -4727,28 +4759,26 @@
     <row r="62" spans="1:25" ht="15.75" customHeight="1">
       <c r="A62" s="3"/>
       <c r="B62" s="25">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C62" s="25" t="s">
-        <v>38</v>
+        <v>108</v>
       </c>
       <c r="D62" s="26" t="s">
         <v>95</v>
       </c>
       <c r="E62" s="25" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="F62" s="25">
-        <v>50</v>
+        <v>2000</v>
       </c>
       <c r="G62" s="25" t="s">
-        <v>91</v>
-      </c>
-      <c r="H62" s="25"/>
+        <v>92</v>
+      </c>
+      <c r="H62" s="24"/>
       <c r="I62" s="24"/>
-      <c r="J62" s="25" t="s">
-        <v>123</v>
-      </c>
+      <c r="J62" s="26"/>
       <c r="K62" s="2"/>
       <c r="L62" s="2"/>
       <c r="M62" s="2"/>
@@ -4768,25 +4798,27 @@
     <row r="63" spans="1:25" ht="15.75" customHeight="1">
       <c r="A63" s="3"/>
       <c r="B63" s="25">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C63" s="25" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="D63" s="26" t="s">
-        <v>100</v>
+        <v>94</v>
       </c>
       <c r="E63" s="25" t="s">
-        <v>43</v>
-      </c>
-      <c r="F63" s="25"/>
+        <v>106</v>
+      </c>
+      <c r="F63" s="25">
+        <v>50</v>
+      </c>
       <c r="G63" s="25" t="s">
-        <v>93</v>
-      </c>
-      <c r="H63" s="24"/>
+        <v>90</v>
+      </c>
+      <c r="H63" s="25"/>
       <c r="I63" s="24"/>
       <c r="J63" s="25" t="s">
-        <v>74</v>
+        <v>122</v>
       </c>
       <c r="K63" s="2"/>
       <c r="L63" s="2"/>
@@ -4807,27 +4839,25 @@
     <row r="64" spans="1:25" ht="15.75" customHeight="1">
       <c r="A64" s="3"/>
       <c r="B64" s="25">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C64" s="25" t="s">
-        <v>108</v>
+        <v>41</v>
       </c>
       <c r="D64" s="26" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="E64" s="25" t="s">
-        <v>107</v>
-      </c>
-      <c r="F64" s="25">
-        <v>20</v>
-      </c>
+        <v>43</v>
+      </c>
+      <c r="F64" s="25"/>
       <c r="G64" s="25" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="H64" s="24"/>
       <c r="I64" s="24"/>
-      <c r="J64" s="23" t="s">
-        <v>97</v>
+      <c r="J64" s="25" t="s">
+        <v>74</v>
       </c>
       <c r="K64" s="2"/>
       <c r="L64" s="2"/>
@@ -4847,15 +4877,29 @@
     </row>
     <row r="65" spans="1:25" ht="15.75" customHeight="1">
       <c r="A65" s="3"/>
-      <c r="B65" s="3"/>
-      <c r="C65" s="3"/>
-      <c r="D65" s="3"/>
-      <c r="E65" s="3"/>
-      <c r="F65" s="3"/>
-      <c r="G65" s="3"/>
-      <c r="H65" s="3"/>
-      <c r="I65" s="3"/>
-      <c r="J65" s="4"/>
+      <c r="B65" s="25">
+        <v>6</v>
+      </c>
+      <c r="C65" s="25" t="s">
+        <v>107</v>
+      </c>
+      <c r="D65" s="26" t="s">
+        <v>97</v>
+      </c>
+      <c r="E65" s="25" t="s">
+        <v>106</v>
+      </c>
+      <c r="F65" s="25">
+        <v>20</v>
+      </c>
+      <c r="G65" s="25" t="s">
+        <v>92</v>
+      </c>
+      <c r="H65" s="24"/>
+      <c r="I65" s="24"/>
+      <c r="J65" s="23" t="s">
+        <v>96</v>
+      </c>
       <c r="K65" s="2"/>
       <c r="L65" s="2"/>
       <c r="M65" s="2"/>
@@ -4874,17 +4918,15 @@
     </row>
     <row r="66" spans="1:25" ht="15.75" customHeight="1">
       <c r="A66" s="3"/>
-      <c r="B66" s="36" t="s">
-        <v>4</v>
-      </c>
-      <c r="C66" s="37"/>
-      <c r="D66" s="37"/>
-      <c r="E66" s="37"/>
-      <c r="F66" s="37"/>
-      <c r="G66" s="37"/>
-      <c r="H66" s="37"/>
-      <c r="I66" s="37"/>
-      <c r="J66" s="38"/>
+      <c r="B66" s="3"/>
+      <c r="C66" s="3"/>
+      <c r="D66" s="3"/>
+      <c r="E66" s="3"/>
+      <c r="F66" s="3"/>
+      <c r="G66" s="3"/>
+      <c r="H66" s="3"/>
+      <c r="I66" s="3"/>
+      <c r="J66" s="4"/>
       <c r="K66" s="2"/>
       <c r="L66" s="2"/>
       <c r="M66" s="2"/>
@@ -4901,98 +4943,115 @@
       <c r="X66" s="2"/>
       <c r="Y66" s="2"/>
     </row>
-    <row r="67" spans="1:25" ht="15" customHeight="1">
-      <c r="B67" s="5" t="s">
+    <row r="67" spans="1:25" ht="15.75" customHeight="1">
+      <c r="A67" s="3"/>
+      <c r="B67" s="36" t="s">
+        <v>4</v>
+      </c>
+      <c r="C67" s="37"/>
+      <c r="D67" s="37"/>
+      <c r="E67" s="37"/>
+      <c r="F67" s="37"/>
+      <c r="G67" s="37"/>
+      <c r="H67" s="37"/>
+      <c r="I67" s="37"/>
+      <c r="J67" s="38"/>
+      <c r="K67" s="2"/>
+      <c r="L67" s="2"/>
+      <c r="M67" s="2"/>
+      <c r="N67" s="2"/>
+      <c r="O67" s="2"/>
+      <c r="P67" s="2"/>
+      <c r="Q67" s="2"/>
+      <c r="R67" s="2"/>
+      <c r="S67" s="2"/>
+      <c r="T67" s="2"/>
+      <c r="U67" s="2"/>
+      <c r="V67" s="2"/>
+      <c r="W67" s="2"/>
+      <c r="X67" s="2"/>
+      <c r="Y67" s="2"/>
+    </row>
+    <row r="68" spans="1:25" ht="15" customHeight="1">
+      <c r="B68" s="5" t="s">
+        <v>83</v>
+      </c>
+      <c r="C68" s="34" t="s">
         <v>84</v>
       </c>
-      <c r="C67" s="34" t="s">
+      <c r="D68" s="34" t="s">
+        <v>86</v>
+      </c>
+      <c r="E68" s="34" t="s">
+        <v>16</v>
+      </c>
+      <c r="F68" s="34" t="s">
         <v>85</v>
       </c>
-      <c r="D67" s="34" t="s">
+      <c r="G68" s="34" t="s">
+        <v>13</v>
+      </c>
+      <c r="H68" s="34" t="s">
+        <v>101</v>
+      </c>
+      <c r="I68" s="34" t="s">
         <v>87</v>
       </c>
-      <c r="E67" s="34" t="s">
-        <v>16</v>
-      </c>
-      <c r="F67" s="34" t="s">
-        <v>86</v>
-      </c>
-      <c r="G67" s="34" t="s">
-        <v>13</v>
-      </c>
-      <c r="H67" s="34" t="s">
-        <v>102</v>
-      </c>
-      <c r="I67" s="34" t="s">
+      <c r="J68" s="34" t="s">
         <v>88</v>
       </c>
-      <c r="J67" s="34" t="s">
-        <v>89</v>
-      </c>
-      <c r="K67" s="3"/>
-    </row>
-    <row r="68" spans="1:25" ht="15" customHeight="1">
-      <c r="B68" s="5">
-        <v>1</v>
-      </c>
-      <c r="C68" s="25" t="s">
-        <v>22</v>
-      </c>
-      <c r="D68" s="35" t="s">
-        <v>45</v>
-      </c>
-      <c r="E68" s="34" t="s">
-        <v>107</v>
-      </c>
-      <c r="F68" s="34">
-        <v>70</v>
-      </c>
-      <c r="G68" s="34" t="s">
-        <v>93</v>
-      </c>
-      <c r="H68" s="34" t="s">
-        <v>91</v>
-      </c>
-      <c r="I68" s="34" t="s">
-        <v>92</v>
-      </c>
-      <c r="J68" s="34"/>
       <c r="K68" s="3"/>
     </row>
     <row r="69" spans="1:25" ht="15" customHeight="1">
       <c r="B69" s="5">
-        <v>2</v>
-      </c>
-      <c r="C69" s="34" t="s">
-        <v>50</v>
+        <v>1</v>
+      </c>
+      <c r="C69" s="25" t="s">
+        <v>22</v>
       </c>
       <c r="D69" s="35" t="s">
-        <v>103</v>
+        <v>45</v>
       </c>
       <c r="E69" s="34" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="F69" s="34">
         <v>70</v>
       </c>
       <c r="G69" s="34" t="s">
-        <v>93</v>
-      </c>
-      <c r="H69" s="34"/>
-      <c r="I69" s="34"/>
+        <v>92</v>
+      </c>
+      <c r="H69" s="34" t="s">
+        <v>90</v>
+      </c>
+      <c r="I69" s="34" t="s">
+        <v>91</v>
+      </c>
       <c r="J69" s="34"/>
       <c r="K69" s="3"/>
     </row>
     <row r="70" spans="1:25" ht="15" customHeight="1">
-      <c r="B70" s="3"/>
-      <c r="C70" s="3"/>
-      <c r="D70" s="3"/>
-      <c r="E70" s="3"/>
-      <c r="F70" s="3"/>
-      <c r="G70" s="3"/>
-      <c r="H70" s="3"/>
-      <c r="I70" s="3"/>
-      <c r="J70" s="3"/>
+      <c r="B70" s="5">
+        <v>2</v>
+      </c>
+      <c r="C70" s="34" t="s">
+        <v>50</v>
+      </c>
+      <c r="D70" s="35" t="s">
+        <v>102</v>
+      </c>
+      <c r="E70" s="34" t="s">
+        <v>106</v>
+      </c>
+      <c r="F70" s="34">
+        <v>70</v>
+      </c>
+      <c r="G70" s="34" t="s">
+        <v>92</v>
+      </c>
+      <c r="H70" s="34"/>
+      <c r="I70" s="34"/>
+      <c r="J70" s="34"/>
       <c r="K70" s="3"/>
     </row>
     <row r="71" spans="1:25" ht="15" customHeight="1">
@@ -5043,8 +5102,7 @@
       <c r="J74" s="3"/>
       <c r="K74" s="3"/>
     </row>
-    <row r="75" spans="1:25" ht="15.75" customHeight="1">
-      <c r="A75" s="3"/>
+    <row r="75" spans="1:25" ht="15" customHeight="1">
       <c r="B75" s="3"/>
       <c r="C75" s="3"/>
       <c r="D75" s="3"/>
@@ -5055,20 +5113,6 @@
       <c r="I75" s="3"/>
       <c r="J75" s="3"/>
       <c r="K75" s="3"/>
-      <c r="L75" s="2"/>
-      <c r="M75" s="2"/>
-      <c r="N75" s="2"/>
-      <c r="O75" s="2"/>
-      <c r="P75" s="2"/>
-      <c r="Q75" s="2"/>
-      <c r="R75" s="2"/>
-      <c r="S75" s="2"/>
-      <c r="T75" s="2"/>
-      <c r="U75" s="2"/>
-      <c r="V75" s="2"/>
-      <c r="W75" s="2"/>
-      <c r="X75" s="2"/>
-      <c r="Y75" s="2"/>
     </row>
     <row r="76" spans="1:25" ht="15.75" customHeight="1">
       <c r="A76" s="3"/>
@@ -5188,8 +5232,8 @@
       <c r="G80" s="3"/>
       <c r="H80" s="3"/>
       <c r="I80" s="3"/>
-      <c r="J80" s="4"/>
-      <c r="K80" s="2"/>
+      <c r="J80" s="3"/>
+      <c r="K80" s="3"/>
       <c r="L80" s="2"/>
       <c r="M80" s="2"/>
       <c r="N80" s="2"/>
@@ -7313,15 +7357,15 @@
     </row>
     <row r="159" spans="1:25" ht="15.75" customHeight="1">
       <c r="A159" s="3"/>
-      <c r="B159" s="2"/>
-      <c r="C159" s="2"/>
-      <c r="D159" s="2"/>
-      <c r="E159" s="2"/>
-      <c r="F159" s="2"/>
-      <c r="G159" s="2"/>
-      <c r="H159" s="2"/>
-      <c r="I159" s="2"/>
-      <c r="J159" s="2"/>
+      <c r="B159" s="3"/>
+      <c r="C159" s="3"/>
+      <c r="D159" s="3"/>
+      <c r="E159" s="3"/>
+      <c r="F159" s="3"/>
+      <c r="G159" s="3"/>
+      <c r="H159" s="3"/>
+      <c r="I159" s="3"/>
+      <c r="J159" s="4"/>
       <c r="K159" s="2"/>
       <c r="L159" s="2"/>
       <c r="M159" s="2"/>
@@ -7339,7 +7383,7 @@
       <c r="Y159" s="2"/>
     </row>
     <row r="160" spans="1:25" ht="15.75" customHeight="1">
-      <c r="A160" s="2"/>
+      <c r="A160" s="3"/>
       <c r="B160" s="2"/>
       <c r="C160" s="2"/>
       <c r="D160" s="2"/>
@@ -27158,6 +27202,15 @@
     </row>
     <row r="894" spans="1:25" ht="15.75" customHeight="1">
       <c r="A894" s="2"/>
+      <c r="B894" s="2"/>
+      <c r="C894" s="2"/>
+      <c r="D894" s="2"/>
+      <c r="E894" s="2"/>
+      <c r="F894" s="2"/>
+      <c r="G894" s="2"/>
+      <c r="H894" s="2"/>
+      <c r="I894" s="2"/>
+      <c r="J894" s="2"/>
       <c r="K894" s="2"/>
       <c r="L894" s="2"/>
       <c r="M894" s="2"/>
@@ -27174,14 +27227,32 @@
       <c r="X894" s="2"/>
       <c r="Y894" s="2"/>
     </row>
+    <row r="895" spans="1:25" ht="15.75" customHeight="1">
+      <c r="A895" s="2"/>
+      <c r="K895" s="2"/>
+      <c r="L895" s="2"/>
+      <c r="M895" s="2"/>
+      <c r="N895" s="2"/>
+      <c r="O895" s="2"/>
+      <c r="P895" s="2"/>
+      <c r="Q895" s="2"/>
+      <c r="R895" s="2"/>
+      <c r="S895" s="2"/>
+      <c r="T895" s="2"/>
+      <c r="U895" s="2"/>
+      <c r="V895" s="2"/>
+      <c r="W895" s="2"/>
+      <c r="X895" s="2"/>
+      <c r="Y895" s="2"/>
+    </row>
   </sheetData>
   <mergeCells count="7">
-    <mergeCell ref="B66:J66"/>
+    <mergeCell ref="B67:J67"/>
     <mergeCell ref="B2:J3"/>
     <mergeCell ref="B15:J15"/>
-    <mergeCell ref="B47:J47"/>
+    <mergeCell ref="B48:J48"/>
     <mergeCell ref="B34:J34"/>
-    <mergeCell ref="B57:J57"/>
+    <mergeCell ref="B58:J58"/>
     <mergeCell ref="B6:J6"/>
   </mergeCells>
   <phoneticPr fontId="8" type="noConversion"/>

--- a/프로젝트 산출물/5. 테이블명세서/캠플렉스 테이블 명세서.xlsx
+++ b/프로젝트 산출물/5. 테이블명세서/캠플렉스 테이블 명세서.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="290" uniqueCount="135">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="285" uniqueCount="133">
   <si>
     <r>
       <rPr>
@@ -78,9 +78,6 @@
       </rPr>
       <t>, Default SYSDATE</t>
     </r>
-  </si>
-  <si>
-    <t>RESERVATION_SEQ : SEQUENCE</t>
   </si>
   <si>
     <r>
@@ -308,26 +305,6 @@
       <rPr>
         <sz val="11"/>
         <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>r</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>_apllicationdate</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
         <rFont val="돋움"/>
         <family val="3"/>
         <charset val="129"/>
@@ -515,9 +492,6 @@
     <t>상품번호</t>
   </si>
   <si>
-    <t>예약 날짜</t>
-  </si>
-  <si>
     <t>데이터 타입</t>
   </si>
   <si>
@@ -692,9 +666,6 @@
     <t>아이디(PK)</t>
   </si>
   <si>
-    <t>c_agree</t>
-  </si>
-  <si>
     <r>
       <rPr>
         <sz val="10"/>
@@ -766,9 +737,6 @@
     <t>회원 전화번호</t>
   </si>
   <si>
-    <t>rv_date</t>
-  </si>
-  <si>
     <r>
       <rPr>
         <sz val="11"/>
@@ -796,46 +764,6 @@
         <rFont val="Arial"/>
         <family val="2"/>
       </rPr>
-      <t>a</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>_agree</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>r</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>_date</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
       <t>D</t>
     </r>
     <r>
@@ -846,46 +774,6 @@
         <family val="2"/>
       </rPr>
       <t>ATE</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>r</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>_count</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>r</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>_state</t>
     </r>
   </si>
   <si>
@@ -946,26 +834,6 @@
         <family val="2"/>
       </rPr>
       <t>_name</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>r</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>_price</t>
     </r>
   </si>
   <si>
@@ -1059,75 +927,6 @@
     </r>
   </si>
   <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="돋움"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>렌탈</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="돋움"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>상품에</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="돋움"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>관한</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="돋움"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>수량</t>
-    </r>
-  </si>
-  <si>
     <t>p_information</t>
   </si>
   <si>
@@ -1144,9 +943,6 @@
   </si>
   <si>
     <t>NOTICE_SEQ : SEQUENCE</t>
-  </si>
-  <si>
-    <t>REVIEW_SEQ : SEQUENCE</t>
   </si>
   <si>
     <t>INQUIRY_SEQ : SEQUENCE</t>
@@ -1186,9 +982,6 @@
   </si>
   <si>
     <t>N</t>
-  </si>
-  <si>
-    <t>수량</t>
   </si>
   <si>
     <t>사진</t>
@@ -1274,56 +1067,6 @@
   </si>
   <si>
     <t>n_number</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="돋움"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>예약</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="돋움"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>신청한</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="돋움"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>날짜</t>
-    </r>
   </si>
   <si>
     <t>p_number</t>
@@ -1457,9 +1200,6 @@
     <t>회원 생년 월일</t>
   </si>
   <si>
-    <t>rv_number</t>
-  </si>
-  <si>
     <r>
       <rPr>
         <sz val="10"/>
@@ -1508,9 +1248,6 @@
       </rPr>
       <t>동의</t>
     </r>
-  </si>
-  <si>
-    <t>rv_content</t>
   </si>
   <si>
     <r>
@@ -1660,46 +1397,6 @@
         <rFont val="Arial"/>
         <family val="2"/>
       </rPr>
-      <t>p</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>_u_agree</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>p</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>_i_agree</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
       <t>r</t>
     </r>
     <r>
@@ -1762,35 +1459,6 @@
   </si>
   <si>
     <t>p_price</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>p_state</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">ture / false </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="돋움"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>선택</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>, Default true</t>
-    </r>
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
@@ -1899,6 +1567,238 @@
       </rPr>
       <t>선택</t>
     </r>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>r_enddate</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>예약 시작날짜</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>예약 종료날짜</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>예약</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>시작한</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>날짜</t>
+    </r>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>예약</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>종료한</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>날짜</t>
+    </r>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>r</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>_apllicationdate</t>
+    </r>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>r_startdate</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>r</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>_price</t>
+    </r>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>r</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>_state</t>
+    </r>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>rv_number</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>rv_date</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>rv_content</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>c_agree</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>p</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>_u_agree</t>
+    </r>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>p</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>_i_agree</t>
+    </r>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>a</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>_agree</t>
+    </r>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>RESERVATION_SEQ : SEQUENCE</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>REVIEW_SEQ : SEQUENCE</t>
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
 </sst>
@@ -2462,10 +2362,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:Y895"/>
+  <dimension ref="A1:Y894"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="L25" sqref="L25"/>
+    <sheetView tabSelected="1" topLeftCell="C10" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="F29" sqref="F29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="12.75"/>
@@ -2511,7 +2411,7 @@
     <row r="2" spans="1:25" ht="15.75" customHeight="1">
       <c r="A2" s="1"/>
       <c r="B2" s="39" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="C2" s="40"/>
       <c r="D2" s="40"/>
@@ -2621,7 +2521,7 @@
     <row r="6" spans="1:25" ht="15.75" customHeight="1">
       <c r="A6" s="17"/>
       <c r="B6" s="45" t="s">
-        <v>75</v>
+        <v>64</v>
       </c>
       <c r="C6" s="46"/>
       <c r="D6" s="46"/>
@@ -2650,31 +2550,31 @@
     <row r="7" spans="1:25" ht="15.75" customHeight="1">
       <c r="A7" s="17"/>
       <c r="B7" s="25" t="s">
-        <v>83</v>
+        <v>71</v>
       </c>
       <c r="C7" s="25" t="s">
-        <v>84</v>
+        <v>72</v>
       </c>
       <c r="D7" s="25" t="s">
-        <v>86</v>
+        <v>74</v>
       </c>
       <c r="E7" s="25" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="F7" s="25" t="s">
-        <v>85</v>
+        <v>73</v>
       </c>
       <c r="G7" s="25" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="H7" s="25" t="s">
-        <v>105</v>
+        <v>92</v>
       </c>
       <c r="I7" s="25" t="s">
-        <v>87</v>
+        <v>75</v>
       </c>
       <c r="J7" s="25" t="s">
-        <v>88</v>
+        <v>76</v>
       </c>
       <c r="K7" s="2"/>
       <c r="L7" s="2"/>
@@ -2698,28 +2598,28 @@
         <v>1</v>
       </c>
       <c r="C8" s="25" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="D8" s="26" t="s">
-        <v>89</v>
+        <v>77</v>
       </c>
       <c r="E8" s="25" t="s">
-        <v>106</v>
+        <v>93</v>
       </c>
       <c r="F8" s="25">
         <v>50</v>
       </c>
       <c r="G8" s="25" t="s">
-        <v>92</v>
+        <v>80</v>
       </c>
       <c r="H8" s="25" t="s">
+        <v>78</v>
+      </c>
+      <c r="I8" s="25" t="s">
         <v>90</v>
       </c>
-      <c r="I8" s="25" t="s">
-        <v>103</v>
-      </c>
       <c r="J8" s="26" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="K8" s="2"/>
       <c r="L8" s="2"/>
@@ -2743,24 +2643,24 @@
         <v>2</v>
       </c>
       <c r="C9" s="25" t="s">
-        <v>53</v>
+        <v>48</v>
       </c>
       <c r="D9" s="26" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="E9" s="25" t="s">
-        <v>106</v>
+        <v>93</v>
       </c>
       <c r="F9" s="24">
         <v>20</v>
       </c>
       <c r="G9" s="25" t="s">
-        <v>92</v>
+        <v>80</v>
       </c>
       <c r="H9" s="25"/>
       <c r="I9" s="27"/>
       <c r="J9" s="25" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="K9" s="2"/>
       <c r="L9" s="2"/>
@@ -2784,24 +2684,24 @@
         <v>3</v>
       </c>
       <c r="C10" s="25" t="s">
-        <v>61</v>
+        <v>52</v>
       </c>
       <c r="D10" s="26" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="E10" s="25" t="s">
-        <v>106</v>
+        <v>93</v>
       </c>
       <c r="F10" s="25">
         <v>10</v>
       </c>
       <c r="G10" s="25" t="s">
-        <v>92</v>
+        <v>80</v>
       </c>
       <c r="H10" s="24"/>
       <c r="I10" s="24"/>
       <c r="J10" s="26" t="s">
-        <v>116</v>
+        <v>102</v>
       </c>
       <c r="K10" s="2"/>
       <c r="L10" s="2"/>
@@ -2825,24 +2725,24 @@
         <v>4</v>
       </c>
       <c r="C11" s="25" t="s">
-        <v>59</v>
+        <v>50</v>
       </c>
       <c r="D11" s="26" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="E11" s="25" t="s">
-        <v>106</v>
+        <v>93</v>
       </c>
       <c r="F11" s="25">
         <v>11</v>
       </c>
       <c r="G11" s="25" t="s">
-        <v>92</v>
+        <v>80</v>
       </c>
       <c r="H11" s="25"/>
       <c r="I11" s="24"/>
       <c r="J11" s="25" t="s">
-        <v>123</v>
+        <v>107</v>
       </c>
       <c r="K11" s="2"/>
       <c r="L11" s="2"/>
@@ -2866,22 +2766,22 @@
         <v>5</v>
       </c>
       <c r="C12" s="25" t="s">
-        <v>60</v>
+        <v>51</v>
       </c>
       <c r="D12" s="26" t="s">
-        <v>117</v>
+        <v>103</v>
       </c>
       <c r="E12" s="25" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="F12" s="25"/>
       <c r="G12" s="25" t="s">
-        <v>92</v>
+        <v>80</v>
       </c>
       <c r="H12" s="25"/>
       <c r="I12" s="24"/>
       <c r="J12" s="25" t="s">
-        <v>76</v>
+        <v>65</v>
       </c>
       <c r="K12" s="2"/>
       <c r="L12" s="2"/>
@@ -2956,7 +2856,7 @@
     <row r="15" spans="1:25" ht="15.75" customHeight="1">
       <c r="A15" s="4"/>
       <c r="B15" s="36" t="s">
-        <v>77</v>
+        <v>66</v>
       </c>
       <c r="C15" s="37"/>
       <c r="D15" s="37"/>
@@ -2985,31 +2885,31 @@
     <row r="16" spans="1:25" ht="15.75" customHeight="1">
       <c r="A16" s="4"/>
       <c r="B16" s="5" t="s">
-        <v>83</v>
+        <v>71</v>
       </c>
       <c r="C16" s="6" t="s">
-        <v>84</v>
+        <v>72</v>
       </c>
       <c r="D16" s="6" t="s">
-        <v>86</v>
+        <v>74</v>
       </c>
       <c r="E16" s="6" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="F16" s="6" t="s">
-        <v>85</v>
+        <v>73</v>
       </c>
       <c r="G16" s="6" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="H16" s="6" t="s">
-        <v>105</v>
+        <v>92</v>
       </c>
       <c r="I16" s="6" t="s">
-        <v>87</v>
+        <v>75</v>
       </c>
       <c r="J16" s="6" t="s">
-        <v>88</v>
+        <v>76</v>
       </c>
       <c r="K16" s="2"/>
       <c r="L16" s="2"/>
@@ -3033,26 +2933,26 @@
         <v>1</v>
       </c>
       <c r="C17" s="16" t="s">
-        <v>126</v>
+        <v>108</v>
       </c>
       <c r="D17" s="7" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="E17" s="19" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="F17" s="8"/>
       <c r="G17" s="6" t="s">
-        <v>92</v>
+        <v>80</v>
       </c>
       <c r="H17" s="6" t="s">
-        <v>90</v>
+        <v>78</v>
       </c>
       <c r="I17" s="6" t="s">
-        <v>91</v>
+        <v>79</v>
       </c>
       <c r="J17" s="22" t="s">
-        <v>1</v>
+        <v>131</v>
       </c>
       <c r="K17" s="2"/>
       <c r="L17" s="2"/>
@@ -3076,25 +2976,25 @@
         <v>2</v>
       </c>
       <c r="C18" s="19" t="s">
-        <v>63</v>
+        <v>53</v>
       </c>
       <c r="D18" s="7" t="s">
-        <v>89</v>
+        <v>77</v>
       </c>
       <c r="E18" s="6" t="s">
-        <v>106</v>
+        <v>93</v>
       </c>
       <c r="F18" s="25">
         <v>50</v>
       </c>
       <c r="G18" s="6" t="s">
-        <v>92</v>
+        <v>80</v>
       </c>
       <c r="H18" s="16" t="s">
-        <v>90</v>
+        <v>78</v>
       </c>
       <c r="I18" s="21" t="s">
-        <v>104</v>
+        <v>91</v>
       </c>
       <c r="J18" s="6"/>
       <c r="K18" s="2"/>
@@ -3119,23 +3019,23 @@
         <v>3</v>
       </c>
       <c r="C19" s="19" t="s">
-        <v>127</v>
+        <v>109</v>
       </c>
       <c r="D19" s="7" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="E19" s="19" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="F19" s="6"/>
       <c r="G19" s="6" t="s">
-        <v>92</v>
+        <v>80</v>
       </c>
       <c r="H19" s="16" t="s">
-        <v>90</v>
+        <v>78</v>
       </c>
       <c r="I19" s="21" t="s">
-        <v>104</v>
+        <v>91</v>
       </c>
       <c r="J19" s="7"/>
       <c r="K19" s="2"/>
@@ -3160,22 +3060,22 @@
         <v>4</v>
       </c>
       <c r="C20" s="19" t="s">
-        <v>7</v>
+        <v>120</v>
       </c>
       <c r="D20" s="7" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="E20" s="19" t="s">
-        <v>56</v>
+        <v>49</v>
       </c>
       <c r="F20" s="8"/>
       <c r="G20" s="6" t="s">
-        <v>92</v>
+        <v>80</v>
       </c>
       <c r="H20" s="6"/>
       <c r="I20" s="9"/>
       <c r="J20" s="19" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="K20" s="2"/>
       <c r="L20" s="2"/>
@@ -3199,22 +3099,22 @@
         <v>5</v>
       </c>
       <c r="C21" s="19" t="s">
-        <v>55</v>
+        <v>121</v>
       </c>
       <c r="D21" s="7" t="s">
-        <v>15</v>
+        <v>116</v>
       </c>
       <c r="E21" s="19" t="s">
-        <v>56</v>
+        <v>49</v>
       </c>
       <c r="F21" s="6"/>
       <c r="G21" s="6" t="s">
-        <v>92</v>
+        <v>80</v>
       </c>
       <c r="H21" s="9"/>
       <c r="I21" s="9"/>
       <c r="J21" s="19" t="s">
-        <v>111</v>
+        <v>118</v>
       </c>
       <c r="K21" s="2"/>
       <c r="L21" s="2"/>
@@ -3233,27 +3133,27 @@
       <c r="Y21" s="2"/>
     </row>
     <row r="22" spans="1:25" ht="15.75" customHeight="1">
-      <c r="A22" s="4"/>
+      <c r="A22" s="31"/>
       <c r="B22" s="5">
-        <v>6</v>
-      </c>
-      <c r="C22" s="19" t="s">
-        <v>62</v>
-      </c>
-      <c r="D22" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="E22" s="19" t="s">
-        <v>24</v>
-      </c>
-      <c r="F22" s="8"/>
-      <c r="G22" s="6" t="s">
-        <v>92</v>
-      </c>
-      <c r="H22" s="9"/>
-      <c r="I22" s="9"/>
-      <c r="J22" s="19" t="s">
-        <v>113</v>
+        <v>5</v>
+      </c>
+      <c r="C22" s="34" t="s">
+        <v>115</v>
+      </c>
+      <c r="D22" s="35" t="s">
+        <v>117</v>
+      </c>
+      <c r="E22" s="34" t="s">
+        <v>49</v>
+      </c>
+      <c r="F22" s="34"/>
+      <c r="G22" s="34" t="s">
+        <v>80</v>
+      </c>
+      <c r="H22" s="21"/>
+      <c r="I22" s="21"/>
+      <c r="J22" s="34" t="s">
+        <v>119</v>
       </c>
       <c r="K22" s="2"/>
       <c r="L22" s="2"/>
@@ -3274,27 +3174,25 @@
     <row r="23" spans="1:25" ht="15.75" customHeight="1">
       <c r="A23" s="4"/>
       <c r="B23" s="5">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C23" s="19" t="s">
-        <v>58</v>
+        <v>122</v>
       </c>
       <c r="D23" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="E23" s="6" t="s">
-        <v>106</v>
-      </c>
-      <c r="F23" s="8">
-        <v>20</v>
-      </c>
+        <v>14</v>
+      </c>
+      <c r="E23" s="19" t="s">
+        <v>21</v>
+      </c>
+      <c r="F23" s="8"/>
       <c r="G23" s="6" t="s">
-        <v>92</v>
-      </c>
-      <c r="H23" s="6"/>
+        <v>80</v>
+      </c>
+      <c r="H23" s="9"/>
       <c r="I23" s="9"/>
       <c r="J23" s="19" t="s">
-        <v>134</v>
+        <v>99</v>
       </c>
       <c r="K23" s="2"/>
       <c r="L23" s="2"/>
@@ -3315,27 +3213,27 @@
     <row r="24" spans="1:25" ht="15.75" customHeight="1">
       <c r="A24" s="4"/>
       <c r="B24" s="5">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C24" s="19" t="s">
-        <v>57</v>
+        <v>123</v>
       </c>
       <c r="D24" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="E24" s="6" t="s">
         <v>93</v>
       </c>
-      <c r="E24" s="19" t="s">
-        <v>24</v>
-      </c>
       <c r="F24" s="8">
-        <v>2</v>
+        <v>20</v>
       </c>
       <c r="G24" s="6" t="s">
-        <v>92</v>
-      </c>
-      <c r="H24" s="9"/>
+        <v>80</v>
+      </c>
+      <c r="H24" s="6"/>
       <c r="I24" s="9"/>
       <c r="J24" s="19" t="s">
-        <v>72</v>
+        <v>114</v>
       </c>
       <c r="K24" s="2"/>
       <c r="L24" s="2"/>
@@ -3356,27 +3254,27 @@
     <row r="25" spans="1:25" ht="15.75" customHeight="1">
       <c r="A25" s="3"/>
       <c r="B25" s="5">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C25" s="19" t="s">
-        <v>118</v>
+        <v>124</v>
       </c>
       <c r="D25" s="20" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="E25" s="19" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="F25" s="8"/>
       <c r="G25" s="6" t="s">
-        <v>92</v>
+        <v>80</v>
       </c>
       <c r="H25" s="21" t="s">
-        <v>90</v>
+        <v>78</v>
       </c>
       <c r="I25" s="9"/>
       <c r="J25" s="22" t="s">
-        <v>79</v>
+        <v>132</v>
       </c>
       <c r="K25" s="2"/>
       <c r="L25" s="2"/>
@@ -3397,20 +3295,20 @@
     <row r="26" spans="1:25" ht="15.75" customHeight="1">
       <c r="A26" s="3"/>
       <c r="B26" s="5">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C26" s="19" t="s">
-        <v>52</v>
+        <v>125</v>
       </c>
       <c r="D26" s="19" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="E26" s="19" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="F26" s="8"/>
       <c r="G26" s="6" t="s">
-        <v>92</v>
+        <v>80</v>
       </c>
       <c r="H26" s="9"/>
       <c r="I26" s="9"/>
@@ -3436,22 +3334,22 @@
     <row r="27" spans="1:25" ht="15.75" customHeight="1">
       <c r="A27" s="3"/>
       <c r="B27" s="5">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C27" s="19" t="s">
-        <v>120</v>
+        <v>126</v>
       </c>
       <c r="D27" s="19" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="E27" s="8" t="s">
-        <v>106</v>
+        <v>93</v>
       </c>
       <c r="F27" s="8">
         <v>2000</v>
       </c>
       <c r="G27" s="6" t="s">
-        <v>92</v>
+        <v>80</v>
       </c>
       <c r="H27" s="9"/>
       <c r="I27" s="9"/>
@@ -3475,27 +3373,27 @@
     <row r="28" spans="1:25" ht="15.75" customHeight="1">
       <c r="A28" s="17"/>
       <c r="B28" s="5">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C28" s="25" t="s">
-        <v>46</v>
+        <v>127</v>
       </c>
       <c r="D28" s="26" t="s">
-        <v>119</v>
+        <v>104</v>
       </c>
       <c r="E28" s="19" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="F28" s="25">
         <v>1</v>
       </c>
       <c r="G28" s="25" t="s">
-        <v>92</v>
+        <v>80</v>
       </c>
       <c r="H28" s="25"/>
       <c r="I28" s="24"/>
       <c r="J28" s="25" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="K28" s="2"/>
       <c r="L28" s="2"/>
@@ -3516,27 +3414,27 @@
     <row r="29" spans="1:25" ht="15.75" customHeight="1">
       <c r="A29" s="17"/>
       <c r="B29" s="5">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C29" s="25" t="s">
-        <v>124</v>
+        <v>128</v>
       </c>
       <c r="D29" s="26" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="E29" s="19" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="F29" s="25">
         <v>1</v>
       </c>
       <c r="G29" s="25" t="s">
-        <v>92</v>
+        <v>80</v>
       </c>
       <c r="H29" s="25"/>
       <c r="I29" s="24"/>
       <c r="J29" s="25" t="s">
-        <v>71</v>
+        <v>61</v>
       </c>
       <c r="K29" s="2"/>
       <c r="L29" s="2"/>
@@ -3557,27 +3455,27 @@
     <row r="30" spans="1:25" ht="15.75" customHeight="1">
       <c r="A30" s="17"/>
       <c r="B30" s="5">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C30" s="25" t="s">
-        <v>125</v>
+        <v>129</v>
       </c>
       <c r="D30" s="26" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="E30" s="19" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="F30" s="25">
         <v>1</v>
       </c>
       <c r="G30" s="25" t="s">
-        <v>92</v>
+        <v>80</v>
       </c>
       <c r="H30" s="25"/>
       <c r="I30" s="24"/>
       <c r="J30" s="25" t="s">
-        <v>71</v>
+        <v>61</v>
       </c>
       <c r="K30" s="2"/>
       <c r="L30" s="2"/>
@@ -3598,27 +3496,27 @@
     <row r="31" spans="1:25" ht="15.75" customHeight="1">
       <c r="A31" s="17"/>
       <c r="B31" s="5">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C31" s="25" t="s">
-        <v>54</v>
+        <v>130</v>
       </c>
       <c r="D31" s="26" t="s">
-        <v>121</v>
+        <v>105</v>
       </c>
       <c r="E31" s="19" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="F31" s="25">
         <v>1</v>
       </c>
       <c r="G31" s="25" t="s">
-        <v>92</v>
+        <v>80</v>
       </c>
       <c r="H31" s="25"/>
       <c r="I31" s="24"/>
       <c r="J31" s="25" t="s">
-        <v>71</v>
+        <v>61</v>
       </c>
       <c r="K31" s="2"/>
       <c r="L31" s="2"/>
@@ -3693,7 +3591,7 @@
     <row r="34" spans="1:25" ht="15.75" customHeight="1">
       <c r="A34" s="3"/>
       <c r="B34" s="45" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="C34" s="46"/>
       <c r="D34" s="46"/>
@@ -3722,31 +3620,31 @@
     <row r="35" spans="1:25" ht="15.75" customHeight="1">
       <c r="A35" s="3"/>
       <c r="B35" s="25" t="s">
-        <v>83</v>
+        <v>71</v>
       </c>
       <c r="C35" s="25" t="s">
-        <v>84</v>
+        <v>72</v>
       </c>
       <c r="D35" s="25" t="s">
-        <v>86</v>
+        <v>74</v>
       </c>
       <c r="E35" s="25" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="F35" s="25" t="s">
-        <v>85</v>
+        <v>73</v>
       </c>
       <c r="G35" s="25" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="H35" s="25" t="s">
-        <v>105</v>
+        <v>92</v>
       </c>
       <c r="I35" s="25" t="s">
-        <v>87</v>
+        <v>75</v>
       </c>
       <c r="J35" s="25" t="s">
-        <v>88</v>
+        <v>76</v>
       </c>
       <c r="K35" s="2"/>
       <c r="L35" s="2"/>
@@ -3770,26 +3668,26 @@
         <v>1</v>
       </c>
       <c r="C36" s="25" t="s">
-        <v>112</v>
+        <v>98</v>
       </c>
       <c r="D36" s="26" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="E36" s="19" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="F36" s="25"/>
       <c r="G36" s="25" t="s">
-        <v>92</v>
+        <v>80</v>
       </c>
       <c r="H36" s="25" t="s">
-        <v>90</v>
+        <v>78</v>
       </c>
       <c r="I36" s="25" t="s">
-        <v>91</v>
+        <v>79</v>
       </c>
       <c r="J36" s="26" t="s">
-        <v>81</v>
+        <v>69</v>
       </c>
       <c r="K36" s="2"/>
       <c r="L36" s="2"/>
@@ -3813,24 +3711,24 @@
         <v>2</v>
       </c>
       <c r="C37" s="25" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="D37" s="26" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="E37" s="25" t="s">
-        <v>106</v>
+        <v>93</v>
       </c>
       <c r="F37" s="24">
         <v>10</v>
       </c>
       <c r="G37" s="25" t="s">
-        <v>92</v>
+        <v>80</v>
       </c>
       <c r="H37" s="25"/>
       <c r="I37" s="27"/>
       <c r="J37" s="25" t="s">
-        <v>115</v>
+        <v>101</v>
       </c>
       <c r="K37" s="2"/>
       <c r="L37" s="2"/>
@@ -3854,19 +3752,19 @@
         <v>3</v>
       </c>
       <c r="C38" s="25" t="s">
-        <v>130</v>
+        <v>112</v>
       </c>
       <c r="D38" s="26" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="E38" s="25" t="s">
-        <v>106</v>
+        <v>93</v>
       </c>
       <c r="F38" s="25">
         <v>20</v>
       </c>
       <c r="G38" s="25" t="s">
-        <v>92</v>
+        <v>80</v>
       </c>
       <c r="H38" s="24"/>
       <c r="I38" s="24"/>
@@ -3893,22 +3791,22 @@
         <v>4</v>
       </c>
       <c r="C39" s="25" t="s">
-        <v>131</v>
+        <v>113</v>
       </c>
       <c r="D39" s="26" t="s">
-        <v>100</v>
+        <v>87</v>
       </c>
       <c r="E39" s="19" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="F39" s="25"/>
       <c r="G39" s="25" t="s">
-        <v>92</v>
+        <v>80</v>
       </c>
       <c r="H39" s="25"/>
       <c r="I39" s="24"/>
       <c r="J39" s="23" t="s">
-        <v>109</v>
+        <v>96</v>
       </c>
       <c r="K39" s="2"/>
       <c r="L39" s="2"/>
@@ -3932,24 +3830,24 @@
         <v>5</v>
       </c>
       <c r="C40" s="25" t="s">
-        <v>73</v>
+        <v>62</v>
       </c>
       <c r="D40" s="26" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="E40" s="25" t="s">
-        <v>106</v>
+        <v>93</v>
       </c>
       <c r="F40" s="25">
         <v>2000</v>
       </c>
       <c r="G40" s="25" t="s">
-        <v>92</v>
+        <v>80</v>
       </c>
       <c r="H40" s="24"/>
       <c r="I40" s="24"/>
       <c r="J40" s="25" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="K40" s="2"/>
       <c r="L40" s="2"/>
@@ -3973,24 +3871,24 @@
         <v>6</v>
       </c>
       <c r="C41" s="25" t="s">
-        <v>67</v>
+        <v>57</v>
       </c>
       <c r="D41" s="26" t="s">
-        <v>129</v>
+        <v>111</v>
       </c>
       <c r="E41" s="25" t="s">
-        <v>106</v>
+        <v>93</v>
       </c>
       <c r="F41" s="25">
         <v>50</v>
       </c>
       <c r="G41" s="25" t="s">
-        <v>92</v>
+        <v>80</v>
       </c>
       <c r="H41" s="24"/>
       <c r="I41" s="24"/>
       <c r="J41" s="25" t="s">
-        <v>122</v>
+        <v>106</v>
       </c>
       <c r="K41" s="2"/>
       <c r="L41" s="2"/>
@@ -4014,24 +3912,24 @@
         <v>7</v>
       </c>
       <c r="C42" s="25" t="s">
-        <v>68</v>
+        <v>58</v>
       </c>
       <c r="D42" s="26" t="s">
-        <v>64</v>
+        <v>54</v>
       </c>
       <c r="E42" s="25" t="s">
-        <v>106</v>
+        <v>93</v>
       </c>
       <c r="F42" s="25">
         <v>50</v>
       </c>
       <c r="G42" s="25" t="s">
-        <v>92</v>
+        <v>80</v>
       </c>
       <c r="H42" s="24"/>
       <c r="I42" s="24"/>
       <c r="J42" s="25" t="s">
-        <v>122</v>
+        <v>106</v>
       </c>
       <c r="K42" s="2"/>
       <c r="L42" s="2"/>
@@ -4055,24 +3953,24 @@
         <v>8</v>
       </c>
       <c r="C43" s="25" t="s">
-        <v>69</v>
+        <v>59</v>
       </c>
       <c r="D43" s="26" t="s">
-        <v>65</v>
+        <v>55</v>
       </c>
       <c r="E43" s="25" t="s">
-        <v>106</v>
+        <v>93</v>
       </c>
       <c r="F43" s="25">
         <v>50</v>
       </c>
       <c r="G43" s="25" t="s">
-        <v>92</v>
+        <v>80</v>
       </c>
       <c r="H43" s="24"/>
       <c r="I43" s="24"/>
       <c r="J43" s="25" t="s">
-        <v>122</v>
+        <v>106</v>
       </c>
       <c r="K43" s="2"/>
       <c r="L43" s="2"/>
@@ -4096,24 +3994,24 @@
         <v>9</v>
       </c>
       <c r="C44" s="25" t="s">
-        <v>70</v>
+        <v>60</v>
       </c>
       <c r="D44" s="26" t="s">
-        <v>66</v>
+        <v>56</v>
       </c>
       <c r="E44" s="25" t="s">
-        <v>106</v>
+        <v>93</v>
       </c>
       <c r="F44" s="25">
         <v>50</v>
       </c>
       <c r="G44" s="25" t="s">
-        <v>92</v>
+        <v>80</v>
       </c>
       <c r="H44" s="24"/>
       <c r="I44" s="24"/>
       <c r="J44" s="25" t="s">
-        <v>122</v>
+        <v>106</v>
       </c>
       <c r="K44" s="2"/>
       <c r="L44" s="2"/>
@@ -4132,30 +4030,16 @@
       <c r="Y44" s="2"/>
     </row>
     <row r="45" spans="1:25" ht="15.75" customHeight="1">
-      <c r="A45" s="31"/>
-      <c r="B45" s="25">
-        <v>10</v>
-      </c>
-      <c r="C45" s="34" t="s">
-        <v>132</v>
-      </c>
-      <c r="D45" s="35" t="s">
-        <v>18</v>
-      </c>
-      <c r="E45" s="34" t="s">
-        <v>106</v>
-      </c>
-      <c r="F45" s="34">
-        <v>20</v>
-      </c>
-      <c r="G45" s="34" t="s">
-        <v>92</v>
-      </c>
-      <c r="H45" s="34"/>
-      <c r="I45" s="21"/>
-      <c r="J45" s="34" t="s">
-        <v>133</v>
-      </c>
+      <c r="A45" s="3"/>
+      <c r="B45" s="29"/>
+      <c r="C45" s="29"/>
+      <c r="D45" s="30"/>
+      <c r="E45" s="29"/>
+      <c r="F45" s="29"/>
+      <c r="G45" s="29"/>
+      <c r="H45" s="29"/>
+      <c r="I45" s="17"/>
+      <c r="J45" s="29"/>
       <c r="K45" s="2"/>
       <c r="L45" s="2"/>
       <c r="M45" s="2"/>
@@ -4180,7 +4064,7 @@
       <c r="E46" s="29"/>
       <c r="F46" s="29"/>
       <c r="G46" s="29"/>
-      <c r="H46" s="29"/>
+      <c r="H46" s="17"/>
       <c r="I46" s="17"/>
       <c r="J46" s="29"/>
       <c r="K46" s="2"/>
@@ -4201,15 +4085,17 @@
     </row>
     <row r="47" spans="1:25" ht="15.75" customHeight="1">
       <c r="A47" s="3"/>
-      <c r="B47" s="29"/>
-      <c r="C47" s="29"/>
-      <c r="D47" s="30"/>
-      <c r="E47" s="29"/>
-      <c r="F47" s="29"/>
-      <c r="G47" s="29"/>
-      <c r="H47" s="17"/>
-      <c r="I47" s="17"/>
-      <c r="J47" s="29"/>
+      <c r="B47" s="45" t="s">
+        <v>70</v>
+      </c>
+      <c r="C47" s="46"/>
+      <c r="D47" s="46"/>
+      <c r="E47" s="46"/>
+      <c r="F47" s="46"/>
+      <c r="G47" s="46"/>
+      <c r="H47" s="46"/>
+      <c r="I47" s="46"/>
+      <c r="J47" s="46"/>
       <c r="K47" s="2"/>
       <c r="L47" s="2"/>
       <c r="M47" s="2"/>
@@ -4228,17 +4114,33 @@
     </row>
     <row r="48" spans="1:25" ht="15.75" customHeight="1">
       <c r="A48" s="3"/>
-      <c r="B48" s="45" t="s">
-        <v>82</v>
-      </c>
-      <c r="C48" s="46"/>
-      <c r="D48" s="46"/>
-      <c r="E48" s="46"/>
-      <c r="F48" s="46"/>
-      <c r="G48" s="46"/>
-      <c r="H48" s="46"/>
-      <c r="I48" s="46"/>
-      <c r="J48" s="46"/>
+      <c r="B48" s="25" t="s">
+        <v>71</v>
+      </c>
+      <c r="C48" s="25" t="s">
+        <v>72</v>
+      </c>
+      <c r="D48" s="25" t="s">
+        <v>74</v>
+      </c>
+      <c r="E48" s="25" t="s">
+        <v>13</v>
+      </c>
+      <c r="F48" s="25" t="s">
+        <v>73</v>
+      </c>
+      <c r="G48" s="25" t="s">
+        <v>11</v>
+      </c>
+      <c r="H48" s="25" t="s">
+        <v>92</v>
+      </c>
+      <c r="I48" s="25" t="s">
+        <v>75</v>
+      </c>
+      <c r="J48" s="25" t="s">
+        <v>76</v>
+      </c>
       <c r="K48" s="2"/>
       <c r="L48" s="2"/>
       <c r="M48" s="2"/>
@@ -4257,32 +4159,30 @@
     </row>
     <row r="49" spans="1:25" ht="15.75" customHeight="1">
       <c r="A49" s="3"/>
-      <c r="B49" s="25" t="s">
-        <v>83</v>
+      <c r="B49" s="25">
+        <v>1</v>
       </c>
       <c r="C49" s="25" t="s">
-        <v>84</v>
-      </c>
-      <c r="D49" s="25" t="s">
-        <v>86</v>
-      </c>
-      <c r="E49" s="25" t="s">
-        <v>16</v>
-      </c>
-      <c r="F49" s="25" t="s">
-        <v>85</v>
-      </c>
+        <v>100</v>
+      </c>
+      <c r="D49" s="26" t="s">
+        <v>28</v>
+      </c>
+      <c r="E49" s="19" t="s">
+        <v>21</v>
+      </c>
+      <c r="F49" s="25"/>
       <c r="G49" s="25" t="s">
-        <v>13</v>
+        <v>80</v>
       </c>
       <c r="H49" s="25" t="s">
-        <v>105</v>
+        <v>78</v>
       </c>
       <c r="I49" s="25" t="s">
-        <v>87</v>
-      </c>
-      <c r="J49" s="25" t="s">
-        <v>88</v>
+        <v>90</v>
+      </c>
+      <c r="J49" s="26" t="s">
+        <v>68</v>
       </c>
       <c r="K49" s="2"/>
       <c r="L49" s="2"/>
@@ -4303,29 +4203,31 @@
     <row r="50" spans="1:25" ht="15.75" customHeight="1">
       <c r="A50" s="3"/>
       <c r="B50" s="25">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C50" s="25" t="s">
-        <v>114</v>
+        <v>19</v>
       </c>
       <c r="D50" s="26" t="s">
-        <v>31</v>
-      </c>
-      <c r="E50" s="19" t="s">
-        <v>24</v>
-      </c>
-      <c r="F50" s="25"/>
+        <v>77</v>
+      </c>
+      <c r="E50" s="25" t="s">
+        <v>93</v>
+      </c>
+      <c r="F50" s="24">
+        <v>50</v>
+      </c>
       <c r="G50" s="25" t="s">
-        <v>92</v>
+        <v>80</v>
       </c>
       <c r="H50" s="25" t="s">
-        <v>90</v>
-      </c>
-      <c r="I50" s="25" t="s">
-        <v>103</v>
-      </c>
-      <c r="J50" s="26" t="s">
-        <v>80</v>
+        <v>78</v>
+      </c>
+      <c r="I50" s="27" t="s">
+        <v>91</v>
+      </c>
+      <c r="J50" s="25" t="s">
+        <v>22</v>
       </c>
       <c r="K50" s="2"/>
       <c r="L50" s="2"/>
@@ -4346,32 +4248,26 @@
     <row r="51" spans="1:25" ht="15.75" customHeight="1">
       <c r="A51" s="3"/>
       <c r="B51" s="25">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C51" s="25" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="D51" s="26" t="s">
-        <v>89</v>
+        <v>30</v>
       </c>
       <c r="E51" s="25" t="s">
-        <v>106</v>
-      </c>
-      <c r="F51" s="24">
+        <v>93</v>
+      </c>
+      <c r="F51" s="25">
         <v>50</v>
       </c>
       <c r="G51" s="25" t="s">
-        <v>92</v>
-      </c>
-      <c r="H51" s="25" t="s">
-        <v>90</v>
-      </c>
-      <c r="I51" s="27" t="s">
-        <v>104</v>
-      </c>
-      <c r="J51" s="25" t="s">
-        <v>25</v>
-      </c>
+        <v>80</v>
+      </c>
+      <c r="H51" s="24"/>
+      <c r="I51" s="24"/>
+      <c r="J51" s="26"/>
       <c r="K51" s="2"/>
       <c r="L51" s="2"/>
       <c r="M51" s="2"/>
@@ -4391,26 +4287,28 @@
     <row r="52" spans="1:25" ht="15.75" customHeight="1">
       <c r="A52" s="3"/>
       <c r="B52" s="25">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C52" s="25" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="D52" s="26" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="E52" s="25" t="s">
-        <v>106</v>
+        <v>93</v>
       </c>
       <c r="F52" s="25">
-        <v>50</v>
+        <v>10</v>
       </c>
       <c r="G52" s="25" t="s">
-        <v>92</v>
-      </c>
-      <c r="H52" s="24"/>
+        <v>80</v>
+      </c>
+      <c r="H52" s="25"/>
       <c r="I52" s="24"/>
-      <c r="J52" s="26"/>
+      <c r="J52" s="25" t="s">
+        <v>6</v>
+      </c>
       <c r="K52" s="2"/>
       <c r="L52" s="2"/>
       <c r="M52" s="2"/>
@@ -4430,27 +4328,25 @@
     <row r="53" spans="1:25" ht="15.75" customHeight="1">
       <c r="A53" s="3"/>
       <c r="B53" s="25">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C53" s="25" t="s">
-        <v>26</v>
+        <v>37</v>
       </c>
       <c r="D53" s="26" t="s">
-        <v>34</v>
+        <v>86</v>
       </c>
       <c r="E53" s="25" t="s">
-        <v>106</v>
-      </c>
-      <c r="F53" s="25">
-        <v>10</v>
-      </c>
+        <v>40</v>
+      </c>
+      <c r="F53" s="25"/>
       <c r="G53" s="25" t="s">
-        <v>92</v>
-      </c>
-      <c r="H53" s="25"/>
+        <v>80</v>
+      </c>
+      <c r="H53" s="24"/>
       <c r="I53" s="24"/>
-      <c r="J53" s="25" t="s">
-        <v>8</v>
+      <c r="J53" s="23" t="s">
+        <v>63</v>
       </c>
       <c r="K53" s="2"/>
       <c r="L53" s="2"/>
@@ -4471,26 +4367,26 @@
     <row r="54" spans="1:25" ht="15.75" customHeight="1">
       <c r="A54" s="3"/>
       <c r="B54" s="25">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C54" s="25" t="s">
-        <v>40</v>
+        <v>110</v>
       </c>
       <c r="D54" s="26" t="s">
-        <v>99</v>
+        <v>39</v>
       </c>
       <c r="E54" s="25" t="s">
-        <v>43</v>
-      </c>
-      <c r="F54" s="25"/>
+        <v>93</v>
+      </c>
+      <c r="F54" s="25">
+        <v>2000</v>
+      </c>
       <c r="G54" s="25" t="s">
-        <v>92</v>
+        <v>80</v>
       </c>
       <c r="H54" s="24"/>
       <c r="I54" s="24"/>
-      <c r="J54" s="23" t="s">
-        <v>74</v>
-      </c>
+      <c r="J54" s="25"/>
       <c r="K54" s="2"/>
       <c r="L54" s="2"/>
       <c r="M54" s="2"/>
@@ -4509,27 +4405,15 @@
     </row>
     <row r="55" spans="1:25" ht="15.75" customHeight="1">
       <c r="A55" s="3"/>
-      <c r="B55" s="25">
-        <v>6</v>
-      </c>
-      <c r="C55" s="25" t="s">
-        <v>128</v>
-      </c>
-      <c r="D55" s="26" t="s">
-        <v>42</v>
-      </c>
-      <c r="E55" s="25" t="s">
-        <v>106</v>
-      </c>
-      <c r="F55" s="25">
-        <v>2000</v>
-      </c>
-      <c r="G55" s="25" t="s">
-        <v>92</v>
-      </c>
-      <c r="H55" s="24"/>
-      <c r="I55" s="24"/>
-      <c r="J55" s="25"/>
+      <c r="B55" s="29"/>
+      <c r="C55" s="29"/>
+      <c r="D55" s="30"/>
+      <c r="E55" s="29"/>
+      <c r="F55" s="29"/>
+      <c r="G55" s="29"/>
+      <c r="H55" s="29"/>
+      <c r="I55" s="17"/>
+      <c r="J55" s="29"/>
       <c r="K55" s="2"/>
       <c r="L55" s="2"/>
       <c r="M55" s="2"/>
@@ -4550,13 +4434,13 @@
       <c r="A56" s="3"/>
       <c r="B56" s="29"/>
       <c r="C56" s="29"/>
-      <c r="D56" s="30"/>
+      <c r="D56" s="29"/>
       <c r="E56" s="29"/>
       <c r="F56" s="29"/>
       <c r="G56" s="29"/>
-      <c r="H56" s="29"/>
+      <c r="H56" s="17"/>
       <c r="I56" s="17"/>
-      <c r="J56" s="29"/>
+      <c r="J56" s="28"/>
       <c r="K56" s="2"/>
       <c r="L56" s="2"/>
       <c r="M56" s="2"/>
@@ -4575,15 +4459,17 @@
     </row>
     <row r="57" spans="1:25" ht="15.75" customHeight="1">
       <c r="A57" s="3"/>
-      <c r="B57" s="29"/>
-      <c r="C57" s="29"/>
-      <c r="D57" s="29"/>
-      <c r="E57" s="29"/>
-      <c r="F57" s="29"/>
-      <c r="G57" s="29"/>
-      <c r="H57" s="17"/>
-      <c r="I57" s="17"/>
-      <c r="J57" s="28"/>
+      <c r="B57" s="45" t="s">
+        <v>5</v>
+      </c>
+      <c r="C57" s="46"/>
+      <c r="D57" s="46"/>
+      <c r="E57" s="46"/>
+      <c r="F57" s="46"/>
+      <c r="G57" s="46"/>
+      <c r="H57" s="46"/>
+      <c r="I57" s="46"/>
+      <c r="J57" s="46"/>
       <c r="K57" s="2"/>
       <c r="L57" s="2"/>
       <c r="M57" s="2"/>
@@ -4602,17 +4488,33 @@
     </row>
     <row r="58" spans="1:25" ht="15.75" customHeight="1">
       <c r="A58" s="3"/>
-      <c r="B58" s="45" t="s">
-        <v>6</v>
-      </c>
-      <c r="C58" s="46"/>
-      <c r="D58" s="46"/>
-      <c r="E58" s="46"/>
-      <c r="F58" s="46"/>
-      <c r="G58" s="46"/>
-      <c r="H58" s="46"/>
-      <c r="I58" s="46"/>
-      <c r="J58" s="46"/>
+      <c r="B58" s="25" t="s">
+        <v>71</v>
+      </c>
+      <c r="C58" s="25" t="s">
+        <v>72</v>
+      </c>
+      <c r="D58" s="25" t="s">
+        <v>74</v>
+      </c>
+      <c r="E58" s="25" t="s">
+        <v>13</v>
+      </c>
+      <c r="F58" s="25" t="s">
+        <v>73</v>
+      </c>
+      <c r="G58" s="25" t="s">
+        <v>11</v>
+      </c>
+      <c r="H58" s="25" t="s">
+        <v>92</v>
+      </c>
+      <c r="I58" s="25" t="s">
+        <v>75</v>
+      </c>
+      <c r="J58" s="25" t="s">
+        <v>76</v>
+      </c>
       <c r="K58" s="2"/>
       <c r="L58" s="2"/>
       <c r="M58" s="2"/>
@@ -4631,32 +4533,30 @@
     </row>
     <row r="59" spans="1:25" ht="15.75" customHeight="1">
       <c r="A59" s="3"/>
-      <c r="B59" s="25" t="s">
-        <v>83</v>
+      <c r="B59" s="25">
+        <v>1</v>
       </c>
       <c r="C59" s="25" t="s">
-        <v>84</v>
-      </c>
-      <c r="D59" s="25" t="s">
-        <v>86</v>
-      </c>
-      <c r="E59" s="25" t="s">
-        <v>16</v>
-      </c>
-      <c r="F59" s="25" t="s">
-        <v>85</v>
-      </c>
+        <v>97</v>
+      </c>
+      <c r="D59" s="26" t="s">
+        <v>36</v>
+      </c>
+      <c r="E59" s="19" t="s">
+        <v>21</v>
+      </c>
+      <c r="F59" s="25"/>
       <c r="G59" s="25" t="s">
-        <v>13</v>
+        <v>80</v>
       </c>
       <c r="H59" s="25" t="s">
-        <v>105</v>
+        <v>78</v>
       </c>
       <c r="I59" s="25" t="s">
-        <v>87</v>
-      </c>
-      <c r="J59" s="25" t="s">
-        <v>88</v>
+        <v>90</v>
+      </c>
+      <c r="J59" s="26" t="s">
+        <v>67</v>
       </c>
       <c r="K59" s="2"/>
       <c r="L59" s="2"/>
@@ -4677,30 +4577,26 @@
     <row r="60" spans="1:25" ht="15.75" customHeight="1">
       <c r="A60" s="3"/>
       <c r="B60" s="25">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C60" s="25" t="s">
-        <v>110</v>
+        <v>20</v>
       </c>
       <c r="D60" s="26" t="s">
-        <v>39</v>
-      </c>
-      <c r="E60" s="19" t="s">
-        <v>24</v>
-      </c>
-      <c r="F60" s="25"/>
+        <v>85</v>
+      </c>
+      <c r="E60" s="25" t="s">
+        <v>93</v>
+      </c>
+      <c r="F60" s="24">
+        <v>50</v>
+      </c>
       <c r="G60" s="25" t="s">
-        <v>92</v>
-      </c>
-      <c r="H60" s="25" t="s">
-        <v>90</v>
-      </c>
-      <c r="I60" s="25" t="s">
-        <v>103</v>
-      </c>
-      <c r="J60" s="26" t="s">
-        <v>78</v>
-      </c>
+        <v>80</v>
+      </c>
+      <c r="H60" s="25"/>
+      <c r="I60" s="27"/>
+      <c r="J60" s="25"/>
       <c r="K60" s="2"/>
       <c r="L60" s="2"/>
       <c r="M60" s="2"/>
@@ -4720,26 +4616,26 @@
     <row r="61" spans="1:25" ht="15.75" customHeight="1">
       <c r="A61" s="3"/>
       <c r="B61" s="25">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C61" s="25" t="s">
-        <v>23</v>
+        <v>95</v>
       </c>
       <c r="D61" s="26" t="s">
-        <v>98</v>
+        <v>82</v>
       </c>
       <c r="E61" s="25" t="s">
-        <v>106</v>
-      </c>
-      <c r="F61" s="24">
-        <v>50</v>
+        <v>93</v>
+      </c>
+      <c r="F61" s="25">
+        <v>2000</v>
       </c>
       <c r="G61" s="25" t="s">
-        <v>92</v>
-      </c>
-      <c r="H61" s="25"/>
-      <c r="I61" s="27"/>
-      <c r="J61" s="25"/>
+        <v>80</v>
+      </c>
+      <c r="H61" s="24"/>
+      <c r="I61" s="24"/>
+      <c r="J61" s="26"/>
       <c r="K61" s="2"/>
       <c r="L61" s="2"/>
       <c r="M61" s="2"/>
@@ -4759,26 +4655,28 @@
     <row r="62" spans="1:25" ht="15.75" customHeight="1">
       <c r="A62" s="3"/>
       <c r="B62" s="25">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C62" s="25" t="s">
-        <v>108</v>
+        <v>35</v>
       </c>
       <c r="D62" s="26" t="s">
-        <v>95</v>
+        <v>81</v>
       </c>
       <c r="E62" s="25" t="s">
+        <v>93</v>
+      </c>
+      <c r="F62" s="25">
+        <v>50</v>
+      </c>
+      <c r="G62" s="25" t="s">
+        <v>78</v>
+      </c>
+      <c r="H62" s="25"/>
+      <c r="I62" s="24"/>
+      <c r="J62" s="25" t="s">
         <v>106</v>
       </c>
-      <c r="F62" s="25">
-        <v>2000</v>
-      </c>
-      <c r="G62" s="25" t="s">
-        <v>92</v>
-      </c>
-      <c r="H62" s="24"/>
-      <c r="I62" s="24"/>
-      <c r="J62" s="26"/>
       <c r="K62" s="2"/>
       <c r="L62" s="2"/>
       <c r="M62" s="2"/>
@@ -4798,27 +4696,25 @@
     <row r="63" spans="1:25" ht="15.75" customHeight="1">
       <c r="A63" s="3"/>
       <c r="B63" s="25">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C63" s="25" t="s">
         <v>38</v>
       </c>
       <c r="D63" s="26" t="s">
-        <v>94</v>
+        <v>86</v>
       </c>
       <c r="E63" s="25" t="s">
-        <v>106</v>
-      </c>
-      <c r="F63" s="25">
-        <v>50</v>
-      </c>
+        <v>40</v>
+      </c>
+      <c r="F63" s="25"/>
       <c r="G63" s="25" t="s">
-        <v>90</v>
-      </c>
-      <c r="H63" s="25"/>
+        <v>80</v>
+      </c>
+      <c r="H63" s="24"/>
       <c r="I63" s="24"/>
       <c r="J63" s="25" t="s">
-        <v>122</v>
+        <v>63</v>
       </c>
       <c r="K63" s="2"/>
       <c r="L63" s="2"/>
@@ -4839,25 +4735,27 @@
     <row r="64" spans="1:25" ht="15.75" customHeight="1">
       <c r="A64" s="3"/>
       <c r="B64" s="25">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C64" s="25" t="s">
-        <v>41</v>
+        <v>94</v>
       </c>
       <c r="D64" s="26" t="s">
-        <v>99</v>
+        <v>84</v>
       </c>
       <c r="E64" s="25" t="s">
-        <v>43</v>
-      </c>
-      <c r="F64" s="25"/>
+        <v>93</v>
+      </c>
+      <c r="F64" s="25">
+        <v>20</v>
+      </c>
       <c r="G64" s="25" t="s">
-        <v>92</v>
+        <v>80</v>
       </c>
       <c r="H64" s="24"/>
       <c r="I64" s="24"/>
-      <c r="J64" s="25" t="s">
-        <v>74</v>
+      <c r="J64" s="23" t="s">
+        <v>83</v>
       </c>
       <c r="K64" s="2"/>
       <c r="L64" s="2"/>
@@ -4877,29 +4775,15 @@
     </row>
     <row r="65" spans="1:25" ht="15.75" customHeight="1">
       <c r="A65" s="3"/>
-      <c r="B65" s="25">
-        <v>6</v>
-      </c>
-      <c r="C65" s="25" t="s">
-        <v>107</v>
-      </c>
-      <c r="D65" s="26" t="s">
-        <v>97</v>
-      </c>
-      <c r="E65" s="25" t="s">
-        <v>106</v>
-      </c>
-      <c r="F65" s="25">
-        <v>20</v>
-      </c>
-      <c r="G65" s="25" t="s">
-        <v>92</v>
-      </c>
-      <c r="H65" s="24"/>
-      <c r="I65" s="24"/>
-      <c r="J65" s="23" t="s">
-        <v>96</v>
-      </c>
+      <c r="B65" s="3"/>
+      <c r="C65" s="3"/>
+      <c r="D65" s="3"/>
+      <c r="E65" s="3"/>
+      <c r="F65" s="3"/>
+      <c r="G65" s="3"/>
+      <c r="H65" s="3"/>
+      <c r="I65" s="3"/>
+      <c r="J65" s="4"/>
       <c r="K65" s="2"/>
       <c r="L65" s="2"/>
       <c r="M65" s="2"/>
@@ -4918,15 +4802,17 @@
     </row>
     <row r="66" spans="1:25" ht="15.75" customHeight="1">
       <c r="A66" s="3"/>
-      <c r="B66" s="3"/>
-      <c r="C66" s="3"/>
-      <c r="D66" s="3"/>
-      <c r="E66" s="3"/>
-      <c r="F66" s="3"/>
-      <c r="G66" s="3"/>
-      <c r="H66" s="3"/>
-      <c r="I66" s="3"/>
-      <c r="J66" s="4"/>
+      <c r="B66" s="36" t="s">
+        <v>3</v>
+      </c>
+      <c r="C66" s="37"/>
+      <c r="D66" s="37"/>
+      <c r="E66" s="37"/>
+      <c r="F66" s="37"/>
+      <c r="G66" s="37"/>
+      <c r="H66" s="37"/>
+      <c r="I66" s="37"/>
+      <c r="J66" s="38"/>
       <c r="K66" s="2"/>
       <c r="L66" s="2"/>
       <c r="M66" s="2"/>
@@ -4943,115 +4829,98 @@
       <c r="X66" s="2"/>
       <c r="Y66" s="2"/>
     </row>
-    <row r="67" spans="1:25" ht="15.75" customHeight="1">
-      <c r="A67" s="3"/>
-      <c r="B67" s="36" t="s">
-        <v>4</v>
-      </c>
-      <c r="C67" s="37"/>
-      <c r="D67" s="37"/>
-      <c r="E67" s="37"/>
-      <c r="F67" s="37"/>
-      <c r="G67" s="37"/>
-      <c r="H67" s="37"/>
-      <c r="I67" s="37"/>
-      <c r="J67" s="38"/>
-      <c r="K67" s="2"/>
-      <c r="L67" s="2"/>
-      <c r="M67" s="2"/>
-      <c r="N67" s="2"/>
-      <c r="O67" s="2"/>
-      <c r="P67" s="2"/>
-      <c r="Q67" s="2"/>
-      <c r="R67" s="2"/>
-      <c r="S67" s="2"/>
-      <c r="T67" s="2"/>
-      <c r="U67" s="2"/>
-      <c r="V67" s="2"/>
-      <c r="W67" s="2"/>
-      <c r="X67" s="2"/>
-      <c r="Y67" s="2"/>
+    <row r="67" spans="1:25" ht="15" customHeight="1">
+      <c r="B67" s="5" t="s">
+        <v>71</v>
+      </c>
+      <c r="C67" s="34" t="s">
+        <v>72</v>
+      </c>
+      <c r="D67" s="34" t="s">
+        <v>74</v>
+      </c>
+      <c r="E67" s="34" t="s">
+        <v>13</v>
+      </c>
+      <c r="F67" s="34" t="s">
+        <v>73</v>
+      </c>
+      <c r="G67" s="34" t="s">
+        <v>11</v>
+      </c>
+      <c r="H67" s="34" t="s">
+        <v>88</v>
+      </c>
+      <c r="I67" s="34" t="s">
+        <v>75</v>
+      </c>
+      <c r="J67" s="34" t="s">
+        <v>76</v>
+      </c>
+      <c r="K67" s="3"/>
     </row>
     <row r="68" spans="1:25" ht="15" customHeight="1">
-      <c r="B68" s="5" t="s">
-        <v>83</v>
-      </c>
-      <c r="C68" s="34" t="s">
-        <v>84</v>
-      </c>
-      <c r="D68" s="34" t="s">
-        <v>86</v>
+      <c r="B68" s="5">
+        <v>1</v>
+      </c>
+      <c r="C68" s="25" t="s">
+        <v>19</v>
+      </c>
+      <c r="D68" s="35" t="s">
+        <v>42</v>
       </c>
       <c r="E68" s="34" t="s">
-        <v>16</v>
-      </c>
-      <c r="F68" s="34" t="s">
-        <v>85</v>
+        <v>93</v>
+      </c>
+      <c r="F68" s="34">
+        <v>70</v>
       </c>
       <c r="G68" s="34" t="s">
-        <v>13</v>
+        <v>80</v>
       </c>
       <c r="H68" s="34" t="s">
-        <v>101</v>
+        <v>78</v>
       </c>
       <c r="I68" s="34" t="s">
-        <v>87</v>
-      </c>
-      <c r="J68" s="34" t="s">
-        <v>88</v>
-      </c>
+        <v>79</v>
+      </c>
+      <c r="J68" s="34"/>
       <c r="K68" s="3"/>
     </row>
     <row r="69" spans="1:25" ht="15" customHeight="1">
       <c r="B69" s="5">
-        <v>1</v>
-      </c>
-      <c r="C69" s="25" t="s">
-        <v>22</v>
+        <v>2</v>
+      </c>
+      <c r="C69" s="34" t="s">
+        <v>46</v>
       </c>
       <c r="D69" s="35" t="s">
-        <v>45</v>
+        <v>89</v>
       </c>
       <c r="E69" s="34" t="s">
-        <v>106</v>
+        <v>93</v>
       </c>
       <c r="F69" s="34">
         <v>70</v>
       </c>
       <c r="G69" s="34" t="s">
-        <v>92</v>
-      </c>
-      <c r="H69" s="34" t="s">
-        <v>90</v>
-      </c>
-      <c r="I69" s="34" t="s">
-        <v>91</v>
-      </c>
+        <v>80</v>
+      </c>
+      <c r="H69" s="34"/>
+      <c r="I69" s="34"/>
       <c r="J69" s="34"/>
       <c r="K69" s="3"/>
     </row>
     <row r="70" spans="1:25" ht="15" customHeight="1">
-      <c r="B70" s="5">
-        <v>2</v>
-      </c>
-      <c r="C70" s="34" t="s">
-        <v>50</v>
-      </c>
-      <c r="D70" s="35" t="s">
-        <v>102</v>
-      </c>
-      <c r="E70" s="34" t="s">
-        <v>106</v>
-      </c>
-      <c r="F70" s="34">
-        <v>70</v>
-      </c>
-      <c r="G70" s="34" t="s">
-        <v>92</v>
-      </c>
-      <c r="H70" s="34"/>
-      <c r="I70" s="34"/>
-      <c r="J70" s="34"/>
+      <c r="B70" s="3"/>
+      <c r="C70" s="3"/>
+      <c r="D70" s="3"/>
+      <c r="E70" s="3"/>
+      <c r="F70" s="3"/>
+      <c r="G70" s="3"/>
+      <c r="H70" s="3"/>
+      <c r="I70" s="3"/>
+      <c r="J70" s="3"/>
       <c r="K70" s="3"/>
     </row>
     <row r="71" spans="1:25" ht="15" customHeight="1">
@@ -5102,7 +4971,8 @@
       <c r="J74" s="3"/>
       <c r="K74" s="3"/>
     </row>
-    <row r="75" spans="1:25" ht="15" customHeight="1">
+    <row r="75" spans="1:25" ht="15.75" customHeight="1">
+      <c r="A75" s="3"/>
       <c r="B75" s="3"/>
       <c r="C75" s="3"/>
       <c r="D75" s="3"/>
@@ -5113,6 +4983,20 @@
       <c r="I75" s="3"/>
       <c r="J75" s="3"/>
       <c r="K75" s="3"/>
+      <c r="L75" s="2"/>
+      <c r="M75" s="2"/>
+      <c r="N75" s="2"/>
+      <c r="O75" s="2"/>
+      <c r="P75" s="2"/>
+      <c r="Q75" s="2"/>
+      <c r="R75" s="2"/>
+      <c r="S75" s="2"/>
+      <c r="T75" s="2"/>
+      <c r="U75" s="2"/>
+      <c r="V75" s="2"/>
+      <c r="W75" s="2"/>
+      <c r="X75" s="2"/>
+      <c r="Y75" s="2"/>
     </row>
     <row r="76" spans="1:25" ht="15.75" customHeight="1">
       <c r="A76" s="3"/>
@@ -5232,8 +5116,8 @@
       <c r="G80" s="3"/>
       <c r="H80" s="3"/>
       <c r="I80" s="3"/>
-      <c r="J80" s="3"/>
-      <c r="K80" s="3"/>
+      <c r="J80" s="4"/>
+      <c r="K80" s="2"/>
       <c r="L80" s="2"/>
       <c r="M80" s="2"/>
       <c r="N80" s="2"/>
@@ -7357,15 +7241,15 @@
     </row>
     <row r="159" spans="1:25" ht="15.75" customHeight="1">
       <c r="A159" s="3"/>
-      <c r="B159" s="3"/>
-      <c r="C159" s="3"/>
-      <c r="D159" s="3"/>
-      <c r="E159" s="3"/>
-      <c r="F159" s="3"/>
-      <c r="G159" s="3"/>
-      <c r="H159" s="3"/>
-      <c r="I159" s="3"/>
-      <c r="J159" s="4"/>
+      <c r="B159" s="2"/>
+      <c r="C159" s="2"/>
+      <c r="D159" s="2"/>
+      <c r="E159" s="2"/>
+      <c r="F159" s="2"/>
+      <c r="G159" s="2"/>
+      <c r="H159" s="2"/>
+      <c r="I159" s="2"/>
+      <c r="J159" s="2"/>
       <c r="K159" s="2"/>
       <c r="L159" s="2"/>
       <c r="M159" s="2"/>
@@ -7383,7 +7267,7 @@
       <c r="Y159" s="2"/>
     </row>
     <row r="160" spans="1:25" ht="15.75" customHeight="1">
-      <c r="A160" s="3"/>
+      <c r="A160" s="2"/>
       <c r="B160" s="2"/>
       <c r="C160" s="2"/>
       <c r="D160" s="2"/>
@@ -27202,15 +27086,6 @@
     </row>
     <row r="894" spans="1:25" ht="15.75" customHeight="1">
       <c r="A894" s="2"/>
-      <c r="B894" s="2"/>
-      <c r="C894" s="2"/>
-      <c r="D894" s="2"/>
-      <c r="E894" s="2"/>
-      <c r="F894" s="2"/>
-      <c r="G894" s="2"/>
-      <c r="H894" s="2"/>
-      <c r="I894" s="2"/>
-      <c r="J894" s="2"/>
       <c r="K894" s="2"/>
       <c r="L894" s="2"/>
       <c r="M894" s="2"/>
@@ -27227,32 +27102,14 @@
       <c r="X894" s="2"/>
       <c r="Y894" s="2"/>
     </row>
-    <row r="895" spans="1:25" ht="15.75" customHeight="1">
-      <c r="A895" s="2"/>
-      <c r="K895" s="2"/>
-      <c r="L895" s="2"/>
-      <c r="M895" s="2"/>
-      <c r="N895" s="2"/>
-      <c r="O895" s="2"/>
-      <c r="P895" s="2"/>
-      <c r="Q895" s="2"/>
-      <c r="R895" s="2"/>
-      <c r="S895" s="2"/>
-      <c r="T895" s="2"/>
-      <c r="U895" s="2"/>
-      <c r="V895" s="2"/>
-      <c r="W895" s="2"/>
-      <c r="X895" s="2"/>
-      <c r="Y895" s="2"/>
-    </row>
   </sheetData>
   <mergeCells count="7">
-    <mergeCell ref="B67:J67"/>
+    <mergeCell ref="B66:J66"/>
     <mergeCell ref="B2:J3"/>
     <mergeCell ref="B15:J15"/>
-    <mergeCell ref="B48:J48"/>
+    <mergeCell ref="B47:J47"/>
     <mergeCell ref="B34:J34"/>
-    <mergeCell ref="B58:J58"/>
+    <mergeCell ref="B57:J57"/>
     <mergeCell ref="B6:J6"/>
   </mergeCells>
   <phoneticPr fontId="8" type="noConversion"/>

--- a/프로젝트 산출물/5. 테이블명세서/캠플렉스 테이블 명세서.xlsx
+++ b/프로젝트 산출물/5. 테이블명세서/캠플렉스 테이블 명세서.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="285" uniqueCount="133">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="295" uniqueCount="133">
   <si>
     <r>
       <rPr>
@@ -247,55 +247,6 @@
   </si>
   <si>
     <t>보안 (SECURITY_TBL)</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>0(</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="돋움"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>비동의</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>) or 1(</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="돋움"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>동의</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">) </t>
-    </r>
   </si>
   <si>
     <t>공지사항 (NOTICE_TBL)</t>
@@ -666,69 +617,7 @@
     <t>아이디(PK)</t>
   </si>
   <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="돋움"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>이용약관</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="돋움"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>동의</t>
-    </r>
-  </si>
-  <si>
     <t>회원이름</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="돋움"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>유의사항</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="돋움"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>동의</t>
-    </r>
   </si>
   <si>
     <t>salt</t>
@@ -878,55 +767,6 @@
     <t>p_photo3</t>
   </si>
   <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>0(</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="돋움"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>비동의</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>) or 1(</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="돋움"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>동의</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>)</t>
-    </r>
-  </si>
-  <si>
     <t>p_information</t>
   </si>
   <si>
@@ -937,9 +777,6 @@
   </si>
   <si>
     <t>8자리(YYYY-MM-DD)</t>
-  </si>
-  <si>
-    <t>예약 (RESERVATION_TBL)</t>
   </si>
   <si>
     <t>NOTICE_SEQ : SEQUENCE</t>
@@ -1397,26 +1234,6 @@
         <rFont val="Arial"/>
         <family val="2"/>
       </rPr>
-      <t>r</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>_number</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
       <t>p</t>
     </r>
     <r>
@@ -1462,119 +1279,7 @@
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="돋움"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>대기</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> / </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="돋움"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>확정</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> / </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="돋움"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>취소</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="돋움"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>중</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> 1</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="돋움"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>가지</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="돋움"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>선택</t>
-    </r>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
     <t>r_enddate</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>예약 시작날짜</t>
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
@@ -1718,6 +1423,34 @@
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
+    <t>rv_number</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>rv_date</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>rv_content</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>RESERVATION_SEQ : SEQUENCE</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>REVIEW_SEQ : SEQUENCE</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>예약 (RESERVATION_TBL)</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>후기 (REVIEW_TBL)</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
     <r>
       <t>r</t>
     </r>
@@ -1730,22 +1463,6 @@
       </rPr>
       <t>_state</t>
     </r>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>rv_number</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>rv_date</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>rv_content</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>c_agree</t>
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
@@ -1765,6 +1482,326 @@
   </si>
   <si>
     <r>
+      <t>r</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>_number</t>
+    </r>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>대기</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> / </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>확정</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> / </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>취소</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>중</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> 1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>가지</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>선택</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>, Default '</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>대기</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>'</t>
+    </r>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>0(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>비동의</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>) or 1(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>동의</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>)  Default 0</t>
+    </r>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>예약 시작날짜</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>유의사항</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>동의</t>
+    </r>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>개인정보</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>수집</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>및</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>이용</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>동의</t>
+    </r>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <r>
       <t>p</t>
     </r>
     <r>
@@ -1776,6 +1813,10 @@
       </rPr>
       <t>_i_agree</t>
     </r>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>c_agree</t>
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
@@ -1793,20 +1834,12 @@
     </r>
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
-  <si>
-    <t>RESERVATION_SEQ : SEQUENCE</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>REVIEW_SEQ : SEQUENCE</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="9">
+  <fonts count="10">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -1861,6 +1894,13 @@
     <font>
       <sz val="8"/>
       <name val="돋움"/>
+      <family val="3"/>
+      <charset val="129"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="한컴바탕"/>
       <family val="3"/>
       <charset val="129"/>
     </font>
@@ -2024,7 +2064,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="47">
+  <cellXfs count="48">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -2146,6 +2186,9 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="표준" xfId="0" builtinId="0"/>
@@ -2362,10 +2405,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:Y894"/>
+  <dimension ref="A1:Y898"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C10" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="F29" sqref="F29"/>
+    <sheetView tabSelected="1" topLeftCell="A16" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="D37" sqref="D37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="12.75"/>
@@ -2411,7 +2454,7 @@
     <row r="2" spans="1:25" ht="15.75" customHeight="1">
       <c r="A2" s="1"/>
       <c r="B2" s="39" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C2" s="40"/>
       <c r="D2" s="40"/>
@@ -2521,7 +2564,7 @@
     <row r="6" spans="1:25" ht="15.75" customHeight="1">
       <c r="A6" s="17"/>
       <c r="B6" s="45" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="C6" s="46"/>
       <c r="D6" s="46"/>
@@ -2550,31 +2593,31 @@
     <row r="7" spans="1:25" ht="15.75" customHeight="1">
       <c r="A7" s="17"/>
       <c r="B7" s="25" t="s">
+        <v>66</v>
+      </c>
+      <c r="C7" s="25" t="s">
+        <v>67</v>
+      </c>
+      <c r="D7" s="25" t="s">
+        <v>69</v>
+      </c>
+      <c r="E7" s="25" t="s">
+        <v>12</v>
+      </c>
+      <c r="F7" s="25" t="s">
+        <v>68</v>
+      </c>
+      <c r="G7" s="25" t="s">
+        <v>10</v>
+      </c>
+      <c r="H7" s="25" t="s">
+        <v>87</v>
+      </c>
+      <c r="I7" s="25" t="s">
+        <v>70</v>
+      </c>
+      <c r="J7" s="25" t="s">
         <v>71</v>
-      </c>
-      <c r="C7" s="25" t="s">
-        <v>72</v>
-      </c>
-      <c r="D7" s="25" t="s">
-        <v>74</v>
-      </c>
-      <c r="E7" s="25" t="s">
-        <v>13</v>
-      </c>
-      <c r="F7" s="25" t="s">
-        <v>73</v>
-      </c>
-      <c r="G7" s="25" t="s">
-        <v>11</v>
-      </c>
-      <c r="H7" s="25" t="s">
-        <v>92</v>
-      </c>
-      <c r="I7" s="25" t="s">
-        <v>75</v>
-      </c>
-      <c r="J7" s="25" t="s">
-        <v>76</v>
       </c>
       <c r="K7" s="2"/>
       <c r="L7" s="2"/>
@@ -2598,28 +2641,28 @@
         <v>1</v>
       </c>
       <c r="C8" s="25" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D8" s="26" t="s">
-        <v>77</v>
+        <v>72</v>
       </c>
       <c r="E8" s="25" t="s">
-        <v>93</v>
+        <v>88</v>
       </c>
       <c r="F8" s="25">
         <v>50</v>
       </c>
       <c r="G8" s="25" t="s">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="H8" s="25" t="s">
-        <v>78</v>
+        <v>73</v>
       </c>
       <c r="I8" s="25" t="s">
-        <v>90</v>
+        <v>85</v>
       </c>
       <c r="J8" s="26" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="K8" s="2"/>
       <c r="L8" s="2"/>
@@ -2643,24 +2686,24 @@
         <v>2</v>
       </c>
       <c r="C9" s="25" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="D9" s="26" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="E9" s="25" t="s">
-        <v>93</v>
+        <v>88</v>
       </c>
       <c r="F9" s="24">
         <v>20</v>
       </c>
       <c r="G9" s="25" t="s">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="H9" s="25"/>
       <c r="I9" s="27"/>
       <c r="J9" s="25" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="K9" s="2"/>
       <c r="L9" s="2"/>
@@ -2684,24 +2727,24 @@
         <v>3</v>
       </c>
       <c r="C10" s="25" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="D10" s="26" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="E10" s="25" t="s">
-        <v>93</v>
+        <v>88</v>
       </c>
       <c r="F10" s="25">
         <v>10</v>
       </c>
       <c r="G10" s="25" t="s">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="H10" s="24"/>
       <c r="I10" s="24"/>
       <c r="J10" s="26" t="s">
-        <v>102</v>
+        <v>97</v>
       </c>
       <c r="K10" s="2"/>
       <c r="L10" s="2"/>
@@ -2725,24 +2768,24 @@
         <v>4</v>
       </c>
       <c r="C11" s="25" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="D11" s="26" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="E11" s="25" t="s">
-        <v>93</v>
+        <v>88</v>
       </c>
       <c r="F11" s="25">
         <v>11</v>
       </c>
       <c r="G11" s="25" t="s">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="H11" s="25"/>
       <c r="I11" s="24"/>
       <c r="J11" s="25" t="s">
-        <v>107</v>
+        <v>102</v>
       </c>
       <c r="K11" s="2"/>
       <c r="L11" s="2"/>
@@ -2766,22 +2809,22 @@
         <v>5</v>
       </c>
       <c r="C12" s="25" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="D12" s="26" t="s">
-        <v>103</v>
+        <v>98</v>
       </c>
       <c r="E12" s="25" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="F12" s="25"/>
       <c r="G12" s="25" t="s">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="H12" s="25"/>
       <c r="I12" s="24"/>
       <c r="J12" s="25" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="K12" s="2"/>
       <c r="L12" s="2"/>
@@ -2856,7 +2899,7 @@
     <row r="15" spans="1:25" ht="15.75" customHeight="1">
       <c r="A15" s="4"/>
       <c r="B15" s="36" t="s">
-        <v>66</v>
+        <v>120</v>
       </c>
       <c r="C15" s="37"/>
       <c r="D15" s="37"/>
@@ -2885,31 +2928,31 @@
     <row r="16" spans="1:25" ht="15.75" customHeight="1">
       <c r="A16" s="4"/>
       <c r="B16" s="5" t="s">
+        <v>66</v>
+      </c>
+      <c r="C16" s="6" t="s">
+        <v>67</v>
+      </c>
+      <c r="D16" s="6" t="s">
+        <v>69</v>
+      </c>
+      <c r="E16" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="F16" s="6" t="s">
+        <v>68</v>
+      </c>
+      <c r="G16" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="H16" s="6" t="s">
+        <v>87</v>
+      </c>
+      <c r="I16" s="6" t="s">
+        <v>70</v>
+      </c>
+      <c r="J16" s="6" t="s">
         <v>71</v>
-      </c>
-      <c r="C16" s="6" t="s">
-        <v>72</v>
-      </c>
-      <c r="D16" s="6" t="s">
-        <v>74</v>
-      </c>
-      <c r="E16" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="F16" s="6" t="s">
-        <v>73</v>
-      </c>
-      <c r="G16" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="H16" s="6" t="s">
-        <v>92</v>
-      </c>
-      <c r="I16" s="6" t="s">
-        <v>75</v>
-      </c>
-      <c r="J16" s="6" t="s">
-        <v>76</v>
       </c>
       <c r="K16" s="2"/>
       <c r="L16" s="2"/>
@@ -2933,26 +2976,26 @@
         <v>1</v>
       </c>
       <c r="C17" s="16" t="s">
-        <v>108</v>
+        <v>124</v>
       </c>
       <c r="D17" s="7" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E17" s="19" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="F17" s="8"/>
       <c r="G17" s="6" t="s">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="H17" s="6" t="s">
-        <v>78</v>
+        <v>73</v>
       </c>
       <c r="I17" s="6" t="s">
-        <v>79</v>
+        <v>74</v>
       </c>
       <c r="J17" s="22" t="s">
-        <v>131</v>
+        <v>118</v>
       </c>
       <c r="K17" s="2"/>
       <c r="L17" s="2"/>
@@ -2976,25 +3019,25 @@
         <v>2</v>
       </c>
       <c r="C18" s="19" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="D18" s="7" t="s">
-        <v>77</v>
+        <v>72</v>
       </c>
       <c r="E18" s="6" t="s">
-        <v>93</v>
+        <v>88</v>
       </c>
       <c r="F18" s="25">
         <v>50</v>
       </c>
       <c r="G18" s="6" t="s">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="H18" s="16" t="s">
-        <v>78</v>
+        <v>73</v>
       </c>
       <c r="I18" s="21" t="s">
-        <v>91</v>
+        <v>86</v>
       </c>
       <c r="J18" s="6"/>
       <c r="K18" s="2"/>
@@ -3019,23 +3062,23 @@
         <v>3</v>
       </c>
       <c r="C19" s="19" t="s">
-        <v>109</v>
+        <v>103</v>
       </c>
       <c r="D19" s="7" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E19" s="19" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="F19" s="6"/>
       <c r="G19" s="6" t="s">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="H19" s="16" t="s">
-        <v>78</v>
+        <v>73</v>
       </c>
       <c r="I19" s="21" t="s">
-        <v>91</v>
+        <v>86</v>
       </c>
       <c r="J19" s="7"/>
       <c r="K19" s="2"/>
@@ -3060,17 +3103,17 @@
         <v>4</v>
       </c>
       <c r="C20" s="19" t="s">
-        <v>120</v>
+        <v>112</v>
       </c>
       <c r="D20" s="7" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E20" s="19" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="F20" s="8"/>
       <c r="G20" s="6" t="s">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="H20" s="6"/>
       <c r="I20" s="9"/>
@@ -3099,22 +3142,22 @@
         <v>5</v>
       </c>
       <c r="C21" s="19" t="s">
-        <v>121</v>
+        <v>113</v>
       </c>
       <c r="D21" s="7" t="s">
-        <v>116</v>
+        <v>127</v>
       </c>
       <c r="E21" s="19" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="F21" s="6"/>
       <c r="G21" s="6" t="s">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="H21" s="9"/>
       <c r="I21" s="9"/>
       <c r="J21" s="19" t="s">
-        <v>118</v>
+        <v>110</v>
       </c>
       <c r="K21" s="2"/>
       <c r="L21" s="2"/>
@@ -3135,25 +3178,25 @@
     <row r="22" spans="1:25" ht="15.75" customHeight="1">
       <c r="A22" s="31"/>
       <c r="B22" s="5">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C22" s="34" t="s">
-        <v>115</v>
+        <v>108</v>
       </c>
       <c r="D22" s="35" t="s">
-        <v>117</v>
+        <v>109</v>
       </c>
       <c r="E22" s="34" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="F22" s="34"/>
       <c r="G22" s="34" t="s">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="H22" s="21"/>
       <c r="I22" s="21"/>
       <c r="J22" s="34" t="s">
-        <v>119</v>
+        <v>111</v>
       </c>
       <c r="K22" s="2"/>
       <c r="L22" s="2"/>
@@ -3174,25 +3217,25 @@
     <row r="23" spans="1:25" ht="15.75" customHeight="1">
       <c r="A23" s="4"/>
       <c r="B23" s="5">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C23" s="19" t="s">
-        <v>122</v>
+        <v>114</v>
       </c>
       <c r="D23" s="7" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E23" s="19" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="F23" s="8"/>
       <c r="G23" s="6" t="s">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="H23" s="9"/>
       <c r="I23" s="9"/>
       <c r="J23" s="19" t="s">
-        <v>99</v>
+        <v>94</v>
       </c>
       <c r="K23" s="2"/>
       <c r="L23" s="2"/>
@@ -3213,27 +3256,27 @@
     <row r="24" spans="1:25" ht="15.75" customHeight="1">
       <c r="A24" s="4"/>
       <c r="B24" s="5">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C24" s="19" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="D24" s="7" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E24" s="6" t="s">
-        <v>93</v>
+        <v>88</v>
       </c>
       <c r="F24" s="8">
         <v>20</v>
       </c>
       <c r="G24" s="6" t="s">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="H24" s="6"/>
       <c r="I24" s="9"/>
       <c r="J24" s="19" t="s">
-        <v>114</v>
+        <v>125</v>
       </c>
       <c r="K24" s="2"/>
       <c r="L24" s="2"/>
@@ -3252,29 +3295,29 @@
       <c r="Y24" s="2"/>
     </row>
     <row r="25" spans="1:25" ht="15.75" customHeight="1">
-      <c r="A25" s="3"/>
+      <c r="A25" s="17"/>
       <c r="B25" s="5">
-        <v>8</v>
-      </c>
-      <c r="C25" s="19" t="s">
-        <v>124</v>
-      </c>
-      <c r="D25" s="20" t="s">
-        <v>34</v>
+        <v>9</v>
+      </c>
+      <c r="C25" s="25" t="s">
+        <v>131</v>
+      </c>
+      <c r="D25" s="26" t="s">
+        <v>99</v>
       </c>
       <c r="E25" s="19" t="s">
-        <v>21</v>
-      </c>
-      <c r="F25" s="8"/>
-      <c r="G25" s="6" t="s">
-        <v>80</v>
-      </c>
-      <c r="H25" s="21" t="s">
-        <v>78</v>
-      </c>
-      <c r="I25" s="9"/>
-      <c r="J25" s="22" t="s">
-        <v>132</v>
+        <v>20</v>
+      </c>
+      <c r="F25" s="25">
+        <v>1</v>
+      </c>
+      <c r="G25" s="25" t="s">
+        <v>75</v>
+      </c>
+      <c r="H25" s="25"/>
+      <c r="I25" s="24"/>
+      <c r="J25" s="25" t="s">
+        <v>126</v>
       </c>
       <c r="K25" s="2"/>
       <c r="L25" s="2"/>
@@ -3293,27 +3336,29 @@
       <c r="Y25" s="2"/>
     </row>
     <row r="26" spans="1:25" ht="15.75" customHeight="1">
-      <c r="A26" s="3"/>
+      <c r="A26" s="17"/>
       <c r="B26" s="5">
-        <v>9</v>
-      </c>
-      <c r="C26" s="19" t="s">
-        <v>125</v>
-      </c>
-      <c r="D26" s="19" t="s">
-        <v>27</v>
+        <v>10</v>
+      </c>
+      <c r="C26" s="25" t="s">
+        <v>123</v>
+      </c>
+      <c r="D26" s="47" t="s">
+        <v>128</v>
       </c>
       <c r="E26" s="19" t="s">
-        <v>40</v>
-      </c>
-      <c r="F26" s="8"/>
-      <c r="G26" s="6" t="s">
-        <v>80</v>
-      </c>
-      <c r="H26" s="9"/>
-      <c r="I26" s="9"/>
-      <c r="J26" s="19" t="s">
-        <v>0</v>
+        <v>20</v>
+      </c>
+      <c r="F26" s="25">
+        <v>1</v>
+      </c>
+      <c r="G26" s="25" t="s">
+        <v>75</v>
+      </c>
+      <c r="H26" s="25"/>
+      <c r="I26" s="24"/>
+      <c r="J26" s="25" t="s">
+        <v>126</v>
       </c>
       <c r="K26" s="2"/>
       <c r="L26" s="2"/>
@@ -3332,28 +3377,30 @@
       <c r="Y26" s="2"/>
     </row>
     <row r="27" spans="1:25" ht="15.75" customHeight="1">
-      <c r="A27" s="3"/>
+      <c r="A27" s="17"/>
       <c r="B27" s="5">
-        <v>10</v>
-      </c>
-      <c r="C27" s="19" t="s">
+        <v>11</v>
+      </c>
+      <c r="C27" s="25" t="s">
+        <v>130</v>
+      </c>
+      <c r="D27" s="47" t="s">
+        <v>129</v>
+      </c>
+      <c r="E27" s="19" t="s">
+        <v>20</v>
+      </c>
+      <c r="F27" s="25">
+        <v>1</v>
+      </c>
+      <c r="G27" s="25" t="s">
+        <v>75</v>
+      </c>
+      <c r="H27" s="25"/>
+      <c r="I27" s="24"/>
+      <c r="J27" s="25" t="s">
         <v>126</v>
       </c>
-      <c r="D27" s="19" t="s">
-        <v>29</v>
-      </c>
-      <c r="E27" s="8" t="s">
-        <v>93</v>
-      </c>
-      <c r="F27" s="8">
-        <v>2000</v>
-      </c>
-      <c r="G27" s="6" t="s">
-        <v>80</v>
-      </c>
-      <c r="H27" s="9"/>
-      <c r="I27" s="9"/>
-      <c r="J27" s="10"/>
       <c r="K27" s="2"/>
       <c r="L27" s="2"/>
       <c r="M27" s="2"/>
@@ -3373,27 +3420,27 @@
     <row r="28" spans="1:25" ht="15.75" customHeight="1">
       <c r="A28" s="17"/>
       <c r="B28" s="5">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C28" s="25" t="s">
-        <v>127</v>
+        <v>132</v>
       </c>
       <c r="D28" s="26" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
       <c r="E28" s="19" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="F28" s="25">
         <v>1</v>
       </c>
       <c r="G28" s="25" t="s">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="H28" s="25"/>
       <c r="I28" s="24"/>
       <c r="J28" s="25" t="s">
-        <v>4</v>
+        <v>126</v>
       </c>
       <c r="K28" s="2"/>
       <c r="L28" s="2"/>
@@ -3413,29 +3460,15 @@
     </row>
     <row r="29" spans="1:25" ht="15.75" customHeight="1">
       <c r="A29" s="17"/>
-      <c r="B29" s="5">
-        <v>12</v>
-      </c>
-      <c r="C29" s="25" t="s">
-        <v>128</v>
-      </c>
-      <c r="D29" s="26" t="s">
-        <v>45</v>
-      </c>
-      <c r="E29" s="19" t="s">
-        <v>21</v>
-      </c>
-      <c r="F29" s="25">
-        <v>1</v>
-      </c>
-      <c r="G29" s="25" t="s">
-        <v>80</v>
-      </c>
-      <c r="H29" s="25"/>
-      <c r="I29" s="24"/>
-      <c r="J29" s="25" t="s">
-        <v>61</v>
-      </c>
+      <c r="B29" s="31"/>
+      <c r="C29" s="31"/>
+      <c r="D29" s="31"/>
+      <c r="E29" s="31"/>
+      <c r="F29" s="31"/>
+      <c r="G29" s="31"/>
+      <c r="H29" s="17"/>
+      <c r="I29" s="17"/>
+      <c r="J29" s="31"/>
       <c r="K29" s="2"/>
       <c r="L29" s="2"/>
       <c r="M29" s="2"/>
@@ -3454,29 +3487,15 @@
     </row>
     <row r="30" spans="1:25" ht="15.75" customHeight="1">
       <c r="A30" s="17"/>
-      <c r="B30" s="5">
-        <v>13</v>
-      </c>
-      <c r="C30" s="25" t="s">
-        <v>129</v>
-      </c>
-      <c r="D30" s="26" t="s">
-        <v>43</v>
-      </c>
-      <c r="E30" s="19" t="s">
-        <v>21</v>
-      </c>
-      <c r="F30" s="25">
-        <v>1</v>
-      </c>
-      <c r="G30" s="25" t="s">
-        <v>80</v>
-      </c>
-      <c r="H30" s="25"/>
-      <c r="I30" s="24"/>
-      <c r="J30" s="25" t="s">
-        <v>61</v>
-      </c>
+      <c r="B30" s="31"/>
+      <c r="C30" s="31"/>
+      <c r="D30" s="31"/>
+      <c r="E30" s="31"/>
+      <c r="F30" s="31"/>
+      <c r="G30" s="30"/>
+      <c r="H30" s="17"/>
+      <c r="I30" s="17"/>
+      <c r="J30" s="31"/>
       <c r="K30" s="2"/>
       <c r="L30" s="2"/>
       <c r="M30" s="2"/>
@@ -3495,29 +3514,17 @@
     </row>
     <row r="31" spans="1:25" ht="15.75" customHeight="1">
       <c r="A31" s="17"/>
-      <c r="B31" s="5">
-        <v>14</v>
-      </c>
-      <c r="C31" s="25" t="s">
-        <v>130</v>
-      </c>
-      <c r="D31" s="26" t="s">
-        <v>105</v>
-      </c>
-      <c r="E31" s="19" t="s">
-        <v>21</v>
-      </c>
-      <c r="F31" s="25">
-        <v>1</v>
-      </c>
-      <c r="G31" s="25" t="s">
-        <v>80</v>
-      </c>
-      <c r="H31" s="25"/>
-      <c r="I31" s="24"/>
-      <c r="J31" s="25" t="s">
-        <v>61</v>
-      </c>
+      <c r="B31" s="45" t="s">
+        <v>121</v>
+      </c>
+      <c r="C31" s="46"/>
+      <c r="D31" s="46"/>
+      <c r="E31" s="46"/>
+      <c r="F31" s="46"/>
+      <c r="G31" s="46"/>
+      <c r="H31" s="46"/>
+      <c r="I31" s="46"/>
+      <c r="J31" s="46"/>
       <c r="K31" s="2"/>
       <c r="L31" s="2"/>
       <c r="M31" s="2"/>
@@ -3536,15 +3543,33 @@
     </row>
     <row r="32" spans="1:25" ht="15.75" customHeight="1">
       <c r="A32" s="17"/>
-      <c r="B32" s="18"/>
-      <c r="C32" s="29"/>
-      <c r="D32" s="29"/>
-      <c r="E32" s="18"/>
-      <c r="F32" s="18"/>
-      <c r="G32" s="18"/>
-      <c r="H32" s="17"/>
-      <c r="I32" s="17"/>
-      <c r="J32" s="31"/>
+      <c r="B32" s="25" t="s">
+        <v>66</v>
+      </c>
+      <c r="C32" s="25" t="s">
+        <v>67</v>
+      </c>
+      <c r="D32" s="25" t="s">
+        <v>69</v>
+      </c>
+      <c r="E32" s="25" t="s">
+        <v>12</v>
+      </c>
+      <c r="F32" s="25" t="s">
+        <v>68</v>
+      </c>
+      <c r="G32" s="25" t="s">
+        <v>10</v>
+      </c>
+      <c r="H32" s="25" t="s">
+        <v>87</v>
+      </c>
+      <c r="I32" s="25" t="s">
+        <v>70</v>
+      </c>
+      <c r="J32" s="25" t="s">
+        <v>71</v>
+      </c>
       <c r="K32" s="2"/>
       <c r="L32" s="2"/>
       <c r="M32" s="2"/>
@@ -3563,15 +3588,29 @@
     </row>
     <row r="33" spans="1:25" ht="15.75" customHeight="1">
       <c r="A33" s="3"/>
-      <c r="B33" s="11"/>
-      <c r="C33" s="12"/>
-      <c r="D33" s="12"/>
-      <c r="E33" s="12"/>
-      <c r="F33" s="12"/>
-      <c r="G33" s="13"/>
-      <c r="H33" s="14"/>
-      <c r="I33" s="14"/>
-      <c r="J33" s="15"/>
+      <c r="B33" s="5">
+        <v>1</v>
+      </c>
+      <c r="C33" s="19" t="s">
+        <v>115</v>
+      </c>
+      <c r="D33" s="20" t="s">
+        <v>33</v>
+      </c>
+      <c r="E33" s="19" t="s">
+        <v>20</v>
+      </c>
+      <c r="F33" s="8"/>
+      <c r="G33" s="6" t="s">
+        <v>75</v>
+      </c>
+      <c r="H33" s="21" t="s">
+        <v>73</v>
+      </c>
+      <c r="I33" s="9"/>
+      <c r="J33" s="22" t="s">
+        <v>119</v>
+      </c>
       <c r="K33" s="2"/>
       <c r="L33" s="2"/>
       <c r="M33" s="2"/>
@@ -3590,17 +3629,27 @@
     </row>
     <row r="34" spans="1:25" ht="15.75" customHeight="1">
       <c r="A34" s="3"/>
-      <c r="B34" s="45" t="s">
-        <v>7</v>
-      </c>
-      <c r="C34" s="46"/>
-      <c r="D34" s="46"/>
-      <c r="E34" s="46"/>
-      <c r="F34" s="46"/>
-      <c r="G34" s="46"/>
-      <c r="H34" s="46"/>
-      <c r="I34" s="46"/>
-      <c r="J34" s="46"/>
+      <c r="B34" s="5">
+        <v>2</v>
+      </c>
+      <c r="C34" s="19" t="s">
+        <v>116</v>
+      </c>
+      <c r="D34" s="19" t="s">
+        <v>26</v>
+      </c>
+      <c r="E34" s="19" t="s">
+        <v>39</v>
+      </c>
+      <c r="F34" s="8"/>
+      <c r="G34" s="6" t="s">
+        <v>75</v>
+      </c>
+      <c r="H34" s="9"/>
+      <c r="I34" s="9"/>
+      <c r="J34" s="19" t="s">
+        <v>0</v>
+      </c>
       <c r="K34" s="2"/>
       <c r="L34" s="2"/>
       <c r="M34" s="2"/>
@@ -3619,33 +3668,27 @@
     </row>
     <row r="35" spans="1:25" ht="15.75" customHeight="1">
       <c r="A35" s="3"/>
-      <c r="B35" s="25" t="s">
-        <v>71</v>
-      </c>
-      <c r="C35" s="25" t="s">
-        <v>72</v>
-      </c>
-      <c r="D35" s="25" t="s">
-        <v>74</v>
-      </c>
-      <c r="E35" s="25" t="s">
-        <v>13</v>
-      </c>
-      <c r="F35" s="25" t="s">
-        <v>73</v>
-      </c>
-      <c r="G35" s="25" t="s">
-        <v>11</v>
-      </c>
-      <c r="H35" s="25" t="s">
-        <v>92</v>
-      </c>
-      <c r="I35" s="25" t="s">
+      <c r="B35" s="5">
+        <v>3</v>
+      </c>
+      <c r="C35" s="19" t="s">
+        <v>117</v>
+      </c>
+      <c r="D35" s="19" t="s">
+        <v>28</v>
+      </c>
+      <c r="E35" s="8" t="s">
+        <v>88</v>
+      </c>
+      <c r="F35" s="8">
+        <v>2000</v>
+      </c>
+      <c r="G35" s="6" t="s">
         <v>75</v>
       </c>
-      <c r="J35" s="25" t="s">
-        <v>76</v>
-      </c>
+      <c r="H35" s="9"/>
+      <c r="I35" s="9"/>
+      <c r="J35" s="10"/>
       <c r="K35" s="2"/>
       <c r="L35" s="2"/>
       <c r="M35" s="2"/>
@@ -3663,32 +3706,16 @@
       <c r="Y35" s="2"/>
     </row>
     <row r="36" spans="1:25" ht="15.75" customHeight="1">
-      <c r="A36" s="3"/>
-      <c r="B36" s="25">
-        <v>1</v>
-      </c>
-      <c r="C36" s="25" t="s">
-        <v>98</v>
-      </c>
-      <c r="D36" s="26" t="s">
-        <v>25</v>
-      </c>
-      <c r="E36" s="19" t="s">
-        <v>21</v>
-      </c>
-      <c r="F36" s="25"/>
-      <c r="G36" s="25" t="s">
-        <v>80</v>
-      </c>
-      <c r="H36" s="25" t="s">
-        <v>78</v>
-      </c>
-      <c r="I36" s="25" t="s">
-        <v>79</v>
-      </c>
-      <c r="J36" s="26" t="s">
-        <v>69</v>
-      </c>
+      <c r="A36" s="17"/>
+      <c r="B36" s="18"/>
+      <c r="C36" s="29"/>
+      <c r="D36" s="29"/>
+      <c r="E36" s="18"/>
+      <c r="F36" s="18"/>
+      <c r="G36" s="18"/>
+      <c r="H36" s="17"/>
+      <c r="I36" s="17"/>
+      <c r="J36" s="31"/>
       <c r="K36" s="2"/>
       <c r="L36" s="2"/>
       <c r="M36" s="2"/>
@@ -3707,29 +3734,15 @@
     </row>
     <row r="37" spans="1:25" ht="15.75" customHeight="1">
       <c r="A37" s="3"/>
-      <c r="B37" s="25">
-        <v>2</v>
-      </c>
-      <c r="C37" s="25" t="s">
-        <v>32</v>
-      </c>
-      <c r="D37" s="26" t="s">
-        <v>24</v>
-      </c>
-      <c r="E37" s="25" t="s">
-        <v>93</v>
-      </c>
-      <c r="F37" s="24">
-        <v>10</v>
-      </c>
-      <c r="G37" s="25" t="s">
-        <v>80</v>
-      </c>
-      <c r="H37" s="25"/>
-      <c r="I37" s="27"/>
-      <c r="J37" s="25" t="s">
-        <v>101</v>
-      </c>
+      <c r="B37" s="11"/>
+      <c r="C37" s="12"/>
+      <c r="D37" s="12"/>
+      <c r="E37" s="12"/>
+      <c r="F37" s="12"/>
+      <c r="G37" s="13"/>
+      <c r="H37" s="14"/>
+      <c r="I37" s="14"/>
+      <c r="J37" s="15"/>
       <c r="K37" s="2"/>
       <c r="L37" s="2"/>
       <c r="M37" s="2"/>
@@ -3748,27 +3761,17 @@
     </row>
     <row r="38" spans="1:25" ht="15.75" customHeight="1">
       <c r="A38" s="3"/>
-      <c r="B38" s="25">
-        <v>3</v>
-      </c>
-      <c r="C38" s="25" t="s">
-        <v>112</v>
-      </c>
-      <c r="D38" s="26" t="s">
-        <v>33</v>
-      </c>
-      <c r="E38" s="25" t="s">
-        <v>93</v>
-      </c>
-      <c r="F38" s="25">
-        <v>20</v>
-      </c>
-      <c r="G38" s="25" t="s">
-        <v>80</v>
-      </c>
-      <c r="H38" s="24"/>
-      <c r="I38" s="24"/>
-      <c r="J38" s="26"/>
+      <c r="B38" s="45" t="s">
+        <v>6</v>
+      </c>
+      <c r="C38" s="46"/>
+      <c r="D38" s="46"/>
+      <c r="E38" s="46"/>
+      <c r="F38" s="46"/>
+      <c r="G38" s="46"/>
+      <c r="H38" s="46"/>
+      <c r="I38" s="46"/>
+      <c r="J38" s="46"/>
       <c r="K38" s="2"/>
       <c r="L38" s="2"/>
       <c r="M38" s="2"/>
@@ -3787,26 +3790,32 @@
     </row>
     <row r="39" spans="1:25" ht="15.75" customHeight="1">
       <c r="A39" s="3"/>
-      <c r="B39" s="25">
-        <v>4</v>
+      <c r="B39" s="25" t="s">
+        <v>66</v>
       </c>
       <c r="C39" s="25" t="s">
-        <v>113</v>
-      </c>
-      <c r="D39" s="26" t="s">
+        <v>67</v>
+      </c>
+      <c r="D39" s="25" t="s">
+        <v>69</v>
+      </c>
+      <c r="E39" s="25" t="s">
+        <v>12</v>
+      </c>
+      <c r="F39" s="25" t="s">
+        <v>68</v>
+      </c>
+      <c r="G39" s="25" t="s">
+        <v>10</v>
+      </c>
+      <c r="H39" s="25" t="s">
         <v>87</v>
       </c>
-      <c r="E39" s="19" t="s">
-        <v>21</v>
-      </c>
-      <c r="F39" s="25"/>
-      <c r="G39" s="25" t="s">
-        <v>80</v>
-      </c>
-      <c r="H39" s="25"/>
-      <c r="I39" s="24"/>
-      <c r="J39" s="23" t="s">
-        <v>96</v>
+      <c r="I39" s="25" t="s">
+        <v>70</v>
+      </c>
+      <c r="J39" s="25" t="s">
+        <v>71</v>
       </c>
       <c r="K39" s="2"/>
       <c r="L39" s="2"/>
@@ -3827,27 +3836,29 @@
     <row r="40" spans="1:25" ht="15.75" customHeight="1">
       <c r="A40" s="3"/>
       <c r="B40" s="25">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="C40" s="25" t="s">
-        <v>62</v>
+        <v>93</v>
       </c>
       <c r="D40" s="26" t="s">
-        <v>26</v>
-      </c>
-      <c r="E40" s="25" t="s">
-        <v>93</v>
-      </c>
-      <c r="F40" s="25">
-        <v>2000</v>
-      </c>
+        <v>24</v>
+      </c>
+      <c r="E40" s="19" t="s">
+        <v>20</v>
+      </c>
+      <c r="F40" s="25"/>
       <c r="G40" s="25" t="s">
-        <v>80</v>
-      </c>
-      <c r="H40" s="24"/>
-      <c r="I40" s="24"/>
-      <c r="J40" s="25" t="s">
-        <v>2</v>
+        <v>75</v>
+      </c>
+      <c r="H40" s="25" t="s">
+        <v>73</v>
+      </c>
+      <c r="I40" s="25" t="s">
+        <v>74</v>
+      </c>
+      <c r="J40" s="26" t="s">
+        <v>64</v>
       </c>
       <c r="K40" s="2"/>
       <c r="L40" s="2"/>
@@ -3868,27 +3879,27 @@
     <row r="41" spans="1:25" ht="15.75" customHeight="1">
       <c r="A41" s="3"/>
       <c r="B41" s="25">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="C41" s="25" t="s">
-        <v>57</v>
+        <v>31</v>
       </c>
       <c r="D41" s="26" t="s">
-        <v>111</v>
+        <v>23</v>
       </c>
       <c r="E41" s="25" t="s">
-        <v>93</v>
-      </c>
-      <c r="F41" s="25">
-        <v>50</v>
+        <v>88</v>
+      </c>
+      <c r="F41" s="24">
+        <v>10</v>
       </c>
       <c r="G41" s="25" t="s">
-        <v>80</v>
-      </c>
-      <c r="H41" s="24"/>
-      <c r="I41" s="24"/>
+        <v>75</v>
+      </c>
+      <c r="H41" s="25"/>
+      <c r="I41" s="27"/>
       <c r="J41" s="25" t="s">
-        <v>106</v>
+        <v>96</v>
       </c>
       <c r="K41" s="2"/>
       <c r="L41" s="2"/>
@@ -3909,28 +3920,26 @@
     <row r="42" spans="1:25" ht="15.75" customHeight="1">
       <c r="A42" s="3"/>
       <c r="B42" s="25">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="C42" s="25" t="s">
-        <v>58</v>
+        <v>106</v>
       </c>
       <c r="D42" s="26" t="s">
-        <v>54</v>
+        <v>32</v>
       </c>
       <c r="E42" s="25" t="s">
-        <v>93</v>
+        <v>88</v>
       </c>
       <c r="F42" s="25">
-        <v>50</v>
+        <v>20</v>
       </c>
       <c r="G42" s="25" t="s">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="H42" s="24"/>
       <c r="I42" s="24"/>
-      <c r="J42" s="25" t="s">
-        <v>106</v>
-      </c>
+      <c r="J42" s="26"/>
       <c r="K42" s="2"/>
       <c r="L42" s="2"/>
       <c r="M42" s="2"/>
@@ -3950,27 +3959,25 @@
     <row r="43" spans="1:25" ht="15.75" customHeight="1">
       <c r="A43" s="3"/>
       <c r="B43" s="25">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="C43" s="25" t="s">
-        <v>59</v>
+        <v>107</v>
       </c>
       <c r="D43" s="26" t="s">
-        <v>55</v>
-      </c>
-      <c r="E43" s="25" t="s">
-        <v>93</v>
-      </c>
-      <c r="F43" s="25">
-        <v>50</v>
-      </c>
+        <v>82</v>
+      </c>
+      <c r="E43" s="19" t="s">
+        <v>20</v>
+      </c>
+      <c r="F43" s="25"/>
       <c r="G43" s="25" t="s">
-        <v>80</v>
-      </c>
-      <c r="H43" s="24"/>
+        <v>75</v>
+      </c>
+      <c r="H43" s="25"/>
       <c r="I43" s="24"/>
-      <c r="J43" s="25" t="s">
-        <v>106</v>
+      <c r="J43" s="23" t="s">
+        <v>91</v>
       </c>
       <c r="K43" s="2"/>
       <c r="L43" s="2"/>
@@ -3991,27 +3998,27 @@
     <row r="44" spans="1:25" ht="15.75" customHeight="1">
       <c r="A44" s="3"/>
       <c r="B44" s="25">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="C44" s="25" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="D44" s="26" t="s">
-        <v>56</v>
+        <v>25</v>
       </c>
       <c r="E44" s="25" t="s">
-        <v>93</v>
+        <v>88</v>
       </c>
       <c r="F44" s="25">
-        <v>50</v>
+        <v>2000</v>
       </c>
       <c r="G44" s="25" t="s">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="H44" s="24"/>
       <c r="I44" s="24"/>
       <c r="J44" s="25" t="s">
-        <v>106</v>
+        <v>2</v>
       </c>
       <c r="K44" s="2"/>
       <c r="L44" s="2"/>
@@ -4031,15 +4038,29 @@
     </row>
     <row r="45" spans="1:25" ht="15.75" customHeight="1">
       <c r="A45" s="3"/>
-      <c r="B45" s="29"/>
-      <c r="C45" s="29"/>
-      <c r="D45" s="30"/>
-      <c r="E45" s="29"/>
-      <c r="F45" s="29"/>
-      <c r="G45" s="29"/>
-      <c r="H45" s="29"/>
-      <c r="I45" s="17"/>
-      <c r="J45" s="29"/>
+      <c r="B45" s="25">
+        <v>6</v>
+      </c>
+      <c r="C45" s="25" t="s">
+        <v>54</v>
+      </c>
+      <c r="D45" s="26" t="s">
+        <v>105</v>
+      </c>
+      <c r="E45" s="25" t="s">
+        <v>88</v>
+      </c>
+      <c r="F45" s="25">
+        <v>50</v>
+      </c>
+      <c r="G45" s="25" t="s">
+        <v>75</v>
+      </c>
+      <c r="H45" s="24"/>
+      <c r="I45" s="24"/>
+      <c r="J45" s="25" t="s">
+        <v>101</v>
+      </c>
       <c r="K45" s="2"/>
       <c r="L45" s="2"/>
       <c r="M45" s="2"/>
@@ -4058,15 +4079,29 @@
     </row>
     <row r="46" spans="1:25" ht="15.75" customHeight="1">
       <c r="A46" s="3"/>
-      <c r="B46" s="29"/>
-      <c r="C46" s="29"/>
-      <c r="D46" s="30"/>
-      <c r="E46" s="29"/>
-      <c r="F46" s="29"/>
-      <c r="G46" s="29"/>
-      <c r="H46" s="17"/>
-      <c r="I46" s="17"/>
-      <c r="J46" s="29"/>
+      <c r="B46" s="25">
+        <v>7</v>
+      </c>
+      <c r="C46" s="25" t="s">
+        <v>55</v>
+      </c>
+      <c r="D46" s="26" t="s">
+        <v>51</v>
+      </c>
+      <c r="E46" s="25" t="s">
+        <v>88</v>
+      </c>
+      <c r="F46" s="25">
+        <v>50</v>
+      </c>
+      <c r="G46" s="25" t="s">
+        <v>75</v>
+      </c>
+      <c r="H46" s="24"/>
+      <c r="I46" s="24"/>
+      <c r="J46" s="25" t="s">
+        <v>101</v>
+      </c>
       <c r="K46" s="2"/>
       <c r="L46" s="2"/>
       <c r="M46" s="2"/>
@@ -4085,17 +4120,29 @@
     </row>
     <row r="47" spans="1:25" ht="15.75" customHeight="1">
       <c r="A47" s="3"/>
-      <c r="B47" s="45" t="s">
-        <v>70</v>
-      </c>
-      <c r="C47" s="46"/>
-      <c r="D47" s="46"/>
-      <c r="E47" s="46"/>
-      <c r="F47" s="46"/>
-      <c r="G47" s="46"/>
-      <c r="H47" s="46"/>
-      <c r="I47" s="46"/>
-      <c r="J47" s="46"/>
+      <c r="B47" s="25">
+        <v>8</v>
+      </c>
+      <c r="C47" s="25" t="s">
+        <v>56</v>
+      </c>
+      <c r="D47" s="26" t="s">
+        <v>52</v>
+      </c>
+      <c r="E47" s="25" t="s">
+        <v>88</v>
+      </c>
+      <c r="F47" s="25">
+        <v>50</v>
+      </c>
+      <c r="G47" s="25" t="s">
+        <v>75</v>
+      </c>
+      <c r="H47" s="24"/>
+      <c r="I47" s="24"/>
+      <c r="J47" s="25" t="s">
+        <v>101</v>
+      </c>
       <c r="K47" s="2"/>
       <c r="L47" s="2"/>
       <c r="M47" s="2"/>
@@ -4114,32 +4161,28 @@
     </row>
     <row r="48" spans="1:25" ht="15.75" customHeight="1">
       <c r="A48" s="3"/>
-      <c r="B48" s="25" t="s">
-        <v>71</v>
+      <c r="B48" s="25">
+        <v>9</v>
       </c>
       <c r="C48" s="25" t="s">
-        <v>72</v>
-      </c>
-      <c r="D48" s="25" t="s">
-        <v>74</v>
+        <v>57</v>
+      </c>
+      <c r="D48" s="26" t="s">
+        <v>53</v>
       </c>
       <c r="E48" s="25" t="s">
-        <v>13</v>
-      </c>
-      <c r="F48" s="25" t="s">
-        <v>73</v>
+        <v>88</v>
+      </c>
+      <c r="F48" s="25">
+        <v>50</v>
       </c>
       <c r="G48" s="25" t="s">
-        <v>11</v>
-      </c>
-      <c r="H48" s="25" t="s">
-        <v>92</v>
-      </c>
-      <c r="I48" s="25" t="s">
         <v>75</v>
       </c>
+      <c r="H48" s="24"/>
+      <c r="I48" s="24"/>
       <c r="J48" s="25" t="s">
-        <v>76</v>
+        <v>101</v>
       </c>
       <c r="K48" s="2"/>
       <c r="L48" s="2"/>
@@ -4159,31 +4202,15 @@
     </row>
     <row r="49" spans="1:25" ht="15.75" customHeight="1">
       <c r="A49" s="3"/>
-      <c r="B49" s="25">
-        <v>1</v>
-      </c>
-      <c r="C49" s="25" t="s">
-        <v>100</v>
-      </c>
-      <c r="D49" s="26" t="s">
-        <v>28</v>
-      </c>
-      <c r="E49" s="19" t="s">
-        <v>21</v>
-      </c>
-      <c r="F49" s="25"/>
-      <c r="G49" s="25" t="s">
-        <v>80</v>
-      </c>
-      <c r="H49" s="25" t="s">
-        <v>78</v>
-      </c>
-      <c r="I49" s="25" t="s">
-        <v>90</v>
-      </c>
-      <c r="J49" s="26" t="s">
-        <v>68</v>
-      </c>
+      <c r="B49" s="29"/>
+      <c r="C49" s="29"/>
+      <c r="D49" s="30"/>
+      <c r="E49" s="29"/>
+      <c r="F49" s="29"/>
+      <c r="G49" s="29"/>
+      <c r="H49" s="29"/>
+      <c r="I49" s="17"/>
+      <c r="J49" s="29"/>
       <c r="K49" s="2"/>
       <c r="L49" s="2"/>
       <c r="M49" s="2"/>
@@ -4202,33 +4229,15 @@
     </row>
     <row r="50" spans="1:25" ht="15.75" customHeight="1">
       <c r="A50" s="3"/>
-      <c r="B50" s="25">
-        <v>2</v>
-      </c>
-      <c r="C50" s="25" t="s">
-        <v>19</v>
-      </c>
-      <c r="D50" s="26" t="s">
-        <v>77</v>
-      </c>
-      <c r="E50" s="25" t="s">
-        <v>93</v>
-      </c>
-      <c r="F50" s="24">
-        <v>50</v>
-      </c>
-      <c r="G50" s="25" t="s">
-        <v>80</v>
-      </c>
-      <c r="H50" s="25" t="s">
-        <v>78</v>
-      </c>
-      <c r="I50" s="27" t="s">
-        <v>91</v>
-      </c>
-      <c r="J50" s="25" t="s">
-        <v>22</v>
-      </c>
+      <c r="B50" s="29"/>
+      <c r="C50" s="29"/>
+      <c r="D50" s="30"/>
+      <c r="E50" s="29"/>
+      <c r="F50" s="29"/>
+      <c r="G50" s="29"/>
+      <c r="H50" s="17"/>
+      <c r="I50" s="17"/>
+      <c r="J50" s="29"/>
       <c r="K50" s="2"/>
       <c r="L50" s="2"/>
       <c r="M50" s="2"/>
@@ -4247,27 +4256,17 @@
     </row>
     <row r="51" spans="1:25" ht="15.75" customHeight="1">
       <c r="A51" s="3"/>
-      <c r="B51" s="25">
-        <v>3</v>
-      </c>
-      <c r="C51" s="25" t="s">
-        <v>18</v>
-      </c>
-      <c r="D51" s="26" t="s">
-        <v>30</v>
-      </c>
-      <c r="E51" s="25" t="s">
-        <v>93</v>
-      </c>
-      <c r="F51" s="25">
-        <v>50</v>
-      </c>
-      <c r="G51" s="25" t="s">
-        <v>80</v>
-      </c>
-      <c r="H51" s="24"/>
-      <c r="I51" s="24"/>
-      <c r="J51" s="26"/>
+      <c r="B51" s="45" t="s">
+        <v>65</v>
+      </c>
+      <c r="C51" s="46"/>
+      <c r="D51" s="46"/>
+      <c r="E51" s="46"/>
+      <c r="F51" s="46"/>
+      <c r="G51" s="46"/>
+      <c r="H51" s="46"/>
+      <c r="I51" s="46"/>
+      <c r="J51" s="46"/>
       <c r="K51" s="2"/>
       <c r="L51" s="2"/>
       <c r="M51" s="2"/>
@@ -4286,28 +4285,32 @@
     </row>
     <row r="52" spans="1:25" ht="15.75" customHeight="1">
       <c r="A52" s="3"/>
-      <c r="B52" s="25">
-        <v>4</v>
+      <c r="B52" s="25" t="s">
+        <v>66</v>
       </c>
       <c r="C52" s="25" t="s">
-        <v>23</v>
-      </c>
-      <c r="D52" s="26" t="s">
-        <v>31</v>
+        <v>67</v>
+      </c>
+      <c r="D52" s="25" t="s">
+        <v>69</v>
       </c>
       <c r="E52" s="25" t="s">
-        <v>93</v>
-      </c>
-      <c r="F52" s="25">
+        <v>12</v>
+      </c>
+      <c r="F52" s="25" t="s">
+        <v>68</v>
+      </c>
+      <c r="G52" s="25" t="s">
         <v>10</v>
       </c>
-      <c r="G52" s="25" t="s">
-        <v>80</v>
-      </c>
-      <c r="H52" s="25"/>
-      <c r="I52" s="24"/>
+      <c r="H52" s="25" t="s">
+        <v>87</v>
+      </c>
+      <c r="I52" s="25" t="s">
+        <v>70</v>
+      </c>
       <c r="J52" s="25" t="s">
-        <v>6</v>
+        <v>71</v>
       </c>
       <c r="K52" s="2"/>
       <c r="L52" s="2"/>
@@ -4328,24 +4331,28 @@
     <row r="53" spans="1:25" ht="15.75" customHeight="1">
       <c r="A53" s="3"/>
       <c r="B53" s="25">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="C53" s="25" t="s">
-        <v>37</v>
+        <v>95</v>
       </c>
       <c r="D53" s="26" t="s">
-        <v>86</v>
-      </c>
-      <c r="E53" s="25" t="s">
-        <v>40</v>
+        <v>27</v>
+      </c>
+      <c r="E53" s="19" t="s">
+        <v>20</v>
       </c>
       <c r="F53" s="25"/>
       <c r="G53" s="25" t="s">
-        <v>80</v>
-      </c>
-      <c r="H53" s="24"/>
-      <c r="I53" s="24"/>
-      <c r="J53" s="23" t="s">
+        <v>75</v>
+      </c>
+      <c r="H53" s="25" t="s">
+        <v>73</v>
+      </c>
+      <c r="I53" s="25" t="s">
+        <v>85</v>
+      </c>
+      <c r="J53" s="26" t="s">
         <v>63</v>
       </c>
       <c r="K53" s="2"/>
@@ -4367,26 +4374,32 @@
     <row r="54" spans="1:25" ht="15.75" customHeight="1">
       <c r="A54" s="3"/>
       <c r="B54" s="25">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="C54" s="25" t="s">
-        <v>110</v>
+        <v>18</v>
       </c>
       <c r="D54" s="26" t="s">
-        <v>39</v>
+        <v>72</v>
       </c>
       <c r="E54" s="25" t="s">
-        <v>93</v>
-      </c>
-      <c r="F54" s="25">
-        <v>2000</v>
+        <v>88</v>
+      </c>
+      <c r="F54" s="24">
+        <v>50</v>
       </c>
       <c r="G54" s="25" t="s">
-        <v>80</v>
-      </c>
-      <c r="H54" s="24"/>
-      <c r="I54" s="24"/>
-      <c r="J54" s="25"/>
+        <v>75</v>
+      </c>
+      <c r="H54" s="25" t="s">
+        <v>73</v>
+      </c>
+      <c r="I54" s="27" t="s">
+        <v>86</v>
+      </c>
+      <c r="J54" s="25" t="s">
+        <v>21</v>
+      </c>
       <c r="K54" s="2"/>
       <c r="L54" s="2"/>
       <c r="M54" s="2"/>
@@ -4405,15 +4418,27 @@
     </row>
     <row r="55" spans="1:25" ht="15.75" customHeight="1">
       <c r="A55" s="3"/>
-      <c r="B55" s="29"/>
-      <c r="C55" s="29"/>
-      <c r="D55" s="30"/>
-      <c r="E55" s="29"/>
-      <c r="F55" s="29"/>
-      <c r="G55" s="29"/>
-      <c r="H55" s="29"/>
-      <c r="I55" s="17"/>
-      <c r="J55" s="29"/>
+      <c r="B55" s="25">
+        <v>3</v>
+      </c>
+      <c r="C55" s="25" t="s">
+        <v>17</v>
+      </c>
+      <c r="D55" s="26" t="s">
+        <v>29</v>
+      </c>
+      <c r="E55" s="25" t="s">
+        <v>88</v>
+      </c>
+      <c r="F55" s="25">
+        <v>50</v>
+      </c>
+      <c r="G55" s="25" t="s">
+        <v>75</v>
+      </c>
+      <c r="H55" s="24"/>
+      <c r="I55" s="24"/>
+      <c r="J55" s="26"/>
       <c r="K55" s="2"/>
       <c r="L55" s="2"/>
       <c r="M55" s="2"/>
@@ -4432,15 +4457,29 @@
     </row>
     <row r="56" spans="1:25" ht="15.75" customHeight="1">
       <c r="A56" s="3"/>
-      <c r="B56" s="29"/>
-      <c r="C56" s="29"/>
-      <c r="D56" s="29"/>
-      <c r="E56" s="29"/>
-      <c r="F56" s="29"/>
-      <c r="G56" s="29"/>
-      <c r="H56" s="17"/>
-      <c r="I56" s="17"/>
-      <c r="J56" s="28"/>
+      <c r="B56" s="25">
+        <v>4</v>
+      </c>
+      <c r="C56" s="25" t="s">
+        <v>22</v>
+      </c>
+      <c r="D56" s="26" t="s">
+        <v>30</v>
+      </c>
+      <c r="E56" s="25" t="s">
+        <v>88</v>
+      </c>
+      <c r="F56" s="25">
+        <v>10</v>
+      </c>
+      <c r="G56" s="25" t="s">
+        <v>75</v>
+      </c>
+      <c r="H56" s="25"/>
+      <c r="I56" s="24"/>
+      <c r="J56" s="25" t="s">
+        <v>5</v>
+      </c>
       <c r="K56" s="2"/>
       <c r="L56" s="2"/>
       <c r="M56" s="2"/>
@@ -4459,17 +4498,27 @@
     </row>
     <row r="57" spans="1:25" ht="15.75" customHeight="1">
       <c r="A57" s="3"/>
-      <c r="B57" s="45" t="s">
+      <c r="B57" s="25">
         <v>5</v>
       </c>
-      <c r="C57" s="46"/>
-      <c r="D57" s="46"/>
-      <c r="E57" s="46"/>
-      <c r="F57" s="46"/>
-      <c r="G57" s="46"/>
-      <c r="H57" s="46"/>
-      <c r="I57" s="46"/>
-      <c r="J57" s="46"/>
+      <c r="C57" s="25" t="s">
+        <v>36</v>
+      </c>
+      <c r="D57" s="26" t="s">
+        <v>81</v>
+      </c>
+      <c r="E57" s="25" t="s">
+        <v>39</v>
+      </c>
+      <c r="F57" s="25"/>
+      <c r="G57" s="25" t="s">
+        <v>75</v>
+      </c>
+      <c r="H57" s="24"/>
+      <c r="I57" s="24"/>
+      <c r="J57" s="23" t="s">
+        <v>59</v>
+      </c>
       <c r="K57" s="2"/>
       <c r="L57" s="2"/>
       <c r="M57" s="2"/>
@@ -4488,33 +4537,27 @@
     </row>
     <row r="58" spans="1:25" ht="15.75" customHeight="1">
       <c r="A58" s="3"/>
-      <c r="B58" s="25" t="s">
-        <v>71</v>
+      <c r="B58" s="25">
+        <v>6</v>
       </c>
       <c r="C58" s="25" t="s">
-        <v>72</v>
-      </c>
-      <c r="D58" s="25" t="s">
-        <v>74</v>
+        <v>104</v>
+      </c>
+      <c r="D58" s="26" t="s">
+        <v>38</v>
       </c>
       <c r="E58" s="25" t="s">
-        <v>13</v>
-      </c>
-      <c r="F58" s="25" t="s">
-        <v>73</v>
+        <v>88</v>
+      </c>
+      <c r="F58" s="25">
+        <v>2000</v>
       </c>
       <c r="G58" s="25" t="s">
-        <v>11</v>
-      </c>
-      <c r="H58" s="25" t="s">
-        <v>92</v>
-      </c>
-      <c r="I58" s="25" t="s">
         <v>75</v>
       </c>
-      <c r="J58" s="25" t="s">
-        <v>76</v>
-      </c>
+      <c r="H58" s="24"/>
+      <c r="I58" s="24"/>
+      <c r="J58" s="25"/>
       <c r="K58" s="2"/>
       <c r="L58" s="2"/>
       <c r="M58" s="2"/>
@@ -4533,31 +4576,15 @@
     </row>
     <row r="59" spans="1:25" ht="15.75" customHeight="1">
       <c r="A59" s="3"/>
-      <c r="B59" s="25">
-        <v>1</v>
-      </c>
-      <c r="C59" s="25" t="s">
-        <v>97</v>
-      </c>
-      <c r="D59" s="26" t="s">
-        <v>36</v>
-      </c>
-      <c r="E59" s="19" t="s">
-        <v>21</v>
-      </c>
-      <c r="F59" s="25"/>
-      <c r="G59" s="25" t="s">
-        <v>80</v>
-      </c>
-      <c r="H59" s="25" t="s">
-        <v>78</v>
-      </c>
-      <c r="I59" s="25" t="s">
-        <v>90</v>
-      </c>
-      <c r="J59" s="26" t="s">
-        <v>67</v>
-      </c>
+      <c r="B59" s="29"/>
+      <c r="C59" s="29"/>
+      <c r="D59" s="30"/>
+      <c r="E59" s="29"/>
+      <c r="F59" s="29"/>
+      <c r="G59" s="29"/>
+      <c r="H59" s="29"/>
+      <c r="I59" s="17"/>
+      <c r="J59" s="29"/>
       <c r="K59" s="2"/>
       <c r="L59" s="2"/>
       <c r="M59" s="2"/>
@@ -4576,27 +4603,15 @@
     </row>
     <row r="60" spans="1:25" ht="15.75" customHeight="1">
       <c r="A60" s="3"/>
-      <c r="B60" s="25">
-        <v>2</v>
-      </c>
-      <c r="C60" s="25" t="s">
-        <v>20</v>
-      </c>
-      <c r="D60" s="26" t="s">
-        <v>85</v>
-      </c>
-      <c r="E60" s="25" t="s">
-        <v>93</v>
-      </c>
-      <c r="F60" s="24">
-        <v>50</v>
-      </c>
-      <c r="G60" s="25" t="s">
-        <v>80</v>
-      </c>
-      <c r="H60" s="25"/>
-      <c r="I60" s="27"/>
-      <c r="J60" s="25"/>
+      <c r="B60" s="29"/>
+      <c r="C60" s="29"/>
+      <c r="D60" s="29"/>
+      <c r="E60" s="29"/>
+      <c r="F60" s="29"/>
+      <c r="G60" s="29"/>
+      <c r="H60" s="17"/>
+      <c r="I60" s="17"/>
+      <c r="J60" s="28"/>
       <c r="K60" s="2"/>
       <c r="L60" s="2"/>
       <c r="M60" s="2"/>
@@ -4615,27 +4630,17 @@
     </row>
     <row r="61" spans="1:25" ht="15.75" customHeight="1">
       <c r="A61" s="3"/>
-      <c r="B61" s="25">
-        <v>3</v>
-      </c>
-      <c r="C61" s="25" t="s">
-        <v>95</v>
-      </c>
-      <c r="D61" s="26" t="s">
-        <v>82</v>
-      </c>
-      <c r="E61" s="25" t="s">
-        <v>93</v>
-      </c>
-      <c r="F61" s="25">
-        <v>2000</v>
-      </c>
-      <c r="G61" s="25" t="s">
-        <v>80</v>
-      </c>
-      <c r="H61" s="24"/>
-      <c r="I61" s="24"/>
-      <c r="J61" s="26"/>
+      <c r="B61" s="45" t="s">
+        <v>4</v>
+      </c>
+      <c r="C61" s="46"/>
+      <c r="D61" s="46"/>
+      <c r="E61" s="46"/>
+      <c r="F61" s="46"/>
+      <c r="G61" s="46"/>
+      <c r="H61" s="46"/>
+      <c r="I61" s="46"/>
+      <c r="J61" s="46"/>
       <c r="K61" s="2"/>
       <c r="L61" s="2"/>
       <c r="M61" s="2"/>
@@ -4654,28 +4659,32 @@
     </row>
     <row r="62" spans="1:25" ht="15.75" customHeight="1">
       <c r="A62" s="3"/>
-      <c r="B62" s="25">
-        <v>4</v>
+      <c r="B62" s="25" t="s">
+        <v>66</v>
       </c>
       <c r="C62" s="25" t="s">
-        <v>35</v>
-      </c>
-      <c r="D62" s="26" t="s">
-        <v>81</v>
+        <v>67</v>
+      </c>
+      <c r="D62" s="25" t="s">
+        <v>69</v>
       </c>
       <c r="E62" s="25" t="s">
-        <v>93</v>
-      </c>
-      <c r="F62" s="25">
-        <v>50</v>
+        <v>12</v>
+      </c>
+      <c r="F62" s="25" t="s">
+        <v>68</v>
       </c>
       <c r="G62" s="25" t="s">
-        <v>78</v>
-      </c>
-      <c r="H62" s="25"/>
-      <c r="I62" s="24"/>
+        <v>10</v>
+      </c>
+      <c r="H62" s="25" t="s">
+        <v>87</v>
+      </c>
+      <c r="I62" s="25" t="s">
+        <v>70</v>
+      </c>
       <c r="J62" s="25" t="s">
-        <v>106</v>
+        <v>71</v>
       </c>
       <c r="K62" s="2"/>
       <c r="L62" s="2"/>
@@ -4696,25 +4705,29 @@
     <row r="63" spans="1:25" ht="15.75" customHeight="1">
       <c r="A63" s="3"/>
       <c r="B63" s="25">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="C63" s="25" t="s">
-        <v>38</v>
+        <v>92</v>
       </c>
       <c r="D63" s="26" t="s">
-        <v>86</v>
-      </c>
-      <c r="E63" s="25" t="s">
-        <v>40</v>
+        <v>35</v>
+      </c>
+      <c r="E63" s="19" t="s">
+        <v>20</v>
       </c>
       <c r="F63" s="25"/>
       <c r="G63" s="25" t="s">
-        <v>80</v>
-      </c>
-      <c r="H63" s="24"/>
-      <c r="I63" s="24"/>
-      <c r="J63" s="25" t="s">
-        <v>63</v>
+        <v>75</v>
+      </c>
+      <c r="H63" s="25" t="s">
+        <v>73</v>
+      </c>
+      <c r="I63" s="25" t="s">
+        <v>85</v>
+      </c>
+      <c r="J63" s="26" t="s">
+        <v>62</v>
       </c>
       <c r="K63" s="2"/>
       <c r="L63" s="2"/>
@@ -4735,28 +4748,26 @@
     <row r="64" spans="1:25" ht="15.75" customHeight="1">
       <c r="A64" s="3"/>
       <c r="B64" s="25">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="C64" s="25" t="s">
-        <v>94</v>
+        <v>19</v>
       </c>
       <c r="D64" s="26" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="E64" s="25" t="s">
-        <v>93</v>
-      </c>
-      <c r="F64" s="25">
-        <v>20</v>
+        <v>88</v>
+      </c>
+      <c r="F64" s="24">
+        <v>50</v>
       </c>
       <c r="G64" s="25" t="s">
-        <v>80</v>
-      </c>
-      <c r="H64" s="24"/>
-      <c r="I64" s="24"/>
-      <c r="J64" s="23" t="s">
-        <v>83</v>
-      </c>
+        <v>75</v>
+      </c>
+      <c r="H64" s="25"/>
+      <c r="I64" s="27"/>
+      <c r="J64" s="25"/>
       <c r="K64" s="2"/>
       <c r="L64" s="2"/>
       <c r="M64" s="2"/>
@@ -4775,15 +4786,27 @@
     </row>
     <row r="65" spans="1:25" ht="15.75" customHeight="1">
       <c r="A65" s="3"/>
-      <c r="B65" s="3"/>
-      <c r="C65" s="3"/>
-      <c r="D65" s="3"/>
-      <c r="E65" s="3"/>
-      <c r="F65" s="3"/>
-      <c r="G65" s="3"/>
-      <c r="H65" s="3"/>
-      <c r="I65" s="3"/>
-      <c r="J65" s="4"/>
+      <c r="B65" s="25">
+        <v>3</v>
+      </c>
+      <c r="C65" s="25" t="s">
+        <v>90</v>
+      </c>
+      <c r="D65" s="26" t="s">
+        <v>77</v>
+      </c>
+      <c r="E65" s="25" t="s">
+        <v>88</v>
+      </c>
+      <c r="F65" s="25">
+        <v>2000</v>
+      </c>
+      <c r="G65" s="25" t="s">
+        <v>75</v>
+      </c>
+      <c r="H65" s="24"/>
+      <c r="I65" s="24"/>
+      <c r="J65" s="26"/>
       <c r="K65" s="2"/>
       <c r="L65" s="2"/>
       <c r="M65" s="2"/>
@@ -4802,17 +4825,29 @@
     </row>
     <row r="66" spans="1:25" ht="15.75" customHeight="1">
       <c r="A66" s="3"/>
-      <c r="B66" s="36" t="s">
-        <v>3</v>
-      </c>
-      <c r="C66" s="37"/>
-      <c r="D66" s="37"/>
-      <c r="E66" s="37"/>
-      <c r="F66" s="37"/>
-      <c r="G66" s="37"/>
-      <c r="H66" s="37"/>
-      <c r="I66" s="37"/>
-      <c r="J66" s="38"/>
+      <c r="B66" s="25">
+        <v>4</v>
+      </c>
+      <c r="C66" s="25" t="s">
+        <v>34</v>
+      </c>
+      <c r="D66" s="26" t="s">
+        <v>76</v>
+      </c>
+      <c r="E66" s="25" t="s">
+        <v>88</v>
+      </c>
+      <c r="F66" s="25">
+        <v>50</v>
+      </c>
+      <c r="G66" s="25" t="s">
+        <v>73</v>
+      </c>
+      <c r="H66" s="25"/>
+      <c r="I66" s="24"/>
+      <c r="J66" s="25" t="s">
+        <v>101</v>
+      </c>
       <c r="K66" s="2"/>
       <c r="L66" s="2"/>
       <c r="M66" s="2"/>
@@ -4829,134 +4864,222 @@
       <c r="X66" s="2"/>
       <c r="Y66" s="2"/>
     </row>
-    <row r="67" spans="1:25" ht="15" customHeight="1">
-      <c r="B67" s="5" t="s">
+    <row r="67" spans="1:25" ht="15.75" customHeight="1">
+      <c r="A67" s="3"/>
+      <c r="B67" s="25">
+        <v>5</v>
+      </c>
+      <c r="C67" s="25" t="s">
+        <v>37</v>
+      </c>
+      <c r="D67" s="26" t="s">
+        <v>81</v>
+      </c>
+      <c r="E67" s="25" t="s">
+        <v>39</v>
+      </c>
+      <c r="F67" s="25"/>
+      <c r="G67" s="25" t="s">
+        <v>75</v>
+      </c>
+      <c r="H67" s="24"/>
+      <c r="I67" s="24"/>
+      <c r="J67" s="25" t="s">
+        <v>59</v>
+      </c>
+      <c r="K67" s="2"/>
+      <c r="L67" s="2"/>
+      <c r="M67" s="2"/>
+      <c r="N67" s="2"/>
+      <c r="O67" s="2"/>
+      <c r="P67" s="2"/>
+      <c r="Q67" s="2"/>
+      <c r="R67" s="2"/>
+      <c r="S67" s="2"/>
+      <c r="T67" s="2"/>
+      <c r="U67" s="2"/>
+      <c r="V67" s="2"/>
+      <c r="W67" s="2"/>
+      <c r="X67" s="2"/>
+      <c r="Y67" s="2"/>
+    </row>
+    <row r="68" spans="1:25" ht="15.75" customHeight="1">
+      <c r="A68" s="3"/>
+      <c r="B68" s="25">
+        <v>6</v>
+      </c>
+      <c r="C68" s="25" t="s">
+        <v>89</v>
+      </c>
+      <c r="D68" s="26" t="s">
+        <v>79</v>
+      </c>
+      <c r="E68" s="25" t="s">
+        <v>88</v>
+      </c>
+      <c r="F68" s="25">
+        <v>20</v>
+      </c>
+      <c r="G68" s="25" t="s">
+        <v>75</v>
+      </c>
+      <c r="H68" s="24"/>
+      <c r="I68" s="24"/>
+      <c r="J68" s="23" t="s">
+        <v>78</v>
+      </c>
+      <c r="K68" s="2"/>
+      <c r="L68" s="2"/>
+      <c r="M68" s="2"/>
+      <c r="N68" s="2"/>
+      <c r="O68" s="2"/>
+      <c r="P68" s="2"/>
+      <c r="Q68" s="2"/>
+      <c r="R68" s="2"/>
+      <c r="S68" s="2"/>
+      <c r="T68" s="2"/>
+      <c r="U68" s="2"/>
+      <c r="V68" s="2"/>
+      <c r="W68" s="2"/>
+      <c r="X68" s="2"/>
+      <c r="Y68" s="2"/>
+    </row>
+    <row r="69" spans="1:25" ht="15.75" customHeight="1">
+      <c r="A69" s="3"/>
+      <c r="B69" s="3"/>
+      <c r="C69" s="3"/>
+      <c r="D69" s="3"/>
+      <c r="E69" s="3"/>
+      <c r="F69" s="3"/>
+      <c r="G69" s="3"/>
+      <c r="H69" s="3"/>
+      <c r="I69" s="3"/>
+      <c r="J69" s="4"/>
+      <c r="K69" s="2"/>
+      <c r="L69" s="2"/>
+      <c r="M69" s="2"/>
+      <c r="N69" s="2"/>
+      <c r="O69" s="2"/>
+      <c r="P69" s="2"/>
+      <c r="Q69" s="2"/>
+      <c r="R69" s="2"/>
+      <c r="S69" s="2"/>
+      <c r="T69" s="2"/>
+      <c r="U69" s="2"/>
+      <c r="V69" s="2"/>
+      <c r="W69" s="2"/>
+      <c r="X69" s="2"/>
+      <c r="Y69" s="2"/>
+    </row>
+    <row r="70" spans="1:25" ht="15.75" customHeight="1">
+      <c r="A70" s="3"/>
+      <c r="B70" s="36" t="s">
+        <v>3</v>
+      </c>
+      <c r="C70" s="37"/>
+      <c r="D70" s="37"/>
+      <c r="E70" s="37"/>
+      <c r="F70" s="37"/>
+      <c r="G70" s="37"/>
+      <c r="H70" s="37"/>
+      <c r="I70" s="37"/>
+      <c r="J70" s="38"/>
+      <c r="K70" s="2"/>
+      <c r="L70" s="2"/>
+      <c r="M70" s="2"/>
+      <c r="N70" s="2"/>
+      <c r="O70" s="2"/>
+      <c r="P70" s="2"/>
+      <c r="Q70" s="2"/>
+      <c r="R70" s="2"/>
+      <c r="S70" s="2"/>
+      <c r="T70" s="2"/>
+      <c r="U70" s="2"/>
+      <c r="V70" s="2"/>
+      <c r="W70" s="2"/>
+      <c r="X70" s="2"/>
+      <c r="Y70" s="2"/>
+    </row>
+    <row r="71" spans="1:25" ht="15" customHeight="1">
+      <c r="B71" s="5" t="s">
+        <v>66</v>
+      </c>
+      <c r="C71" s="34" t="s">
+        <v>67</v>
+      </c>
+      <c r="D71" s="34" t="s">
+        <v>69</v>
+      </c>
+      <c r="E71" s="34" t="s">
+        <v>12</v>
+      </c>
+      <c r="F71" s="34" t="s">
+        <v>68</v>
+      </c>
+      <c r="G71" s="34" t="s">
+        <v>10</v>
+      </c>
+      <c r="H71" s="34" t="s">
+        <v>83</v>
+      </c>
+      <c r="I71" s="34" t="s">
+        <v>70</v>
+      </c>
+      <c r="J71" s="34" t="s">
         <v>71</v>
       </c>
-      <c r="C67" s="34" t="s">
-        <v>72</v>
-      </c>
-      <c r="D67" s="34" t="s">
+      <c r="K71" s="3"/>
+    </row>
+    <row r="72" spans="1:25" ht="15" customHeight="1">
+      <c r="B72" s="5">
+        <v>1</v>
+      </c>
+      <c r="C72" s="25" t="s">
+        <v>18</v>
+      </c>
+      <c r="D72" s="35" t="s">
+        <v>41</v>
+      </c>
+      <c r="E72" s="34" t="s">
+        <v>88</v>
+      </c>
+      <c r="F72" s="34">
+        <v>70</v>
+      </c>
+      <c r="G72" s="34" t="s">
+        <v>75</v>
+      </c>
+      <c r="H72" s="34" t="s">
+        <v>73</v>
+      </c>
+      <c r="I72" s="34" t="s">
         <v>74</v>
       </c>
-      <c r="E67" s="34" t="s">
-        <v>13</v>
-      </c>
-      <c r="F67" s="34" t="s">
-        <v>73</v>
-      </c>
-      <c r="G67" s="34" t="s">
-        <v>11</v>
-      </c>
-      <c r="H67" s="34" t="s">
+      <c r="J72" s="34"/>
+      <c r="K72" s="3"/>
+    </row>
+    <row r="73" spans="1:25" ht="15" customHeight="1">
+      <c r="B73" s="5">
+        <v>2</v>
+      </c>
+      <c r="C73" s="34" t="s">
+        <v>43</v>
+      </c>
+      <c r="D73" s="35" t="s">
+        <v>84</v>
+      </c>
+      <c r="E73" s="34" t="s">
         <v>88</v>
       </c>
-      <c r="I67" s="34" t="s">
+      <c r="F73" s="34">
+        <v>70</v>
+      </c>
+      <c r="G73" s="34" t="s">
         <v>75</v>
       </c>
-      <c r="J67" s="34" t="s">
-        <v>76</v>
-      </c>
-      <c r="K67" s="3"/>
-    </row>
-    <row r="68" spans="1:25" ht="15" customHeight="1">
-      <c r="B68" s="5">
-        <v>1</v>
-      </c>
-      <c r="C68" s="25" t="s">
-        <v>19</v>
-      </c>
-      <c r="D68" s="35" t="s">
-        <v>42</v>
-      </c>
-      <c r="E68" s="34" t="s">
-        <v>93</v>
-      </c>
-      <c r="F68" s="34">
-        <v>70</v>
-      </c>
-      <c r="G68" s="34" t="s">
-        <v>80</v>
-      </c>
-      <c r="H68" s="34" t="s">
-        <v>78</v>
-      </c>
-      <c r="I68" s="34" t="s">
-        <v>79</v>
-      </c>
-      <c r="J68" s="34"/>
-      <c r="K68" s="3"/>
-    </row>
-    <row r="69" spans="1:25" ht="15" customHeight="1">
-      <c r="B69" s="5">
-        <v>2</v>
-      </c>
-      <c r="C69" s="34" t="s">
-        <v>46</v>
-      </c>
-      <c r="D69" s="35" t="s">
-        <v>89</v>
-      </c>
-      <c r="E69" s="34" t="s">
-        <v>93</v>
-      </c>
-      <c r="F69" s="34">
-        <v>70</v>
-      </c>
-      <c r="G69" s="34" t="s">
-        <v>80</v>
-      </c>
-      <c r="H69" s="34"/>
-      <c r="I69" s="34"/>
-      <c r="J69" s="34"/>
-      <c r="K69" s="3"/>
-    </row>
-    <row r="70" spans="1:25" ht="15" customHeight="1">
-      <c r="B70" s="3"/>
-      <c r="C70" s="3"/>
-      <c r="D70" s="3"/>
-      <c r="E70" s="3"/>
-      <c r="F70" s="3"/>
-      <c r="G70" s="3"/>
-      <c r="H70" s="3"/>
-      <c r="I70" s="3"/>
-      <c r="J70" s="3"/>
-      <c r="K70" s="3"/>
-    </row>
-    <row r="71" spans="1:25" ht="15" customHeight="1">
-      <c r="B71" s="3"/>
-      <c r="C71" s="3"/>
-      <c r="D71" s="3"/>
-      <c r="E71" s="3"/>
-      <c r="F71" s="3"/>
-      <c r="G71" s="3"/>
-      <c r="H71" s="3"/>
-      <c r="I71" s="3"/>
-      <c r="J71" s="3"/>
-      <c r="K71" s="3"/>
-    </row>
-    <row r="72" spans="1:25" ht="15" customHeight="1">
-      <c r="B72" s="3"/>
-      <c r="C72" s="3"/>
-      <c r="D72" s="3"/>
-      <c r="E72" s="3"/>
-      <c r="F72" s="3"/>
-      <c r="G72" s="3"/>
-      <c r="H72" s="3"/>
-      <c r="I72" s="3"/>
-      <c r="J72" s="3"/>
-      <c r="K72" s="3"/>
-    </row>
-    <row r="73" spans="1:25" ht="15" customHeight="1">
-      <c r="B73" s="3"/>
-      <c r="C73" s="3"/>
-      <c r="D73" s="3"/>
-      <c r="E73" s="3"/>
-      <c r="F73" s="3"/>
-      <c r="G73" s="3"/>
-      <c r="H73" s="3"/>
-      <c r="I73" s="3"/>
-      <c r="J73" s="3"/>
+      <c r="H73" s="34"/>
+      <c r="I73" s="34"/>
+      <c r="J73" s="34"/>
       <c r="K73" s="3"/>
     </row>
     <row r="74" spans="1:25" ht="15" customHeight="1">
@@ -4971,8 +5094,7 @@
       <c r="J74" s="3"/>
       <c r="K74" s="3"/>
     </row>
-    <row r="75" spans="1:25" ht="15.75" customHeight="1">
-      <c r="A75" s="3"/>
+    <row r="75" spans="1:25" ht="15" customHeight="1">
       <c r="B75" s="3"/>
       <c r="C75" s="3"/>
       <c r="D75" s="3"/>
@@ -4983,23 +5105,8 @@
       <c r="I75" s="3"/>
       <c r="J75" s="3"/>
       <c r="K75" s="3"/>
-      <c r="L75" s="2"/>
-      <c r="M75" s="2"/>
-      <c r="N75" s="2"/>
-      <c r="O75" s="2"/>
-      <c r="P75" s="2"/>
-      <c r="Q75" s="2"/>
-      <c r="R75" s="2"/>
-      <c r="S75" s="2"/>
-      <c r="T75" s="2"/>
-      <c r="U75" s="2"/>
-      <c r="V75" s="2"/>
-      <c r="W75" s="2"/>
-      <c r="X75" s="2"/>
-      <c r="Y75" s="2"/>
-    </row>
-    <row r="76" spans="1:25" ht="15.75" customHeight="1">
-      <c r="A76" s="3"/>
+    </row>
+    <row r="76" spans="1:25" ht="15" customHeight="1">
       <c r="B76" s="3"/>
       <c r="C76" s="3"/>
       <c r="D76" s="3"/>
@@ -5010,23 +5117,8 @@
       <c r="I76" s="3"/>
       <c r="J76" s="3"/>
       <c r="K76" s="3"/>
-      <c r="L76" s="2"/>
-      <c r="M76" s="2"/>
-      <c r="N76" s="2"/>
-      <c r="O76" s="2"/>
-      <c r="P76" s="2"/>
-      <c r="Q76" s="2"/>
-      <c r="R76" s="2"/>
-      <c r="S76" s="2"/>
-      <c r="T76" s="2"/>
-      <c r="U76" s="2"/>
-      <c r="V76" s="2"/>
-      <c r="W76" s="2"/>
-      <c r="X76" s="2"/>
-      <c r="Y76" s="2"/>
-    </row>
-    <row r="77" spans="1:25" ht="15.75" customHeight="1">
-      <c r="A77" s="3"/>
+    </row>
+    <row r="77" spans="1:25" ht="15" customHeight="1">
       <c r="B77" s="3"/>
       <c r="C77" s="3"/>
       <c r="D77" s="3"/>
@@ -5037,23 +5129,8 @@
       <c r="I77" s="3"/>
       <c r="J77" s="3"/>
       <c r="K77" s="3"/>
-      <c r="L77" s="2"/>
-      <c r="M77" s="2"/>
-      <c r="N77" s="2"/>
-      <c r="O77" s="2"/>
-      <c r="P77" s="2"/>
-      <c r="Q77" s="2"/>
-      <c r="R77" s="2"/>
-      <c r="S77" s="2"/>
-      <c r="T77" s="2"/>
-      <c r="U77" s="2"/>
-      <c r="V77" s="2"/>
-      <c r="W77" s="2"/>
-      <c r="X77" s="2"/>
-      <c r="Y77" s="2"/>
-    </row>
-    <row r="78" spans="1:25" ht="15.75" customHeight="1">
-      <c r="A78" s="3"/>
+    </row>
+    <row r="78" spans="1:25" ht="15" customHeight="1">
       <c r="B78" s="3"/>
       <c r="C78" s="3"/>
       <c r="D78" s="3"/>
@@ -5064,20 +5141,6 @@
       <c r="I78" s="3"/>
       <c r="J78" s="3"/>
       <c r="K78" s="3"/>
-      <c r="L78" s="2"/>
-      <c r="M78" s="2"/>
-      <c r="N78" s="2"/>
-      <c r="O78" s="2"/>
-      <c r="P78" s="2"/>
-      <c r="Q78" s="2"/>
-      <c r="R78" s="2"/>
-      <c r="S78" s="2"/>
-      <c r="T78" s="2"/>
-      <c r="U78" s="2"/>
-      <c r="V78" s="2"/>
-      <c r="W78" s="2"/>
-      <c r="X78" s="2"/>
-      <c r="Y78" s="2"/>
     </row>
     <row r="79" spans="1:25" ht="15.75" customHeight="1">
       <c r="A79" s="3"/>
@@ -5116,8 +5179,8 @@
       <c r="G80" s="3"/>
       <c r="H80" s="3"/>
       <c r="I80" s="3"/>
-      <c r="J80" s="4"/>
-      <c r="K80" s="2"/>
+      <c r="J80" s="3"/>
+      <c r="K80" s="3"/>
       <c r="L80" s="2"/>
       <c r="M80" s="2"/>
       <c r="N80" s="2"/>
@@ -5143,8 +5206,8 @@
       <c r="G81" s="3"/>
       <c r="H81" s="3"/>
       <c r="I81" s="3"/>
-      <c r="J81" s="4"/>
-      <c r="K81" s="2"/>
+      <c r="J81" s="3"/>
+      <c r="K81" s="3"/>
       <c r="L81" s="2"/>
       <c r="M81" s="2"/>
       <c r="N81" s="2"/>
@@ -5170,8 +5233,8 @@
       <c r="G82" s="3"/>
       <c r="H82" s="3"/>
       <c r="I82" s="3"/>
-      <c r="J82" s="4"/>
-      <c r="K82" s="2"/>
+      <c r="J82" s="3"/>
+      <c r="K82" s="3"/>
       <c r="L82" s="2"/>
       <c r="M82" s="2"/>
       <c r="N82" s="2"/>
@@ -5197,8 +5260,8 @@
       <c r="G83" s="3"/>
       <c r="H83" s="3"/>
       <c r="I83" s="3"/>
-      <c r="J83" s="4"/>
-      <c r="K83" s="2"/>
+      <c r="J83" s="3"/>
+      <c r="K83" s="3"/>
       <c r="L83" s="2"/>
       <c r="M83" s="2"/>
       <c r="N83" s="2"/>
@@ -7241,15 +7304,15 @@
     </row>
     <row r="159" spans="1:25" ht="15.75" customHeight="1">
       <c r="A159" s="3"/>
-      <c r="B159" s="2"/>
-      <c r="C159" s="2"/>
-      <c r="D159" s="2"/>
-      <c r="E159" s="2"/>
-      <c r="F159" s="2"/>
-      <c r="G159" s="2"/>
-      <c r="H159" s="2"/>
-      <c r="I159" s="2"/>
-      <c r="J159" s="2"/>
+      <c r="B159" s="3"/>
+      <c r="C159" s="3"/>
+      <c r="D159" s="3"/>
+      <c r="E159" s="3"/>
+      <c r="F159" s="3"/>
+      <c r="G159" s="3"/>
+      <c r="H159" s="3"/>
+      <c r="I159" s="3"/>
+      <c r="J159" s="4"/>
       <c r="K159" s="2"/>
       <c r="L159" s="2"/>
       <c r="M159" s="2"/>
@@ -7267,16 +7330,16 @@
       <c r="Y159" s="2"/>
     </row>
     <row r="160" spans="1:25" ht="15.75" customHeight="1">
-      <c r="A160" s="2"/>
-      <c r="B160" s="2"/>
-      <c r="C160" s="2"/>
-      <c r="D160" s="2"/>
-      <c r="E160" s="2"/>
-      <c r="F160" s="2"/>
-      <c r="G160" s="2"/>
-      <c r="H160" s="2"/>
-      <c r="I160" s="2"/>
-      <c r="J160" s="2"/>
+      <c r="A160" s="3"/>
+      <c r="B160" s="3"/>
+      <c r="C160" s="3"/>
+      <c r="D160" s="3"/>
+      <c r="E160" s="3"/>
+      <c r="F160" s="3"/>
+      <c r="G160" s="3"/>
+      <c r="H160" s="3"/>
+      <c r="I160" s="3"/>
+      <c r="J160" s="4"/>
       <c r="K160" s="2"/>
       <c r="L160" s="2"/>
       <c r="M160" s="2"/>
@@ -7294,16 +7357,16 @@
       <c r="Y160" s="2"/>
     </row>
     <row r="161" spans="1:25" ht="15.75" customHeight="1">
-      <c r="A161" s="2"/>
-      <c r="B161" s="2"/>
-      <c r="C161" s="2"/>
-      <c r="D161" s="2"/>
-      <c r="E161" s="2"/>
-      <c r="F161" s="2"/>
-      <c r="G161" s="2"/>
-      <c r="H161" s="2"/>
-      <c r="I161" s="2"/>
-      <c r="J161" s="2"/>
+      <c r="A161" s="3"/>
+      <c r="B161" s="3"/>
+      <c r="C161" s="3"/>
+      <c r="D161" s="3"/>
+      <c r="E161" s="3"/>
+      <c r="F161" s="3"/>
+      <c r="G161" s="3"/>
+      <c r="H161" s="3"/>
+      <c r="I161" s="3"/>
+      <c r="J161" s="4"/>
       <c r="K161" s="2"/>
       <c r="L161" s="2"/>
       <c r="M161" s="2"/>
@@ -7321,16 +7384,16 @@
       <c r="Y161" s="2"/>
     </row>
     <row r="162" spans="1:25" ht="15.75" customHeight="1">
-      <c r="A162" s="2"/>
-      <c r="B162" s="2"/>
-      <c r="C162" s="2"/>
-      <c r="D162" s="2"/>
-      <c r="E162" s="2"/>
-      <c r="F162" s="2"/>
-      <c r="G162" s="2"/>
-      <c r="H162" s="2"/>
-      <c r="I162" s="2"/>
-      <c r="J162" s="2"/>
+      <c r="A162" s="3"/>
+      <c r="B162" s="3"/>
+      <c r="C162" s="3"/>
+      <c r="D162" s="3"/>
+      <c r="E162" s="3"/>
+      <c r="F162" s="3"/>
+      <c r="G162" s="3"/>
+      <c r="H162" s="3"/>
+      <c r="I162" s="3"/>
+      <c r="J162" s="4"/>
       <c r="K162" s="2"/>
       <c r="L162" s="2"/>
       <c r="M162" s="2"/>
@@ -7348,7 +7411,7 @@
       <c r="Y162" s="2"/>
     </row>
     <row r="163" spans="1:25" ht="15.75" customHeight="1">
-      <c r="A163" s="2"/>
+      <c r="A163" s="3"/>
       <c r="B163" s="2"/>
       <c r="C163" s="2"/>
       <c r="D163" s="2"/>
@@ -27086,6 +27149,15 @@
     </row>
     <row r="894" spans="1:25" ht="15.75" customHeight="1">
       <c r="A894" s="2"/>
+      <c r="B894" s="2"/>
+      <c r="C894" s="2"/>
+      <c r="D894" s="2"/>
+      <c r="E894" s="2"/>
+      <c r="F894" s="2"/>
+      <c r="G894" s="2"/>
+      <c r="H894" s="2"/>
+      <c r="I894" s="2"/>
+      <c r="J894" s="2"/>
       <c r="K894" s="2"/>
       <c r="L894" s="2"/>
       <c r="M894" s="2"/>
@@ -27102,15 +27174,115 @@
       <c r="X894" s="2"/>
       <c r="Y894" s="2"/>
     </row>
+    <row r="895" spans="1:25" ht="15.75" customHeight="1">
+      <c r="A895" s="2"/>
+      <c r="B895" s="2"/>
+      <c r="C895" s="2"/>
+      <c r="D895" s="2"/>
+      <c r="E895" s="2"/>
+      <c r="F895" s="2"/>
+      <c r="G895" s="2"/>
+      <c r="H895" s="2"/>
+      <c r="I895" s="2"/>
+      <c r="J895" s="2"/>
+      <c r="K895" s="2"/>
+      <c r="L895" s="2"/>
+      <c r="M895" s="2"/>
+      <c r="N895" s="2"/>
+      <c r="O895" s="2"/>
+      <c r="P895" s="2"/>
+      <c r="Q895" s="2"/>
+      <c r="R895" s="2"/>
+      <c r="S895" s="2"/>
+      <c r="T895" s="2"/>
+      <c r="U895" s="2"/>
+      <c r="V895" s="2"/>
+      <c r="W895" s="2"/>
+      <c r="X895" s="2"/>
+      <c r="Y895" s="2"/>
+    </row>
+    <row r="896" spans="1:25" ht="15.75" customHeight="1">
+      <c r="A896" s="2"/>
+      <c r="B896" s="2"/>
+      <c r="C896" s="2"/>
+      <c r="D896" s="2"/>
+      <c r="E896" s="2"/>
+      <c r="F896" s="2"/>
+      <c r="G896" s="2"/>
+      <c r="H896" s="2"/>
+      <c r="I896" s="2"/>
+      <c r="J896" s="2"/>
+      <c r="K896" s="2"/>
+      <c r="L896" s="2"/>
+      <c r="M896" s="2"/>
+      <c r="N896" s="2"/>
+      <c r="O896" s="2"/>
+      <c r="P896" s="2"/>
+      <c r="Q896" s="2"/>
+      <c r="R896" s="2"/>
+      <c r="S896" s="2"/>
+      <c r="T896" s="2"/>
+      <c r="U896" s="2"/>
+      <c r="V896" s="2"/>
+      <c r="W896" s="2"/>
+      <c r="X896" s="2"/>
+      <c r="Y896" s="2"/>
+    </row>
+    <row r="897" spans="1:25" ht="15.75" customHeight="1">
+      <c r="A897" s="2"/>
+      <c r="B897" s="2"/>
+      <c r="C897" s="2"/>
+      <c r="D897" s="2"/>
+      <c r="E897" s="2"/>
+      <c r="F897" s="2"/>
+      <c r="G897" s="2"/>
+      <c r="H897" s="2"/>
+      <c r="I897" s="2"/>
+      <c r="J897" s="2"/>
+      <c r="K897" s="2"/>
+      <c r="L897" s="2"/>
+      <c r="M897" s="2"/>
+      <c r="N897" s="2"/>
+      <c r="O897" s="2"/>
+      <c r="P897" s="2"/>
+      <c r="Q897" s="2"/>
+      <c r="R897" s="2"/>
+      <c r="S897" s="2"/>
+      <c r="T897" s="2"/>
+      <c r="U897" s="2"/>
+      <c r="V897" s="2"/>
+      <c r="W897" s="2"/>
+      <c r="X897" s="2"/>
+      <c r="Y897" s="2"/>
+    </row>
+    <row r="898" spans="1:25" ht="15.75" customHeight="1">
+      <c r="A898" s="2"/>
+      <c r="K898" s="2"/>
+      <c r="L898" s="2"/>
+      <c r="M898" s="2"/>
+      <c r="N898" s="2"/>
+      <c r="O898" s="2"/>
+      <c r="P898" s="2"/>
+      <c r="Q898" s="2"/>
+      <c r="R898" s="2"/>
+      <c r="S898" s="2"/>
+      <c r="T898" s="2"/>
+      <c r="U898" s="2"/>
+      <c r="V898" s="2"/>
+      <c r="W898" s="2"/>
+      <c r="X898" s="2"/>
+      <c r="Y898" s="2"/>
+    </row>
   </sheetData>
-  <mergeCells count="7">
-    <mergeCell ref="B66:J66"/>
+  <mergeCells count="8">
+    <mergeCell ref="B70:J70"/>
     <mergeCell ref="B2:J3"/>
     <mergeCell ref="B15:J15"/>
-    <mergeCell ref="B47:J47"/>
-    <mergeCell ref="B34:J34"/>
-    <mergeCell ref="B57:J57"/>
+    <mergeCell ref="B51:J51"/>
+    <mergeCell ref="B38:J38"/>
+    <mergeCell ref="B61:J61"/>
     <mergeCell ref="B6:J6"/>
+    <mergeCell ref="B31:J31"/>
   </mergeCells>
   <phoneticPr fontId="8" type="noConversion"/>
   <pageMargins left="0.69999998807907104" right="0.69999998807907104" top="0.75" bottom="0.75" header="0" footer="0"/>

--- a/프로젝트 산출물/5. 테이블명세서/캠플렉스 테이블 명세서.xlsx
+++ b/프로젝트 산출물/5. 테이블명세서/캠플렉스 테이블 명세서.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="295" uniqueCount="133">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="305" uniqueCount="141">
   <si>
     <r>
       <rPr>
@@ -1834,6 +1834,38 @@
     </r>
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
+  <si>
+    <t>m_number</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>회원 번호</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>MEMBER_SEQ : SEQUENCE</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>VARCHAR2</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>m_date</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>회원 가입일</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>DATE</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>Default SYSDATE</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
@@ -2064,7 +2096,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="48">
+  <cellXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -2169,6 +2201,9 @@
     <xf numFmtId="0" fontId="5" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2186,7 +2221,7 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -2405,10 +2440,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:Y898"/>
+  <dimension ref="A1:Y900"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="D37" sqref="D37"/>
+    <sheetView tabSelected="1" topLeftCell="A22" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="L19" sqref="L19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="12.75"/>
@@ -2453,17 +2488,17 @@
     </row>
     <row r="2" spans="1:25" ht="15.75" customHeight="1">
       <c r="A2" s="1"/>
-      <c r="B2" s="39" t="s">
+      <c r="B2" s="40" t="s">
         <v>15</v>
       </c>
-      <c r="C2" s="40"/>
-      <c r="D2" s="40"/>
-      <c r="E2" s="40"/>
-      <c r="F2" s="40"/>
-      <c r="G2" s="40"/>
-      <c r="H2" s="40"/>
-      <c r="I2" s="40"/>
-      <c r="J2" s="41"/>
+      <c r="C2" s="41"/>
+      <c r="D2" s="41"/>
+      <c r="E2" s="41"/>
+      <c r="F2" s="41"/>
+      <c r="G2" s="41"/>
+      <c r="H2" s="41"/>
+      <c r="I2" s="41"/>
+      <c r="J2" s="42"/>
       <c r="K2" s="2"/>
       <c r="L2" s="2"/>
       <c r="M2" s="2"/>
@@ -2482,15 +2517,15 @@
     </row>
     <row r="3" spans="1:25" ht="15.75" customHeight="1">
       <c r="A3" s="1"/>
-      <c r="B3" s="42"/>
-      <c r="C3" s="43"/>
-      <c r="D3" s="43"/>
-      <c r="E3" s="43"/>
-      <c r="F3" s="43"/>
-      <c r="G3" s="43"/>
-      <c r="H3" s="43"/>
-      <c r="I3" s="43"/>
-      <c r="J3" s="44"/>
+      <c r="B3" s="43"/>
+      <c r="C3" s="44"/>
+      <c r="D3" s="44"/>
+      <c r="E3" s="44"/>
+      <c r="F3" s="44"/>
+      <c r="G3" s="44"/>
+      <c r="H3" s="44"/>
+      <c r="I3" s="44"/>
+      <c r="J3" s="45"/>
       <c r="K3" s="2"/>
       <c r="L3" s="2"/>
       <c r="M3" s="2"/>
@@ -2563,17 +2598,17 @@
     </row>
     <row r="6" spans="1:25" ht="15.75" customHeight="1">
       <c r="A6" s="17"/>
-      <c r="B6" s="45" t="s">
+      <c r="B6" s="46" t="s">
         <v>60</v>
       </c>
-      <c r="C6" s="46"/>
-      <c r="D6" s="46"/>
-      <c r="E6" s="46"/>
-      <c r="F6" s="46"/>
-      <c r="G6" s="46"/>
-      <c r="H6" s="46"/>
-      <c r="I6" s="46"/>
-      <c r="J6" s="46"/>
+      <c r="C6" s="47"/>
+      <c r="D6" s="47"/>
+      <c r="E6" s="47"/>
+      <c r="F6" s="47"/>
+      <c r="G6" s="47"/>
+      <c r="H6" s="47"/>
+      <c r="I6" s="47"/>
+      <c r="J6" s="47"/>
       <c r="K6" s="2"/>
       <c r="L6" s="2"/>
       <c r="M6" s="2"/>
@@ -2844,15 +2879,27 @@
     </row>
     <row r="13" spans="1:25" ht="15.75" customHeight="1">
       <c r="A13" s="17"/>
-      <c r="B13" s="17"/>
-      <c r="C13" s="17"/>
-      <c r="D13" s="17"/>
-      <c r="E13" s="17"/>
-      <c r="F13" s="17"/>
-      <c r="G13" s="17"/>
-      <c r="H13" s="17"/>
-      <c r="I13" s="17"/>
-      <c r="J13" s="18"/>
+      <c r="B13" s="25">
+        <v>6</v>
+      </c>
+      <c r="C13" s="25" t="s">
+        <v>133</v>
+      </c>
+      <c r="D13" s="26" t="s">
+        <v>134</v>
+      </c>
+      <c r="E13" s="34" t="s">
+        <v>20</v>
+      </c>
+      <c r="F13" s="25"/>
+      <c r="G13" s="25" t="s">
+        <v>75</v>
+      </c>
+      <c r="H13" s="25"/>
+      <c r="I13" s="27"/>
+      <c r="J13" s="25" t="s">
+        <v>135</v>
+      </c>
       <c r="K13" s="2"/>
       <c r="L13" s="2"/>
       <c r="M13" s="2"/>
@@ -2871,15 +2918,27 @@
     </row>
     <row r="14" spans="1:25" ht="15.75" customHeight="1">
       <c r="A14" s="17"/>
-      <c r="B14" s="17"/>
-      <c r="C14" s="17"/>
-      <c r="D14" s="17"/>
-      <c r="E14" s="17"/>
-      <c r="F14" s="17"/>
-      <c r="G14" s="17"/>
-      <c r="H14" s="17"/>
-      <c r="I14" s="17"/>
-      <c r="J14" s="18"/>
+      <c r="B14" s="25">
+        <v>7</v>
+      </c>
+      <c r="C14" s="25" t="s">
+        <v>137</v>
+      </c>
+      <c r="D14" s="26" t="s">
+        <v>138</v>
+      </c>
+      <c r="E14" s="34" t="s">
+        <v>139</v>
+      </c>
+      <c r="F14" s="25"/>
+      <c r="G14" s="25" t="s">
+        <v>75</v>
+      </c>
+      <c r="H14" s="25"/>
+      <c r="I14" s="27"/>
+      <c r="J14" s="25" t="s">
+        <v>140</v>
+      </c>
       <c r="K14" s="2"/>
       <c r="L14" s="2"/>
       <c r="M14" s="2"/>
@@ -2897,18 +2956,16 @@
       <c r="Y14" s="2"/>
     </row>
     <row r="15" spans="1:25" ht="15.75" customHeight="1">
-      <c r="A15" s="4"/>
-      <c r="B15" s="36" t="s">
-        <v>120</v>
-      </c>
-      <c r="C15" s="37"/>
-      <c r="D15" s="37"/>
-      <c r="E15" s="37"/>
-      <c r="F15" s="37"/>
-      <c r="G15" s="37"/>
-      <c r="H15" s="37"/>
-      <c r="I15" s="37"/>
-      <c r="J15" s="38"/>
+      <c r="A15" s="17"/>
+      <c r="B15" s="31"/>
+      <c r="C15" s="31"/>
+      <c r="D15" s="30"/>
+      <c r="E15" s="31"/>
+      <c r="F15" s="31"/>
+      <c r="G15" s="31"/>
+      <c r="H15" s="31"/>
+      <c r="I15" s="17"/>
+      <c r="J15" s="31"/>
       <c r="K15" s="2"/>
       <c r="L15" s="2"/>
       <c r="M15" s="2"/>
@@ -2926,34 +2983,16 @@
       <c r="Y15" s="2"/>
     </row>
     <row r="16" spans="1:25" ht="15.75" customHeight="1">
-      <c r="A16" s="4"/>
-      <c r="B16" s="5" t="s">
-        <v>66</v>
-      </c>
-      <c r="C16" s="6" t="s">
-        <v>67</v>
-      </c>
-      <c r="D16" s="6" t="s">
-        <v>69</v>
-      </c>
-      <c r="E16" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="F16" s="6" t="s">
-        <v>68</v>
-      </c>
-      <c r="G16" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="H16" s="6" t="s">
-        <v>87</v>
-      </c>
-      <c r="I16" s="6" t="s">
-        <v>70</v>
-      </c>
-      <c r="J16" s="6" t="s">
-        <v>71</v>
-      </c>
+      <c r="A16" s="17"/>
+      <c r="B16" s="17"/>
+      <c r="C16" s="48"/>
+      <c r="D16" s="17"/>
+      <c r="E16" s="17"/>
+      <c r="F16" s="17"/>
+      <c r="G16" s="17"/>
+      <c r="H16" s="17"/>
+      <c r="I16" s="17"/>
+      <c r="J16" s="18"/>
       <c r="K16" s="2"/>
       <c r="L16" s="2"/>
       <c r="M16" s="2"/>
@@ -2972,31 +3011,17 @@
     </row>
     <row r="17" spans="1:25" ht="15.75" customHeight="1">
       <c r="A17" s="4"/>
-      <c r="B17" s="5">
-        <v>1</v>
-      </c>
-      <c r="C17" s="16" t="s">
-        <v>124</v>
-      </c>
-      <c r="D17" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="E17" s="19" t="s">
-        <v>20</v>
-      </c>
-      <c r="F17" s="8"/>
-      <c r="G17" s="6" t="s">
-        <v>75</v>
-      </c>
-      <c r="H17" s="6" t="s">
-        <v>73</v>
-      </c>
-      <c r="I17" s="6" t="s">
-        <v>74</v>
-      </c>
-      <c r="J17" s="22" t="s">
-        <v>118</v>
-      </c>
+      <c r="B17" s="37" t="s">
+        <v>120</v>
+      </c>
+      <c r="C17" s="38"/>
+      <c r="D17" s="38"/>
+      <c r="E17" s="38"/>
+      <c r="F17" s="38"/>
+      <c r="G17" s="38"/>
+      <c r="H17" s="38"/>
+      <c r="I17" s="38"/>
+      <c r="J17" s="39"/>
       <c r="K17" s="2"/>
       <c r="L17" s="2"/>
       <c r="M17" s="2"/>
@@ -3015,31 +3040,33 @@
     </row>
     <row r="18" spans="1:25" ht="15.75" customHeight="1">
       <c r="A18" s="4"/>
-      <c r="B18" s="5">
-        <v>2</v>
-      </c>
-      <c r="C18" s="19" t="s">
-        <v>50</v>
-      </c>
-      <c r="D18" s="7" t="s">
-        <v>72</v>
+      <c r="B18" s="5" t="s">
+        <v>66</v>
+      </c>
+      <c r="C18" s="6" t="s">
+        <v>67</v>
+      </c>
+      <c r="D18" s="6" t="s">
+        <v>69</v>
       </c>
       <c r="E18" s="6" t="s">
-        <v>88</v>
-      </c>
-      <c r="F18" s="25">
-        <v>50</v>
+        <v>12</v>
+      </c>
+      <c r="F18" s="6" t="s">
+        <v>68</v>
       </c>
       <c r="G18" s="6" t="s">
-        <v>75</v>
-      </c>
-      <c r="H18" s="16" t="s">
-        <v>73</v>
-      </c>
-      <c r="I18" s="21" t="s">
-        <v>86</v>
-      </c>
-      <c r="J18" s="6"/>
+        <v>10</v>
+      </c>
+      <c r="H18" s="6" t="s">
+        <v>87</v>
+      </c>
+      <c r="I18" s="6" t="s">
+        <v>70</v>
+      </c>
+      <c r="J18" s="6" t="s">
+        <v>71</v>
+      </c>
       <c r="K18" s="2"/>
       <c r="L18" s="2"/>
       <c r="M18" s="2"/>
@@ -3059,28 +3086,30 @@
     <row r="19" spans="1:25" ht="15.75" customHeight="1">
       <c r="A19" s="4"/>
       <c r="B19" s="5">
-        <v>3</v>
-      </c>
-      <c r="C19" s="19" t="s">
-        <v>103</v>
+        <v>1</v>
+      </c>
+      <c r="C19" s="16" t="s">
+        <v>124</v>
       </c>
       <c r="D19" s="7" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="E19" s="19" t="s">
         <v>20</v>
       </c>
-      <c r="F19" s="6"/>
+      <c r="F19" s="8"/>
       <c r="G19" s="6" t="s">
         <v>75</v>
       </c>
-      <c r="H19" s="16" t="s">
+      <c r="H19" s="6" t="s">
         <v>73</v>
       </c>
-      <c r="I19" s="21" t="s">
-        <v>86</v>
-      </c>
-      <c r="J19" s="7"/>
+      <c r="I19" s="6" t="s">
+        <v>74</v>
+      </c>
+      <c r="J19" s="22" t="s">
+        <v>118</v>
+      </c>
       <c r="K19" s="2"/>
       <c r="L19" s="2"/>
       <c r="M19" s="2"/>
@@ -3100,26 +3129,30 @@
     <row r="20" spans="1:25" ht="15.75" customHeight="1">
       <c r="A20" s="4"/>
       <c r="B20" s="5">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C20" s="19" t="s">
-        <v>112</v>
+        <v>50</v>
       </c>
       <c r="D20" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="E20" s="19" t="s">
-        <v>46</v>
-      </c>
-      <c r="F20" s="8"/>
+        <v>72</v>
+      </c>
+      <c r="E20" s="6" t="s">
+        <v>88</v>
+      </c>
+      <c r="F20" s="25">
+        <v>50</v>
+      </c>
       <c r="G20" s="6" t="s">
         <v>75</v>
       </c>
-      <c r="H20" s="6"/>
-      <c r="I20" s="9"/>
-      <c r="J20" s="19" t="s">
-        <v>1</v>
-      </c>
+      <c r="H20" s="16" t="s">
+        <v>73</v>
+      </c>
+      <c r="I20" s="21" t="s">
+        <v>86</v>
+      </c>
+      <c r="J20" s="6"/>
       <c r="K20" s="2"/>
       <c r="L20" s="2"/>
       <c r="M20" s="2"/>
@@ -3139,26 +3172,28 @@
     <row r="21" spans="1:25" ht="15.75" customHeight="1">
       <c r="A21" s="4"/>
       <c r="B21" s="5">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C21" s="19" t="s">
-        <v>113</v>
+        <v>103</v>
       </c>
       <c r="D21" s="7" t="s">
-        <v>127</v>
+        <v>11</v>
       </c>
       <c r="E21" s="19" t="s">
-        <v>46</v>
+        <v>20</v>
       </c>
       <c r="F21" s="6"/>
       <c r="G21" s="6" t="s">
         <v>75</v>
       </c>
-      <c r="H21" s="9"/>
-      <c r="I21" s="9"/>
-      <c r="J21" s="19" t="s">
-        <v>110</v>
-      </c>
+      <c r="H21" s="16" t="s">
+        <v>73</v>
+      </c>
+      <c r="I21" s="21" t="s">
+        <v>86</v>
+      </c>
+      <c r="J21" s="7"/>
       <c r="K21" s="2"/>
       <c r="L21" s="2"/>
       <c r="M21" s="2"/>
@@ -3176,27 +3211,27 @@
       <c r="Y21" s="2"/>
     </row>
     <row r="22" spans="1:25" ht="15.75" customHeight="1">
-      <c r="A22" s="31"/>
+      <c r="A22" s="4"/>
       <c r="B22" s="5">
-        <v>6</v>
-      </c>
-      <c r="C22" s="34" t="s">
-        <v>108</v>
-      </c>
-      <c r="D22" s="35" t="s">
-        <v>109</v>
-      </c>
-      <c r="E22" s="34" t="s">
+        <v>4</v>
+      </c>
+      <c r="C22" s="19" t="s">
+        <v>112</v>
+      </c>
+      <c r="D22" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="E22" s="19" t="s">
         <v>46</v>
       </c>
-      <c r="F22" s="34"/>
-      <c r="G22" s="34" t="s">
+      <c r="F22" s="8"/>
+      <c r="G22" s="6" t="s">
         <v>75</v>
       </c>
-      <c r="H22" s="21"/>
-      <c r="I22" s="21"/>
-      <c r="J22" s="34" t="s">
-        <v>111</v>
+      <c r="H22" s="6"/>
+      <c r="I22" s="9"/>
+      <c r="J22" s="19" t="s">
+        <v>1</v>
       </c>
       <c r="K22" s="2"/>
       <c r="L22" s="2"/>
@@ -3217,25 +3252,25 @@
     <row r="23" spans="1:25" ht="15.75" customHeight="1">
       <c r="A23" s="4"/>
       <c r="B23" s="5">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C23" s="19" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="D23" s="7" t="s">
-        <v>13</v>
+        <v>127</v>
       </c>
       <c r="E23" s="19" t="s">
-        <v>20</v>
-      </c>
-      <c r="F23" s="8"/>
+        <v>46</v>
+      </c>
+      <c r="F23" s="6"/>
       <c r="G23" s="6" t="s">
         <v>75</v>
       </c>
       <c r="H23" s="9"/>
       <c r="I23" s="9"/>
       <c r="J23" s="19" t="s">
-        <v>94</v>
+        <v>110</v>
       </c>
       <c r="K23" s="2"/>
       <c r="L23" s="2"/>
@@ -3254,29 +3289,27 @@
       <c r="Y23" s="2"/>
     </row>
     <row r="24" spans="1:25" ht="15.75" customHeight="1">
-      <c r="A24" s="4"/>
+      <c r="A24" s="31"/>
       <c r="B24" s="5">
-        <v>8</v>
-      </c>
-      <c r="C24" s="19" t="s">
-        <v>122</v>
-      </c>
-      <c r="D24" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="E24" s="6" t="s">
-        <v>88</v>
-      </c>
-      <c r="F24" s="8">
-        <v>20</v>
-      </c>
-      <c r="G24" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="C24" s="34" t="s">
+        <v>108</v>
+      </c>
+      <c r="D24" s="35" t="s">
+        <v>109</v>
+      </c>
+      <c r="E24" s="34" t="s">
+        <v>46</v>
+      </c>
+      <c r="F24" s="34"/>
+      <c r="G24" s="34" t="s">
         <v>75</v>
       </c>
-      <c r="H24" s="6"/>
-      <c r="I24" s="9"/>
-      <c r="J24" s="19" t="s">
-        <v>125</v>
+      <c r="H24" s="21"/>
+      <c r="I24" s="21"/>
+      <c r="J24" s="34" t="s">
+        <v>111</v>
       </c>
       <c r="K24" s="2"/>
       <c r="L24" s="2"/>
@@ -3295,29 +3328,27 @@
       <c r="Y24" s="2"/>
     </row>
     <row r="25" spans="1:25" ht="15.75" customHeight="1">
-      <c r="A25" s="17"/>
+      <c r="A25" s="4"/>
       <c r="B25" s="5">
-        <v>9</v>
-      </c>
-      <c r="C25" s="25" t="s">
-        <v>131</v>
-      </c>
-      <c r="D25" s="26" t="s">
-        <v>99</v>
+        <v>7</v>
+      </c>
+      <c r="C25" s="19" t="s">
+        <v>114</v>
+      </c>
+      <c r="D25" s="7" t="s">
+        <v>13</v>
       </c>
       <c r="E25" s="19" t="s">
         <v>20</v>
       </c>
-      <c r="F25" s="25">
-        <v>1</v>
-      </c>
-      <c r="G25" s="25" t="s">
+      <c r="F25" s="8"/>
+      <c r="G25" s="6" t="s">
         <v>75</v>
       </c>
-      <c r="H25" s="25"/>
-      <c r="I25" s="24"/>
-      <c r="J25" s="25" t="s">
-        <v>126</v>
+      <c r="H25" s="9"/>
+      <c r="I25" s="9"/>
+      <c r="J25" s="19" t="s">
+        <v>94</v>
       </c>
       <c r="K25" s="2"/>
       <c r="L25" s="2"/>
@@ -3336,29 +3367,29 @@
       <c r="Y25" s="2"/>
     </row>
     <row r="26" spans="1:25" ht="15.75" customHeight="1">
-      <c r="A26" s="17"/>
+      <c r="A26" s="4"/>
       <c r="B26" s="5">
-        <v>10</v>
-      </c>
-      <c r="C26" s="25" t="s">
-        <v>123</v>
-      </c>
-      <c r="D26" s="47" t="s">
-        <v>128</v>
-      </c>
-      <c r="E26" s="19" t="s">
+        <v>8</v>
+      </c>
+      <c r="C26" s="19" t="s">
+        <v>122</v>
+      </c>
+      <c r="D26" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="E26" s="6" t="s">
+        <v>136</v>
+      </c>
+      <c r="F26" s="8">
         <v>20</v>
       </c>
-      <c r="F26" s="25">
-        <v>1</v>
-      </c>
-      <c r="G26" s="25" t="s">
+      <c r="G26" s="6" t="s">
         <v>75</v>
       </c>
-      <c r="H26" s="25"/>
-      <c r="I26" s="24"/>
-      <c r="J26" s="25" t="s">
-        <v>126</v>
+      <c r="H26" s="6"/>
+      <c r="I26" s="9"/>
+      <c r="J26" s="19" t="s">
+        <v>125</v>
       </c>
       <c r="K26" s="2"/>
       <c r="L26" s="2"/>
@@ -3379,13 +3410,13 @@
     <row r="27" spans="1:25" ht="15.75" customHeight="1">
       <c r="A27" s="17"/>
       <c r="B27" s="5">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="C27" s="25" t="s">
-        <v>130</v>
-      </c>
-      <c r="D27" s="47" t="s">
-        <v>129</v>
+        <v>131</v>
+      </c>
+      <c r="D27" s="26" t="s">
+        <v>99</v>
       </c>
       <c r="E27" s="19" t="s">
         <v>20</v>
@@ -3420,13 +3451,13 @@
     <row r="28" spans="1:25" ht="15.75" customHeight="1">
       <c r="A28" s="17"/>
       <c r="B28" s="5">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="C28" s="25" t="s">
-        <v>132</v>
-      </c>
-      <c r="D28" s="26" t="s">
-        <v>100</v>
+        <v>123</v>
+      </c>
+      <c r="D28" s="36" t="s">
+        <v>128</v>
       </c>
       <c r="E28" s="19" t="s">
         <v>20</v>
@@ -3460,15 +3491,29 @@
     </row>
     <row r="29" spans="1:25" ht="15.75" customHeight="1">
       <c r="A29" s="17"/>
-      <c r="B29" s="31"/>
-      <c r="C29" s="31"/>
-      <c r="D29" s="31"/>
-      <c r="E29" s="31"/>
-      <c r="F29" s="31"/>
-      <c r="G29" s="31"/>
-      <c r="H29" s="17"/>
-      <c r="I29" s="17"/>
-      <c r="J29" s="31"/>
+      <c r="B29" s="5">
+        <v>11</v>
+      </c>
+      <c r="C29" s="25" t="s">
+        <v>130</v>
+      </c>
+      <c r="D29" s="36" t="s">
+        <v>129</v>
+      </c>
+      <c r="E29" s="19" t="s">
+        <v>20</v>
+      </c>
+      <c r="F29" s="25">
+        <v>1</v>
+      </c>
+      <c r="G29" s="25" t="s">
+        <v>75</v>
+      </c>
+      <c r="H29" s="25"/>
+      <c r="I29" s="24"/>
+      <c r="J29" s="25" t="s">
+        <v>126</v>
+      </c>
       <c r="K29" s="2"/>
       <c r="L29" s="2"/>
       <c r="M29" s="2"/>
@@ -3487,15 +3532,29 @@
     </row>
     <row r="30" spans="1:25" ht="15.75" customHeight="1">
       <c r="A30" s="17"/>
-      <c r="B30" s="31"/>
-      <c r="C30" s="31"/>
-      <c r="D30" s="31"/>
-      <c r="E30" s="31"/>
-      <c r="F30" s="31"/>
-      <c r="G30" s="30"/>
-      <c r="H30" s="17"/>
-      <c r="I30" s="17"/>
-      <c r="J30" s="31"/>
+      <c r="B30" s="5">
+        <v>12</v>
+      </c>
+      <c r="C30" s="25" t="s">
+        <v>132</v>
+      </c>
+      <c r="D30" s="26" t="s">
+        <v>100</v>
+      </c>
+      <c r="E30" s="19" t="s">
+        <v>20</v>
+      </c>
+      <c r="F30" s="25">
+        <v>1</v>
+      </c>
+      <c r="G30" s="25" t="s">
+        <v>75</v>
+      </c>
+      <c r="H30" s="25"/>
+      <c r="I30" s="24"/>
+      <c r="J30" s="25" t="s">
+        <v>126</v>
+      </c>
       <c r="K30" s="2"/>
       <c r="L30" s="2"/>
       <c r="M30" s="2"/>
@@ -3514,17 +3573,15 @@
     </row>
     <row r="31" spans="1:25" ht="15.75" customHeight="1">
       <c r="A31" s="17"/>
-      <c r="B31" s="45" t="s">
-        <v>121</v>
-      </c>
-      <c r="C31" s="46"/>
-      <c r="D31" s="46"/>
-      <c r="E31" s="46"/>
-      <c r="F31" s="46"/>
-      <c r="G31" s="46"/>
-      <c r="H31" s="46"/>
-      <c r="I31" s="46"/>
-      <c r="J31" s="46"/>
+      <c r="B31" s="31"/>
+      <c r="C31" s="31"/>
+      <c r="D31" s="31"/>
+      <c r="E31" s="31"/>
+      <c r="F31" s="31"/>
+      <c r="G31" s="31"/>
+      <c r="H31" s="17"/>
+      <c r="I31" s="17"/>
+      <c r="J31" s="31"/>
       <c r="K31" s="2"/>
       <c r="L31" s="2"/>
       <c r="M31" s="2"/>
@@ -3543,33 +3600,15 @@
     </row>
     <row r="32" spans="1:25" ht="15.75" customHeight="1">
       <c r="A32" s="17"/>
-      <c r="B32" s="25" t="s">
-        <v>66</v>
-      </c>
-      <c r="C32" s="25" t="s">
-        <v>67</v>
-      </c>
-      <c r="D32" s="25" t="s">
-        <v>69</v>
-      </c>
-      <c r="E32" s="25" t="s">
-        <v>12</v>
-      </c>
-      <c r="F32" s="25" t="s">
-        <v>68</v>
-      </c>
-      <c r="G32" s="25" t="s">
-        <v>10</v>
-      </c>
-      <c r="H32" s="25" t="s">
-        <v>87</v>
-      </c>
-      <c r="I32" s="25" t="s">
-        <v>70</v>
-      </c>
-      <c r="J32" s="25" t="s">
-        <v>71</v>
-      </c>
+      <c r="B32" s="31"/>
+      <c r="C32" s="31"/>
+      <c r="D32" s="31"/>
+      <c r="E32" s="31"/>
+      <c r="F32" s="31"/>
+      <c r="G32" s="30"/>
+      <c r="H32" s="17"/>
+      <c r="I32" s="17"/>
+      <c r="J32" s="31"/>
       <c r="K32" s="2"/>
       <c r="L32" s="2"/>
       <c r="M32" s="2"/>
@@ -3587,30 +3626,18 @@
       <c r="Y32" s="2"/>
     </row>
     <row r="33" spans="1:25" ht="15.75" customHeight="1">
-      <c r="A33" s="3"/>
-      <c r="B33" s="5">
-        <v>1</v>
-      </c>
-      <c r="C33" s="19" t="s">
-        <v>115</v>
-      </c>
-      <c r="D33" s="20" t="s">
-        <v>33</v>
-      </c>
-      <c r="E33" s="19" t="s">
-        <v>20</v>
-      </c>
-      <c r="F33" s="8"/>
-      <c r="G33" s="6" t="s">
-        <v>75</v>
-      </c>
-      <c r="H33" s="21" t="s">
-        <v>73</v>
-      </c>
-      <c r="I33" s="9"/>
-      <c r="J33" s="22" t="s">
-        <v>119</v>
-      </c>
+      <c r="A33" s="17"/>
+      <c r="B33" s="46" t="s">
+        <v>121</v>
+      </c>
+      <c r="C33" s="47"/>
+      <c r="D33" s="47"/>
+      <c r="E33" s="47"/>
+      <c r="F33" s="47"/>
+      <c r="G33" s="47"/>
+      <c r="H33" s="47"/>
+      <c r="I33" s="47"/>
+      <c r="J33" s="47"/>
       <c r="K33" s="2"/>
       <c r="L33" s="2"/>
       <c r="M33" s="2"/>
@@ -3628,27 +3655,33 @@
       <c r="Y33" s="2"/>
     </row>
     <row r="34" spans="1:25" ht="15.75" customHeight="1">
-      <c r="A34" s="3"/>
-      <c r="B34" s="5">
-        <v>2</v>
-      </c>
-      <c r="C34" s="19" t="s">
-        <v>116</v>
-      </c>
-      <c r="D34" s="19" t="s">
-        <v>26</v>
-      </c>
-      <c r="E34" s="19" t="s">
-        <v>39</v>
-      </c>
-      <c r="F34" s="8"/>
-      <c r="G34" s="6" t="s">
-        <v>75</v>
-      </c>
-      <c r="H34" s="9"/>
-      <c r="I34" s="9"/>
-      <c r="J34" s="19" t="s">
-        <v>0</v>
+      <c r="A34" s="17"/>
+      <c r="B34" s="25" t="s">
+        <v>66</v>
+      </c>
+      <c r="C34" s="25" t="s">
+        <v>67</v>
+      </c>
+      <c r="D34" s="25" t="s">
+        <v>69</v>
+      </c>
+      <c r="E34" s="25" t="s">
+        <v>12</v>
+      </c>
+      <c r="F34" s="25" t="s">
+        <v>68</v>
+      </c>
+      <c r="G34" s="25" t="s">
+        <v>10</v>
+      </c>
+      <c r="H34" s="25" t="s">
+        <v>87</v>
+      </c>
+      <c r="I34" s="25" t="s">
+        <v>70</v>
+      </c>
+      <c r="J34" s="25" t="s">
+        <v>71</v>
       </c>
       <c r="K34" s="2"/>
       <c r="L34" s="2"/>
@@ -3669,26 +3702,28 @@
     <row r="35" spans="1:25" ht="15.75" customHeight="1">
       <c r="A35" s="3"/>
       <c r="B35" s="5">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C35" s="19" t="s">
-        <v>117</v>
-      </c>
-      <c r="D35" s="19" t="s">
-        <v>28</v>
-      </c>
-      <c r="E35" s="8" t="s">
-        <v>88</v>
-      </c>
-      <c r="F35" s="8">
-        <v>2000</v>
-      </c>
+        <v>115</v>
+      </c>
+      <c r="D35" s="20" t="s">
+        <v>33</v>
+      </c>
+      <c r="E35" s="19" t="s">
+        <v>20</v>
+      </c>
+      <c r="F35" s="8"/>
       <c r="G35" s="6" t="s">
         <v>75</v>
       </c>
-      <c r="H35" s="9"/>
+      <c r="H35" s="21" t="s">
+        <v>73</v>
+      </c>
       <c r="I35" s="9"/>
-      <c r="J35" s="10"/>
+      <c r="J35" s="22" t="s">
+        <v>119</v>
+      </c>
       <c r="K35" s="2"/>
       <c r="L35" s="2"/>
       <c r="M35" s="2"/>
@@ -3706,16 +3741,28 @@
       <c r="Y35" s="2"/>
     </row>
     <row r="36" spans="1:25" ht="15.75" customHeight="1">
-      <c r="A36" s="17"/>
-      <c r="B36" s="18"/>
-      <c r="C36" s="29"/>
-      <c r="D36" s="29"/>
-      <c r="E36" s="18"/>
-      <c r="F36" s="18"/>
-      <c r="G36" s="18"/>
-      <c r="H36" s="17"/>
-      <c r="I36" s="17"/>
-      <c r="J36" s="31"/>
+      <c r="A36" s="3"/>
+      <c r="B36" s="5">
+        <v>2</v>
+      </c>
+      <c r="C36" s="19" t="s">
+        <v>116</v>
+      </c>
+      <c r="D36" s="19" t="s">
+        <v>26</v>
+      </c>
+      <c r="E36" s="19" t="s">
+        <v>39</v>
+      </c>
+      <c r="F36" s="8"/>
+      <c r="G36" s="6" t="s">
+        <v>75</v>
+      </c>
+      <c r="H36" s="9"/>
+      <c r="I36" s="9"/>
+      <c r="J36" s="19" t="s">
+        <v>0</v>
+      </c>
       <c r="K36" s="2"/>
       <c r="L36" s="2"/>
       <c r="M36" s="2"/>
@@ -3734,15 +3781,27 @@
     </row>
     <row r="37" spans="1:25" ht="15.75" customHeight="1">
       <c r="A37" s="3"/>
-      <c r="B37" s="11"/>
-      <c r="C37" s="12"/>
-      <c r="D37" s="12"/>
-      <c r="E37" s="12"/>
-      <c r="F37" s="12"/>
-      <c r="G37" s="13"/>
-      <c r="H37" s="14"/>
-      <c r="I37" s="14"/>
-      <c r="J37" s="15"/>
+      <c r="B37" s="5">
+        <v>3</v>
+      </c>
+      <c r="C37" s="19" t="s">
+        <v>117</v>
+      </c>
+      <c r="D37" s="19" t="s">
+        <v>28</v>
+      </c>
+      <c r="E37" s="8" t="s">
+        <v>88</v>
+      </c>
+      <c r="F37" s="8">
+        <v>2000</v>
+      </c>
+      <c r="G37" s="6" t="s">
+        <v>75</v>
+      </c>
+      <c r="H37" s="9"/>
+      <c r="I37" s="9"/>
+      <c r="J37" s="10"/>
       <c r="K37" s="2"/>
       <c r="L37" s="2"/>
       <c r="M37" s="2"/>
@@ -3760,18 +3819,16 @@
       <c r="Y37" s="2"/>
     </row>
     <row r="38" spans="1:25" ht="15.75" customHeight="1">
-      <c r="A38" s="3"/>
-      <c r="B38" s="45" t="s">
-        <v>6</v>
-      </c>
-      <c r="C38" s="46"/>
-      <c r="D38" s="46"/>
-      <c r="E38" s="46"/>
-      <c r="F38" s="46"/>
-      <c r="G38" s="46"/>
-      <c r="H38" s="46"/>
-      <c r="I38" s="46"/>
-      <c r="J38" s="46"/>
+      <c r="A38" s="17"/>
+      <c r="B38" s="18"/>
+      <c r="C38" s="29"/>
+      <c r="D38" s="29"/>
+      <c r="E38" s="18"/>
+      <c r="F38" s="18"/>
+      <c r="G38" s="18"/>
+      <c r="H38" s="17"/>
+      <c r="I38" s="17"/>
+      <c r="J38" s="31"/>
       <c r="K38" s="2"/>
       <c r="L38" s="2"/>
       <c r="M38" s="2"/>
@@ -3790,33 +3847,15 @@
     </row>
     <row r="39" spans="1:25" ht="15.75" customHeight="1">
       <c r="A39" s="3"/>
-      <c r="B39" s="25" t="s">
-        <v>66</v>
-      </c>
-      <c r="C39" s="25" t="s">
-        <v>67</v>
-      </c>
-      <c r="D39" s="25" t="s">
-        <v>69</v>
-      </c>
-      <c r="E39" s="25" t="s">
-        <v>12</v>
-      </c>
-      <c r="F39" s="25" t="s">
-        <v>68</v>
-      </c>
-      <c r="G39" s="25" t="s">
-        <v>10</v>
-      </c>
-      <c r="H39" s="25" t="s">
-        <v>87</v>
-      </c>
-      <c r="I39" s="25" t="s">
-        <v>70</v>
-      </c>
-      <c r="J39" s="25" t="s">
-        <v>71</v>
-      </c>
+      <c r="B39" s="11"/>
+      <c r="C39" s="12"/>
+      <c r="D39" s="12"/>
+      <c r="E39" s="12"/>
+      <c r="F39" s="12"/>
+      <c r="G39" s="13"/>
+      <c r="H39" s="14"/>
+      <c r="I39" s="14"/>
+      <c r="J39" s="15"/>
       <c r="K39" s="2"/>
       <c r="L39" s="2"/>
       <c r="M39" s="2"/>
@@ -3835,31 +3874,17 @@
     </row>
     <row r="40" spans="1:25" ht="15.75" customHeight="1">
       <c r="A40" s="3"/>
-      <c r="B40" s="25">
-        <v>1</v>
-      </c>
-      <c r="C40" s="25" t="s">
-        <v>93</v>
-      </c>
-      <c r="D40" s="26" t="s">
-        <v>24</v>
-      </c>
-      <c r="E40" s="19" t="s">
-        <v>20</v>
-      </c>
-      <c r="F40" s="25"/>
-      <c r="G40" s="25" t="s">
-        <v>75</v>
-      </c>
-      <c r="H40" s="25" t="s">
-        <v>73</v>
-      </c>
-      <c r="I40" s="25" t="s">
-        <v>74</v>
-      </c>
-      <c r="J40" s="26" t="s">
-        <v>64</v>
-      </c>
+      <c r="B40" s="46" t="s">
+        <v>6</v>
+      </c>
+      <c r="C40" s="47"/>
+      <c r="D40" s="47"/>
+      <c r="E40" s="47"/>
+      <c r="F40" s="47"/>
+      <c r="G40" s="47"/>
+      <c r="H40" s="47"/>
+      <c r="I40" s="47"/>
+      <c r="J40" s="47"/>
       <c r="K40" s="2"/>
       <c r="L40" s="2"/>
       <c r="M40" s="2"/>
@@ -3878,28 +3903,32 @@
     </row>
     <row r="41" spans="1:25" ht="15.75" customHeight="1">
       <c r="A41" s="3"/>
-      <c r="B41" s="25">
-        <v>2</v>
+      <c r="B41" s="25" t="s">
+        <v>66</v>
       </c>
       <c r="C41" s="25" t="s">
-        <v>31</v>
-      </c>
-      <c r="D41" s="26" t="s">
-        <v>23</v>
+        <v>67</v>
+      </c>
+      <c r="D41" s="25" t="s">
+        <v>69</v>
       </c>
       <c r="E41" s="25" t="s">
-        <v>88</v>
-      </c>
-      <c r="F41" s="24">
+        <v>12</v>
+      </c>
+      <c r="F41" s="25" t="s">
+        <v>68</v>
+      </c>
+      <c r="G41" s="25" t="s">
         <v>10</v>
       </c>
-      <c r="G41" s="25" t="s">
-        <v>75</v>
-      </c>
-      <c r="H41" s="25"/>
-      <c r="I41" s="27"/>
+      <c r="H41" s="25" t="s">
+        <v>87</v>
+      </c>
+      <c r="I41" s="25" t="s">
+        <v>70</v>
+      </c>
       <c r="J41" s="25" t="s">
-        <v>96</v>
+        <v>71</v>
       </c>
       <c r="K41" s="2"/>
       <c r="L41" s="2"/>
@@ -3920,26 +3949,30 @@
     <row r="42" spans="1:25" ht="15.75" customHeight="1">
       <c r="A42" s="3"/>
       <c r="B42" s="25">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C42" s="25" t="s">
-        <v>106</v>
+        <v>93</v>
       </c>
       <c r="D42" s="26" t="s">
-        <v>32</v>
-      </c>
-      <c r="E42" s="25" t="s">
-        <v>88</v>
-      </c>
-      <c r="F42" s="25">
+        <v>24</v>
+      </c>
+      <c r="E42" s="19" t="s">
         <v>20</v>
       </c>
+      <c r="F42" s="25"/>
       <c r="G42" s="25" t="s">
         <v>75</v>
       </c>
-      <c r="H42" s="24"/>
-      <c r="I42" s="24"/>
-      <c r="J42" s="26"/>
+      <c r="H42" s="25" t="s">
+        <v>73</v>
+      </c>
+      <c r="I42" s="25" t="s">
+        <v>74</v>
+      </c>
+      <c r="J42" s="26" t="s">
+        <v>64</v>
+      </c>
       <c r="K42" s="2"/>
       <c r="L42" s="2"/>
       <c r="M42" s="2"/>
@@ -3959,25 +3992,27 @@
     <row r="43" spans="1:25" ht="15.75" customHeight="1">
       <c r="A43" s="3"/>
       <c r="B43" s="25">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C43" s="25" t="s">
-        <v>107</v>
+        <v>31</v>
       </c>
       <c r="D43" s="26" t="s">
-        <v>82</v>
-      </c>
-      <c r="E43" s="19" t="s">
-        <v>20</v>
-      </c>
-      <c r="F43" s="25"/>
+        <v>23</v>
+      </c>
+      <c r="E43" s="25" t="s">
+        <v>88</v>
+      </c>
+      <c r="F43" s="24">
+        <v>10</v>
+      </c>
       <c r="G43" s="25" t="s">
         <v>75</v>
       </c>
       <c r="H43" s="25"/>
-      <c r="I43" s="24"/>
-      <c r="J43" s="23" t="s">
-        <v>91</v>
+      <c r="I43" s="27"/>
+      <c r="J43" s="25" t="s">
+        <v>96</v>
       </c>
       <c r="K43" s="2"/>
       <c r="L43" s="2"/>
@@ -3998,28 +4033,26 @@
     <row r="44" spans="1:25" ht="15.75" customHeight="1">
       <c r="A44" s="3"/>
       <c r="B44" s="25">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C44" s="25" t="s">
-        <v>58</v>
+        <v>106</v>
       </c>
       <c r="D44" s="26" t="s">
-        <v>25</v>
+        <v>32</v>
       </c>
       <c r="E44" s="25" t="s">
         <v>88</v>
       </c>
       <c r="F44" s="25">
-        <v>2000</v>
+        <v>20</v>
       </c>
       <c r="G44" s="25" t="s">
         <v>75</v>
       </c>
       <c r="H44" s="24"/>
       <c r="I44" s="24"/>
-      <c r="J44" s="25" t="s">
-        <v>2</v>
-      </c>
+      <c r="J44" s="26"/>
       <c r="K44" s="2"/>
       <c r="L44" s="2"/>
       <c r="M44" s="2"/>
@@ -4039,27 +4072,25 @@
     <row r="45" spans="1:25" ht="15.75" customHeight="1">
       <c r="A45" s="3"/>
       <c r="B45" s="25">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C45" s="25" t="s">
-        <v>54</v>
+        <v>107</v>
       </c>
       <c r="D45" s="26" t="s">
-        <v>105</v>
-      </c>
-      <c r="E45" s="25" t="s">
-        <v>88</v>
-      </c>
-      <c r="F45" s="25">
-        <v>50</v>
-      </c>
+        <v>82</v>
+      </c>
+      <c r="E45" s="19" t="s">
+        <v>20</v>
+      </c>
+      <c r="F45" s="25"/>
       <c r="G45" s="25" t="s">
         <v>75</v>
       </c>
-      <c r="H45" s="24"/>
+      <c r="H45" s="25"/>
       <c r="I45" s="24"/>
-      <c r="J45" s="25" t="s">
-        <v>101</v>
+      <c r="J45" s="23" t="s">
+        <v>91</v>
       </c>
       <c r="K45" s="2"/>
       <c r="L45" s="2"/>
@@ -4080,19 +4111,19 @@
     <row r="46" spans="1:25" ht="15.75" customHeight="1">
       <c r="A46" s="3"/>
       <c r="B46" s="25">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C46" s="25" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="D46" s="26" t="s">
-        <v>51</v>
+        <v>25</v>
       </c>
       <c r="E46" s="25" t="s">
         <v>88</v>
       </c>
       <c r="F46" s="25">
-        <v>50</v>
+        <v>2000</v>
       </c>
       <c r="G46" s="25" t="s">
         <v>75</v>
@@ -4100,7 +4131,7 @@
       <c r="H46" s="24"/>
       <c r="I46" s="24"/>
       <c r="J46" s="25" t="s">
-        <v>101</v>
+        <v>2</v>
       </c>
       <c r="K46" s="2"/>
       <c r="L46" s="2"/>
@@ -4121,13 +4152,13 @@
     <row r="47" spans="1:25" ht="15.75" customHeight="1">
       <c r="A47" s="3"/>
       <c r="B47" s="25">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C47" s="25" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="D47" s="26" t="s">
-        <v>52</v>
+        <v>105</v>
       </c>
       <c r="E47" s="25" t="s">
         <v>88</v>
@@ -4162,13 +4193,13 @@
     <row r="48" spans="1:25" ht="15.75" customHeight="1">
       <c r="A48" s="3"/>
       <c r="B48" s="25">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="C48" s="25" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="D48" s="26" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="E48" s="25" t="s">
         <v>88</v>
@@ -4202,15 +4233,29 @@
     </row>
     <row r="49" spans="1:25" ht="15.75" customHeight="1">
       <c r="A49" s="3"/>
-      <c r="B49" s="29"/>
-      <c r="C49" s="29"/>
-      <c r="D49" s="30"/>
-      <c r="E49" s="29"/>
-      <c r="F49" s="29"/>
-      <c r="G49" s="29"/>
-      <c r="H49" s="29"/>
-      <c r="I49" s="17"/>
-      <c r="J49" s="29"/>
+      <c r="B49" s="25">
+        <v>8</v>
+      </c>
+      <c r="C49" s="25" t="s">
+        <v>56</v>
+      </c>
+      <c r="D49" s="26" t="s">
+        <v>52</v>
+      </c>
+      <c r="E49" s="25" t="s">
+        <v>88</v>
+      </c>
+      <c r="F49" s="25">
+        <v>50</v>
+      </c>
+      <c r="G49" s="25" t="s">
+        <v>75</v>
+      </c>
+      <c r="H49" s="24"/>
+      <c r="I49" s="24"/>
+      <c r="J49" s="25" t="s">
+        <v>101</v>
+      </c>
       <c r="K49" s="2"/>
       <c r="L49" s="2"/>
       <c r="M49" s="2"/>
@@ -4229,15 +4274,29 @@
     </row>
     <row r="50" spans="1:25" ht="15.75" customHeight="1">
       <c r="A50" s="3"/>
-      <c r="B50" s="29"/>
-      <c r="C50" s="29"/>
-      <c r="D50" s="30"/>
-      <c r="E50" s="29"/>
-      <c r="F50" s="29"/>
-      <c r="G50" s="29"/>
-      <c r="H50" s="17"/>
-      <c r="I50" s="17"/>
-      <c r="J50" s="29"/>
+      <c r="B50" s="25">
+        <v>9</v>
+      </c>
+      <c r="C50" s="25" t="s">
+        <v>57</v>
+      </c>
+      <c r="D50" s="26" t="s">
+        <v>53</v>
+      </c>
+      <c r="E50" s="25" t="s">
+        <v>88</v>
+      </c>
+      <c r="F50" s="25">
+        <v>50</v>
+      </c>
+      <c r="G50" s="25" t="s">
+        <v>75</v>
+      </c>
+      <c r="H50" s="24"/>
+      <c r="I50" s="24"/>
+      <c r="J50" s="25" t="s">
+        <v>101</v>
+      </c>
       <c r="K50" s="2"/>
       <c r="L50" s="2"/>
       <c r="M50" s="2"/>
@@ -4256,17 +4315,15 @@
     </row>
     <row r="51" spans="1:25" ht="15.75" customHeight="1">
       <c r="A51" s="3"/>
-      <c r="B51" s="45" t="s">
-        <v>65</v>
-      </c>
-      <c r="C51" s="46"/>
-      <c r="D51" s="46"/>
-      <c r="E51" s="46"/>
-      <c r="F51" s="46"/>
-      <c r="G51" s="46"/>
-      <c r="H51" s="46"/>
-      <c r="I51" s="46"/>
-      <c r="J51" s="46"/>
+      <c r="B51" s="29"/>
+      <c r="C51" s="29"/>
+      <c r="D51" s="30"/>
+      <c r="E51" s="29"/>
+      <c r="F51" s="29"/>
+      <c r="G51" s="29"/>
+      <c r="H51" s="29"/>
+      <c r="I51" s="17"/>
+      <c r="J51" s="29"/>
       <c r="K51" s="2"/>
       <c r="L51" s="2"/>
       <c r="M51" s="2"/>
@@ -4285,33 +4342,15 @@
     </row>
     <row r="52" spans="1:25" ht="15.75" customHeight="1">
       <c r="A52" s="3"/>
-      <c r="B52" s="25" t="s">
-        <v>66</v>
-      </c>
-      <c r="C52" s="25" t="s">
-        <v>67</v>
-      </c>
-      <c r="D52" s="25" t="s">
-        <v>69</v>
-      </c>
-      <c r="E52" s="25" t="s">
-        <v>12</v>
-      </c>
-      <c r="F52" s="25" t="s">
-        <v>68</v>
-      </c>
-      <c r="G52" s="25" t="s">
-        <v>10</v>
-      </c>
-      <c r="H52" s="25" t="s">
-        <v>87</v>
-      </c>
-      <c r="I52" s="25" t="s">
-        <v>70</v>
-      </c>
-      <c r="J52" s="25" t="s">
-        <v>71</v>
-      </c>
+      <c r="B52" s="29"/>
+      <c r="C52" s="29"/>
+      <c r="D52" s="30"/>
+      <c r="E52" s="29"/>
+      <c r="F52" s="29"/>
+      <c r="G52" s="29"/>
+      <c r="H52" s="17"/>
+      <c r="I52" s="17"/>
+      <c r="J52" s="29"/>
       <c r="K52" s="2"/>
       <c r="L52" s="2"/>
       <c r="M52" s="2"/>
@@ -4330,31 +4369,17 @@
     </row>
     <row r="53" spans="1:25" ht="15.75" customHeight="1">
       <c r="A53" s="3"/>
-      <c r="B53" s="25">
-        <v>1</v>
-      </c>
-      <c r="C53" s="25" t="s">
-        <v>95</v>
-      </c>
-      <c r="D53" s="26" t="s">
-        <v>27</v>
-      </c>
-      <c r="E53" s="19" t="s">
-        <v>20</v>
-      </c>
-      <c r="F53" s="25"/>
-      <c r="G53" s="25" t="s">
-        <v>75</v>
-      </c>
-      <c r="H53" s="25" t="s">
-        <v>73</v>
-      </c>
-      <c r="I53" s="25" t="s">
-        <v>85</v>
-      </c>
-      <c r="J53" s="26" t="s">
-        <v>63</v>
-      </c>
+      <c r="B53" s="46" t="s">
+        <v>65</v>
+      </c>
+      <c r="C53" s="47"/>
+      <c r="D53" s="47"/>
+      <c r="E53" s="47"/>
+      <c r="F53" s="47"/>
+      <c r="G53" s="47"/>
+      <c r="H53" s="47"/>
+      <c r="I53" s="47"/>
+      <c r="J53" s="47"/>
       <c r="K53" s="2"/>
       <c r="L53" s="2"/>
       <c r="M53" s="2"/>
@@ -4373,32 +4398,32 @@
     </row>
     <row r="54" spans="1:25" ht="15.75" customHeight="1">
       <c r="A54" s="3"/>
-      <c r="B54" s="25">
-        <v>2</v>
+      <c r="B54" s="25" t="s">
+        <v>66</v>
       </c>
       <c r="C54" s="25" t="s">
-        <v>18</v>
-      </c>
-      <c r="D54" s="26" t="s">
-        <v>72</v>
+        <v>67</v>
+      </c>
+      <c r="D54" s="25" t="s">
+        <v>69</v>
       </c>
       <c r="E54" s="25" t="s">
-        <v>88</v>
-      </c>
-      <c r="F54" s="24">
-        <v>50</v>
+        <v>12</v>
+      </c>
+      <c r="F54" s="25" t="s">
+        <v>68</v>
       </c>
       <c r="G54" s="25" t="s">
-        <v>75</v>
+        <v>10</v>
       </c>
       <c r="H54" s="25" t="s">
-        <v>73</v>
-      </c>
-      <c r="I54" s="27" t="s">
-        <v>86</v>
+        <v>87</v>
+      </c>
+      <c r="I54" s="25" t="s">
+        <v>70</v>
       </c>
       <c r="J54" s="25" t="s">
-        <v>21</v>
+        <v>71</v>
       </c>
       <c r="K54" s="2"/>
       <c r="L54" s="2"/>
@@ -4419,26 +4444,30 @@
     <row r="55" spans="1:25" ht="15.75" customHeight="1">
       <c r="A55" s="3"/>
       <c r="B55" s="25">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C55" s="25" t="s">
-        <v>17</v>
+        <v>95</v>
       </c>
       <c r="D55" s="26" t="s">
-        <v>29</v>
-      </c>
-      <c r="E55" s="25" t="s">
-        <v>88</v>
-      </c>
-      <c r="F55" s="25">
-        <v>50</v>
-      </c>
+        <v>27</v>
+      </c>
+      <c r="E55" s="19" t="s">
+        <v>20</v>
+      </c>
+      <c r="F55" s="25"/>
       <c r="G55" s="25" t="s">
         <v>75</v>
       </c>
-      <c r="H55" s="24"/>
-      <c r="I55" s="24"/>
-      <c r="J55" s="26"/>
+      <c r="H55" s="25" t="s">
+        <v>73</v>
+      </c>
+      <c r="I55" s="25" t="s">
+        <v>85</v>
+      </c>
+      <c r="J55" s="26" t="s">
+        <v>63</v>
+      </c>
       <c r="K55" s="2"/>
       <c r="L55" s="2"/>
       <c r="M55" s="2"/>
@@ -4458,27 +4487,31 @@
     <row r="56" spans="1:25" ht="15.75" customHeight="1">
       <c r="A56" s="3"/>
       <c r="B56" s="25">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C56" s="25" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="D56" s="26" t="s">
-        <v>30</v>
+        <v>72</v>
       </c>
       <c r="E56" s="25" t="s">
         <v>88</v>
       </c>
-      <c r="F56" s="25">
-        <v>10</v>
+      <c r="F56" s="24">
+        <v>50</v>
       </c>
       <c r="G56" s="25" t="s">
         <v>75</v>
       </c>
-      <c r="H56" s="25"/>
-      <c r="I56" s="24"/>
+      <c r="H56" s="25" t="s">
+        <v>73</v>
+      </c>
+      <c r="I56" s="27" t="s">
+        <v>86</v>
+      </c>
       <c r="J56" s="25" t="s">
-        <v>5</v>
+        <v>21</v>
       </c>
       <c r="K56" s="2"/>
       <c r="L56" s="2"/>
@@ -4499,26 +4532,26 @@
     <row r="57" spans="1:25" ht="15.75" customHeight="1">
       <c r="A57" s="3"/>
       <c r="B57" s="25">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C57" s="25" t="s">
-        <v>36</v>
+        <v>17</v>
       </c>
       <c r="D57" s="26" t="s">
-        <v>81</v>
+        <v>29</v>
       </c>
       <c r="E57" s="25" t="s">
-        <v>39</v>
-      </c>
-      <c r="F57" s="25"/>
+        <v>88</v>
+      </c>
+      <c r="F57" s="25">
+        <v>50</v>
+      </c>
       <c r="G57" s="25" t="s">
         <v>75</v>
       </c>
       <c r="H57" s="24"/>
       <c r="I57" s="24"/>
-      <c r="J57" s="23" t="s">
-        <v>59</v>
-      </c>
+      <c r="J57" s="26"/>
       <c r="K57" s="2"/>
       <c r="L57" s="2"/>
       <c r="M57" s="2"/>
@@ -4538,26 +4571,28 @@
     <row r="58" spans="1:25" ht="15.75" customHeight="1">
       <c r="A58" s="3"/>
       <c r="B58" s="25">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C58" s="25" t="s">
-        <v>104</v>
+        <v>22</v>
       </c>
       <c r="D58" s="26" t="s">
-        <v>38</v>
+        <v>30</v>
       </c>
       <c r="E58" s="25" t="s">
         <v>88</v>
       </c>
       <c r="F58" s="25">
-        <v>2000</v>
+        <v>10</v>
       </c>
       <c r="G58" s="25" t="s">
         <v>75</v>
       </c>
-      <c r="H58" s="24"/>
+      <c r="H58" s="25"/>
       <c r="I58" s="24"/>
-      <c r="J58" s="25"/>
+      <c r="J58" s="25" t="s">
+        <v>5</v>
+      </c>
       <c r="K58" s="2"/>
       <c r="L58" s="2"/>
       <c r="M58" s="2"/>
@@ -4576,15 +4611,27 @@
     </row>
     <row r="59" spans="1:25" ht="15.75" customHeight="1">
       <c r="A59" s="3"/>
-      <c r="B59" s="29"/>
-      <c r="C59" s="29"/>
-      <c r="D59" s="30"/>
-      <c r="E59" s="29"/>
-      <c r="F59" s="29"/>
-      <c r="G59" s="29"/>
-      <c r="H59" s="29"/>
-      <c r="I59" s="17"/>
-      <c r="J59" s="29"/>
+      <c r="B59" s="25">
+        <v>5</v>
+      </c>
+      <c r="C59" s="25" t="s">
+        <v>36</v>
+      </c>
+      <c r="D59" s="26" t="s">
+        <v>81</v>
+      </c>
+      <c r="E59" s="25" t="s">
+        <v>39</v>
+      </c>
+      <c r="F59" s="25"/>
+      <c r="G59" s="25" t="s">
+        <v>75</v>
+      </c>
+      <c r="H59" s="24"/>
+      <c r="I59" s="24"/>
+      <c r="J59" s="23" t="s">
+        <v>59</v>
+      </c>
       <c r="K59" s="2"/>
       <c r="L59" s="2"/>
       <c r="M59" s="2"/>
@@ -4603,15 +4650,27 @@
     </row>
     <row r="60" spans="1:25" ht="15.75" customHeight="1">
       <c r="A60" s="3"/>
-      <c r="B60" s="29"/>
-      <c r="C60" s="29"/>
-      <c r="D60" s="29"/>
-      <c r="E60" s="29"/>
-      <c r="F60" s="29"/>
-      <c r="G60" s="29"/>
-      <c r="H60" s="17"/>
-      <c r="I60" s="17"/>
-      <c r="J60" s="28"/>
+      <c r="B60" s="25">
+        <v>6</v>
+      </c>
+      <c r="C60" s="25" t="s">
+        <v>104</v>
+      </c>
+      <c r="D60" s="26" t="s">
+        <v>38</v>
+      </c>
+      <c r="E60" s="25" t="s">
+        <v>88</v>
+      </c>
+      <c r="F60" s="25">
+        <v>2000</v>
+      </c>
+      <c r="G60" s="25" t="s">
+        <v>75</v>
+      </c>
+      <c r="H60" s="24"/>
+      <c r="I60" s="24"/>
+      <c r="J60" s="25"/>
       <c r="K60" s="2"/>
       <c r="L60" s="2"/>
       <c r="M60" s="2"/>
@@ -4630,17 +4689,15 @@
     </row>
     <row r="61" spans="1:25" ht="15.75" customHeight="1">
       <c r="A61" s="3"/>
-      <c r="B61" s="45" t="s">
-        <v>4</v>
-      </c>
-      <c r="C61" s="46"/>
-      <c r="D61" s="46"/>
-      <c r="E61" s="46"/>
-      <c r="F61" s="46"/>
-      <c r="G61" s="46"/>
-      <c r="H61" s="46"/>
-      <c r="I61" s="46"/>
-      <c r="J61" s="46"/>
+      <c r="B61" s="29"/>
+      <c r="C61" s="29"/>
+      <c r="D61" s="30"/>
+      <c r="E61" s="29"/>
+      <c r="F61" s="29"/>
+      <c r="G61" s="29"/>
+      <c r="H61" s="29"/>
+      <c r="I61" s="17"/>
+      <c r="J61" s="29"/>
       <c r="K61" s="2"/>
       <c r="L61" s="2"/>
       <c r="M61" s="2"/>
@@ -4659,33 +4716,15 @@
     </row>
     <row r="62" spans="1:25" ht="15.75" customHeight="1">
       <c r="A62" s="3"/>
-      <c r="B62" s="25" t="s">
-        <v>66</v>
-      </c>
-      <c r="C62" s="25" t="s">
-        <v>67</v>
-      </c>
-      <c r="D62" s="25" t="s">
-        <v>69</v>
-      </c>
-      <c r="E62" s="25" t="s">
-        <v>12</v>
-      </c>
-      <c r="F62" s="25" t="s">
-        <v>68</v>
-      </c>
-      <c r="G62" s="25" t="s">
-        <v>10</v>
-      </c>
-      <c r="H62" s="25" t="s">
-        <v>87</v>
-      </c>
-      <c r="I62" s="25" t="s">
-        <v>70</v>
-      </c>
-      <c r="J62" s="25" t="s">
-        <v>71</v>
-      </c>
+      <c r="B62" s="29"/>
+      <c r="C62" s="29"/>
+      <c r="D62" s="29"/>
+      <c r="E62" s="29"/>
+      <c r="F62" s="29"/>
+      <c r="G62" s="29"/>
+      <c r="H62" s="17"/>
+      <c r="I62" s="17"/>
+      <c r="J62" s="28"/>
       <c r="K62" s="2"/>
       <c r="L62" s="2"/>
       <c r="M62" s="2"/>
@@ -4704,31 +4743,17 @@
     </row>
     <row r="63" spans="1:25" ht="15.75" customHeight="1">
       <c r="A63" s="3"/>
-      <c r="B63" s="25">
-        <v>1</v>
-      </c>
-      <c r="C63" s="25" t="s">
-        <v>92</v>
-      </c>
-      <c r="D63" s="26" t="s">
-        <v>35</v>
-      </c>
-      <c r="E63" s="19" t="s">
-        <v>20</v>
-      </c>
-      <c r="F63" s="25"/>
-      <c r="G63" s="25" t="s">
-        <v>75</v>
-      </c>
-      <c r="H63" s="25" t="s">
-        <v>73</v>
-      </c>
-      <c r="I63" s="25" t="s">
-        <v>85</v>
-      </c>
-      <c r="J63" s="26" t="s">
-        <v>62</v>
-      </c>
+      <c r="B63" s="46" t="s">
+        <v>4</v>
+      </c>
+      <c r="C63" s="47"/>
+      <c r="D63" s="47"/>
+      <c r="E63" s="47"/>
+      <c r="F63" s="47"/>
+      <c r="G63" s="47"/>
+      <c r="H63" s="47"/>
+      <c r="I63" s="47"/>
+      <c r="J63" s="47"/>
       <c r="K63" s="2"/>
       <c r="L63" s="2"/>
       <c r="M63" s="2"/>
@@ -4747,27 +4772,33 @@
     </row>
     <row r="64" spans="1:25" ht="15.75" customHeight="1">
       <c r="A64" s="3"/>
-      <c r="B64" s="25">
-        <v>2</v>
+      <c r="B64" s="25" t="s">
+        <v>66</v>
       </c>
       <c r="C64" s="25" t="s">
-        <v>19</v>
-      </c>
-      <c r="D64" s="26" t="s">
-        <v>80</v>
+        <v>67</v>
+      </c>
+      <c r="D64" s="25" t="s">
+        <v>69</v>
       </c>
       <c r="E64" s="25" t="s">
-        <v>88</v>
-      </c>
-      <c r="F64" s="24">
-        <v>50</v>
+        <v>12</v>
+      </c>
+      <c r="F64" s="25" t="s">
+        <v>68</v>
       </c>
       <c r="G64" s="25" t="s">
-        <v>75</v>
-      </c>
-      <c r="H64" s="25"/>
-      <c r="I64" s="27"/>
-      <c r="J64" s="25"/>
+        <v>10</v>
+      </c>
+      <c r="H64" s="25" t="s">
+        <v>87</v>
+      </c>
+      <c r="I64" s="25" t="s">
+        <v>70</v>
+      </c>
+      <c r="J64" s="25" t="s">
+        <v>71</v>
+      </c>
       <c r="K64" s="2"/>
       <c r="L64" s="2"/>
       <c r="M64" s="2"/>
@@ -4787,26 +4818,30 @@
     <row r="65" spans="1:25" ht="15.75" customHeight="1">
       <c r="A65" s="3"/>
       <c r="B65" s="25">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C65" s="25" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="D65" s="26" t="s">
-        <v>77</v>
-      </c>
-      <c r="E65" s="25" t="s">
-        <v>88</v>
-      </c>
-      <c r="F65" s="25">
-        <v>2000</v>
-      </c>
+        <v>35</v>
+      </c>
+      <c r="E65" s="19" t="s">
+        <v>20</v>
+      </c>
+      <c r="F65" s="25"/>
       <c r="G65" s="25" t="s">
         <v>75</v>
       </c>
-      <c r="H65" s="24"/>
-      <c r="I65" s="24"/>
-      <c r="J65" s="26"/>
+      <c r="H65" s="25" t="s">
+        <v>73</v>
+      </c>
+      <c r="I65" s="25" t="s">
+        <v>85</v>
+      </c>
+      <c r="J65" s="26" t="s">
+        <v>62</v>
+      </c>
       <c r="K65" s="2"/>
       <c r="L65" s="2"/>
       <c r="M65" s="2"/>
@@ -4826,28 +4861,26 @@
     <row r="66" spans="1:25" ht="15.75" customHeight="1">
       <c r="A66" s="3"/>
       <c r="B66" s="25">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C66" s="25" t="s">
-        <v>34</v>
+        <v>19</v>
       </c>
       <c r="D66" s="26" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="E66" s="25" t="s">
         <v>88</v>
       </c>
-      <c r="F66" s="25">
+      <c r="F66" s="24">
         <v>50</v>
       </c>
       <c r="G66" s="25" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="H66" s="25"/>
-      <c r="I66" s="24"/>
-      <c r="J66" s="25" t="s">
-        <v>101</v>
-      </c>
+      <c r="I66" s="27"/>
+      <c r="J66" s="25"/>
       <c r="K66" s="2"/>
       <c r="L66" s="2"/>
       <c r="M66" s="2"/>
@@ -4867,26 +4900,26 @@
     <row r="67" spans="1:25" ht="15.75" customHeight="1">
       <c r="A67" s="3"/>
       <c r="B67" s="25">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C67" s="25" t="s">
-        <v>37</v>
+        <v>90</v>
       </c>
       <c r="D67" s="26" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="E67" s="25" t="s">
-        <v>39</v>
-      </c>
-      <c r="F67" s="25"/>
+        <v>88</v>
+      </c>
+      <c r="F67" s="25">
+        <v>2000</v>
+      </c>
       <c r="G67" s="25" t="s">
         <v>75</v>
       </c>
       <c r="H67" s="24"/>
       <c r="I67" s="24"/>
-      <c r="J67" s="25" t="s">
-        <v>59</v>
-      </c>
+      <c r="J67" s="26"/>
       <c r="K67" s="2"/>
       <c r="L67" s="2"/>
       <c r="M67" s="2"/>
@@ -4906,27 +4939,27 @@
     <row r="68" spans="1:25" ht="15.75" customHeight="1">
       <c r="A68" s="3"/>
       <c r="B68" s="25">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C68" s="25" t="s">
-        <v>89</v>
+        <v>34</v>
       </c>
       <c r="D68" s="26" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="E68" s="25" t="s">
         <v>88</v>
       </c>
       <c r="F68" s="25">
-        <v>20</v>
+        <v>50</v>
       </c>
       <c r="G68" s="25" t="s">
-        <v>75</v>
-      </c>
-      <c r="H68" s="24"/>
+        <v>73</v>
+      </c>
+      <c r="H68" s="25"/>
       <c r="I68" s="24"/>
-      <c r="J68" s="23" t="s">
-        <v>78</v>
+      <c r="J68" s="25" t="s">
+        <v>101</v>
       </c>
       <c r="K68" s="2"/>
       <c r="L68" s="2"/>
@@ -4946,15 +4979,27 @@
     </row>
     <row r="69" spans="1:25" ht="15.75" customHeight="1">
       <c r="A69" s="3"/>
-      <c r="B69" s="3"/>
-      <c r="C69" s="3"/>
-      <c r="D69" s="3"/>
-      <c r="E69" s="3"/>
-      <c r="F69" s="3"/>
-      <c r="G69" s="3"/>
-      <c r="H69" s="3"/>
-      <c r="I69" s="3"/>
-      <c r="J69" s="4"/>
+      <c r="B69" s="25">
+        <v>5</v>
+      </c>
+      <c r="C69" s="25" t="s">
+        <v>37</v>
+      </c>
+      <c r="D69" s="26" t="s">
+        <v>81</v>
+      </c>
+      <c r="E69" s="25" t="s">
+        <v>39</v>
+      </c>
+      <c r="F69" s="25"/>
+      <c r="G69" s="25" t="s">
+        <v>75</v>
+      </c>
+      <c r="H69" s="24"/>
+      <c r="I69" s="24"/>
+      <c r="J69" s="25" t="s">
+        <v>59</v>
+      </c>
       <c r="K69" s="2"/>
       <c r="L69" s="2"/>
       <c r="M69" s="2"/>
@@ -4973,17 +5018,29 @@
     </row>
     <row r="70" spans="1:25" ht="15.75" customHeight="1">
       <c r="A70" s="3"/>
-      <c r="B70" s="36" t="s">
-        <v>3</v>
-      </c>
-      <c r="C70" s="37"/>
-      <c r="D70" s="37"/>
-      <c r="E70" s="37"/>
-      <c r="F70" s="37"/>
-      <c r="G70" s="37"/>
-      <c r="H70" s="37"/>
-      <c r="I70" s="37"/>
-      <c r="J70" s="38"/>
+      <c r="B70" s="25">
+        <v>6</v>
+      </c>
+      <c r="C70" s="25" t="s">
+        <v>89</v>
+      </c>
+      <c r="D70" s="26" t="s">
+        <v>79</v>
+      </c>
+      <c r="E70" s="25" t="s">
+        <v>88</v>
+      </c>
+      <c r="F70" s="25">
+        <v>20</v>
+      </c>
+      <c r="G70" s="25" t="s">
+        <v>75</v>
+      </c>
+      <c r="H70" s="24"/>
+      <c r="I70" s="24"/>
+      <c r="J70" s="23" t="s">
+        <v>78</v>
+      </c>
       <c r="K70" s="2"/>
       <c r="L70" s="2"/>
       <c r="M70" s="2"/>
@@ -5000,110 +5057,142 @@
       <c r="X70" s="2"/>
       <c r="Y70" s="2"/>
     </row>
-    <row r="71" spans="1:25" ht="15" customHeight="1">
-      <c r="B71" s="5" t="s">
+    <row r="71" spans="1:25" ht="15.75" customHeight="1">
+      <c r="A71" s="3"/>
+      <c r="B71" s="3"/>
+      <c r="C71" s="3"/>
+      <c r="D71" s="3"/>
+      <c r="E71" s="3"/>
+      <c r="F71" s="3"/>
+      <c r="G71" s="3"/>
+      <c r="H71" s="3"/>
+      <c r="I71" s="3"/>
+      <c r="J71" s="4"/>
+      <c r="K71" s="2"/>
+      <c r="L71" s="2"/>
+      <c r="M71" s="2"/>
+      <c r="N71" s="2"/>
+      <c r="O71" s="2"/>
+      <c r="P71" s="2"/>
+      <c r="Q71" s="2"/>
+      <c r="R71" s="2"/>
+      <c r="S71" s="2"/>
+      <c r="T71" s="2"/>
+      <c r="U71" s="2"/>
+      <c r="V71" s="2"/>
+      <c r="W71" s="2"/>
+      <c r="X71" s="2"/>
+      <c r="Y71" s="2"/>
+    </row>
+    <row r="72" spans="1:25" ht="15.75" customHeight="1">
+      <c r="A72" s="3"/>
+      <c r="B72" s="37" t="s">
+        <v>3</v>
+      </c>
+      <c r="C72" s="38"/>
+      <c r="D72" s="38"/>
+      <c r="E72" s="38"/>
+      <c r="F72" s="38"/>
+      <c r="G72" s="38"/>
+      <c r="H72" s="38"/>
+      <c r="I72" s="38"/>
+      <c r="J72" s="39"/>
+      <c r="K72" s="2"/>
+      <c r="L72" s="2"/>
+      <c r="M72" s="2"/>
+      <c r="N72" s="2"/>
+      <c r="O72" s="2"/>
+      <c r="P72" s="2"/>
+      <c r="Q72" s="2"/>
+      <c r="R72" s="2"/>
+      <c r="S72" s="2"/>
+      <c r="T72" s="2"/>
+      <c r="U72" s="2"/>
+      <c r="V72" s="2"/>
+      <c r="W72" s="2"/>
+      <c r="X72" s="2"/>
+      <c r="Y72" s="2"/>
+    </row>
+    <row r="73" spans="1:25" ht="15" customHeight="1">
+      <c r="B73" s="5" t="s">
         <v>66</v>
       </c>
-      <c r="C71" s="34" t="s">
+      <c r="C73" s="34" t="s">
         <v>67</v>
       </c>
-      <c r="D71" s="34" t="s">
+      <c r="D73" s="34" t="s">
         <v>69</v>
       </c>
-      <c r="E71" s="34" t="s">
+      <c r="E73" s="34" t="s">
         <v>12</v>
       </c>
-      <c r="F71" s="34" t="s">
+      <c r="F73" s="34" t="s">
         <v>68</v>
       </c>
-      <c r="G71" s="34" t="s">
+      <c r="G73" s="34" t="s">
         <v>10</v>
       </c>
-      <c r="H71" s="34" t="s">
+      <c r="H73" s="34" t="s">
         <v>83</v>
       </c>
-      <c r="I71" s="34" t="s">
+      <c r="I73" s="34" t="s">
         <v>70</v>
       </c>
-      <c r="J71" s="34" t="s">
+      <c r="J73" s="34" t="s">
         <v>71</v>
       </c>
-      <c r="K71" s="3"/>
-    </row>
-    <row r="72" spans="1:25" ht="15" customHeight="1">
-      <c r="B72" s="5">
+      <c r="K73" s="3"/>
+    </row>
+    <row r="74" spans="1:25" ht="15" customHeight="1">
+      <c r="B74" s="5">
         <v>1</v>
       </c>
-      <c r="C72" s="25" t="s">
+      <c r="C74" s="25" t="s">
         <v>18</v>
       </c>
-      <c r="D72" s="35" t="s">
+      <c r="D74" s="35" t="s">
         <v>41</v>
       </c>
-      <c r="E72" s="34" t="s">
+      <c r="E74" s="34" t="s">
         <v>88</v>
       </c>
-      <c r="F72" s="34">
+      <c r="F74" s="34">
         <v>70</v>
       </c>
-      <c r="G72" s="34" t="s">
+      <c r="G74" s="34" t="s">
         <v>75</v>
       </c>
-      <c r="H72" s="34" t="s">
+      <c r="H74" s="34" t="s">
         <v>73</v>
       </c>
-      <c r="I72" s="34" t="s">
+      <c r="I74" s="34" t="s">
         <v>74</v>
       </c>
-      <c r="J72" s="34"/>
-      <c r="K72" s="3"/>
-    </row>
-    <row r="73" spans="1:25" ht="15" customHeight="1">
-      <c r="B73" s="5">
+      <c r="J74" s="34"/>
+      <c r="K74" s="3"/>
+    </row>
+    <row r="75" spans="1:25" ht="15" customHeight="1">
+      <c r="B75" s="5">
         <v>2</v>
       </c>
-      <c r="C73" s="34" t="s">
+      <c r="C75" s="34" t="s">
         <v>43</v>
       </c>
-      <c r="D73" s="35" t="s">
+      <c r="D75" s="35" t="s">
         <v>84</v>
       </c>
-      <c r="E73" s="34" t="s">
+      <c r="E75" s="34" t="s">
         <v>88</v>
       </c>
-      <c r="F73" s="34">
+      <c r="F75" s="34">
         <v>70</v>
       </c>
-      <c r="G73" s="34" t="s">
+      <c r="G75" s="34" t="s">
         <v>75</v>
       </c>
-      <c r="H73" s="34"/>
-      <c r="I73" s="34"/>
-      <c r="J73" s="34"/>
-      <c r="K73" s="3"/>
-    </row>
-    <row r="74" spans="1:25" ht="15" customHeight="1">
-      <c r="B74" s="3"/>
-      <c r="C74" s="3"/>
-      <c r="D74" s="3"/>
-      <c r="E74" s="3"/>
-      <c r="F74" s="3"/>
-      <c r="G74" s="3"/>
-      <c r="H74" s="3"/>
-      <c r="I74" s="3"/>
-      <c r="J74" s="3"/>
-      <c r="K74" s="3"/>
-    </row>
-    <row r="75" spans="1:25" ht="15" customHeight="1">
-      <c r="B75" s="3"/>
-      <c r="C75" s="3"/>
-      <c r="D75" s="3"/>
-      <c r="E75" s="3"/>
-      <c r="F75" s="3"/>
-      <c r="G75" s="3"/>
-      <c r="H75" s="3"/>
-      <c r="I75" s="3"/>
-      <c r="J75" s="3"/>
+      <c r="H75" s="34"/>
+      <c r="I75" s="34"/>
+      <c r="J75" s="34"/>
       <c r="K75" s="3"/>
     </row>
     <row r="76" spans="1:25" ht="15" customHeight="1">
@@ -5142,8 +5231,7 @@
       <c r="J78" s="3"/>
       <c r="K78" s="3"/>
     </row>
-    <row r="79" spans="1:25" ht="15.75" customHeight="1">
-      <c r="A79" s="3"/>
+    <row r="79" spans="1:25" ht="15" customHeight="1">
       <c r="B79" s="3"/>
       <c r="C79" s="3"/>
       <c r="D79" s="3"/>
@@ -5154,23 +5242,8 @@
       <c r="I79" s="3"/>
       <c r="J79" s="3"/>
       <c r="K79" s="3"/>
-      <c r="L79" s="2"/>
-      <c r="M79" s="2"/>
-      <c r="N79" s="2"/>
-      <c r="O79" s="2"/>
-      <c r="P79" s="2"/>
-      <c r="Q79" s="2"/>
-      <c r="R79" s="2"/>
-      <c r="S79" s="2"/>
-      <c r="T79" s="2"/>
-      <c r="U79" s="2"/>
-      <c r="V79" s="2"/>
-      <c r="W79" s="2"/>
-      <c r="X79" s="2"/>
-      <c r="Y79" s="2"/>
-    </row>
-    <row r="80" spans="1:25" ht="15.75" customHeight="1">
-      <c r="A80" s="3"/>
+    </row>
+    <row r="80" spans="1:25" ht="15" customHeight="1">
       <c r="B80" s="3"/>
       <c r="C80" s="3"/>
       <c r="D80" s="3"/>
@@ -5181,20 +5254,6 @@
       <c r="I80" s="3"/>
       <c r="J80" s="3"/>
       <c r="K80" s="3"/>
-      <c r="L80" s="2"/>
-      <c r="M80" s="2"/>
-      <c r="N80" s="2"/>
-      <c r="O80" s="2"/>
-      <c r="P80" s="2"/>
-      <c r="Q80" s="2"/>
-      <c r="R80" s="2"/>
-      <c r="S80" s="2"/>
-      <c r="T80" s="2"/>
-      <c r="U80" s="2"/>
-      <c r="V80" s="2"/>
-      <c r="W80" s="2"/>
-      <c r="X80" s="2"/>
-      <c r="Y80" s="2"/>
     </row>
     <row r="81" spans="1:25" ht="15.75" customHeight="1">
       <c r="A81" s="3"/>
@@ -5287,8 +5346,8 @@
       <c r="G84" s="3"/>
       <c r="H84" s="3"/>
       <c r="I84" s="3"/>
-      <c r="J84" s="4"/>
-      <c r="K84" s="2"/>
+      <c r="J84" s="3"/>
+      <c r="K84" s="3"/>
       <c r="L84" s="2"/>
       <c r="M84" s="2"/>
       <c r="N84" s="2"/>
@@ -5314,8 +5373,8 @@
       <c r="G85" s="3"/>
       <c r="H85" s="3"/>
       <c r="I85" s="3"/>
-      <c r="J85" s="4"/>
-      <c r="K85" s="2"/>
+      <c r="J85" s="3"/>
+      <c r="K85" s="3"/>
       <c r="L85" s="2"/>
       <c r="M85" s="2"/>
       <c r="N85" s="2"/>
@@ -7412,15 +7471,15 @@
     </row>
     <row r="163" spans="1:25" ht="15.75" customHeight="1">
       <c r="A163" s="3"/>
-      <c r="B163" s="2"/>
-      <c r="C163" s="2"/>
-      <c r="D163" s="2"/>
-      <c r="E163" s="2"/>
-      <c r="F163" s="2"/>
-      <c r="G163" s="2"/>
-      <c r="H163" s="2"/>
-      <c r="I163" s="2"/>
-      <c r="J163" s="2"/>
+      <c r="B163" s="3"/>
+      <c r="C163" s="3"/>
+      <c r="D163" s="3"/>
+      <c r="E163" s="3"/>
+      <c r="F163" s="3"/>
+      <c r="G163" s="3"/>
+      <c r="H163" s="3"/>
+      <c r="I163" s="3"/>
+      <c r="J163" s="4"/>
       <c r="K163" s="2"/>
       <c r="L163" s="2"/>
       <c r="M163" s="2"/>
@@ -7438,16 +7497,16 @@
       <c r="Y163" s="2"/>
     </row>
     <row r="164" spans="1:25" ht="15.75" customHeight="1">
-      <c r="A164" s="2"/>
-      <c r="B164" s="2"/>
-      <c r="C164" s="2"/>
-      <c r="D164" s="2"/>
-      <c r="E164" s="2"/>
-      <c r="F164" s="2"/>
-      <c r="G164" s="2"/>
-      <c r="H164" s="2"/>
-      <c r="I164" s="2"/>
-      <c r="J164" s="2"/>
+      <c r="A164" s="3"/>
+      <c r="B164" s="3"/>
+      <c r="C164" s="3"/>
+      <c r="D164" s="3"/>
+      <c r="E164" s="3"/>
+      <c r="F164" s="3"/>
+      <c r="G164" s="3"/>
+      <c r="H164" s="3"/>
+      <c r="I164" s="3"/>
+      <c r="J164" s="4"/>
       <c r="K164" s="2"/>
       <c r="L164" s="2"/>
       <c r="M164" s="2"/>
@@ -7465,7 +7524,7 @@
       <c r="Y164" s="2"/>
     </row>
     <row r="165" spans="1:25" ht="15.75" customHeight="1">
-      <c r="A165" s="2"/>
+      <c r="A165" s="3"/>
       <c r="B165" s="2"/>
       <c r="C165" s="2"/>
       <c r="D165" s="2"/>
@@ -27257,6 +27316,15 @@
     </row>
     <row r="898" spans="1:25" ht="15.75" customHeight="1">
       <c r="A898" s="2"/>
+      <c r="B898" s="2"/>
+      <c r="C898" s="2"/>
+      <c r="D898" s="2"/>
+      <c r="E898" s="2"/>
+      <c r="F898" s="2"/>
+      <c r="G898" s="2"/>
+      <c r="H898" s="2"/>
+      <c r="I898" s="2"/>
+      <c r="J898" s="2"/>
       <c r="K898" s="2"/>
       <c r="L898" s="2"/>
       <c r="M898" s="2"/>
@@ -27273,16 +27341,61 @@
       <c r="X898" s="2"/>
       <c r="Y898" s="2"/>
     </row>
+    <row r="899" spans="1:25" ht="15.75" customHeight="1">
+      <c r="A899" s="2"/>
+      <c r="B899" s="2"/>
+      <c r="C899" s="2"/>
+      <c r="D899" s="2"/>
+      <c r="E899" s="2"/>
+      <c r="F899" s="2"/>
+      <c r="G899" s="2"/>
+      <c r="H899" s="2"/>
+      <c r="I899" s="2"/>
+      <c r="J899" s="2"/>
+      <c r="K899" s="2"/>
+      <c r="L899" s="2"/>
+      <c r="M899" s="2"/>
+      <c r="N899" s="2"/>
+      <c r="O899" s="2"/>
+      <c r="P899" s="2"/>
+      <c r="Q899" s="2"/>
+      <c r="R899" s="2"/>
+      <c r="S899" s="2"/>
+      <c r="T899" s="2"/>
+      <c r="U899" s="2"/>
+      <c r="V899" s="2"/>
+      <c r="W899" s="2"/>
+      <c r="X899" s="2"/>
+      <c r="Y899" s="2"/>
+    </row>
+    <row r="900" spans="1:25" ht="15.75" customHeight="1">
+      <c r="A900" s="2"/>
+      <c r="K900" s="2"/>
+      <c r="L900" s="2"/>
+      <c r="M900" s="2"/>
+      <c r="N900" s="2"/>
+      <c r="O900" s="2"/>
+      <c r="P900" s="2"/>
+      <c r="Q900" s="2"/>
+      <c r="R900" s="2"/>
+      <c r="S900" s="2"/>
+      <c r="T900" s="2"/>
+      <c r="U900" s="2"/>
+      <c r="V900" s="2"/>
+      <c r="W900" s="2"/>
+      <c r="X900" s="2"/>
+      <c r="Y900" s="2"/>
+    </row>
   </sheetData>
   <mergeCells count="8">
-    <mergeCell ref="B70:J70"/>
+    <mergeCell ref="B72:J72"/>
     <mergeCell ref="B2:J3"/>
-    <mergeCell ref="B15:J15"/>
-    <mergeCell ref="B51:J51"/>
-    <mergeCell ref="B38:J38"/>
-    <mergeCell ref="B61:J61"/>
+    <mergeCell ref="B17:J17"/>
+    <mergeCell ref="B53:J53"/>
+    <mergeCell ref="B40:J40"/>
+    <mergeCell ref="B63:J63"/>
     <mergeCell ref="B6:J6"/>
-    <mergeCell ref="B31:J31"/>
+    <mergeCell ref="B33:J33"/>
   </mergeCells>
   <phoneticPr fontId="8" type="noConversion"/>
   <pageMargins left="0.69999998807907104" right="0.69999998807907104" top="0.75" bottom="0.75" header="0" footer="0"/>

--- a/프로젝트 산출물/5. 테이블명세서/캠플렉스 테이블 명세서.xlsx
+++ b/프로젝트 산출물/5. 테이블명세서/캠플렉스 테이블 명세서.xlsx
@@ -247,9 +247,6 @@
   </si>
   <si>
     <t>보안 (SECURITY_TBL)</t>
-  </si>
-  <si>
-    <t>공지사항 (NOTICE_TBL)</t>
   </si>
   <si>
     <r>
@@ -1866,6 +1863,10 @@
     <t>Default SYSDATE</t>
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
+  <si>
+    <t>공지사항 (NOTICE_TBL)</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
@@ -2204,6 +2205,9 @@
     <xf numFmtId="0" fontId="9" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2221,9 +2225,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="표준" xfId="0" builtinId="0"/>
@@ -2442,8 +2443,8 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:Y900"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A22" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="L19" sqref="L19"/>
+    <sheetView tabSelected="1" topLeftCell="A28" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="E44" sqref="E44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="12.75"/>
@@ -2488,17 +2489,17 @@
     </row>
     <row r="2" spans="1:25" ht="15.75" customHeight="1">
       <c r="A2" s="1"/>
-      <c r="B2" s="40" t="s">
-        <v>15</v>
-      </c>
-      <c r="C2" s="41"/>
-      <c r="D2" s="41"/>
-      <c r="E2" s="41"/>
-      <c r="F2" s="41"/>
-      <c r="G2" s="41"/>
-      <c r="H2" s="41"/>
-      <c r="I2" s="41"/>
-      <c r="J2" s="42"/>
+      <c r="B2" s="41" t="s">
+        <v>14</v>
+      </c>
+      <c r="C2" s="42"/>
+      <c r="D2" s="42"/>
+      <c r="E2" s="42"/>
+      <c r="F2" s="42"/>
+      <c r="G2" s="42"/>
+      <c r="H2" s="42"/>
+      <c r="I2" s="42"/>
+      <c r="J2" s="43"/>
       <c r="K2" s="2"/>
       <c r="L2" s="2"/>
       <c r="M2" s="2"/>
@@ -2517,15 +2518,15 @@
     </row>
     <row r="3" spans="1:25" ht="15.75" customHeight="1">
       <c r="A3" s="1"/>
-      <c r="B3" s="43"/>
-      <c r="C3" s="44"/>
-      <c r="D3" s="44"/>
-      <c r="E3" s="44"/>
-      <c r="F3" s="44"/>
-      <c r="G3" s="44"/>
-      <c r="H3" s="44"/>
-      <c r="I3" s="44"/>
-      <c r="J3" s="45"/>
+      <c r="B3" s="44"/>
+      <c r="C3" s="45"/>
+      <c r="D3" s="45"/>
+      <c r="E3" s="45"/>
+      <c r="F3" s="45"/>
+      <c r="G3" s="45"/>
+      <c r="H3" s="45"/>
+      <c r="I3" s="45"/>
+      <c r="J3" s="46"/>
       <c r="K3" s="2"/>
       <c r="L3" s="2"/>
       <c r="M3" s="2"/>
@@ -2598,17 +2599,17 @@
     </row>
     <row r="6" spans="1:25" ht="15.75" customHeight="1">
       <c r="A6" s="17"/>
-      <c r="B6" s="46" t="s">
-        <v>60</v>
-      </c>
-      <c r="C6" s="47"/>
-      <c r="D6" s="47"/>
-      <c r="E6" s="47"/>
-      <c r="F6" s="47"/>
-      <c r="G6" s="47"/>
-      <c r="H6" s="47"/>
-      <c r="I6" s="47"/>
-      <c r="J6" s="47"/>
+      <c r="B6" s="47" t="s">
+        <v>59</v>
+      </c>
+      <c r="C6" s="48"/>
+      <c r="D6" s="48"/>
+      <c r="E6" s="48"/>
+      <c r="F6" s="48"/>
+      <c r="G6" s="48"/>
+      <c r="H6" s="48"/>
+      <c r="I6" s="48"/>
+      <c r="J6" s="48"/>
       <c r="K6" s="2"/>
       <c r="L6" s="2"/>
       <c r="M6" s="2"/>
@@ -2628,31 +2629,31 @@
     <row r="7" spans="1:25" ht="15.75" customHeight="1">
       <c r="A7" s="17"/>
       <c r="B7" s="25" t="s">
+        <v>65</v>
+      </c>
+      <c r="C7" s="25" t="s">
         <v>66</v>
       </c>
-      <c r="C7" s="25" t="s">
+      <c r="D7" s="25" t="s">
+        <v>68</v>
+      </c>
+      <c r="E7" s="25" t="s">
+        <v>11</v>
+      </c>
+      <c r="F7" s="25" t="s">
         <v>67</v>
       </c>
-      <c r="D7" s="25" t="s">
+      <c r="G7" s="25" t="s">
+        <v>9</v>
+      </c>
+      <c r="H7" s="25" t="s">
+        <v>86</v>
+      </c>
+      <c r="I7" s="25" t="s">
         <v>69</v>
       </c>
-      <c r="E7" s="25" t="s">
-        <v>12</v>
-      </c>
-      <c r="F7" s="25" t="s">
-        <v>68</v>
-      </c>
-      <c r="G7" s="25" t="s">
-        <v>10</v>
-      </c>
-      <c r="H7" s="25" t="s">
-        <v>87</v>
-      </c>
-      <c r="I7" s="25" t="s">
+      <c r="J7" s="25" t="s">
         <v>70</v>
-      </c>
-      <c r="J7" s="25" t="s">
-        <v>71</v>
       </c>
       <c r="K7" s="2"/>
       <c r="L7" s="2"/>
@@ -2676,28 +2677,28 @@
         <v>1</v>
       </c>
       <c r="C8" s="25" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D8" s="26" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="E8" s="25" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="F8" s="25">
         <v>50</v>
       </c>
       <c r="G8" s="25" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="H8" s="25" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="I8" s="25" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="J8" s="26" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="K8" s="2"/>
       <c r="L8" s="2"/>
@@ -2721,24 +2722,24 @@
         <v>2</v>
       </c>
       <c r="C9" s="25" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D9" s="26" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="E9" s="25" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="F9" s="24">
         <v>20</v>
       </c>
       <c r="G9" s="25" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="H9" s="25"/>
       <c r="I9" s="27"/>
       <c r="J9" s="25" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="K9" s="2"/>
       <c r="L9" s="2"/>
@@ -2762,24 +2763,24 @@
         <v>3</v>
       </c>
       <c r="C10" s="25" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D10" s="26" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="E10" s="25" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="F10" s="25">
         <v>10</v>
       </c>
       <c r="G10" s="25" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="H10" s="24"/>
       <c r="I10" s="24"/>
       <c r="J10" s="26" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="K10" s="2"/>
       <c r="L10" s="2"/>
@@ -2803,24 +2804,24 @@
         <v>4</v>
       </c>
       <c r="C11" s="25" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D11" s="26" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="E11" s="25" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="F11" s="25">
         <v>11</v>
       </c>
       <c r="G11" s="25" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="H11" s="25"/>
       <c r="I11" s="24"/>
       <c r="J11" s="25" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="K11" s="2"/>
       <c r="L11" s="2"/>
@@ -2844,22 +2845,22 @@
         <v>5</v>
       </c>
       <c r="C12" s="25" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="D12" s="26" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="E12" s="25" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="F12" s="25"/>
       <c r="G12" s="25" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="H12" s="25"/>
       <c r="I12" s="24"/>
       <c r="J12" s="25" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="K12" s="2"/>
       <c r="L12" s="2"/>
@@ -2883,22 +2884,22 @@
         <v>6</v>
       </c>
       <c r="C13" s="25" t="s">
+        <v>132</v>
+      </c>
+      <c r="D13" s="26" t="s">
         <v>133</v>
       </c>
-      <c r="D13" s="26" t="s">
-        <v>134</v>
-      </c>
       <c r="E13" s="34" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="F13" s="25"/>
       <c r="G13" s="25" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="H13" s="25"/>
       <c r="I13" s="27"/>
       <c r="J13" s="25" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="K13" s="2"/>
       <c r="L13" s="2"/>
@@ -2922,22 +2923,22 @@
         <v>7</v>
       </c>
       <c r="C14" s="25" t="s">
+        <v>136</v>
+      </c>
+      <c r="D14" s="26" t="s">
         <v>137</v>
       </c>
-      <c r="D14" s="26" t="s">
+      <c r="E14" s="34" t="s">
         <v>138</v>
-      </c>
-      <c r="E14" s="34" t="s">
-        <v>139</v>
       </c>
       <c r="F14" s="25"/>
       <c r="G14" s="25" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="H14" s="25"/>
       <c r="I14" s="27"/>
       <c r="J14" s="25" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="K14" s="2"/>
       <c r="L14" s="2"/>
@@ -2985,7 +2986,7 @@
     <row r="16" spans="1:25" ht="15.75" customHeight="1">
       <c r="A16" s="17"/>
       <c r="B16" s="17"/>
-      <c r="C16" s="48"/>
+      <c r="C16" s="37"/>
       <c r="D16" s="17"/>
       <c r="E16" s="17"/>
       <c r="F16" s="17"/>
@@ -3011,17 +3012,17 @@
     </row>
     <row r="17" spans="1:25" ht="15.75" customHeight="1">
       <c r="A17" s="4"/>
-      <c r="B17" s="37" t="s">
-        <v>120</v>
-      </c>
-      <c r="C17" s="38"/>
-      <c r="D17" s="38"/>
-      <c r="E17" s="38"/>
-      <c r="F17" s="38"/>
-      <c r="G17" s="38"/>
-      <c r="H17" s="38"/>
-      <c r="I17" s="38"/>
-      <c r="J17" s="39"/>
+      <c r="B17" s="38" t="s">
+        <v>119</v>
+      </c>
+      <c r="C17" s="39"/>
+      <c r="D17" s="39"/>
+      <c r="E17" s="39"/>
+      <c r="F17" s="39"/>
+      <c r="G17" s="39"/>
+      <c r="H17" s="39"/>
+      <c r="I17" s="39"/>
+      <c r="J17" s="40"/>
       <c r="K17" s="2"/>
       <c r="L17" s="2"/>
       <c r="M17" s="2"/>
@@ -3041,31 +3042,31 @@
     <row r="18" spans="1:25" ht="15.75" customHeight="1">
       <c r="A18" s="4"/>
       <c r="B18" s="5" t="s">
+        <v>65</v>
+      </c>
+      <c r="C18" s="6" t="s">
         <v>66</v>
       </c>
-      <c r="C18" s="6" t="s">
+      <c r="D18" s="6" t="s">
+        <v>68</v>
+      </c>
+      <c r="E18" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="F18" s="6" t="s">
         <v>67</v>
       </c>
-      <c r="D18" s="6" t="s">
+      <c r="G18" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="H18" s="6" t="s">
+        <v>86</v>
+      </c>
+      <c r="I18" s="6" t="s">
         <v>69</v>
       </c>
-      <c r="E18" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="F18" s="6" t="s">
-        <v>68</v>
-      </c>
-      <c r="G18" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="H18" s="6" t="s">
-        <v>87</v>
-      </c>
-      <c r="I18" s="6" t="s">
+      <c r="J18" s="6" t="s">
         <v>70</v>
-      </c>
-      <c r="J18" s="6" t="s">
-        <v>71</v>
       </c>
       <c r="K18" s="2"/>
       <c r="L18" s="2"/>
@@ -3089,26 +3090,26 @@
         <v>1</v>
       </c>
       <c r="C19" s="16" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="D19" s="7" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E19" s="19" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="F19" s="8"/>
       <c r="G19" s="6" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="H19" s="6" t="s">
+        <v>72</v>
+      </c>
+      <c r="I19" s="6" t="s">
         <v>73</v>
       </c>
-      <c r="I19" s="6" t="s">
-        <v>74</v>
-      </c>
       <c r="J19" s="22" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="K19" s="2"/>
       <c r="L19" s="2"/>
@@ -3132,25 +3133,25 @@
         <v>2</v>
       </c>
       <c r="C20" s="19" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D20" s="7" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="E20" s="6" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="F20" s="25">
         <v>50</v>
       </c>
       <c r="G20" s="6" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="H20" s="16" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="I20" s="21" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="J20" s="6"/>
       <c r="K20" s="2"/>
@@ -3175,23 +3176,23 @@
         <v>3</v>
       </c>
       <c r="C21" s="19" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="D21" s="7" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E21" s="19" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="F21" s="6"/>
       <c r="G21" s="6" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="H21" s="16" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="I21" s="21" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="J21" s="7"/>
       <c r="K21" s="2"/>
@@ -3216,17 +3217,17 @@
         <v>4</v>
       </c>
       <c r="C22" s="19" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="D22" s="7" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E22" s="19" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="F22" s="8"/>
       <c r="G22" s="6" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="H22" s="6"/>
       <c r="I22" s="9"/>
@@ -3255,22 +3256,22 @@
         <v>5</v>
       </c>
       <c r="C23" s="19" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="D23" s="7" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="E23" s="19" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="F23" s="6"/>
       <c r="G23" s="6" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="H23" s="9"/>
       <c r="I23" s="9"/>
       <c r="J23" s="19" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="K23" s="2"/>
       <c r="L23" s="2"/>
@@ -3294,22 +3295,22 @@
         <v>6</v>
       </c>
       <c r="C24" s="34" t="s">
+        <v>107</v>
+      </c>
+      <c r="D24" s="35" t="s">
         <v>108</v>
       </c>
-      <c r="D24" s="35" t="s">
-        <v>109</v>
-      </c>
       <c r="E24" s="34" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="F24" s="34"/>
       <c r="G24" s="34" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="H24" s="21"/>
       <c r="I24" s="21"/>
       <c r="J24" s="34" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="K24" s="2"/>
       <c r="L24" s="2"/>
@@ -3333,22 +3334,22 @@
         <v>7</v>
       </c>
       <c r="C25" s="19" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="D25" s="7" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E25" s="19" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="F25" s="8"/>
       <c r="G25" s="6" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="H25" s="9"/>
       <c r="I25" s="9"/>
       <c r="J25" s="19" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="K25" s="2"/>
       <c r="L25" s="2"/>
@@ -3372,24 +3373,24 @@
         <v>8</v>
       </c>
       <c r="C26" s="19" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="D26" s="7" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E26" s="6" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="F26" s="8">
         <v>20</v>
       </c>
       <c r="G26" s="6" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="H26" s="6"/>
       <c r="I26" s="9"/>
       <c r="J26" s="19" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="K26" s="2"/>
       <c r="L26" s="2"/>
@@ -3413,24 +3414,24 @@
         <v>9</v>
       </c>
       <c r="C27" s="25" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="D27" s="26" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="E27" s="19" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="F27" s="25">
         <v>1</v>
       </c>
       <c r="G27" s="25" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="H27" s="25"/>
       <c r="I27" s="24"/>
       <c r="J27" s="25" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="K27" s="2"/>
       <c r="L27" s="2"/>
@@ -3454,24 +3455,24 @@
         <v>10</v>
       </c>
       <c r="C28" s="25" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="D28" s="36" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="E28" s="19" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="F28" s="25">
         <v>1</v>
       </c>
       <c r="G28" s="25" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="H28" s="25"/>
       <c r="I28" s="24"/>
       <c r="J28" s="25" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="K28" s="2"/>
       <c r="L28" s="2"/>
@@ -3495,24 +3496,24 @@
         <v>11</v>
       </c>
       <c r="C29" s="25" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="D29" s="36" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="E29" s="19" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="F29" s="25">
         <v>1</v>
       </c>
       <c r="G29" s="25" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="H29" s="25"/>
       <c r="I29" s="24"/>
       <c r="J29" s="25" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="K29" s="2"/>
       <c r="L29" s="2"/>
@@ -3536,24 +3537,24 @@
         <v>12</v>
       </c>
       <c r="C30" s="25" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="D30" s="26" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="E30" s="19" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="F30" s="25">
         <v>1</v>
       </c>
       <c r="G30" s="25" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="H30" s="25"/>
       <c r="I30" s="24"/>
       <c r="J30" s="25" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="K30" s="2"/>
       <c r="L30" s="2"/>
@@ -3627,17 +3628,17 @@
     </row>
     <row r="33" spans="1:25" ht="15.75" customHeight="1">
       <c r="A33" s="17"/>
-      <c r="B33" s="46" t="s">
-        <v>121</v>
-      </c>
-      <c r="C33" s="47"/>
-      <c r="D33" s="47"/>
-      <c r="E33" s="47"/>
-      <c r="F33" s="47"/>
-      <c r="G33" s="47"/>
-      <c r="H33" s="47"/>
-      <c r="I33" s="47"/>
-      <c r="J33" s="47"/>
+      <c r="B33" s="47" t="s">
+        <v>120</v>
+      </c>
+      <c r="C33" s="48"/>
+      <c r="D33" s="48"/>
+      <c r="E33" s="48"/>
+      <c r="F33" s="48"/>
+      <c r="G33" s="48"/>
+      <c r="H33" s="48"/>
+      <c r="I33" s="48"/>
+      <c r="J33" s="48"/>
       <c r="K33" s="2"/>
       <c r="L33" s="2"/>
       <c r="M33" s="2"/>
@@ -3657,31 +3658,31 @@
     <row r="34" spans="1:25" ht="15.75" customHeight="1">
       <c r="A34" s="17"/>
       <c r="B34" s="25" t="s">
+        <v>65</v>
+      </c>
+      <c r="C34" s="25" t="s">
         <v>66</v>
       </c>
-      <c r="C34" s="25" t="s">
+      <c r="D34" s="25" t="s">
+        <v>68</v>
+      </c>
+      <c r="E34" s="25" t="s">
+        <v>11</v>
+      </c>
+      <c r="F34" s="25" t="s">
         <v>67</v>
       </c>
-      <c r="D34" s="25" t="s">
+      <c r="G34" s="25" t="s">
+        <v>9</v>
+      </c>
+      <c r="H34" s="25" t="s">
+        <v>86</v>
+      </c>
+      <c r="I34" s="25" t="s">
         <v>69</v>
       </c>
-      <c r="E34" s="25" t="s">
-        <v>12</v>
-      </c>
-      <c r="F34" s="25" t="s">
-        <v>68</v>
-      </c>
-      <c r="G34" s="25" t="s">
-        <v>10</v>
-      </c>
-      <c r="H34" s="25" t="s">
-        <v>87</v>
-      </c>
-      <c r="I34" s="25" t="s">
+      <c r="J34" s="25" t="s">
         <v>70</v>
-      </c>
-      <c r="J34" s="25" t="s">
-        <v>71</v>
       </c>
       <c r="K34" s="2"/>
       <c r="L34" s="2"/>
@@ -3705,24 +3706,24 @@
         <v>1</v>
       </c>
       <c r="C35" s="19" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="D35" s="20" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="E35" s="19" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="F35" s="8"/>
       <c r="G35" s="6" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="H35" s="21" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="I35" s="9"/>
       <c r="J35" s="22" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="K35" s="2"/>
       <c r="L35" s="2"/>
@@ -3746,17 +3747,17 @@
         <v>2</v>
       </c>
       <c r="C36" s="19" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="D36" s="19" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E36" s="19" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="F36" s="8"/>
       <c r="G36" s="6" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="H36" s="9"/>
       <c r="I36" s="9"/>
@@ -3785,19 +3786,19 @@
         <v>3</v>
       </c>
       <c r="C37" s="19" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="D37" s="19" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="E37" s="8" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="F37" s="8">
         <v>2000</v>
       </c>
       <c r="G37" s="6" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="H37" s="9"/>
       <c r="I37" s="9"/>
@@ -3874,17 +3875,17 @@
     </row>
     <row r="40" spans="1:25" ht="15.75" customHeight="1">
       <c r="A40" s="3"/>
-      <c r="B40" s="46" t="s">
-        <v>6</v>
-      </c>
-      <c r="C40" s="47"/>
-      <c r="D40" s="47"/>
-      <c r="E40" s="47"/>
-      <c r="F40" s="47"/>
-      <c r="G40" s="47"/>
-      <c r="H40" s="47"/>
-      <c r="I40" s="47"/>
-      <c r="J40" s="47"/>
+      <c r="B40" s="47" t="s">
+        <v>5</v>
+      </c>
+      <c r="C40" s="48"/>
+      <c r="D40" s="48"/>
+      <c r="E40" s="48"/>
+      <c r="F40" s="48"/>
+      <c r="G40" s="48"/>
+      <c r="H40" s="48"/>
+      <c r="I40" s="48"/>
+      <c r="J40" s="48"/>
       <c r="K40" s="2"/>
       <c r="L40" s="2"/>
       <c r="M40" s="2"/>
@@ -3904,31 +3905,31 @@
     <row r="41" spans="1:25" ht="15.75" customHeight="1">
       <c r="A41" s="3"/>
       <c r="B41" s="25" t="s">
+        <v>65</v>
+      </c>
+      <c r="C41" s="25" t="s">
         <v>66</v>
       </c>
-      <c r="C41" s="25" t="s">
+      <c r="D41" s="25" t="s">
+        <v>68</v>
+      </c>
+      <c r="E41" s="25" t="s">
+        <v>11</v>
+      </c>
+      <c r="F41" s="25" t="s">
         <v>67</v>
       </c>
-      <c r="D41" s="25" t="s">
+      <c r="G41" s="25" t="s">
+        <v>9</v>
+      </c>
+      <c r="H41" s="25" t="s">
+        <v>86</v>
+      </c>
+      <c r="I41" s="25" t="s">
         <v>69</v>
       </c>
-      <c r="E41" s="25" t="s">
-        <v>12</v>
-      </c>
-      <c r="F41" s="25" t="s">
-        <v>68</v>
-      </c>
-      <c r="G41" s="25" t="s">
-        <v>10</v>
-      </c>
-      <c r="H41" s="25" t="s">
-        <v>87</v>
-      </c>
-      <c r="I41" s="25" t="s">
+      <c r="J41" s="25" t="s">
         <v>70</v>
-      </c>
-      <c r="J41" s="25" t="s">
-        <v>71</v>
       </c>
       <c r="K41" s="2"/>
       <c r="L41" s="2"/>
@@ -3952,26 +3953,26 @@
         <v>1</v>
       </c>
       <c r="C42" s="25" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="D42" s="26" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E42" s="19" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="F42" s="25"/>
       <c r="G42" s="25" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="H42" s="25" t="s">
+        <v>72</v>
+      </c>
+      <c r="I42" s="25" t="s">
         <v>73</v>
       </c>
-      <c r="I42" s="25" t="s">
-        <v>74</v>
-      </c>
       <c r="J42" s="26" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="K42" s="2"/>
       <c r="L42" s="2"/>
@@ -3995,24 +3996,24 @@
         <v>2</v>
       </c>
       <c r="C43" s="25" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D43" s="26" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E43" s="25" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="F43" s="24">
         <v>10</v>
       </c>
       <c r="G43" s="25" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="H43" s="25"/>
       <c r="I43" s="27"/>
       <c r="J43" s="25" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="K43" s="2"/>
       <c r="L43" s="2"/>
@@ -4036,19 +4037,19 @@
         <v>3</v>
       </c>
       <c r="C44" s="25" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="D44" s="26" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="E44" s="25" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="F44" s="25">
         <v>20</v>
       </c>
       <c r="G44" s="25" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="H44" s="24"/>
       <c r="I44" s="24"/>
@@ -4075,22 +4076,22 @@
         <v>4</v>
       </c>
       <c r="C45" s="25" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="D45" s="26" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="E45" s="19" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="F45" s="25"/>
       <c r="G45" s="25" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="H45" s="25"/>
       <c r="I45" s="24"/>
       <c r="J45" s="23" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="K45" s="2"/>
       <c r="L45" s="2"/>
@@ -4114,19 +4115,19 @@
         <v>5</v>
       </c>
       <c r="C46" s="25" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="D46" s="26" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E46" s="25" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="F46" s="25">
         <v>2000</v>
       </c>
       <c r="G46" s="25" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="H46" s="24"/>
       <c r="I46" s="24"/>
@@ -4155,24 +4156,24 @@
         <v>6</v>
       </c>
       <c r="C47" s="25" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="D47" s="26" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="E47" s="25" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="F47" s="25">
         <v>50</v>
       </c>
       <c r="G47" s="25" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="H47" s="24"/>
       <c r="I47" s="24"/>
       <c r="J47" s="25" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="K47" s="2"/>
       <c r="L47" s="2"/>
@@ -4196,24 +4197,24 @@
         <v>7</v>
       </c>
       <c r="C48" s="25" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="D48" s="26" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="E48" s="25" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="F48" s="25">
         <v>50</v>
       </c>
       <c r="G48" s="25" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="H48" s="24"/>
       <c r="I48" s="24"/>
       <c r="J48" s="25" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="K48" s="2"/>
       <c r="L48" s="2"/>
@@ -4237,24 +4238,24 @@
         <v>8</v>
       </c>
       <c r="C49" s="25" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D49" s="26" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="E49" s="25" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="F49" s="25">
         <v>50</v>
       </c>
       <c r="G49" s="25" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="H49" s="24"/>
       <c r="I49" s="24"/>
       <c r="J49" s="25" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="K49" s="2"/>
       <c r="L49" s="2"/>
@@ -4278,24 +4279,24 @@
         <v>9</v>
       </c>
       <c r="C50" s="25" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="D50" s="26" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E50" s="25" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="F50" s="25">
         <v>50</v>
       </c>
       <c r="G50" s="25" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="H50" s="24"/>
       <c r="I50" s="24"/>
       <c r="J50" s="25" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="K50" s="2"/>
       <c r="L50" s="2"/>
@@ -4369,17 +4370,17 @@
     </row>
     <row r="53" spans="1:25" ht="15.75" customHeight="1">
       <c r="A53" s="3"/>
-      <c r="B53" s="46" t="s">
-        <v>65</v>
-      </c>
-      <c r="C53" s="47"/>
-      <c r="D53" s="47"/>
-      <c r="E53" s="47"/>
-      <c r="F53" s="47"/>
-      <c r="G53" s="47"/>
-      <c r="H53" s="47"/>
-      <c r="I53" s="47"/>
-      <c r="J53" s="47"/>
+      <c r="B53" s="47" t="s">
+        <v>64</v>
+      </c>
+      <c r="C53" s="48"/>
+      <c r="D53" s="48"/>
+      <c r="E53" s="48"/>
+      <c r="F53" s="48"/>
+      <c r="G53" s="48"/>
+      <c r="H53" s="48"/>
+      <c r="I53" s="48"/>
+      <c r="J53" s="48"/>
       <c r="K53" s="2"/>
       <c r="L53" s="2"/>
       <c r="M53" s="2"/>
@@ -4399,31 +4400,31 @@
     <row r="54" spans="1:25" ht="15.75" customHeight="1">
       <c r="A54" s="3"/>
       <c r="B54" s="25" t="s">
+        <v>65</v>
+      </c>
+      <c r="C54" s="25" t="s">
         <v>66</v>
       </c>
-      <c r="C54" s="25" t="s">
+      <c r="D54" s="25" t="s">
+        <v>68</v>
+      </c>
+      <c r="E54" s="25" t="s">
+        <v>11</v>
+      </c>
+      <c r="F54" s="25" t="s">
         <v>67</v>
       </c>
-      <c r="D54" s="25" t="s">
+      <c r="G54" s="25" t="s">
+        <v>9</v>
+      </c>
+      <c r="H54" s="25" t="s">
+        <v>86</v>
+      </c>
+      <c r="I54" s="25" t="s">
         <v>69</v>
       </c>
-      <c r="E54" s="25" t="s">
-        <v>12</v>
-      </c>
-      <c r="F54" s="25" t="s">
-        <v>68</v>
-      </c>
-      <c r="G54" s="25" t="s">
-        <v>10</v>
-      </c>
-      <c r="H54" s="25" t="s">
-        <v>87</v>
-      </c>
-      <c r="I54" s="25" t="s">
+      <c r="J54" s="25" t="s">
         <v>70</v>
-      </c>
-      <c r="J54" s="25" t="s">
-        <v>71</v>
       </c>
       <c r="K54" s="2"/>
       <c r="L54" s="2"/>
@@ -4447,26 +4448,26 @@
         <v>1</v>
       </c>
       <c r="C55" s="25" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="D55" s="26" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E55" s="19" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="F55" s="25"/>
       <c r="G55" s="25" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="H55" s="25" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="I55" s="25" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="J55" s="26" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="K55" s="2"/>
       <c r="L55" s="2"/>
@@ -4490,28 +4491,28 @@
         <v>2</v>
       </c>
       <c r="C56" s="25" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D56" s="26" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="E56" s="25" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="F56" s="24">
         <v>50</v>
       </c>
       <c r="G56" s="25" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="H56" s="25" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="I56" s="27" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="J56" s="25" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="K56" s="2"/>
       <c r="L56" s="2"/>
@@ -4535,19 +4536,19 @@
         <v>3</v>
       </c>
       <c r="C57" s="25" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D57" s="26" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E57" s="25" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="F57" s="25">
         <v>50</v>
       </c>
       <c r="G57" s="25" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="H57" s="24"/>
       <c r="I57" s="24"/>
@@ -4574,24 +4575,24 @@
         <v>4</v>
       </c>
       <c r="C58" s="25" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D58" s="26" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="E58" s="25" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="F58" s="25">
         <v>10</v>
       </c>
       <c r="G58" s="25" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="H58" s="25"/>
       <c r="I58" s="24"/>
       <c r="J58" s="25" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="K58" s="2"/>
       <c r="L58" s="2"/>
@@ -4615,22 +4616,22 @@
         <v>5</v>
       </c>
       <c r="C59" s="25" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D59" s="26" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="E59" s="25" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="F59" s="25"/>
       <c r="G59" s="25" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="H59" s="24"/>
       <c r="I59" s="24"/>
       <c r="J59" s="23" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="K59" s="2"/>
       <c r="L59" s="2"/>
@@ -4654,19 +4655,19 @@
         <v>6</v>
       </c>
       <c r="C60" s="25" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="D60" s="26" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="E60" s="25" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="F60" s="25">
         <v>2000</v>
       </c>
       <c r="G60" s="25" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="H60" s="24"/>
       <c r="I60" s="24"/>
@@ -4743,17 +4744,17 @@
     </row>
     <row r="63" spans="1:25" ht="15.75" customHeight="1">
       <c r="A63" s="3"/>
-      <c r="B63" s="46" t="s">
-        <v>4</v>
-      </c>
-      <c r="C63" s="47"/>
-      <c r="D63" s="47"/>
-      <c r="E63" s="47"/>
-      <c r="F63" s="47"/>
-      <c r="G63" s="47"/>
-      <c r="H63" s="47"/>
-      <c r="I63" s="47"/>
-      <c r="J63" s="47"/>
+      <c r="B63" s="47" t="s">
+        <v>140</v>
+      </c>
+      <c r="C63" s="48"/>
+      <c r="D63" s="48"/>
+      <c r="E63" s="48"/>
+      <c r="F63" s="48"/>
+      <c r="G63" s="48"/>
+      <c r="H63" s="48"/>
+      <c r="I63" s="48"/>
+      <c r="J63" s="48"/>
       <c r="K63" s="2"/>
       <c r="L63" s="2"/>
       <c r="M63" s="2"/>
@@ -4773,31 +4774,31 @@
     <row r="64" spans="1:25" ht="15.75" customHeight="1">
       <c r="A64" s="3"/>
       <c r="B64" s="25" t="s">
+        <v>65</v>
+      </c>
+      <c r="C64" s="25" t="s">
         <v>66</v>
       </c>
-      <c r="C64" s="25" t="s">
+      <c r="D64" s="25" t="s">
+        <v>68</v>
+      </c>
+      <c r="E64" s="25" t="s">
+        <v>11</v>
+      </c>
+      <c r="F64" s="25" t="s">
         <v>67</v>
       </c>
-      <c r="D64" s="25" t="s">
+      <c r="G64" s="25" t="s">
+        <v>9</v>
+      </c>
+      <c r="H64" s="25" t="s">
+        <v>86</v>
+      </c>
+      <c r="I64" s="25" t="s">
         <v>69</v>
       </c>
-      <c r="E64" s="25" t="s">
-        <v>12</v>
-      </c>
-      <c r="F64" s="25" t="s">
-        <v>68</v>
-      </c>
-      <c r="G64" s="25" t="s">
-        <v>10</v>
-      </c>
-      <c r="H64" s="25" t="s">
-        <v>87</v>
-      </c>
-      <c r="I64" s="25" t="s">
+      <c r="J64" s="25" t="s">
         <v>70</v>
-      </c>
-      <c r="J64" s="25" t="s">
-        <v>71</v>
       </c>
       <c r="K64" s="2"/>
       <c r="L64" s="2"/>
@@ -4821,26 +4822,26 @@
         <v>1</v>
       </c>
       <c r="C65" s="25" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D65" s="26" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="E65" s="19" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="F65" s="25"/>
       <c r="G65" s="25" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="H65" s="25" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="I65" s="25" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="J65" s="26" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="K65" s="2"/>
       <c r="L65" s="2"/>
@@ -4864,19 +4865,19 @@
         <v>2</v>
       </c>
       <c r="C66" s="25" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D66" s="26" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="E66" s="25" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="F66" s="24">
         <v>50</v>
       </c>
       <c r="G66" s="25" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="H66" s="25"/>
       <c r="I66" s="27"/>
@@ -4903,19 +4904,19 @@
         <v>3</v>
       </c>
       <c r="C67" s="25" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="D67" s="26" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="E67" s="25" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="F67" s="25">
         <v>2000</v>
       </c>
       <c r="G67" s="25" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="H67" s="24"/>
       <c r="I67" s="24"/>
@@ -4942,24 +4943,24 @@
         <v>4</v>
       </c>
       <c r="C68" s="25" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D68" s="26" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="E68" s="25" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="F68" s="25">
         <v>50</v>
       </c>
       <c r="G68" s="25" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="H68" s="25"/>
       <c r="I68" s="24"/>
       <c r="J68" s="25" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="K68" s="2"/>
       <c r="L68" s="2"/>
@@ -4983,22 +4984,22 @@
         <v>5</v>
       </c>
       <c r="C69" s="25" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D69" s="26" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="E69" s="25" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="F69" s="25"/>
       <c r="G69" s="25" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="H69" s="24"/>
       <c r="I69" s="24"/>
       <c r="J69" s="25" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="K69" s="2"/>
       <c r="L69" s="2"/>
@@ -5022,24 +5023,24 @@
         <v>6</v>
       </c>
       <c r="C70" s="25" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="D70" s="26" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="E70" s="25" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="F70" s="25">
         <v>20</v>
       </c>
       <c r="G70" s="25" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="H70" s="24"/>
       <c r="I70" s="24"/>
       <c r="J70" s="23" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="K70" s="2"/>
       <c r="L70" s="2"/>
@@ -5086,17 +5087,17 @@
     </row>
     <row r="72" spans="1:25" ht="15.75" customHeight="1">
       <c r="A72" s="3"/>
-      <c r="B72" s="37" t="s">
+      <c r="B72" s="38" t="s">
         <v>3</v>
       </c>
-      <c r="C72" s="38"/>
-      <c r="D72" s="38"/>
-      <c r="E72" s="38"/>
-      <c r="F72" s="38"/>
-      <c r="G72" s="38"/>
-      <c r="H72" s="38"/>
-      <c r="I72" s="38"/>
-      <c r="J72" s="39"/>
+      <c r="C72" s="39"/>
+      <c r="D72" s="39"/>
+      <c r="E72" s="39"/>
+      <c r="F72" s="39"/>
+      <c r="G72" s="39"/>
+      <c r="H72" s="39"/>
+      <c r="I72" s="39"/>
+      <c r="J72" s="40"/>
       <c r="K72" s="2"/>
       <c r="L72" s="2"/>
       <c r="M72" s="2"/>
@@ -5115,31 +5116,31 @@
     </row>
     <row r="73" spans="1:25" ht="15" customHeight="1">
       <c r="B73" s="5" t="s">
+        <v>65</v>
+      </c>
+      <c r="C73" s="34" t="s">
         <v>66</v>
       </c>
-      <c r="C73" s="34" t="s">
+      <c r="D73" s="34" t="s">
+        <v>68</v>
+      </c>
+      <c r="E73" s="34" t="s">
+        <v>11</v>
+      </c>
+      <c r="F73" s="34" t="s">
         <v>67</v>
       </c>
-      <c r="D73" s="34" t="s">
+      <c r="G73" s="34" t="s">
+        <v>9</v>
+      </c>
+      <c r="H73" s="34" t="s">
+        <v>82</v>
+      </c>
+      <c r="I73" s="34" t="s">
         <v>69</v>
       </c>
-      <c r="E73" s="34" t="s">
-        <v>12</v>
-      </c>
-      <c r="F73" s="34" t="s">
-        <v>68</v>
-      </c>
-      <c r="G73" s="34" t="s">
-        <v>10</v>
-      </c>
-      <c r="H73" s="34" t="s">
-        <v>83</v>
-      </c>
-      <c r="I73" s="34" t="s">
+      <c r="J73" s="34" t="s">
         <v>70</v>
-      </c>
-      <c r="J73" s="34" t="s">
-        <v>71</v>
       </c>
       <c r="K73" s="3"/>
     </row>
@@ -5148,25 +5149,25 @@
         <v>1</v>
       </c>
       <c r="C74" s="25" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D74" s="35" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="E74" s="34" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="F74" s="34">
         <v>70</v>
       </c>
       <c r="G74" s="34" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="H74" s="34" t="s">
+        <v>72</v>
+      </c>
+      <c r="I74" s="34" t="s">
         <v>73</v>
-      </c>
-      <c r="I74" s="34" t="s">
-        <v>74</v>
       </c>
       <c r="J74" s="34"/>
       <c r="K74" s="3"/>
@@ -5176,19 +5177,19 @@
         <v>2</v>
       </c>
       <c r="C75" s="34" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D75" s="35" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="E75" s="34" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="F75" s="34">
         <v>70</v>
       </c>
       <c r="G75" s="34" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="H75" s="34"/>
       <c r="I75" s="34"/>

--- a/프로젝트 산출물/5. 테이블명세서/캠플렉스 테이블 명세서.xlsx
+++ b/프로젝트 산출물/5. 테이블명세서/캠플렉스 테이블 명세서.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="305" uniqueCount="141">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="309" uniqueCount="145">
   <si>
     <r>
       <rPr>
@@ -441,9 +441,6 @@
   </si>
   <si>
     <t>데이터 타입</t>
-  </si>
-  <si>
-    <t>결제금액</t>
   </si>
   <si>
     <t>예약상태</t>
@@ -1867,6 +1864,26 @@
     <t>공지사항 (NOTICE_TBL)</t>
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
+  <si>
+    <t>r_upddate</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>업데이트 날짜</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>DATE</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>Y</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>결제금액</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
@@ -2097,7 +2114,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="49">
+  <cellXfs count="50">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -2206,6 +2223,9 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2441,10 +2461,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:Y900"/>
+  <dimension ref="A1:Y901"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A28" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="E44" sqref="E44"/>
+    <sheetView tabSelected="1" topLeftCell="A13" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="E32" sqref="E32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="12.75"/>
@@ -2489,17 +2509,17 @@
     </row>
     <row r="2" spans="1:25" ht="15.75" customHeight="1">
       <c r="A2" s="1"/>
-      <c r="B2" s="41" t="s">
-        <v>14</v>
-      </c>
-      <c r="C2" s="42"/>
-      <c r="D2" s="42"/>
-      <c r="E2" s="42"/>
-      <c r="F2" s="42"/>
-      <c r="G2" s="42"/>
-      <c r="H2" s="42"/>
-      <c r="I2" s="42"/>
-      <c r="J2" s="43"/>
+      <c r="B2" s="42" t="s">
+        <v>13</v>
+      </c>
+      <c r="C2" s="43"/>
+      <c r="D2" s="43"/>
+      <c r="E2" s="43"/>
+      <c r="F2" s="43"/>
+      <c r="G2" s="43"/>
+      <c r="H2" s="43"/>
+      <c r="I2" s="43"/>
+      <c r="J2" s="44"/>
       <c r="K2" s="2"/>
       <c r="L2" s="2"/>
       <c r="M2" s="2"/>
@@ -2518,15 +2538,15 @@
     </row>
     <row r="3" spans="1:25" ht="15.75" customHeight="1">
       <c r="A3" s="1"/>
-      <c r="B3" s="44"/>
-      <c r="C3" s="45"/>
-      <c r="D3" s="45"/>
-      <c r="E3" s="45"/>
-      <c r="F3" s="45"/>
-      <c r="G3" s="45"/>
-      <c r="H3" s="45"/>
-      <c r="I3" s="45"/>
-      <c r="J3" s="46"/>
+      <c r="B3" s="45"/>
+      <c r="C3" s="46"/>
+      <c r="D3" s="46"/>
+      <c r="E3" s="46"/>
+      <c r="F3" s="46"/>
+      <c r="G3" s="46"/>
+      <c r="H3" s="46"/>
+      <c r="I3" s="46"/>
+      <c r="J3" s="47"/>
       <c r="K3" s="2"/>
       <c r="L3" s="2"/>
       <c r="M3" s="2"/>
@@ -2599,17 +2619,17 @@
     </row>
     <row r="6" spans="1:25" ht="15.75" customHeight="1">
       <c r="A6" s="17"/>
-      <c r="B6" s="47" t="s">
-        <v>59</v>
-      </c>
-      <c r="C6" s="48"/>
-      <c r="D6" s="48"/>
-      <c r="E6" s="48"/>
-      <c r="F6" s="48"/>
-      <c r="G6" s="48"/>
-      <c r="H6" s="48"/>
-      <c r="I6" s="48"/>
-      <c r="J6" s="48"/>
+      <c r="B6" s="48" t="s">
+        <v>58</v>
+      </c>
+      <c r="C6" s="49"/>
+      <c r="D6" s="49"/>
+      <c r="E6" s="49"/>
+      <c r="F6" s="49"/>
+      <c r="G6" s="49"/>
+      <c r="H6" s="49"/>
+      <c r="I6" s="49"/>
+      <c r="J6" s="49"/>
       <c r="K6" s="2"/>
       <c r="L6" s="2"/>
       <c r="M6" s="2"/>
@@ -2629,31 +2649,31 @@
     <row r="7" spans="1:25" ht="15.75" customHeight="1">
       <c r="A7" s="17"/>
       <c r="B7" s="25" t="s">
+        <v>64</v>
+      </c>
+      <c r="C7" s="25" t="s">
         <v>65</v>
       </c>
-      <c r="C7" s="25" t="s">
-        <v>66</v>
-      </c>
       <c r="D7" s="25" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="E7" s="25" t="s">
         <v>11</v>
       </c>
       <c r="F7" s="25" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="G7" s="25" t="s">
         <v>9</v>
       </c>
       <c r="H7" s="25" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="I7" s="25" t="s">
+        <v>68</v>
+      </c>
+      <c r="J7" s="25" t="s">
         <v>69</v>
-      </c>
-      <c r="J7" s="25" t="s">
-        <v>70</v>
       </c>
       <c r="K7" s="2"/>
       <c r="L7" s="2"/>
@@ -2677,25 +2697,25 @@
         <v>1</v>
       </c>
       <c r="C8" s="25" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D8" s="26" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="E8" s="25" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="F8" s="25">
         <v>50</v>
       </c>
       <c r="G8" s="25" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="H8" s="25" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="I8" s="25" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="J8" s="26" t="s">
         <v>6</v>
@@ -2722,19 +2742,19 @@
         <v>2</v>
       </c>
       <c r="C9" s="25" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D9" s="26" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="E9" s="25" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="F9" s="24">
         <v>20</v>
       </c>
       <c r="G9" s="25" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="H9" s="25"/>
       <c r="I9" s="27"/>
@@ -2763,24 +2783,24 @@
         <v>3</v>
       </c>
       <c r="C10" s="25" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="D10" s="26" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="E10" s="25" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="F10" s="25">
         <v>10</v>
       </c>
       <c r="G10" s="25" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="H10" s="24"/>
       <c r="I10" s="24"/>
       <c r="J10" s="26" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="K10" s="2"/>
       <c r="L10" s="2"/>
@@ -2804,24 +2824,24 @@
         <v>4</v>
       </c>
       <c r="C11" s="25" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D11" s="26" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="E11" s="25" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="F11" s="25">
         <v>11</v>
       </c>
       <c r="G11" s="25" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="H11" s="25"/>
       <c r="I11" s="24"/>
       <c r="J11" s="25" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="K11" s="2"/>
       <c r="L11" s="2"/>
@@ -2845,22 +2865,22 @@
         <v>5</v>
       </c>
       <c r="C12" s="25" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D12" s="26" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="E12" s="25" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="F12" s="25"/>
       <c r="G12" s="25" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="H12" s="25"/>
       <c r="I12" s="24"/>
       <c r="J12" s="25" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="K12" s="2"/>
       <c r="L12" s="2"/>
@@ -2884,22 +2904,22 @@
         <v>6</v>
       </c>
       <c r="C13" s="25" t="s">
+        <v>131</v>
+      </c>
+      <c r="D13" s="26" t="s">
         <v>132</v>
       </c>
-      <c r="D13" s="26" t="s">
-        <v>133</v>
-      </c>
       <c r="E13" s="34" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="F13" s="25"/>
       <c r="G13" s="25" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="H13" s="25"/>
       <c r="I13" s="27"/>
       <c r="J13" s="25" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="K13" s="2"/>
       <c r="L13" s="2"/>
@@ -2923,22 +2943,22 @@
         <v>7</v>
       </c>
       <c r="C14" s="25" t="s">
+        <v>135</v>
+      </c>
+      <c r="D14" s="26" t="s">
         <v>136</v>
       </c>
-      <c r="D14" s="26" t="s">
+      <c r="E14" s="34" t="s">
         <v>137</v>
-      </c>
-      <c r="E14" s="34" t="s">
-        <v>138</v>
       </c>
       <c r="F14" s="25"/>
       <c r="G14" s="25" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="H14" s="25"/>
       <c r="I14" s="27"/>
       <c r="J14" s="25" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="K14" s="2"/>
       <c r="L14" s="2"/>
@@ -3012,17 +3032,17 @@
     </row>
     <row r="17" spans="1:25" ht="15.75" customHeight="1">
       <c r="A17" s="4"/>
-      <c r="B17" s="38" t="s">
-        <v>119</v>
-      </c>
-      <c r="C17" s="39"/>
-      <c r="D17" s="39"/>
-      <c r="E17" s="39"/>
-      <c r="F17" s="39"/>
-      <c r="G17" s="39"/>
-      <c r="H17" s="39"/>
-      <c r="I17" s="39"/>
-      <c r="J17" s="40"/>
+      <c r="B17" s="39" t="s">
+        <v>118</v>
+      </c>
+      <c r="C17" s="40"/>
+      <c r="D17" s="40"/>
+      <c r="E17" s="40"/>
+      <c r="F17" s="40"/>
+      <c r="G17" s="40"/>
+      <c r="H17" s="40"/>
+      <c r="I17" s="40"/>
+      <c r="J17" s="41"/>
       <c r="K17" s="2"/>
       <c r="L17" s="2"/>
       <c r="M17" s="2"/>
@@ -3042,31 +3062,31 @@
     <row r="18" spans="1:25" ht="15.75" customHeight="1">
       <c r="A18" s="4"/>
       <c r="B18" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="C18" s="6" t="s">
         <v>65</v>
       </c>
-      <c r="C18" s="6" t="s">
-        <v>66</v>
-      </c>
       <c r="D18" s="6" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="E18" s="6" t="s">
         <v>11</v>
       </c>
       <c r="F18" s="6" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="G18" s="6" t="s">
         <v>9</v>
       </c>
       <c r="H18" s="6" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="I18" s="6" t="s">
+        <v>68</v>
+      </c>
+      <c r="J18" s="6" t="s">
         <v>69</v>
-      </c>
-      <c r="J18" s="6" t="s">
-        <v>70</v>
       </c>
       <c r="K18" s="2"/>
       <c r="L18" s="2"/>
@@ -3090,26 +3110,26 @@
         <v>1</v>
       </c>
       <c r="C19" s="16" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="D19" s="7" t="s">
         <v>8</v>
       </c>
       <c r="E19" s="19" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="F19" s="8"/>
       <c r="G19" s="6" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="H19" s="6" t="s">
+        <v>71</v>
+      </c>
+      <c r="I19" s="6" t="s">
         <v>72</v>
       </c>
-      <c r="I19" s="6" t="s">
-        <v>73</v>
-      </c>
       <c r="J19" s="22" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="K19" s="2"/>
       <c r="L19" s="2"/>
@@ -3133,25 +3153,25 @@
         <v>2</v>
       </c>
       <c r="C20" s="19" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D20" s="7" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="E20" s="6" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="F20" s="25">
         <v>50</v>
       </c>
       <c r="G20" s="6" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="H20" s="16" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="I20" s="21" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="J20" s="6"/>
       <c r="K20" s="2"/>
@@ -3176,23 +3196,23 @@
         <v>3</v>
       </c>
       <c r="C21" s="19" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="D21" s="7" t="s">
         <v>10</v>
       </c>
       <c r="E21" s="19" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="F21" s="6"/>
       <c r="G21" s="6" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="H21" s="16" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="I21" s="21" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="J21" s="7"/>
       <c r="K21" s="2"/>
@@ -3217,17 +3237,17 @@
         <v>4</v>
       </c>
       <c r="C22" s="19" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="D22" s="7" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E22" s="19" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F22" s="8"/>
       <c r="G22" s="6" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="H22" s="6"/>
       <c r="I22" s="9"/>
@@ -3256,22 +3276,22 @@
         <v>5</v>
       </c>
       <c r="C23" s="19" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="D23" s="7" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="E23" s="19" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F23" s="6"/>
       <c r="G23" s="6" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="H23" s="9"/>
       <c r="I23" s="9"/>
       <c r="J23" s="19" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="K23" s="2"/>
       <c r="L23" s="2"/>
@@ -3295,22 +3315,22 @@
         <v>6</v>
       </c>
       <c r="C24" s="34" t="s">
+        <v>106</v>
+      </c>
+      <c r="D24" s="35" t="s">
         <v>107</v>
       </c>
-      <c r="D24" s="35" t="s">
-        <v>108</v>
-      </c>
       <c r="E24" s="34" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F24" s="34"/>
       <c r="G24" s="34" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="H24" s="21"/>
       <c r="I24" s="21"/>
       <c r="J24" s="34" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="K24" s="2"/>
       <c r="L24" s="2"/>
@@ -3334,22 +3354,22 @@
         <v>7</v>
       </c>
       <c r="C25" s="19" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="D25" s="7" t="s">
-        <v>12</v>
+        <v>144</v>
       </c>
       <c r="E25" s="19" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="F25" s="8"/>
       <c r="G25" s="6" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="H25" s="9"/>
       <c r="I25" s="9"/>
       <c r="J25" s="19" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="K25" s="2"/>
       <c r="L25" s="2"/>
@@ -3373,24 +3393,24 @@
         <v>8</v>
       </c>
       <c r="C26" s="19" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="D26" s="7" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E26" s="6" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="F26" s="8">
         <v>20</v>
       </c>
       <c r="G26" s="6" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="H26" s="6"/>
       <c r="I26" s="9"/>
       <c r="J26" s="19" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="K26" s="2"/>
       <c r="L26" s="2"/>
@@ -3414,24 +3434,24 @@
         <v>9</v>
       </c>
       <c r="C27" s="25" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="D27" s="26" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="E27" s="19" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="F27" s="25">
         <v>1</v>
       </c>
       <c r="G27" s="25" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="H27" s="25"/>
       <c r="I27" s="24"/>
       <c r="J27" s="25" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="K27" s="2"/>
       <c r="L27" s="2"/>
@@ -3455,24 +3475,24 @@
         <v>10</v>
       </c>
       <c r="C28" s="25" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="D28" s="36" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="E28" s="19" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="F28" s="25">
         <v>1</v>
       </c>
       <c r="G28" s="25" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="H28" s="25"/>
       <c r="I28" s="24"/>
       <c r="J28" s="25" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="K28" s="2"/>
       <c r="L28" s="2"/>
@@ -3496,24 +3516,24 @@
         <v>11</v>
       </c>
       <c r="C29" s="25" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="D29" s="36" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="E29" s="19" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="F29" s="25">
         <v>1</v>
       </c>
       <c r="G29" s="25" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="H29" s="25"/>
       <c r="I29" s="24"/>
       <c r="J29" s="25" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="K29" s="2"/>
       <c r="L29" s="2"/>
@@ -3537,24 +3557,24 @@
         <v>12</v>
       </c>
       <c r="C30" s="25" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="D30" s="26" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="E30" s="19" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="F30" s="25">
         <v>1</v>
       </c>
       <c r="G30" s="25" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="H30" s="25"/>
       <c r="I30" s="24"/>
       <c r="J30" s="25" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="K30" s="2"/>
       <c r="L30" s="2"/>
@@ -3574,15 +3594,25 @@
     </row>
     <row r="31" spans="1:25" ht="15.75" customHeight="1">
       <c r="A31" s="17"/>
-      <c r="B31" s="31"/>
-      <c r="C31" s="31"/>
-      <c r="D31" s="31"/>
-      <c r="E31" s="31"/>
-      <c r="F31" s="31"/>
-      <c r="G31" s="31"/>
-      <c r="H31" s="17"/>
-      <c r="I31" s="17"/>
-      <c r="J31" s="31"/>
+      <c r="B31" s="5">
+        <v>13</v>
+      </c>
+      <c r="C31" s="25" t="s">
+        <v>140</v>
+      </c>
+      <c r="D31" s="38" t="s">
+        <v>141</v>
+      </c>
+      <c r="E31" s="34" t="s">
+        <v>142</v>
+      </c>
+      <c r="F31" s="25"/>
+      <c r="G31" s="25" t="s">
+        <v>143</v>
+      </c>
+      <c r="H31" s="25"/>
+      <c r="I31" s="27"/>
+      <c r="J31" s="25"/>
       <c r="K31" s="2"/>
       <c r="L31" s="2"/>
       <c r="M31" s="2"/>
@@ -3606,7 +3636,7 @@
       <c r="D32" s="31"/>
       <c r="E32" s="31"/>
       <c r="F32" s="31"/>
-      <c r="G32" s="30"/>
+      <c r="G32" s="31"/>
       <c r="H32" s="17"/>
       <c r="I32" s="17"/>
       <c r="J32" s="31"/>
@@ -3628,17 +3658,15 @@
     </row>
     <row r="33" spans="1:25" ht="15.75" customHeight="1">
       <c r="A33" s="17"/>
-      <c r="B33" s="47" t="s">
-        <v>120</v>
-      </c>
-      <c r="C33" s="48"/>
-      <c r="D33" s="48"/>
-      <c r="E33" s="48"/>
-      <c r="F33" s="48"/>
-      <c r="G33" s="48"/>
-      <c r="H33" s="48"/>
-      <c r="I33" s="48"/>
-      <c r="J33" s="48"/>
+      <c r="B33" s="31"/>
+      <c r="C33" s="31"/>
+      <c r="D33" s="31"/>
+      <c r="E33" s="31"/>
+      <c r="F33" s="31"/>
+      <c r="G33" s="30"/>
+      <c r="H33" s="17"/>
+      <c r="I33" s="17"/>
+      <c r="J33" s="31"/>
       <c r="K33" s="2"/>
       <c r="L33" s="2"/>
       <c r="M33" s="2"/>
@@ -3657,33 +3685,17 @@
     </row>
     <row r="34" spans="1:25" ht="15.75" customHeight="1">
       <c r="A34" s="17"/>
-      <c r="B34" s="25" t="s">
-        <v>65</v>
-      </c>
-      <c r="C34" s="25" t="s">
-        <v>66</v>
-      </c>
-      <c r="D34" s="25" t="s">
-        <v>68</v>
-      </c>
-      <c r="E34" s="25" t="s">
-        <v>11</v>
-      </c>
-      <c r="F34" s="25" t="s">
-        <v>67</v>
-      </c>
-      <c r="G34" s="25" t="s">
-        <v>9</v>
-      </c>
-      <c r="H34" s="25" t="s">
-        <v>86</v>
-      </c>
-      <c r="I34" s="25" t="s">
-        <v>69</v>
-      </c>
-      <c r="J34" s="25" t="s">
-        <v>70</v>
-      </c>
+      <c r="B34" s="48" t="s">
+        <v>119</v>
+      </c>
+      <c r="C34" s="49"/>
+      <c r="D34" s="49"/>
+      <c r="E34" s="49"/>
+      <c r="F34" s="49"/>
+      <c r="G34" s="49"/>
+      <c r="H34" s="49"/>
+      <c r="I34" s="49"/>
+      <c r="J34" s="49"/>
       <c r="K34" s="2"/>
       <c r="L34" s="2"/>
       <c r="M34" s="2"/>
@@ -3701,29 +3713,33 @@
       <c r="Y34" s="2"/>
     </row>
     <row r="35" spans="1:25" ht="15.75" customHeight="1">
-      <c r="A35" s="3"/>
-      <c r="B35" s="5">
-        <v>1</v>
-      </c>
-      <c r="C35" s="19" t="s">
-        <v>114</v>
-      </c>
-      <c r="D35" s="20" t="s">
-        <v>32</v>
-      </c>
-      <c r="E35" s="19" t="s">
-        <v>19</v>
-      </c>
-      <c r="F35" s="8"/>
-      <c r="G35" s="6" t="s">
-        <v>74</v>
-      </c>
-      <c r="H35" s="21" t="s">
-        <v>72</v>
-      </c>
-      <c r="I35" s="9"/>
-      <c r="J35" s="22" t="s">
-        <v>118</v>
+      <c r="A35" s="17"/>
+      <c r="B35" s="25" t="s">
+        <v>64</v>
+      </c>
+      <c r="C35" s="25" t="s">
+        <v>65</v>
+      </c>
+      <c r="D35" s="25" t="s">
+        <v>67</v>
+      </c>
+      <c r="E35" s="25" t="s">
+        <v>11</v>
+      </c>
+      <c r="F35" s="25" t="s">
+        <v>66</v>
+      </c>
+      <c r="G35" s="25" t="s">
+        <v>9</v>
+      </c>
+      <c r="H35" s="25" t="s">
+        <v>85</v>
+      </c>
+      <c r="I35" s="25" t="s">
+        <v>68</v>
+      </c>
+      <c r="J35" s="25" t="s">
+        <v>69</v>
       </c>
       <c r="K35" s="2"/>
       <c r="L35" s="2"/>
@@ -3744,25 +3760,27 @@
     <row r="36" spans="1:25" ht="15.75" customHeight="1">
       <c r="A36" s="3"/>
       <c r="B36" s="5">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C36" s="19" t="s">
-        <v>115</v>
-      </c>
-      <c r="D36" s="19" t="s">
-        <v>25</v>
+        <v>113</v>
+      </c>
+      <c r="D36" s="20" t="s">
+        <v>31</v>
       </c>
       <c r="E36" s="19" t="s">
-        <v>38</v>
+        <v>18</v>
       </c>
       <c r="F36" s="8"/>
       <c r="G36" s="6" t="s">
-        <v>74</v>
-      </c>
-      <c r="H36" s="9"/>
+        <v>73</v>
+      </c>
+      <c r="H36" s="21" t="s">
+        <v>71</v>
+      </c>
       <c r="I36" s="9"/>
-      <c r="J36" s="19" t="s">
-        <v>0</v>
+      <c r="J36" s="22" t="s">
+        <v>117</v>
       </c>
       <c r="K36" s="2"/>
       <c r="L36" s="2"/>
@@ -3783,26 +3801,26 @@
     <row r="37" spans="1:25" ht="15.75" customHeight="1">
       <c r="A37" s="3"/>
       <c r="B37" s="5">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C37" s="19" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="D37" s="19" t="s">
-        <v>27</v>
-      </c>
-      <c r="E37" s="8" t="s">
-        <v>87</v>
-      </c>
-      <c r="F37" s="8">
-        <v>2000</v>
-      </c>
+        <v>24</v>
+      </c>
+      <c r="E37" s="19" t="s">
+        <v>37</v>
+      </c>
+      <c r="F37" s="8"/>
       <c r="G37" s="6" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="H37" s="9"/>
       <c r="I37" s="9"/>
-      <c r="J37" s="10"/>
+      <c r="J37" s="19" t="s">
+        <v>0</v>
+      </c>
       <c r="K37" s="2"/>
       <c r="L37" s="2"/>
       <c r="M37" s="2"/>
@@ -3820,16 +3838,28 @@
       <c r="Y37" s="2"/>
     </row>
     <row r="38" spans="1:25" ht="15.75" customHeight="1">
-      <c r="A38" s="17"/>
-      <c r="B38" s="18"/>
-      <c r="C38" s="29"/>
-      <c r="D38" s="29"/>
-      <c r="E38" s="18"/>
-      <c r="F38" s="18"/>
-      <c r="G38" s="18"/>
-      <c r="H38" s="17"/>
-      <c r="I38" s="17"/>
-      <c r="J38" s="31"/>
+      <c r="A38" s="3"/>
+      <c r="B38" s="5">
+        <v>3</v>
+      </c>
+      <c r="C38" s="19" t="s">
+        <v>115</v>
+      </c>
+      <c r="D38" s="19" t="s">
+        <v>26</v>
+      </c>
+      <c r="E38" s="8" t="s">
+        <v>86</v>
+      </c>
+      <c r="F38" s="8">
+        <v>2000</v>
+      </c>
+      <c r="G38" s="6" t="s">
+        <v>73</v>
+      </c>
+      <c r="H38" s="9"/>
+      <c r="I38" s="9"/>
+      <c r="J38" s="10"/>
       <c r="K38" s="2"/>
       <c r="L38" s="2"/>
       <c r="M38" s="2"/>
@@ -3847,16 +3877,16 @@
       <c r="Y38" s="2"/>
     </row>
     <row r="39" spans="1:25" ht="15.75" customHeight="1">
-      <c r="A39" s="3"/>
-      <c r="B39" s="11"/>
-      <c r="C39" s="12"/>
-      <c r="D39" s="12"/>
-      <c r="E39" s="12"/>
-      <c r="F39" s="12"/>
-      <c r="G39" s="13"/>
-      <c r="H39" s="14"/>
-      <c r="I39" s="14"/>
-      <c r="J39" s="15"/>
+      <c r="A39" s="17"/>
+      <c r="B39" s="18"/>
+      <c r="C39" s="29"/>
+      <c r="D39" s="29"/>
+      <c r="E39" s="18"/>
+      <c r="F39" s="18"/>
+      <c r="G39" s="18"/>
+      <c r="H39" s="17"/>
+      <c r="I39" s="17"/>
+      <c r="J39" s="31"/>
       <c r="K39" s="2"/>
       <c r="L39" s="2"/>
       <c r="M39" s="2"/>
@@ -3875,17 +3905,15 @@
     </row>
     <row r="40" spans="1:25" ht="15.75" customHeight="1">
       <c r="A40" s="3"/>
-      <c r="B40" s="47" t="s">
-        <v>5</v>
-      </c>
-      <c r="C40" s="48"/>
-      <c r="D40" s="48"/>
-      <c r="E40" s="48"/>
-      <c r="F40" s="48"/>
-      <c r="G40" s="48"/>
-      <c r="H40" s="48"/>
-      <c r="I40" s="48"/>
-      <c r="J40" s="48"/>
+      <c r="B40" s="11"/>
+      <c r="C40" s="12"/>
+      <c r="D40" s="12"/>
+      <c r="E40" s="12"/>
+      <c r="F40" s="12"/>
+      <c r="G40" s="13"/>
+      <c r="H40" s="14"/>
+      <c r="I40" s="14"/>
+      <c r="J40" s="15"/>
       <c r="K40" s="2"/>
       <c r="L40" s="2"/>
       <c r="M40" s="2"/>
@@ -3904,33 +3932,17 @@
     </row>
     <row r="41" spans="1:25" ht="15.75" customHeight="1">
       <c r="A41" s="3"/>
-      <c r="B41" s="25" t="s">
-        <v>65</v>
-      </c>
-      <c r="C41" s="25" t="s">
-        <v>66</v>
-      </c>
-      <c r="D41" s="25" t="s">
-        <v>68</v>
-      </c>
-      <c r="E41" s="25" t="s">
-        <v>11</v>
-      </c>
-      <c r="F41" s="25" t="s">
-        <v>67</v>
-      </c>
-      <c r="G41" s="25" t="s">
-        <v>9</v>
-      </c>
-      <c r="H41" s="25" t="s">
-        <v>86</v>
-      </c>
-      <c r="I41" s="25" t="s">
-        <v>69</v>
-      </c>
-      <c r="J41" s="25" t="s">
-        <v>70</v>
-      </c>
+      <c r="B41" s="48" t="s">
+        <v>5</v>
+      </c>
+      <c r="C41" s="49"/>
+      <c r="D41" s="49"/>
+      <c r="E41" s="49"/>
+      <c r="F41" s="49"/>
+      <c r="G41" s="49"/>
+      <c r="H41" s="49"/>
+      <c r="I41" s="49"/>
+      <c r="J41" s="49"/>
       <c r="K41" s="2"/>
       <c r="L41" s="2"/>
       <c r="M41" s="2"/>
@@ -3949,30 +3961,32 @@
     </row>
     <row r="42" spans="1:25" ht="15.75" customHeight="1">
       <c r="A42" s="3"/>
-      <c r="B42" s="25">
-        <v>1</v>
+      <c r="B42" s="25" t="s">
+        <v>64</v>
       </c>
       <c r="C42" s="25" t="s">
-        <v>92</v>
-      </c>
-      <c r="D42" s="26" t="s">
-        <v>23</v>
-      </c>
-      <c r="E42" s="19" t="s">
-        <v>19</v>
-      </c>
-      <c r="F42" s="25"/>
+        <v>65</v>
+      </c>
+      <c r="D42" s="25" t="s">
+        <v>67</v>
+      </c>
+      <c r="E42" s="25" t="s">
+        <v>11</v>
+      </c>
+      <c r="F42" s="25" t="s">
+        <v>66</v>
+      </c>
       <c r="G42" s="25" t="s">
-        <v>74</v>
+        <v>9</v>
       </c>
       <c r="H42" s="25" t="s">
-        <v>72</v>
+        <v>85</v>
       </c>
       <c r="I42" s="25" t="s">
-        <v>73</v>
-      </c>
-      <c r="J42" s="26" t="s">
-        <v>63</v>
+        <v>68</v>
+      </c>
+      <c r="J42" s="25" t="s">
+        <v>69</v>
       </c>
       <c r="K42" s="2"/>
       <c r="L42" s="2"/>
@@ -3993,27 +4007,29 @@
     <row r="43" spans="1:25" ht="15.75" customHeight="1">
       <c r="A43" s="3"/>
       <c r="B43" s="25">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C43" s="25" t="s">
-        <v>30</v>
+        <v>91</v>
       </c>
       <c r="D43" s="26" t="s">
         <v>22</v>
       </c>
-      <c r="E43" s="25" t="s">
-        <v>87</v>
-      </c>
-      <c r="F43" s="24">
-        <v>10</v>
-      </c>
+      <c r="E43" s="19" t="s">
+        <v>18</v>
+      </c>
+      <c r="F43" s="25"/>
       <c r="G43" s="25" t="s">
-        <v>74</v>
-      </c>
-      <c r="H43" s="25"/>
-      <c r="I43" s="27"/>
-      <c r="J43" s="25" t="s">
-        <v>95</v>
+        <v>73</v>
+      </c>
+      <c r="H43" s="25" t="s">
+        <v>71</v>
+      </c>
+      <c r="I43" s="25" t="s">
+        <v>72</v>
+      </c>
+      <c r="J43" s="26" t="s">
+        <v>62</v>
       </c>
       <c r="K43" s="2"/>
       <c r="L43" s="2"/>
@@ -4034,26 +4050,28 @@
     <row r="44" spans="1:25" ht="15.75" customHeight="1">
       <c r="A44" s="3"/>
       <c r="B44" s="25">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C44" s="25" t="s">
-        <v>105</v>
+        <v>29</v>
       </c>
       <c r="D44" s="26" t="s">
-        <v>31</v>
+        <v>21</v>
       </c>
       <c r="E44" s="25" t="s">
-        <v>87</v>
-      </c>
-      <c r="F44" s="25">
-        <v>20</v>
+        <v>86</v>
+      </c>
+      <c r="F44" s="24">
+        <v>10</v>
       </c>
       <c r="G44" s="25" t="s">
-        <v>74</v>
-      </c>
-      <c r="H44" s="24"/>
-      <c r="I44" s="24"/>
-      <c r="J44" s="26"/>
+        <v>73</v>
+      </c>
+      <c r="H44" s="25"/>
+      <c r="I44" s="27"/>
+      <c r="J44" s="25" t="s">
+        <v>94</v>
+      </c>
       <c r="K44" s="2"/>
       <c r="L44" s="2"/>
       <c r="M44" s="2"/>
@@ -4073,26 +4091,26 @@
     <row r="45" spans="1:25" ht="15.75" customHeight="1">
       <c r="A45" s="3"/>
       <c r="B45" s="25">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C45" s="25" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="D45" s="26" t="s">
-        <v>81</v>
-      </c>
-      <c r="E45" s="19" t="s">
-        <v>19</v>
-      </c>
-      <c r="F45" s="25"/>
+        <v>30</v>
+      </c>
+      <c r="E45" s="25" t="s">
+        <v>86</v>
+      </c>
+      <c r="F45" s="25">
+        <v>20</v>
+      </c>
       <c r="G45" s="25" t="s">
-        <v>74</v>
-      </c>
-      <c r="H45" s="25"/>
+        <v>73</v>
+      </c>
+      <c r="H45" s="24"/>
       <c r="I45" s="24"/>
-      <c r="J45" s="23" t="s">
-        <v>90</v>
-      </c>
+      <c r="J45" s="26"/>
       <c r="K45" s="2"/>
       <c r="L45" s="2"/>
       <c r="M45" s="2"/>
@@ -4112,27 +4130,25 @@
     <row r="46" spans="1:25" ht="15.75" customHeight="1">
       <c r="A46" s="3"/>
       <c r="B46" s="25">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C46" s="25" t="s">
-        <v>57</v>
+        <v>105</v>
       </c>
       <c r="D46" s="26" t="s">
-        <v>24</v>
-      </c>
-      <c r="E46" s="25" t="s">
-        <v>87</v>
-      </c>
-      <c r="F46" s="25">
-        <v>2000</v>
-      </c>
+        <v>80</v>
+      </c>
+      <c r="E46" s="19" t="s">
+        <v>18</v>
+      </c>
+      <c r="F46" s="25"/>
       <c r="G46" s="25" t="s">
-        <v>74</v>
-      </c>
-      <c r="H46" s="24"/>
+        <v>73</v>
+      </c>
+      <c r="H46" s="25"/>
       <c r="I46" s="24"/>
-      <c r="J46" s="25" t="s">
-        <v>2</v>
+      <c r="J46" s="23" t="s">
+        <v>89</v>
       </c>
       <c r="K46" s="2"/>
       <c r="L46" s="2"/>
@@ -4153,27 +4169,27 @@
     <row r="47" spans="1:25" ht="15.75" customHeight="1">
       <c r="A47" s="3"/>
       <c r="B47" s="25">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C47" s="25" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="D47" s="26" t="s">
-        <v>104</v>
+        <v>23</v>
       </c>
       <c r="E47" s="25" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="F47" s="25">
-        <v>50</v>
+        <v>2000</v>
       </c>
       <c r="G47" s="25" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="H47" s="24"/>
       <c r="I47" s="24"/>
       <c r="J47" s="25" t="s">
-        <v>100</v>
+        <v>2</v>
       </c>
       <c r="K47" s="2"/>
       <c r="L47" s="2"/>
@@ -4194,27 +4210,27 @@
     <row r="48" spans="1:25" ht="15.75" customHeight="1">
       <c r="A48" s="3"/>
       <c r="B48" s="25">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C48" s="25" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="D48" s="26" t="s">
-        <v>50</v>
+        <v>103</v>
       </c>
       <c r="E48" s="25" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="F48" s="25">
         <v>50</v>
       </c>
       <c r="G48" s="25" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="H48" s="24"/>
       <c r="I48" s="24"/>
       <c r="J48" s="25" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="K48" s="2"/>
       <c r="L48" s="2"/>
@@ -4235,27 +4251,27 @@
     <row r="49" spans="1:25" ht="15.75" customHeight="1">
       <c r="A49" s="3"/>
       <c r="B49" s="25">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C49" s="25" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="D49" s="26" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="E49" s="25" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="F49" s="25">
         <v>50</v>
       </c>
       <c r="G49" s="25" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="H49" s="24"/>
       <c r="I49" s="24"/>
       <c r="J49" s="25" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="K49" s="2"/>
       <c r="L49" s="2"/>
@@ -4276,27 +4292,27 @@
     <row r="50" spans="1:25" ht="15.75" customHeight="1">
       <c r="A50" s="3"/>
       <c r="B50" s="25">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C50" s="25" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="D50" s="26" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="E50" s="25" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="F50" s="25">
         <v>50</v>
       </c>
       <c r="G50" s="25" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="H50" s="24"/>
       <c r="I50" s="24"/>
       <c r="J50" s="25" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="K50" s="2"/>
       <c r="L50" s="2"/>
@@ -4316,15 +4332,29 @@
     </row>
     <row r="51" spans="1:25" ht="15.75" customHeight="1">
       <c r="A51" s="3"/>
-      <c r="B51" s="29"/>
-      <c r="C51" s="29"/>
-      <c r="D51" s="30"/>
-      <c r="E51" s="29"/>
-      <c r="F51" s="29"/>
-      <c r="G51" s="29"/>
-      <c r="H51" s="29"/>
-      <c r="I51" s="17"/>
-      <c r="J51" s="29"/>
+      <c r="B51" s="25">
+        <v>9</v>
+      </c>
+      <c r="C51" s="25" t="s">
+        <v>55</v>
+      </c>
+      <c r="D51" s="26" t="s">
+        <v>51</v>
+      </c>
+      <c r="E51" s="25" t="s">
+        <v>86</v>
+      </c>
+      <c r="F51" s="25">
+        <v>50</v>
+      </c>
+      <c r="G51" s="25" t="s">
+        <v>73</v>
+      </c>
+      <c r="H51" s="24"/>
+      <c r="I51" s="24"/>
+      <c r="J51" s="25" t="s">
+        <v>99</v>
+      </c>
       <c r="K51" s="2"/>
       <c r="L51" s="2"/>
       <c r="M51" s="2"/>
@@ -4349,7 +4379,7 @@
       <c r="E52" s="29"/>
       <c r="F52" s="29"/>
       <c r="G52" s="29"/>
-      <c r="H52" s="17"/>
+      <c r="H52" s="29"/>
       <c r="I52" s="17"/>
       <c r="J52" s="29"/>
       <c r="K52" s="2"/>
@@ -4370,17 +4400,15 @@
     </row>
     <row r="53" spans="1:25" ht="15.75" customHeight="1">
       <c r="A53" s="3"/>
-      <c r="B53" s="47" t="s">
-        <v>64</v>
-      </c>
-      <c r="C53" s="48"/>
-      <c r="D53" s="48"/>
-      <c r="E53" s="48"/>
-      <c r="F53" s="48"/>
-      <c r="G53" s="48"/>
-      <c r="H53" s="48"/>
-      <c r="I53" s="48"/>
-      <c r="J53" s="48"/>
+      <c r="B53" s="29"/>
+      <c r="C53" s="29"/>
+      <c r="D53" s="30"/>
+      <c r="E53" s="29"/>
+      <c r="F53" s="29"/>
+      <c r="G53" s="29"/>
+      <c r="H53" s="17"/>
+      <c r="I53" s="17"/>
+      <c r="J53" s="29"/>
       <c r="K53" s="2"/>
       <c r="L53" s="2"/>
       <c r="M53" s="2"/>
@@ -4399,33 +4427,17 @@
     </row>
     <row r="54" spans="1:25" ht="15.75" customHeight="1">
       <c r="A54" s="3"/>
-      <c r="B54" s="25" t="s">
-        <v>65</v>
-      </c>
-      <c r="C54" s="25" t="s">
-        <v>66</v>
-      </c>
-      <c r="D54" s="25" t="s">
-        <v>68</v>
-      </c>
-      <c r="E54" s="25" t="s">
-        <v>11</v>
-      </c>
-      <c r="F54" s="25" t="s">
-        <v>67</v>
-      </c>
-      <c r="G54" s="25" t="s">
-        <v>9</v>
-      </c>
-      <c r="H54" s="25" t="s">
-        <v>86</v>
-      </c>
-      <c r="I54" s="25" t="s">
-        <v>69</v>
-      </c>
-      <c r="J54" s="25" t="s">
-        <v>70</v>
-      </c>
+      <c r="B54" s="48" t="s">
+        <v>63</v>
+      </c>
+      <c r="C54" s="49"/>
+      <c r="D54" s="49"/>
+      <c r="E54" s="49"/>
+      <c r="F54" s="49"/>
+      <c r="G54" s="49"/>
+      <c r="H54" s="49"/>
+      <c r="I54" s="49"/>
+      <c r="J54" s="49"/>
       <c r="K54" s="2"/>
       <c r="L54" s="2"/>
       <c r="M54" s="2"/>
@@ -4444,30 +4456,32 @@
     </row>
     <row r="55" spans="1:25" ht="15.75" customHeight="1">
       <c r="A55" s="3"/>
-      <c r="B55" s="25">
-        <v>1</v>
+      <c r="B55" s="25" t="s">
+        <v>64</v>
       </c>
       <c r="C55" s="25" t="s">
-        <v>94</v>
-      </c>
-      <c r="D55" s="26" t="s">
-        <v>26</v>
-      </c>
-      <c r="E55" s="19" t="s">
-        <v>19</v>
-      </c>
-      <c r="F55" s="25"/>
+        <v>65</v>
+      </c>
+      <c r="D55" s="25" t="s">
+        <v>67</v>
+      </c>
+      <c r="E55" s="25" t="s">
+        <v>11</v>
+      </c>
+      <c r="F55" s="25" t="s">
+        <v>66</v>
+      </c>
       <c r="G55" s="25" t="s">
-        <v>74</v>
+        <v>9</v>
       </c>
       <c r="H55" s="25" t="s">
-        <v>72</v>
+        <v>85</v>
       </c>
       <c r="I55" s="25" t="s">
-        <v>84</v>
-      </c>
-      <c r="J55" s="26" t="s">
-        <v>62</v>
+        <v>68</v>
+      </c>
+      <c r="J55" s="25" t="s">
+        <v>69</v>
       </c>
       <c r="K55" s="2"/>
       <c r="L55" s="2"/>
@@ -4488,31 +4502,29 @@
     <row r="56" spans="1:25" ht="15.75" customHeight="1">
       <c r="A56" s="3"/>
       <c r="B56" s="25">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C56" s="25" t="s">
-        <v>17</v>
+        <v>93</v>
       </c>
       <c r="D56" s="26" t="s">
+        <v>25</v>
+      </c>
+      <c r="E56" s="19" t="s">
+        <v>18</v>
+      </c>
+      <c r="F56" s="25"/>
+      <c r="G56" s="25" t="s">
+        <v>73</v>
+      </c>
+      <c r="H56" s="25" t="s">
         <v>71</v>
       </c>
-      <c r="E56" s="25" t="s">
-        <v>87</v>
-      </c>
-      <c r="F56" s="24">
-        <v>50</v>
-      </c>
-      <c r="G56" s="25" t="s">
-        <v>74</v>
-      </c>
-      <c r="H56" s="25" t="s">
-        <v>72</v>
-      </c>
-      <c r="I56" s="27" t="s">
-        <v>85</v>
-      </c>
-      <c r="J56" s="25" t="s">
-        <v>20</v>
+      <c r="I56" s="25" t="s">
+        <v>83</v>
+      </c>
+      <c r="J56" s="26" t="s">
+        <v>61</v>
       </c>
       <c r="K56" s="2"/>
       <c r="L56" s="2"/>
@@ -4533,26 +4545,32 @@
     <row r="57" spans="1:25" ht="15.75" customHeight="1">
       <c r="A57" s="3"/>
       <c r="B57" s="25">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C57" s="25" t="s">
         <v>16</v>
       </c>
       <c r="D57" s="26" t="s">
-        <v>28</v>
+        <v>70</v>
       </c>
       <c r="E57" s="25" t="s">
-        <v>87</v>
-      </c>
-      <c r="F57" s="25">
+        <v>86</v>
+      </c>
+      <c r="F57" s="24">
         <v>50</v>
       </c>
       <c r="G57" s="25" t="s">
-        <v>74</v>
-      </c>
-      <c r="H57" s="24"/>
-      <c r="I57" s="24"/>
-      <c r="J57" s="26"/>
+        <v>73</v>
+      </c>
+      <c r="H57" s="25" t="s">
+        <v>71</v>
+      </c>
+      <c r="I57" s="27" t="s">
+        <v>84</v>
+      </c>
+      <c r="J57" s="25" t="s">
+        <v>19</v>
+      </c>
       <c r="K57" s="2"/>
       <c r="L57" s="2"/>
       <c r="M57" s="2"/>
@@ -4572,28 +4590,26 @@
     <row r="58" spans="1:25" ht="15.75" customHeight="1">
       <c r="A58" s="3"/>
       <c r="B58" s="25">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C58" s="25" t="s">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="D58" s="26" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="E58" s="25" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="F58" s="25">
-        <v>10</v>
+        <v>50</v>
       </c>
       <c r="G58" s="25" t="s">
-        <v>74</v>
-      </c>
-      <c r="H58" s="25"/>
+        <v>73</v>
+      </c>
+      <c r="H58" s="24"/>
       <c r="I58" s="24"/>
-      <c r="J58" s="25" t="s">
-        <v>4</v>
-      </c>
+      <c r="J58" s="26"/>
       <c r="K58" s="2"/>
       <c r="L58" s="2"/>
       <c r="M58" s="2"/>
@@ -4613,25 +4629,27 @@
     <row r="59" spans="1:25" ht="15.75" customHeight="1">
       <c r="A59" s="3"/>
       <c r="B59" s="25">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C59" s="25" t="s">
-        <v>35</v>
+        <v>20</v>
       </c>
       <c r="D59" s="26" t="s">
-        <v>80</v>
+        <v>28</v>
       </c>
       <c r="E59" s="25" t="s">
-        <v>38</v>
-      </c>
-      <c r="F59" s="25"/>
+        <v>86</v>
+      </c>
+      <c r="F59" s="25">
+        <v>10</v>
+      </c>
       <c r="G59" s="25" t="s">
-        <v>74</v>
-      </c>
-      <c r="H59" s="24"/>
+        <v>73</v>
+      </c>
+      <c r="H59" s="25"/>
       <c r="I59" s="24"/>
-      <c r="J59" s="23" t="s">
-        <v>58</v>
+      <c r="J59" s="25" t="s">
+        <v>4</v>
       </c>
       <c r="K59" s="2"/>
       <c r="L59" s="2"/>
@@ -4652,26 +4670,26 @@
     <row r="60" spans="1:25" ht="15.75" customHeight="1">
       <c r="A60" s="3"/>
       <c r="B60" s="25">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C60" s="25" t="s">
-        <v>103</v>
+        <v>34</v>
       </c>
       <c r="D60" s="26" t="s">
+        <v>79</v>
+      </c>
+      <c r="E60" s="25" t="s">
         <v>37</v>
       </c>
-      <c r="E60" s="25" t="s">
-        <v>87</v>
-      </c>
-      <c r="F60" s="25">
-        <v>2000</v>
-      </c>
+      <c r="F60" s="25"/>
       <c r="G60" s="25" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="H60" s="24"/>
       <c r="I60" s="24"/>
-      <c r="J60" s="25"/>
+      <c r="J60" s="23" t="s">
+        <v>57</v>
+      </c>
       <c r="K60" s="2"/>
       <c r="L60" s="2"/>
       <c r="M60" s="2"/>
@@ -4690,15 +4708,27 @@
     </row>
     <row r="61" spans="1:25" ht="15.75" customHeight="1">
       <c r="A61" s="3"/>
-      <c r="B61" s="29"/>
-      <c r="C61" s="29"/>
-      <c r="D61" s="30"/>
-      <c r="E61" s="29"/>
-      <c r="F61" s="29"/>
-      <c r="G61" s="29"/>
-      <c r="H61" s="29"/>
-      <c r="I61" s="17"/>
-      <c r="J61" s="29"/>
+      <c r="B61" s="25">
+        <v>6</v>
+      </c>
+      <c r="C61" s="25" t="s">
+        <v>102</v>
+      </c>
+      <c r="D61" s="26" t="s">
+        <v>36</v>
+      </c>
+      <c r="E61" s="25" t="s">
+        <v>86</v>
+      </c>
+      <c r="F61" s="25">
+        <v>2000</v>
+      </c>
+      <c r="G61" s="25" t="s">
+        <v>73</v>
+      </c>
+      <c r="H61" s="24"/>
+      <c r="I61" s="24"/>
+      <c r="J61" s="25"/>
       <c r="K61" s="2"/>
       <c r="L61" s="2"/>
       <c r="M61" s="2"/>
@@ -4719,13 +4749,13 @@
       <c r="A62" s="3"/>
       <c r="B62" s="29"/>
       <c r="C62" s="29"/>
-      <c r="D62" s="29"/>
+      <c r="D62" s="30"/>
       <c r="E62" s="29"/>
       <c r="F62" s="29"/>
       <c r="G62" s="29"/>
-      <c r="H62" s="17"/>
+      <c r="H62" s="29"/>
       <c r="I62" s="17"/>
-      <c r="J62" s="28"/>
+      <c r="J62" s="29"/>
       <c r="K62" s="2"/>
       <c r="L62" s="2"/>
       <c r="M62" s="2"/>
@@ -4744,17 +4774,15 @@
     </row>
     <row r="63" spans="1:25" ht="15.75" customHeight="1">
       <c r="A63" s="3"/>
-      <c r="B63" s="47" t="s">
-        <v>140</v>
-      </c>
-      <c r="C63" s="48"/>
-      <c r="D63" s="48"/>
-      <c r="E63" s="48"/>
-      <c r="F63" s="48"/>
-      <c r="G63" s="48"/>
-      <c r="H63" s="48"/>
-      <c r="I63" s="48"/>
-      <c r="J63" s="48"/>
+      <c r="B63" s="29"/>
+      <c r="C63" s="29"/>
+      <c r="D63" s="29"/>
+      <c r="E63" s="29"/>
+      <c r="F63" s="29"/>
+      <c r="G63" s="29"/>
+      <c r="H63" s="17"/>
+      <c r="I63" s="17"/>
+      <c r="J63" s="28"/>
       <c r="K63" s="2"/>
       <c r="L63" s="2"/>
       <c r="M63" s="2"/>
@@ -4773,33 +4801,17 @@
     </row>
     <row r="64" spans="1:25" ht="15.75" customHeight="1">
       <c r="A64" s="3"/>
-      <c r="B64" s="25" t="s">
-        <v>65</v>
-      </c>
-      <c r="C64" s="25" t="s">
-        <v>66</v>
-      </c>
-      <c r="D64" s="25" t="s">
-        <v>68</v>
-      </c>
-      <c r="E64" s="25" t="s">
-        <v>11</v>
-      </c>
-      <c r="F64" s="25" t="s">
-        <v>67</v>
-      </c>
-      <c r="G64" s="25" t="s">
-        <v>9</v>
-      </c>
-      <c r="H64" s="25" t="s">
-        <v>86</v>
-      </c>
-      <c r="I64" s="25" t="s">
-        <v>69</v>
-      </c>
-      <c r="J64" s="25" t="s">
-        <v>70</v>
-      </c>
+      <c r="B64" s="48" t="s">
+        <v>139</v>
+      </c>
+      <c r="C64" s="49"/>
+      <c r="D64" s="49"/>
+      <c r="E64" s="49"/>
+      <c r="F64" s="49"/>
+      <c r="G64" s="49"/>
+      <c r="H64" s="49"/>
+      <c r="I64" s="49"/>
+      <c r="J64" s="49"/>
       <c r="K64" s="2"/>
       <c r="L64" s="2"/>
       <c r="M64" s="2"/>
@@ -4818,30 +4830,32 @@
     </row>
     <row r="65" spans="1:25" ht="15.75" customHeight="1">
       <c r="A65" s="3"/>
-      <c r="B65" s="25">
-        <v>1</v>
+      <c r="B65" s="25" t="s">
+        <v>64</v>
       </c>
       <c r="C65" s="25" t="s">
-        <v>91</v>
-      </c>
-      <c r="D65" s="26" t="s">
-        <v>34</v>
-      </c>
-      <c r="E65" s="19" t="s">
-        <v>19</v>
-      </c>
-      <c r="F65" s="25"/>
+        <v>65</v>
+      </c>
+      <c r="D65" s="25" t="s">
+        <v>67</v>
+      </c>
+      <c r="E65" s="25" t="s">
+        <v>11</v>
+      </c>
+      <c r="F65" s="25" t="s">
+        <v>66</v>
+      </c>
       <c r="G65" s="25" t="s">
-        <v>74</v>
+        <v>9</v>
       </c>
       <c r="H65" s="25" t="s">
-        <v>72</v>
+        <v>85</v>
       </c>
       <c r="I65" s="25" t="s">
-        <v>84</v>
-      </c>
-      <c r="J65" s="26" t="s">
-        <v>61</v>
+        <v>68</v>
+      </c>
+      <c r="J65" s="25" t="s">
+        <v>69</v>
       </c>
       <c r="K65" s="2"/>
       <c r="L65" s="2"/>
@@ -4862,26 +4876,30 @@
     <row r="66" spans="1:25" ht="15.75" customHeight="1">
       <c r="A66" s="3"/>
       <c r="B66" s="25">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C66" s="25" t="s">
+        <v>90</v>
+      </c>
+      <c r="D66" s="26" t="s">
+        <v>33</v>
+      </c>
+      <c r="E66" s="19" t="s">
         <v>18</v>
       </c>
-      <c r="D66" s="26" t="s">
-        <v>79</v>
-      </c>
-      <c r="E66" s="25" t="s">
-        <v>87</v>
-      </c>
-      <c r="F66" s="24">
-        <v>50</v>
-      </c>
+      <c r="F66" s="25"/>
       <c r="G66" s="25" t="s">
-        <v>74</v>
-      </c>
-      <c r="H66" s="25"/>
-      <c r="I66" s="27"/>
-      <c r="J66" s="25"/>
+        <v>73</v>
+      </c>
+      <c r="H66" s="25" t="s">
+        <v>71</v>
+      </c>
+      <c r="I66" s="25" t="s">
+        <v>83</v>
+      </c>
+      <c r="J66" s="26" t="s">
+        <v>60</v>
+      </c>
       <c r="K66" s="2"/>
       <c r="L66" s="2"/>
       <c r="M66" s="2"/>
@@ -4901,26 +4919,26 @@
     <row r="67" spans="1:25" ht="15.75" customHeight="1">
       <c r="A67" s="3"/>
       <c r="B67" s="25">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C67" s="25" t="s">
-        <v>89</v>
+        <v>17</v>
       </c>
       <c r="D67" s="26" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="E67" s="25" t="s">
-        <v>87</v>
-      </c>
-      <c r="F67" s="25">
-        <v>2000</v>
+        <v>86</v>
+      </c>
+      <c r="F67" s="24">
+        <v>50</v>
       </c>
       <c r="G67" s="25" t="s">
-        <v>74</v>
-      </c>
-      <c r="H67" s="24"/>
-      <c r="I67" s="24"/>
-      <c r="J67" s="26"/>
+        <v>73</v>
+      </c>
+      <c r="H67" s="25"/>
+      <c r="I67" s="27"/>
+      <c r="J67" s="25"/>
       <c r="K67" s="2"/>
       <c r="L67" s="2"/>
       <c r="M67" s="2"/>
@@ -4940,28 +4958,26 @@
     <row r="68" spans="1:25" ht="15.75" customHeight="1">
       <c r="A68" s="3"/>
       <c r="B68" s="25">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C68" s="25" t="s">
-        <v>33</v>
+        <v>88</v>
       </c>
       <c r="D68" s="26" t="s">
         <v>75</v>
       </c>
       <c r="E68" s="25" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="F68" s="25">
-        <v>50</v>
+        <v>2000</v>
       </c>
       <c r="G68" s="25" t="s">
-        <v>72</v>
-      </c>
-      <c r="H68" s="25"/>
+        <v>73</v>
+      </c>
+      <c r="H68" s="24"/>
       <c r="I68" s="24"/>
-      <c r="J68" s="25" t="s">
-        <v>100</v>
-      </c>
+      <c r="J68" s="26"/>
       <c r="K68" s="2"/>
       <c r="L68" s="2"/>
       <c r="M68" s="2"/>
@@ -4981,25 +4997,27 @@
     <row r="69" spans="1:25" ht="15.75" customHeight="1">
       <c r="A69" s="3"/>
       <c r="B69" s="25">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C69" s="25" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="D69" s="26" t="s">
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="E69" s="25" t="s">
-        <v>38</v>
-      </c>
-      <c r="F69" s="25"/>
+        <v>86</v>
+      </c>
+      <c r="F69" s="25">
+        <v>50</v>
+      </c>
       <c r="G69" s="25" t="s">
-        <v>74</v>
-      </c>
-      <c r="H69" s="24"/>
+        <v>71</v>
+      </c>
+      <c r="H69" s="25"/>
       <c r="I69" s="24"/>
       <c r="J69" s="25" t="s">
-        <v>58</v>
+        <v>99</v>
       </c>
       <c r="K69" s="2"/>
       <c r="L69" s="2"/>
@@ -5020,27 +5038,25 @@
     <row r="70" spans="1:25" ht="15.75" customHeight="1">
       <c r="A70" s="3"/>
       <c r="B70" s="25">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C70" s="25" t="s">
-        <v>88</v>
+        <v>35</v>
       </c>
       <c r="D70" s="26" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="E70" s="25" t="s">
-        <v>87</v>
-      </c>
-      <c r="F70" s="25">
-        <v>20</v>
-      </c>
+        <v>37</v>
+      </c>
+      <c r="F70" s="25"/>
       <c r="G70" s="25" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="H70" s="24"/>
       <c r="I70" s="24"/>
-      <c r="J70" s="23" t="s">
-        <v>77</v>
+      <c r="J70" s="25" t="s">
+        <v>57</v>
       </c>
       <c r="K70" s="2"/>
       <c r="L70" s="2"/>
@@ -5060,15 +5076,29 @@
     </row>
     <row r="71" spans="1:25" ht="15.75" customHeight="1">
       <c r="A71" s="3"/>
-      <c r="B71" s="3"/>
-      <c r="C71" s="3"/>
-      <c r="D71" s="3"/>
-      <c r="E71" s="3"/>
-      <c r="F71" s="3"/>
-      <c r="G71" s="3"/>
-      <c r="H71" s="3"/>
-      <c r="I71" s="3"/>
-      <c r="J71" s="4"/>
+      <c r="B71" s="25">
+        <v>6</v>
+      </c>
+      <c r="C71" s="25" t="s">
+        <v>87</v>
+      </c>
+      <c r="D71" s="26" t="s">
+        <v>77</v>
+      </c>
+      <c r="E71" s="25" t="s">
+        <v>86</v>
+      </c>
+      <c r="F71" s="25">
+        <v>20</v>
+      </c>
+      <c r="G71" s="25" t="s">
+        <v>73</v>
+      </c>
+      <c r="H71" s="24"/>
+      <c r="I71" s="24"/>
+      <c r="J71" s="23" t="s">
+        <v>76</v>
+      </c>
       <c r="K71" s="2"/>
       <c r="L71" s="2"/>
       <c r="M71" s="2"/>
@@ -5087,17 +5117,15 @@
     </row>
     <row r="72" spans="1:25" ht="15.75" customHeight="1">
       <c r="A72" s="3"/>
-      <c r="B72" s="38" t="s">
-        <v>3</v>
-      </c>
-      <c r="C72" s="39"/>
-      <c r="D72" s="39"/>
-      <c r="E72" s="39"/>
-      <c r="F72" s="39"/>
-      <c r="G72" s="39"/>
-      <c r="H72" s="39"/>
-      <c r="I72" s="39"/>
-      <c r="J72" s="40"/>
+      <c r="B72" s="3"/>
+      <c r="C72" s="3"/>
+      <c r="D72" s="3"/>
+      <c r="E72" s="3"/>
+      <c r="F72" s="3"/>
+      <c r="G72" s="3"/>
+      <c r="H72" s="3"/>
+      <c r="I72" s="3"/>
+      <c r="J72" s="4"/>
       <c r="K72" s="2"/>
       <c r="L72" s="2"/>
       <c r="M72" s="2"/>
@@ -5114,98 +5142,115 @@
       <c r="X72" s="2"/>
       <c r="Y72" s="2"/>
     </row>
-    <row r="73" spans="1:25" ht="15" customHeight="1">
-      <c r="B73" s="5" t="s">
+    <row r="73" spans="1:25" ht="15.75" customHeight="1">
+      <c r="A73" s="3"/>
+      <c r="B73" s="39" t="s">
+        <v>3</v>
+      </c>
+      <c r="C73" s="40"/>
+      <c r="D73" s="40"/>
+      <c r="E73" s="40"/>
+      <c r="F73" s="40"/>
+      <c r="G73" s="40"/>
+      <c r="H73" s="40"/>
+      <c r="I73" s="40"/>
+      <c r="J73" s="41"/>
+      <c r="K73" s="2"/>
+      <c r="L73" s="2"/>
+      <c r="M73" s="2"/>
+      <c r="N73" s="2"/>
+      <c r="O73" s="2"/>
+      <c r="P73" s="2"/>
+      <c r="Q73" s="2"/>
+      <c r="R73" s="2"/>
+      <c r="S73" s="2"/>
+      <c r="T73" s="2"/>
+      <c r="U73" s="2"/>
+      <c r="V73" s="2"/>
+      <c r="W73" s="2"/>
+      <c r="X73" s="2"/>
+      <c r="Y73" s="2"/>
+    </row>
+    <row r="74" spans="1:25" ht="15" customHeight="1">
+      <c r="B74" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="C74" s="34" t="s">
         <v>65</v>
       </c>
-      <c r="C73" s="34" t="s">
+      <c r="D74" s="34" t="s">
+        <v>67</v>
+      </c>
+      <c r="E74" s="34" t="s">
+        <v>11</v>
+      </c>
+      <c r="F74" s="34" t="s">
         <v>66</v>
       </c>
-      <c r="D73" s="34" t="s">
+      <c r="G74" s="34" t="s">
+        <v>9</v>
+      </c>
+      <c r="H74" s="34" t="s">
+        <v>81</v>
+      </c>
+      <c r="I74" s="34" t="s">
         <v>68</v>
       </c>
-      <c r="E73" s="34" t="s">
-        <v>11</v>
-      </c>
-      <c r="F73" s="34" t="s">
-        <v>67</v>
-      </c>
-      <c r="G73" s="34" t="s">
-        <v>9</v>
-      </c>
-      <c r="H73" s="34" t="s">
-        <v>82</v>
-      </c>
-      <c r="I73" s="34" t="s">
+      <c r="J74" s="34" t="s">
         <v>69</v>
       </c>
-      <c r="J73" s="34" t="s">
-        <v>70</v>
-      </c>
-      <c r="K73" s="3"/>
-    </row>
-    <row r="74" spans="1:25" ht="15" customHeight="1">
-      <c r="B74" s="5">
-        <v>1</v>
-      </c>
-      <c r="C74" s="25" t="s">
-        <v>17</v>
-      </c>
-      <c r="D74" s="35" t="s">
-        <v>40</v>
-      </c>
-      <c r="E74" s="34" t="s">
-        <v>87</v>
-      </c>
-      <c r="F74" s="34">
-        <v>70</v>
-      </c>
-      <c r="G74" s="34" t="s">
-        <v>74</v>
-      </c>
-      <c r="H74" s="34" t="s">
-        <v>72</v>
-      </c>
-      <c r="I74" s="34" t="s">
-        <v>73</v>
-      </c>
-      <c r="J74" s="34"/>
       <c r="K74" s="3"/>
     </row>
     <row r="75" spans="1:25" ht="15" customHeight="1">
       <c r="B75" s="5">
-        <v>2</v>
-      </c>
-      <c r="C75" s="34" t="s">
-        <v>42</v>
+        <v>1</v>
+      </c>
+      <c r="C75" s="25" t="s">
+        <v>16</v>
       </c>
       <c r="D75" s="35" t="s">
-        <v>83</v>
+        <v>39</v>
       </c>
       <c r="E75" s="34" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="F75" s="34">
         <v>70</v>
       </c>
       <c r="G75" s="34" t="s">
-        <v>74</v>
-      </c>
-      <c r="H75" s="34"/>
-      <c r="I75" s="34"/>
+        <v>73</v>
+      </c>
+      <c r="H75" s="34" t="s">
+        <v>71</v>
+      </c>
+      <c r="I75" s="34" t="s">
+        <v>72</v>
+      </c>
       <c r="J75" s="34"/>
       <c r="K75" s="3"/>
     </row>
     <row r="76" spans="1:25" ht="15" customHeight="1">
-      <c r="B76" s="3"/>
-      <c r="C76" s="3"/>
-      <c r="D76" s="3"/>
-      <c r="E76" s="3"/>
-      <c r="F76" s="3"/>
-      <c r="G76" s="3"/>
-      <c r="H76" s="3"/>
-      <c r="I76" s="3"/>
-      <c r="J76" s="3"/>
+      <c r="B76" s="5">
+        <v>2</v>
+      </c>
+      <c r="C76" s="34" t="s">
+        <v>41</v>
+      </c>
+      <c r="D76" s="35" t="s">
+        <v>82</v>
+      </c>
+      <c r="E76" s="34" t="s">
+        <v>86</v>
+      </c>
+      <c r="F76" s="34">
+        <v>70</v>
+      </c>
+      <c r="G76" s="34" t="s">
+        <v>73</v>
+      </c>
+      <c r="H76" s="34"/>
+      <c r="I76" s="34"/>
+      <c r="J76" s="34"/>
       <c r="K76" s="3"/>
     </row>
     <row r="77" spans="1:25" ht="15" customHeight="1">
@@ -5256,8 +5301,7 @@
       <c r="J80" s="3"/>
       <c r="K80" s="3"/>
     </row>
-    <row r="81" spans="1:25" ht="15.75" customHeight="1">
-      <c r="A81" s="3"/>
+    <row r="81" spans="1:25" ht="15" customHeight="1">
       <c r="B81" s="3"/>
       <c r="C81" s="3"/>
       <c r="D81" s="3"/>
@@ -5268,20 +5312,6 @@
       <c r="I81" s="3"/>
       <c r="J81" s="3"/>
       <c r="K81" s="3"/>
-      <c r="L81" s="2"/>
-      <c r="M81" s="2"/>
-      <c r="N81" s="2"/>
-      <c r="O81" s="2"/>
-      <c r="P81" s="2"/>
-      <c r="Q81" s="2"/>
-      <c r="R81" s="2"/>
-      <c r="S81" s="2"/>
-      <c r="T81" s="2"/>
-      <c r="U81" s="2"/>
-      <c r="V81" s="2"/>
-      <c r="W81" s="2"/>
-      <c r="X81" s="2"/>
-      <c r="Y81" s="2"/>
     </row>
     <row r="82" spans="1:25" ht="15.75" customHeight="1">
       <c r="A82" s="3"/>
@@ -5401,8 +5431,8 @@
       <c r="G86" s="3"/>
       <c r="H86" s="3"/>
       <c r="I86" s="3"/>
-      <c r="J86" s="4"/>
-      <c r="K86" s="2"/>
+      <c r="J86" s="3"/>
+      <c r="K86" s="3"/>
       <c r="L86" s="2"/>
       <c r="M86" s="2"/>
       <c r="N86" s="2"/>
@@ -7526,15 +7556,15 @@
     </row>
     <row r="165" spans="1:25" ht="15.75" customHeight="1">
       <c r="A165" s="3"/>
-      <c r="B165" s="2"/>
-      <c r="C165" s="2"/>
-      <c r="D165" s="2"/>
-      <c r="E165" s="2"/>
-      <c r="F165" s="2"/>
-      <c r="G165" s="2"/>
-      <c r="H165" s="2"/>
-      <c r="I165" s="2"/>
-      <c r="J165" s="2"/>
+      <c r="B165" s="3"/>
+      <c r="C165" s="3"/>
+      <c r="D165" s="3"/>
+      <c r="E165" s="3"/>
+      <c r="F165" s="3"/>
+      <c r="G165" s="3"/>
+      <c r="H165" s="3"/>
+      <c r="I165" s="3"/>
+      <c r="J165" s="4"/>
       <c r="K165" s="2"/>
       <c r="L165" s="2"/>
       <c r="M165" s="2"/>
@@ -7552,7 +7582,7 @@
       <c r="Y165" s="2"/>
     </row>
     <row r="166" spans="1:25" ht="15.75" customHeight="1">
-      <c r="A166" s="2"/>
+      <c r="A166" s="3"/>
       <c r="B166" s="2"/>
       <c r="C166" s="2"/>
       <c r="D166" s="2"/>
@@ -27371,6 +27401,15 @@
     </row>
     <row r="900" spans="1:25" ht="15.75" customHeight="1">
       <c r="A900" s="2"/>
+      <c r="B900" s="2"/>
+      <c r="C900" s="2"/>
+      <c r="D900" s="2"/>
+      <c r="E900" s="2"/>
+      <c r="F900" s="2"/>
+      <c r="G900" s="2"/>
+      <c r="H900" s="2"/>
+      <c r="I900" s="2"/>
+      <c r="J900" s="2"/>
       <c r="K900" s="2"/>
       <c r="L900" s="2"/>
       <c r="M900" s="2"/>
@@ -27387,16 +27426,34 @@
       <c r="X900" s="2"/>
       <c r="Y900" s="2"/>
     </row>
+    <row r="901" spans="1:25" ht="15.75" customHeight="1">
+      <c r="A901" s="2"/>
+      <c r="K901" s="2"/>
+      <c r="L901" s="2"/>
+      <c r="M901" s="2"/>
+      <c r="N901" s="2"/>
+      <c r="O901" s="2"/>
+      <c r="P901" s="2"/>
+      <c r="Q901" s="2"/>
+      <c r="R901" s="2"/>
+      <c r="S901" s="2"/>
+      <c r="T901" s="2"/>
+      <c r="U901" s="2"/>
+      <c r="V901" s="2"/>
+      <c r="W901" s="2"/>
+      <c r="X901" s="2"/>
+      <c r="Y901" s="2"/>
+    </row>
   </sheetData>
   <mergeCells count="8">
-    <mergeCell ref="B72:J72"/>
+    <mergeCell ref="B73:J73"/>
     <mergeCell ref="B2:J3"/>
     <mergeCell ref="B17:J17"/>
-    <mergeCell ref="B53:J53"/>
-    <mergeCell ref="B40:J40"/>
-    <mergeCell ref="B63:J63"/>
+    <mergeCell ref="B54:J54"/>
+    <mergeCell ref="B41:J41"/>
+    <mergeCell ref="B64:J64"/>
     <mergeCell ref="B6:J6"/>
-    <mergeCell ref="B33:J33"/>
+    <mergeCell ref="B34:J34"/>
   </mergeCells>
   <phoneticPr fontId="8" type="noConversion"/>
   <pageMargins left="0.69999998807907104" right="0.69999998807907104" top="0.75" bottom="0.75" header="0" footer="0"/>

--- a/프로젝트 산출물/5. 테이블명세서/캠플렉스 테이블 명세서.xlsx
+++ b/프로젝트 산출물/5. 테이블명세서/캠플렉스 테이블 명세서.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="326" uniqueCount="140">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="331" uniqueCount="144">
   <si>
     <r>
       <rPr>
@@ -1640,6 +1640,71 @@
     </r>
     <phoneticPr fontId="9" type="noConversion"/>
   </si>
+  <si>
+    <t>rv_status</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>후기</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>횟수</t>
+    </r>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>NUMBER</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Default 0, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>글쓰면</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> 1</t>
+    </r>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
@@ -1870,7 +1935,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="51">
+  <cellXfs count="50">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1982,9 +2047,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2222,8 +2284,8 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:Y905"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B28" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="E52" sqref="E52"/>
+    <sheetView tabSelected="1" topLeftCell="B19" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="D42" sqref="D42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="12.75"/>
@@ -2268,17 +2330,17 @@
     </row>
     <row r="2" spans="1:25" ht="15.75" customHeight="1">
       <c r="A2" s="1"/>
-      <c r="B2" s="43" t="s">
+      <c r="B2" s="42" t="s">
         <v>61</v>
       </c>
-      <c r="C2" s="44"/>
-      <c r="D2" s="44"/>
-      <c r="E2" s="44"/>
-      <c r="F2" s="44"/>
-      <c r="G2" s="44"/>
-      <c r="H2" s="44"/>
-      <c r="I2" s="44"/>
-      <c r="J2" s="45"/>
+      <c r="C2" s="43"/>
+      <c r="D2" s="43"/>
+      <c r="E2" s="43"/>
+      <c r="F2" s="43"/>
+      <c r="G2" s="43"/>
+      <c r="H2" s="43"/>
+      <c r="I2" s="43"/>
+      <c r="J2" s="44"/>
       <c r="K2" s="2"/>
       <c r="L2" s="2"/>
       <c r="M2" s="2"/>
@@ -2297,15 +2359,15 @@
     </row>
     <row r="3" spans="1:25" ht="15.75" customHeight="1">
       <c r="A3" s="1"/>
-      <c r="B3" s="46"/>
-      <c r="C3" s="47"/>
-      <c r="D3" s="47"/>
-      <c r="E3" s="47"/>
-      <c r="F3" s="47"/>
-      <c r="G3" s="47"/>
-      <c r="H3" s="47"/>
-      <c r="I3" s="47"/>
-      <c r="J3" s="48"/>
+      <c r="B3" s="45"/>
+      <c r="C3" s="46"/>
+      <c r="D3" s="46"/>
+      <c r="E3" s="46"/>
+      <c r="F3" s="46"/>
+      <c r="G3" s="46"/>
+      <c r="H3" s="46"/>
+      <c r="I3" s="46"/>
+      <c r="J3" s="47"/>
       <c r="K3" s="2"/>
       <c r="L3" s="2"/>
       <c r="M3" s="2"/>
@@ -2378,17 +2440,17 @@
     </row>
     <row r="6" spans="1:25" ht="15.75" customHeight="1">
       <c r="A6" s="17"/>
-      <c r="B6" s="49" t="s">
+      <c r="B6" s="48" t="s">
         <v>24</v>
       </c>
-      <c r="C6" s="50"/>
-      <c r="D6" s="50"/>
-      <c r="E6" s="50"/>
-      <c r="F6" s="50"/>
-      <c r="G6" s="50"/>
-      <c r="H6" s="50"/>
-      <c r="I6" s="50"/>
-      <c r="J6" s="50"/>
+      <c r="C6" s="49"/>
+      <c r="D6" s="49"/>
+      <c r="E6" s="49"/>
+      <c r="F6" s="49"/>
+      <c r="G6" s="49"/>
+      <c r="H6" s="49"/>
+      <c r="I6" s="49"/>
+      <c r="J6" s="49"/>
       <c r="K6" s="2"/>
       <c r="L6" s="2"/>
       <c r="M6" s="2"/>
@@ -2791,17 +2853,17 @@
     </row>
     <row r="17" spans="1:25" ht="15.75" customHeight="1">
       <c r="A17" s="4"/>
-      <c r="B17" s="40" t="s">
+      <c r="B17" s="39" t="s">
         <v>133</v>
       </c>
-      <c r="C17" s="41"/>
-      <c r="D17" s="41"/>
-      <c r="E17" s="41"/>
-      <c r="F17" s="41"/>
-      <c r="G17" s="41"/>
-      <c r="H17" s="41"/>
-      <c r="I17" s="41"/>
-      <c r="J17" s="42"/>
+      <c r="C17" s="40"/>
+      <c r="D17" s="40"/>
+      <c r="E17" s="40"/>
+      <c r="F17" s="40"/>
+      <c r="G17" s="40"/>
+      <c r="H17" s="40"/>
+      <c r="I17" s="40"/>
+      <c r="J17" s="41"/>
       <c r="K17" s="2"/>
       <c r="L17" s="2"/>
       <c r="M17" s="2"/>
@@ -3430,16 +3492,28 @@
       <c r="Y32" s="2"/>
     </row>
     <row r="33" spans="1:25" ht="15.75" customHeight="1">
-      <c r="A33" s="3"/>
-      <c r="B33" s="4"/>
-      <c r="C33" s="4"/>
-      <c r="D33" s="39"/>
-      <c r="E33" s="4"/>
-      <c r="F33" s="4"/>
-      <c r="G33" s="4"/>
-      <c r="H33" s="4"/>
-      <c r="I33" s="3"/>
-      <c r="J33" s="4"/>
+      <c r="A33" s="37"/>
+      <c r="B33" s="5">
+        <v>15</v>
+      </c>
+      <c r="C33" s="34" t="s">
+        <v>140</v>
+      </c>
+      <c r="D33" s="34" t="s">
+        <v>141</v>
+      </c>
+      <c r="E33" s="34" t="s">
+        <v>142</v>
+      </c>
+      <c r="F33" s="34"/>
+      <c r="G33" s="34" t="s">
+        <v>14</v>
+      </c>
+      <c r="H33" s="21"/>
+      <c r="I33" s="21"/>
+      <c r="J33" s="34" t="s">
+        <v>143</v>
+      </c>
       <c r="K33" s="2"/>
       <c r="L33" s="2"/>
       <c r="M33" s="2"/>
@@ -3512,17 +3586,17 @@
     </row>
     <row r="36" spans="1:25" ht="15.75" customHeight="1">
       <c r="A36" s="17"/>
-      <c r="B36" s="49" t="s">
+      <c r="B36" s="48" t="s">
         <v>25</v>
       </c>
-      <c r="C36" s="50"/>
-      <c r="D36" s="50"/>
-      <c r="E36" s="50"/>
-      <c r="F36" s="50"/>
-      <c r="G36" s="50"/>
-      <c r="H36" s="50"/>
-      <c r="I36" s="50"/>
-      <c r="J36" s="50"/>
+      <c r="C36" s="49"/>
+      <c r="D36" s="49"/>
+      <c r="E36" s="49"/>
+      <c r="F36" s="49"/>
+      <c r="G36" s="49"/>
+      <c r="H36" s="49"/>
+      <c r="I36" s="49"/>
+      <c r="J36" s="49"/>
       <c r="K36" s="2"/>
       <c r="L36" s="2"/>
       <c r="M36" s="2"/>
@@ -3843,17 +3917,17 @@
     </row>
     <row r="45" spans="1:25" ht="15.75" customHeight="1">
       <c r="A45" s="3"/>
-      <c r="B45" s="49" t="s">
+      <c r="B45" s="48" t="s">
         <v>137</v>
       </c>
-      <c r="C45" s="50"/>
-      <c r="D45" s="50"/>
-      <c r="E45" s="50"/>
-      <c r="F45" s="50"/>
-      <c r="G45" s="50"/>
-      <c r="H45" s="50"/>
-      <c r="I45" s="50"/>
-      <c r="J45" s="50"/>
+      <c r="C45" s="49"/>
+      <c r="D45" s="49"/>
+      <c r="E45" s="49"/>
+      <c r="F45" s="49"/>
+      <c r="G45" s="49"/>
+      <c r="H45" s="49"/>
+      <c r="I45" s="49"/>
+      <c r="J45" s="49"/>
       <c r="K45" s="2"/>
       <c r="L45" s="2"/>
       <c r="M45" s="2"/>
@@ -4338,17 +4412,17 @@
     </row>
     <row r="58" spans="1:25" ht="15.75" customHeight="1">
       <c r="A58" s="3"/>
-      <c r="B58" s="49" t="s">
+      <c r="B58" s="48" t="s">
         <v>131</v>
       </c>
-      <c r="C58" s="50"/>
-      <c r="D58" s="50"/>
-      <c r="E58" s="50"/>
-      <c r="F58" s="50"/>
-      <c r="G58" s="50"/>
-      <c r="H58" s="50"/>
-      <c r="I58" s="50"/>
-      <c r="J58" s="50"/>
+      <c r="C58" s="49"/>
+      <c r="D58" s="49"/>
+      <c r="E58" s="49"/>
+      <c r="F58" s="49"/>
+      <c r="G58" s="49"/>
+      <c r="H58" s="49"/>
+      <c r="I58" s="49"/>
+      <c r="J58" s="49"/>
       <c r="K58" s="2"/>
       <c r="L58" s="2"/>
       <c r="M58" s="2"/>
@@ -4712,17 +4786,17 @@
     </row>
     <row r="68" spans="1:25" ht="15.75" customHeight="1">
       <c r="A68" s="3"/>
-      <c r="B68" s="49" t="s">
+      <c r="B68" s="48" t="s">
         <v>33</v>
       </c>
-      <c r="C68" s="50"/>
-      <c r="D68" s="50"/>
-      <c r="E68" s="50"/>
-      <c r="F68" s="50"/>
-      <c r="G68" s="50"/>
-      <c r="H68" s="50"/>
-      <c r="I68" s="50"/>
-      <c r="J68" s="50"/>
+      <c r="C68" s="49"/>
+      <c r="D68" s="49"/>
+      <c r="E68" s="49"/>
+      <c r="F68" s="49"/>
+      <c r="G68" s="49"/>
+      <c r="H68" s="49"/>
+      <c r="I68" s="49"/>
+      <c r="J68" s="49"/>
       <c r="K68" s="2"/>
       <c r="L68" s="2"/>
       <c r="M68" s="2"/>
@@ -5055,17 +5129,17 @@
     </row>
     <row r="77" spans="1:25" ht="15.75" customHeight="1">
       <c r="A77" s="3"/>
-      <c r="B77" s="40" t="s">
+      <c r="B77" s="39" t="s">
         <v>35</v>
       </c>
-      <c r="C77" s="41"/>
-      <c r="D77" s="41"/>
-      <c r="E77" s="41"/>
-      <c r="F77" s="41"/>
-      <c r="G77" s="41"/>
-      <c r="H77" s="41"/>
-      <c r="I77" s="41"/>
-      <c r="J77" s="42"/>
+      <c r="C77" s="40"/>
+      <c r="D77" s="40"/>
+      <c r="E77" s="40"/>
+      <c r="F77" s="40"/>
+      <c r="G77" s="40"/>
+      <c r="H77" s="40"/>
+      <c r="I77" s="40"/>
+      <c r="J77" s="41"/>
       <c r="K77" s="2"/>
       <c r="L77" s="2"/>
       <c r="M77" s="2"/>

--- a/프로젝트 산출물/5. 테이블명세서/캠플렉스 테이블 명세서.xlsx
+++ b/프로젝트 산출물/5. 테이블명세서/캠플렉스 테이블 명세서.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="331" uniqueCount="144">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="326" uniqueCount="150">
   <si>
     <r>
       <rPr>
@@ -269,9 +269,6 @@
     <t>FK</t>
   </si>
   <si>
-    <t>유일키</t>
-  </si>
-  <si>
     <t>관리자</t>
   </si>
   <si>
@@ -294,9 +291,6 @@
   </si>
   <si>
     <t>가격</t>
-  </si>
-  <si>
-    <t>솔트</t>
   </si>
   <si>
     <t>N</t>
@@ -603,9 +597,6 @@
   </si>
   <si>
     <t>r_apllicationdate</t>
-  </si>
-  <si>
-    <t>보안 (SECURITY_TBL)</t>
   </si>
   <si>
     <r>
@@ -957,9 +948,6 @@
     <t>업데이트 날짜</t>
   </si>
   <si>
-    <t>salt</t>
-  </si>
-  <si>
     <t>rv_date</t>
   </si>
   <si>
@@ -976,9 +964,6 @@
   </si>
   <si>
     <t>취소사유</t>
-  </si>
-  <si>
-    <t>아이디(PK)</t>
   </si>
   <si>
     <t>p_price</t>
@@ -1641,7 +1626,47 @@
     <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
-    <t>rv_status</t>
+    <t>parentno</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>부모글번호</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>NUMBER</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>Y</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>번호</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>p_date</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>상품 등록일</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>DATE</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>Default SYSDATE</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>r_number</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>rv_count</t>
     <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
@@ -1672,17 +1697,16 @@
         <family val="3"/>
         <charset val="129"/>
       </rPr>
-      <t>횟수</t>
+      <t>작성</t>
     </r>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>NUMBER</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
     <r>
-      <t xml:space="preserve">Default 0, </t>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
     </r>
     <r>
       <rPr>
@@ -1692,17 +1716,39 @@
         <family val="3"/>
         <charset val="129"/>
       </rPr>
-      <t>글쓰면</t>
+      <t>횟수</t>
+    </r>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>예약</t>
     </r>
     <r>
       <rPr>
         <sz val="11"/>
         <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
       </rPr>
-      <t xml:space="preserve"> 1</t>
+      <t>번호</t>
     </r>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>FK</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>Default 0</t>
     <phoneticPr fontId="9" type="noConversion"/>
   </si>
 </sst>
@@ -1776,7 +1822,7 @@
       <charset val="129"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1793,6 +1839,12 @@
       <patternFill patternType="solid">
         <fgColor rgb="FFFFFF00"/>
         <bgColor rgb="FFFFFF00"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.39997558519241921"/>
+        <bgColor rgb="FFFFFFFF"/>
       </patternFill>
     </fill>
   </fills>
@@ -1935,7 +1987,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="50">
+  <cellXfs count="54">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -2066,6 +2118,18 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="표준" xfId="0" builtinId="0"/>
@@ -2282,10 +2346,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:Y905"/>
+  <dimension ref="A1:Y904"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B19" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="D42" sqref="D42"/>
+    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="E48" sqref="E48"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="12.75"/>
@@ -2331,7 +2395,7 @@
     <row r="2" spans="1:25" ht="15.75" customHeight="1">
       <c r="A2" s="1"/>
       <c r="B2" s="42" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="C2" s="43"/>
       <c r="D2" s="43"/>
@@ -2441,7 +2505,7 @@
     <row r="6" spans="1:25" ht="15.75" customHeight="1">
       <c r="A6" s="17"/>
       <c r="B6" s="48" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="C6" s="49"/>
       <c r="D6" s="49"/>
@@ -2469,32 +2533,32 @@
     </row>
     <row r="7" spans="1:25" ht="15.75" customHeight="1">
       <c r="A7" s="17"/>
-      <c r="B7" s="25" t="s">
-        <v>9</v>
+      <c r="B7" s="50" t="s">
+        <v>8</v>
       </c>
       <c r="C7" s="25" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="D7" s="25" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="E7" s="25" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="F7" s="25" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="G7" s="25" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="H7" s="25" t="s">
-        <v>109</v>
+        <v>104</v>
       </c>
       <c r="I7" s="25" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="J7" s="25" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="K7" s="2"/>
       <c r="L7" s="2"/>
@@ -2518,28 +2582,28 @@
         <v>1</v>
       </c>
       <c r="C8" s="25" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="D8" s="26" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E8" s="25" t="s">
-        <v>105</v>
+        <v>100</v>
       </c>
       <c r="F8" s="25">
         <v>50</v>
       </c>
       <c r="G8" s="25" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="H8" s="25" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="I8" s="25" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="J8" s="26" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="K8" s="2"/>
       <c r="L8" s="2"/>
@@ -2563,19 +2627,19 @@
         <v>2</v>
       </c>
       <c r="C9" s="25" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="D9" s="26" t="s">
-        <v>91</v>
+        <v>86</v>
       </c>
       <c r="E9" s="25" t="s">
-        <v>105</v>
+        <v>100</v>
       </c>
       <c r="F9" s="24">
-        <v>20</v>
+        <v>100</v>
       </c>
       <c r="G9" s="25" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="H9" s="25"/>
       <c r="I9" s="27"/>
@@ -2604,24 +2668,24 @@
         <v>3</v>
       </c>
       <c r="C10" s="25" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="D10" s="26" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="E10" s="25" t="s">
-        <v>105</v>
+        <v>100</v>
       </c>
       <c r="F10" s="25">
         <v>10</v>
       </c>
       <c r="G10" s="25" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="H10" s="24"/>
       <c r="I10" s="24"/>
       <c r="J10" s="26" t="s">
-        <v>99</v>
+        <v>94</v>
       </c>
       <c r="K10" s="2"/>
       <c r="L10" s="2"/>
@@ -2645,24 +2709,24 @@
         <v>4</v>
       </c>
       <c r="C11" s="25" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="D11" s="26" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="E11" s="25" t="s">
-        <v>105</v>
+        <v>100</v>
       </c>
       <c r="F11" s="25">
         <v>11</v>
       </c>
       <c r="G11" s="25" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="H11" s="25"/>
       <c r="I11" s="24"/>
       <c r="J11" s="25" t="s">
-        <v>120</v>
+        <v>115</v>
       </c>
       <c r="K11" s="2"/>
       <c r="L11" s="2"/>
@@ -2686,22 +2750,24 @@
         <v>5</v>
       </c>
       <c r="C12" s="25" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="D12" s="26" t="s">
-        <v>101</v>
+        <v>96</v>
       </c>
       <c r="E12" s="25" t="s">
-        <v>62</v>
-      </c>
-      <c r="F12" s="25"/>
+        <v>59</v>
+      </c>
+      <c r="F12" s="25">
+        <v>10</v>
+      </c>
       <c r="G12" s="25" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="H12" s="25"/>
       <c r="I12" s="24"/>
       <c r="J12" s="25" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="K12" s="2"/>
       <c r="L12" s="2"/>
@@ -2725,22 +2791,22 @@
         <v>6</v>
       </c>
       <c r="C13" s="25" t="s">
-        <v>115</v>
+        <v>110</v>
       </c>
       <c r="D13" s="26" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="E13" s="34" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="F13" s="25"/>
       <c r="G13" s="25" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="H13" s="25"/>
       <c r="I13" s="27"/>
       <c r="J13" s="25" t="s">
-        <v>134</v>
+        <v>129</v>
       </c>
       <c r="K13" s="2"/>
       <c r="L13" s="2"/>
@@ -2764,22 +2830,22 @@
         <v>7</v>
       </c>
       <c r="C14" s="25" t="s">
-        <v>92</v>
+        <v>87</v>
       </c>
       <c r="D14" s="26" t="s">
-        <v>87</v>
+        <v>82</v>
       </c>
       <c r="E14" s="34" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="F14" s="25"/>
       <c r="G14" s="25" t="s">
-        <v>14</v>
+        <v>138</v>
       </c>
       <c r="H14" s="25"/>
       <c r="I14" s="27"/>
       <c r="J14" s="25" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="K14" s="2"/>
       <c r="L14" s="2"/>
@@ -2854,7 +2920,7 @@
     <row r="17" spans="1:25" ht="15.75" customHeight="1">
       <c r="A17" s="4"/>
       <c r="B17" s="39" t="s">
-        <v>133</v>
+        <v>128</v>
       </c>
       <c r="C17" s="40"/>
       <c r="D17" s="40"/>
@@ -2882,32 +2948,32 @@
     </row>
     <row r="18" spans="1:25" ht="15.75" customHeight="1">
       <c r="A18" s="4"/>
-      <c r="B18" s="5" t="s">
-        <v>9</v>
+      <c r="B18" s="52" t="s">
+        <v>8</v>
       </c>
       <c r="C18" s="6" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="D18" s="6" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="E18" s="6" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="F18" s="6" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="G18" s="6" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="H18" s="6" t="s">
-        <v>109</v>
+        <v>104</v>
       </c>
       <c r="I18" s="6" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="J18" s="6" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="K18" s="2"/>
       <c r="L18" s="2"/>
@@ -2931,26 +2997,26 @@
         <v>1</v>
       </c>
       <c r="C19" s="16" t="s">
-        <v>118</v>
+        <v>113</v>
       </c>
       <c r="D19" s="7" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="E19" s="19" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="F19" s="8"/>
       <c r="G19" s="6" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="H19" s="6" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="I19" s="6" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="J19" s="22" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="K19" s="2"/>
       <c r="L19" s="2"/>
@@ -2974,22 +3040,22 @@
         <v>2</v>
       </c>
       <c r="C20" s="19" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="D20" s="7" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E20" s="6" t="s">
-        <v>105</v>
+        <v>100</v>
       </c>
       <c r="F20" s="25">
         <v>50</v>
       </c>
       <c r="G20" s="6" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="H20" s="16" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="I20" s="21" t="s">
         <v>3</v>
@@ -3017,20 +3083,20 @@
         <v>3</v>
       </c>
       <c r="C21" s="19" t="s">
-        <v>102</v>
+        <v>97</v>
       </c>
       <c r="D21" s="7" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="E21" s="19" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="F21" s="6"/>
       <c r="G21" s="6" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="H21" s="16" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="I21" s="21" t="s">
         <v>3</v>
@@ -3058,22 +3124,22 @@
         <v>4</v>
       </c>
       <c r="C22" s="19" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="D22" s="7" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="E22" s="19" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="F22" s="8"/>
       <c r="G22" s="6" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="H22" s="6"/>
       <c r="I22" s="9"/>
       <c r="J22" s="19" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="K22" s="2"/>
       <c r="L22" s="2"/>
@@ -3097,22 +3163,22 @@
         <v>5</v>
       </c>
       <c r="C23" s="19" t="s">
-        <v>113</v>
+        <v>108</v>
       </c>
       <c r="D23" s="7" t="s">
-        <v>86</v>
+        <v>81</v>
       </c>
       <c r="E23" s="19" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="F23" s="6"/>
       <c r="G23" s="6" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="H23" s="9"/>
       <c r="I23" s="9"/>
       <c r="J23" s="19" t="s">
-        <v>127</v>
+        <v>122</v>
       </c>
       <c r="K23" s="2"/>
       <c r="L23" s="2"/>
@@ -3136,22 +3202,22 @@
         <v>6</v>
       </c>
       <c r="C24" s="34" t="s">
-        <v>108</v>
+        <v>103</v>
       </c>
       <c r="D24" s="35" t="s">
-        <v>90</v>
+        <v>85</v>
       </c>
       <c r="E24" s="34" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="F24" s="34"/>
       <c r="G24" s="34" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="H24" s="21"/>
       <c r="I24" s="21"/>
       <c r="J24" s="34" t="s">
-        <v>128</v>
+        <v>123</v>
       </c>
       <c r="K24" s="2"/>
       <c r="L24" s="2"/>
@@ -3175,22 +3241,22 @@
         <v>7</v>
       </c>
       <c r="C25" s="19" t="s">
-        <v>95</v>
+        <v>90</v>
       </c>
       <c r="D25" s="7" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="E25" s="19" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="F25" s="8"/>
       <c r="G25" s="6" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="H25" s="9"/>
       <c r="I25" s="9"/>
       <c r="J25" s="19" t="s">
-        <v>122</v>
+        <v>117</v>
       </c>
       <c r="K25" s="2"/>
       <c r="L25" s="2"/>
@@ -3214,19 +3280,19 @@
         <v>8</v>
       </c>
       <c r="C26" s="19" t="s">
-        <v>94</v>
+        <v>89</v>
       </c>
       <c r="D26" s="7" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="E26" s="6" t="s">
-        <v>105</v>
+        <v>100</v>
       </c>
       <c r="F26" s="8">
         <v>20</v>
       </c>
       <c r="G26" s="6" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="H26" s="6"/>
       <c r="I26" s="9"/>
@@ -3255,24 +3321,24 @@
         <v>9</v>
       </c>
       <c r="C27" s="25" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="D27" s="26" t="s">
-        <v>125</v>
+        <v>120</v>
       </c>
       <c r="E27" s="19" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="F27" s="25">
         <v>1</v>
       </c>
       <c r="G27" s="25" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="H27" s="25"/>
       <c r="I27" s="24"/>
       <c r="J27" s="25" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="K27" s="2"/>
       <c r="L27" s="2"/>
@@ -3296,24 +3362,24 @@
         <v>10</v>
       </c>
       <c r="C28" s="25" t="s">
-        <v>126</v>
+        <v>121</v>
       </c>
       <c r="D28" s="36" t="s">
-        <v>89</v>
+        <v>84</v>
       </c>
       <c r="E28" s="19" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="F28" s="25">
         <v>1</v>
       </c>
       <c r="G28" s="25" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="H28" s="25"/>
       <c r="I28" s="24"/>
       <c r="J28" s="25" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="K28" s="2"/>
       <c r="L28" s="2"/>
@@ -3337,24 +3403,24 @@
         <v>11</v>
       </c>
       <c r="C29" s="25" t="s">
-        <v>124</v>
+        <v>119</v>
       </c>
       <c r="D29" s="36" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="E29" s="19" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="F29" s="25">
         <v>1</v>
       </c>
       <c r="G29" s="25" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="H29" s="25"/>
       <c r="I29" s="24"/>
       <c r="J29" s="25" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="K29" s="2"/>
       <c r="L29" s="2"/>
@@ -3378,24 +3444,24 @@
         <v>12</v>
       </c>
       <c r="C30" s="25" t="s">
-        <v>93</v>
+        <v>88</v>
       </c>
       <c r="D30" s="26" t="s">
-        <v>123</v>
+        <v>118</v>
       </c>
       <c r="E30" s="19" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="F30" s="25">
         <v>1</v>
       </c>
       <c r="G30" s="25" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="H30" s="25"/>
       <c r="I30" s="24"/>
       <c r="J30" s="25" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="K30" s="2"/>
       <c r="L30" s="2"/>
@@ -3419,17 +3485,17 @@
         <v>13</v>
       </c>
       <c r="C31" s="25" t="s">
-        <v>117</v>
+        <v>112</v>
       </c>
       <c r="D31" s="38" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="E31" s="34" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="F31" s="25"/>
       <c r="G31" s="25" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="H31" s="25"/>
       <c r="I31" s="27"/>
@@ -3456,24 +3522,24 @@
         <v>14</v>
       </c>
       <c r="C32" s="25" t="s">
-        <v>136</v>
+        <v>131</v>
       </c>
       <c r="D32" s="38" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="E32" s="6" t="s">
-        <v>105</v>
+        <v>100</v>
       </c>
       <c r="F32" s="25">
         <v>50</v>
       </c>
       <c r="G32" s="25" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="H32" s="25"/>
       <c r="I32" s="24"/>
       <c r="J32" s="25" t="s">
-        <v>116</v>
+        <v>111</v>
       </c>
       <c r="K32" s="2"/>
       <c r="L32" s="2"/>
@@ -3492,28 +3558,16 @@
       <c r="Y32" s="2"/>
     </row>
     <row r="33" spans="1:25" ht="15.75" customHeight="1">
-      <c r="A33" s="37"/>
-      <c r="B33" s="5">
-        <v>15</v>
-      </c>
-      <c r="C33" s="34" t="s">
-        <v>140</v>
-      </c>
-      <c r="D33" s="34" t="s">
-        <v>141</v>
-      </c>
-      <c r="E33" s="34" t="s">
-        <v>142</v>
-      </c>
-      <c r="F33" s="34"/>
-      <c r="G33" s="34" t="s">
-        <v>14</v>
-      </c>
-      <c r="H33" s="21"/>
-      <c r="I33" s="21"/>
-      <c r="J33" s="34" t="s">
-        <v>143</v>
-      </c>
+      <c r="A33" s="17"/>
+      <c r="B33" s="31"/>
+      <c r="C33" s="31"/>
+      <c r="D33" s="31"/>
+      <c r="E33" s="31"/>
+      <c r="F33" s="31"/>
+      <c r="G33" s="31"/>
+      <c r="H33" s="17"/>
+      <c r="I33" s="17"/>
+      <c r="J33" s="31"/>
       <c r="K33" s="2"/>
       <c r="L33" s="2"/>
       <c r="M33" s="2"/>
@@ -3537,7 +3591,7 @@
       <c r="D34" s="31"/>
       <c r="E34" s="31"/>
       <c r="F34" s="31"/>
-      <c r="G34" s="31"/>
+      <c r="G34" s="30"/>
       <c r="H34" s="17"/>
       <c r="I34" s="17"/>
       <c r="J34" s="31"/>
@@ -3559,15 +3613,17 @@
     </row>
     <row r="35" spans="1:25" ht="15.75" customHeight="1">
       <c r="A35" s="17"/>
-      <c r="B35" s="31"/>
-      <c r="C35" s="31"/>
-      <c r="D35" s="31"/>
-      <c r="E35" s="31"/>
-      <c r="F35" s="31"/>
-      <c r="G35" s="30"/>
-      <c r="H35" s="17"/>
-      <c r="I35" s="17"/>
-      <c r="J35" s="31"/>
+      <c r="B35" s="48" t="s">
+        <v>23</v>
+      </c>
+      <c r="C35" s="49"/>
+      <c r="D35" s="49"/>
+      <c r="E35" s="49"/>
+      <c r="F35" s="49"/>
+      <c r="G35" s="49"/>
+      <c r="H35" s="49"/>
+      <c r="I35" s="49"/>
+      <c r="J35" s="49"/>
       <c r="K35" s="2"/>
       <c r="L35" s="2"/>
       <c r="M35" s="2"/>
@@ -3586,17 +3642,33 @@
     </row>
     <row r="36" spans="1:25" ht="15.75" customHeight="1">
       <c r="A36" s="17"/>
-      <c r="B36" s="48" t="s">
-        <v>25</v>
-      </c>
-      <c r="C36" s="49"/>
-      <c r="D36" s="49"/>
-      <c r="E36" s="49"/>
-      <c r="F36" s="49"/>
-      <c r="G36" s="49"/>
-      <c r="H36" s="49"/>
-      <c r="I36" s="49"/>
-      <c r="J36" s="49"/>
+      <c r="B36" s="25" t="s">
+        <v>8</v>
+      </c>
+      <c r="C36" s="25" t="s">
+        <v>13</v>
+      </c>
+      <c r="D36" s="25" t="s">
+        <v>16</v>
+      </c>
+      <c r="E36" s="25" t="s">
+        <v>50</v>
+      </c>
+      <c r="F36" s="25" t="s">
+        <v>10</v>
+      </c>
+      <c r="G36" s="25" t="s">
+        <v>47</v>
+      </c>
+      <c r="H36" s="25" t="s">
+        <v>104</v>
+      </c>
+      <c r="I36" s="25" t="s">
+        <v>7</v>
+      </c>
+      <c r="J36" s="25" t="s">
+        <v>6</v>
+      </c>
       <c r="K36" s="2"/>
       <c r="L36" s="2"/>
       <c r="M36" s="2"/>
@@ -3614,33 +3686,29 @@
       <c r="Y36" s="2"/>
     </row>
     <row r="37" spans="1:25" ht="15.75" customHeight="1">
-      <c r="A37" s="17"/>
-      <c r="B37" s="25" t="s">
-        <v>9</v>
-      </c>
-      <c r="C37" s="25" t="s">
-        <v>15</v>
-      </c>
-      <c r="D37" s="25" t="s">
-        <v>18</v>
-      </c>
-      <c r="E37" s="25" t="s">
-        <v>53</v>
-      </c>
-      <c r="F37" s="25" t="s">
-        <v>11</v>
-      </c>
-      <c r="G37" s="25" t="s">
-        <v>50</v>
-      </c>
-      <c r="H37" s="25" t="s">
-        <v>109</v>
-      </c>
-      <c r="I37" s="25" t="s">
-        <v>8</v>
-      </c>
-      <c r="J37" s="25" t="s">
-        <v>7</v>
+      <c r="A37" s="3"/>
+      <c r="B37" s="5">
+        <v>1</v>
+      </c>
+      <c r="C37" s="19" t="s">
+        <v>105</v>
+      </c>
+      <c r="D37" s="20" t="s">
+        <v>57</v>
+      </c>
+      <c r="E37" s="19" t="s">
+        <v>44</v>
+      </c>
+      <c r="F37" s="8"/>
+      <c r="G37" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="H37" s="21" t="s">
+        <v>19</v>
+      </c>
+      <c r="I37" s="9"/>
+      <c r="J37" s="22" t="s">
+        <v>130</v>
       </c>
       <c r="K37" s="2"/>
       <c r="L37" s="2"/>
@@ -3659,30 +3727,32 @@
       <c r="Y37" s="2"/>
     </row>
     <row r="38" spans="1:25" ht="15.75" customHeight="1">
-      <c r="A38" s="3"/>
+      <c r="A38" s="31"/>
       <c r="B38" s="5">
-        <v>1</v>
-      </c>
-      <c r="C38" s="19" t="s">
-        <v>110</v>
-      </c>
-      <c r="D38" s="20" t="s">
-        <v>60</v>
-      </c>
-      <c r="E38" s="19" t="s">
-        <v>47</v>
-      </c>
-      <c r="F38" s="8"/>
-      <c r="G38" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="H38" s="21" t="s">
-        <v>21</v>
-      </c>
-      <c r="I38" s="9"/>
-      <c r="J38" s="22" t="s">
-        <v>135</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="C38" s="34" t="s">
+        <v>43</v>
+      </c>
+      <c r="D38" s="35" t="s">
+        <v>9</v>
+      </c>
+      <c r="E38" s="34" t="s">
+        <v>100</v>
+      </c>
+      <c r="F38" s="25">
+        <v>50</v>
+      </c>
+      <c r="G38" s="34" t="s">
+        <v>12</v>
+      </c>
+      <c r="H38" s="34" t="s">
+        <v>133</v>
+      </c>
+      <c r="I38" s="21" t="s">
+        <v>3</v>
+      </c>
+      <c r="J38" s="34"/>
       <c r="K38" s="2"/>
       <c r="L38" s="2"/>
       <c r="M38" s="2"/>
@@ -3702,30 +3772,28 @@
     <row r="39" spans="1:25" ht="15.75" customHeight="1">
       <c r="A39" s="31"/>
       <c r="B39" s="5">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C39" s="34" t="s">
-        <v>46</v>
+        <v>97</v>
       </c>
       <c r="D39" s="35" t="s">
-        <v>10</v>
+        <v>51</v>
       </c>
       <c r="E39" s="34" t="s">
-        <v>105</v>
-      </c>
-      <c r="F39" s="25">
-        <v>50</v>
-      </c>
+        <v>44</v>
+      </c>
+      <c r="F39" s="34"/>
       <c r="G39" s="34" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="H39" s="34" t="s">
-        <v>138</v>
+        <v>19</v>
       </c>
       <c r="I39" s="21" t="s">
         <v>3</v>
       </c>
-      <c r="J39" s="34"/>
+      <c r="J39" s="35"/>
       <c r="K39" s="2"/>
       <c r="L39" s="2"/>
       <c r="M39" s="2"/>
@@ -3743,30 +3811,30 @@
       <c r="Y39" s="2"/>
     </row>
     <row r="40" spans="1:25" ht="15.75" customHeight="1">
-      <c r="A40" s="31"/>
+      <c r="A40" s="37"/>
       <c r="B40" s="5">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C40" s="34" t="s">
-        <v>102</v>
-      </c>
-      <c r="D40" s="35" t="s">
-        <v>54</v>
+        <v>144</v>
+      </c>
+      <c r="D40" s="20" t="s">
+        <v>147</v>
       </c>
       <c r="E40" s="34" t="s">
-        <v>47</v>
+        <v>137</v>
       </c>
       <c r="F40" s="34"/>
       <c r="G40" s="34" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="H40" s="34" t="s">
-        <v>21</v>
-      </c>
-      <c r="I40" s="21" t="s">
-        <v>3</v>
-      </c>
-      <c r="J40" s="35"/>
+        <v>19</v>
+      </c>
+      <c r="I40" s="53" t="s">
+        <v>148</v>
+      </c>
+      <c r="J40" s="34"/>
       <c r="K40" s="2"/>
       <c r="L40" s="2"/>
       <c r="M40" s="2"/>
@@ -3786,25 +3854,25 @@
     <row r="41" spans="1:25" ht="15.75" customHeight="1">
       <c r="A41" s="3"/>
       <c r="B41" s="5">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C41" s="19" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="D41" s="19" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="E41" s="19" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="F41" s="8"/>
       <c r="G41" s="6" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="H41" s="9"/>
       <c r="I41" s="9"/>
       <c r="J41" s="19" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="K41" s="2"/>
       <c r="L41" s="2"/>
@@ -3825,22 +3893,22 @@
     <row r="42" spans="1:25" ht="15.75" customHeight="1">
       <c r="A42" s="3"/>
       <c r="B42" s="5">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C42" s="19" t="s">
-        <v>112</v>
+        <v>107</v>
       </c>
       <c r="D42" s="19" t="s">
-        <v>139</v>
+        <v>134</v>
       </c>
       <c r="E42" s="8" t="s">
-        <v>105</v>
+        <v>100</v>
       </c>
       <c r="F42" s="8">
         <v>2000</v>
       </c>
       <c r="G42" s="6" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="H42" s="9"/>
       <c r="I42" s="9"/>
@@ -3862,16 +3930,30 @@
       <c r="Y42" s="2"/>
     </row>
     <row r="43" spans="1:25" ht="15.75" customHeight="1">
-      <c r="A43" s="17"/>
-      <c r="B43" s="18"/>
-      <c r="C43" s="29"/>
-      <c r="D43" s="29"/>
-      <c r="E43" s="18"/>
-      <c r="F43" s="18"/>
-      <c r="G43" s="18"/>
-      <c r="H43" s="17"/>
-      <c r="I43" s="17"/>
-      <c r="J43" s="31"/>
+      <c r="A43" s="37"/>
+      <c r="B43" s="5">
+        <v>7</v>
+      </c>
+      <c r="C43" s="34" t="s">
+        <v>145</v>
+      </c>
+      <c r="D43" s="34" t="s">
+        <v>146</v>
+      </c>
+      <c r="E43" s="34" t="s">
+        <v>137</v>
+      </c>
+      <c r="F43" s="34">
+        <v>2000</v>
+      </c>
+      <c r="G43" s="34" t="s">
+        <v>12</v>
+      </c>
+      <c r="H43" s="21"/>
+      <c r="I43" s="21"/>
+      <c r="J43" s="34" t="s">
+        <v>149</v>
+      </c>
       <c r="K43" s="2"/>
       <c r="L43" s="2"/>
       <c r="M43" s="2"/>
@@ -3889,16 +3971,16 @@
       <c r="Y43" s="2"/>
     </row>
     <row r="44" spans="1:25" ht="15.75" customHeight="1">
-      <c r="A44" s="3"/>
-      <c r="B44" s="11"/>
-      <c r="C44" s="12"/>
-      <c r="D44" s="12"/>
-      <c r="E44" s="12"/>
-      <c r="F44" s="12"/>
-      <c r="G44" s="13"/>
-      <c r="H44" s="14"/>
-      <c r="I44" s="14"/>
-      <c r="J44" s="15"/>
+      <c r="A44" s="17"/>
+      <c r="B44" s="18"/>
+      <c r="C44" s="29"/>
+      <c r="D44" s="29"/>
+      <c r="E44" s="18"/>
+      <c r="F44" s="18"/>
+      <c r="G44" s="18"/>
+      <c r="H44" s="17"/>
+      <c r="I44" s="17"/>
+      <c r="J44" s="31"/>
       <c r="K44" s="2"/>
       <c r="L44" s="2"/>
       <c r="M44" s="2"/>
@@ -3917,17 +3999,15 @@
     </row>
     <row r="45" spans="1:25" ht="15.75" customHeight="1">
       <c r="A45" s="3"/>
-      <c r="B45" s="48" t="s">
-        <v>137</v>
-      </c>
-      <c r="C45" s="49"/>
-      <c r="D45" s="49"/>
-      <c r="E45" s="49"/>
-      <c r="F45" s="49"/>
-      <c r="G45" s="49"/>
-      <c r="H45" s="49"/>
-      <c r="I45" s="49"/>
-      <c r="J45" s="49"/>
+      <c r="B45" s="11"/>
+      <c r="C45" s="12"/>
+      <c r="D45" s="12"/>
+      <c r="E45" s="12"/>
+      <c r="F45" s="12"/>
+      <c r="G45" s="13"/>
+      <c r="H45" s="14"/>
+      <c r="I45" s="14"/>
+      <c r="J45" s="15"/>
       <c r="K45" s="2"/>
       <c r="L45" s="2"/>
       <c r="M45" s="2"/>
@@ -3946,33 +4026,17 @@
     </row>
     <row r="46" spans="1:25" ht="15.75" customHeight="1">
       <c r="A46" s="3"/>
-      <c r="B46" s="25" t="s">
-        <v>9</v>
-      </c>
-      <c r="C46" s="25" t="s">
-        <v>15</v>
-      </c>
-      <c r="D46" s="25" t="s">
-        <v>18</v>
-      </c>
-      <c r="E46" s="25" t="s">
-        <v>53</v>
-      </c>
-      <c r="F46" s="25" t="s">
-        <v>11</v>
-      </c>
-      <c r="G46" s="25" t="s">
-        <v>50</v>
-      </c>
-      <c r="H46" s="25" t="s">
-        <v>109</v>
-      </c>
-      <c r="I46" s="25" t="s">
-        <v>8</v>
-      </c>
-      <c r="J46" s="25" t="s">
-        <v>7</v>
-      </c>
+      <c r="B46" s="48" t="s">
+        <v>132</v>
+      </c>
+      <c r="C46" s="49"/>
+      <c r="D46" s="49"/>
+      <c r="E46" s="49"/>
+      <c r="F46" s="49"/>
+      <c r="G46" s="49"/>
+      <c r="H46" s="49"/>
+      <c r="I46" s="49"/>
+      <c r="J46" s="49"/>
       <c r="K46" s="2"/>
       <c r="L46" s="2"/>
       <c r="M46" s="2"/>
@@ -3991,30 +4055,32 @@
     </row>
     <row r="47" spans="1:25" ht="15.75" customHeight="1">
       <c r="A47" s="3"/>
-      <c r="B47" s="25">
-        <v>1</v>
+      <c r="B47" s="50" t="s">
+        <v>8</v>
       </c>
       <c r="C47" s="25" t="s">
-        <v>102</v>
-      </c>
-      <c r="D47" s="26" t="s">
-        <v>56</v>
-      </c>
-      <c r="E47" s="19" t="s">
+        <v>13</v>
+      </c>
+      <c r="D47" s="25" t="s">
+        <v>16</v>
+      </c>
+      <c r="E47" s="25" t="s">
+        <v>50</v>
+      </c>
+      <c r="F47" s="25" t="s">
+        <v>10</v>
+      </c>
+      <c r="G47" s="25" t="s">
         <v>47</v>
       </c>
-      <c r="F47" s="25"/>
-      <c r="G47" s="25" t="s">
-        <v>14</v>
-      </c>
       <c r="H47" s="25" t="s">
-        <v>21</v>
+        <v>104</v>
       </c>
       <c r="I47" s="25" t="s">
+        <v>7</v>
+      </c>
+      <c r="J47" s="25" t="s">
         <v>6</v>
-      </c>
-      <c r="J47" s="26" t="s">
-        <v>130</v>
       </c>
       <c r="K47" s="2"/>
       <c r="L47" s="2"/>
@@ -4035,27 +4101,29 @@
     <row r="48" spans="1:25" ht="15.75" customHeight="1">
       <c r="A48" s="3"/>
       <c r="B48" s="25">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C48" s="25" t="s">
+        <v>97</v>
+      </c>
+      <c r="D48" s="26" t="s">
+        <v>53</v>
+      </c>
+      <c r="E48" s="19" t="s">
         <v>44</v>
       </c>
-      <c r="D48" s="26" t="s">
-        <v>52</v>
-      </c>
-      <c r="E48" s="25" t="s">
-        <v>105</v>
-      </c>
-      <c r="F48" s="24">
-        <v>10</v>
-      </c>
+      <c r="F48" s="25"/>
       <c r="G48" s="25" t="s">
-        <v>14</v>
-      </c>
-      <c r="H48" s="25"/>
-      <c r="I48" s="27"/>
-      <c r="J48" s="25" t="s">
-        <v>119</v>
+        <v>12</v>
+      </c>
+      <c r="H48" s="25" t="s">
+        <v>19</v>
+      </c>
+      <c r="I48" s="25" t="s">
+        <v>5</v>
+      </c>
+      <c r="J48" s="26" t="s">
+        <v>125</v>
       </c>
       <c r="K48" s="2"/>
       <c r="L48" s="2"/>
@@ -4076,26 +4144,28 @@
     <row r="49" spans="1:25" ht="15.75" customHeight="1">
       <c r="A49" s="3"/>
       <c r="B49" s="25">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C49" s="25" t="s">
-        <v>82</v>
+        <v>41</v>
       </c>
       <c r="D49" s="26" t="s">
-        <v>57</v>
+        <v>49</v>
       </c>
       <c r="E49" s="25" t="s">
-        <v>105</v>
-      </c>
-      <c r="F49" s="25">
-        <v>20</v>
+        <v>100</v>
+      </c>
+      <c r="F49" s="24">
+        <v>10</v>
       </c>
       <c r="G49" s="25" t="s">
-        <v>14</v>
-      </c>
-      <c r="H49" s="24"/>
-      <c r="I49" s="24"/>
-      <c r="J49" s="26"/>
+        <v>12</v>
+      </c>
+      <c r="H49" s="25"/>
+      <c r="I49" s="27"/>
+      <c r="J49" s="25" t="s">
+        <v>114</v>
+      </c>
       <c r="K49" s="2"/>
       <c r="L49" s="2"/>
       <c r="M49" s="2"/>
@@ -4115,26 +4185,26 @@
     <row r="50" spans="1:25" ht="15.75" customHeight="1">
       <c r="A50" s="3"/>
       <c r="B50" s="25">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C50" s="25" t="s">
-        <v>85</v>
+        <v>78</v>
       </c>
       <c r="D50" s="26" t="s">
+        <v>54</v>
+      </c>
+      <c r="E50" s="25" t="s">
+        <v>100</v>
+      </c>
+      <c r="F50" s="25">
+        <v>20</v>
+      </c>
+      <c r="G50" s="25" t="s">
         <v>12</v>
       </c>
-      <c r="E50" s="19" t="s">
-        <v>47</v>
-      </c>
-      <c r="F50" s="25"/>
-      <c r="G50" s="25" t="s">
-        <v>14</v>
-      </c>
-      <c r="H50" s="25"/>
+      <c r="H50" s="24"/>
       <c r="I50" s="24"/>
-      <c r="J50" s="23" t="s">
-        <v>104</v>
-      </c>
+      <c r="J50" s="26"/>
       <c r="K50" s="2"/>
       <c r="L50" s="2"/>
       <c r="M50" s="2"/>
@@ -4154,27 +4224,25 @@
     <row r="51" spans="1:25" ht="15.75" customHeight="1">
       <c r="A51" s="3"/>
       <c r="B51" s="25">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C51" s="25" t="s">
-        <v>26</v>
+        <v>80</v>
       </c>
       <c r="D51" s="26" t="s">
-        <v>45</v>
-      </c>
-      <c r="E51" s="25" t="s">
-        <v>105</v>
-      </c>
-      <c r="F51" s="25">
-        <v>2000</v>
-      </c>
+        <v>11</v>
+      </c>
+      <c r="E51" s="19" t="s">
+        <v>44</v>
+      </c>
+      <c r="F51" s="25"/>
       <c r="G51" s="25" t="s">
-        <v>14</v>
-      </c>
-      <c r="H51" s="24"/>
+        <v>12</v>
+      </c>
+      <c r="H51" s="25"/>
       <c r="I51" s="24"/>
-      <c r="J51" s="25" t="s">
-        <v>37</v>
+      <c r="J51" s="23" t="s">
+        <v>99</v>
       </c>
       <c r="K51" s="2"/>
       <c r="L51" s="2"/>
@@ -4195,27 +4263,27 @@
     <row r="52" spans="1:25" ht="15.75" customHeight="1">
       <c r="A52" s="3"/>
       <c r="B52" s="25">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C52" s="25" t="s">
-        <v>96</v>
+        <v>24</v>
       </c>
       <c r="D52" s="26" t="s">
-        <v>88</v>
+        <v>42</v>
       </c>
       <c r="E52" s="25" t="s">
-        <v>105</v>
+        <v>100</v>
       </c>
       <c r="F52" s="25">
-        <v>50</v>
+        <v>2000</v>
       </c>
       <c r="G52" s="25" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="H52" s="24"/>
       <c r="I52" s="24"/>
       <c r="J52" s="25" t="s">
-        <v>121</v>
+        <v>34</v>
       </c>
       <c r="K52" s="2"/>
       <c r="L52" s="2"/>
@@ -4236,27 +4304,27 @@
     <row r="53" spans="1:25" ht="15.75" customHeight="1">
       <c r="A53" s="3"/>
       <c r="B53" s="25">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C53" s="25" t="s">
-        <v>97</v>
+        <v>91</v>
       </c>
       <c r="D53" s="26" t="s">
-        <v>71</v>
+        <v>83</v>
       </c>
       <c r="E53" s="25" t="s">
-        <v>105</v>
+        <v>100</v>
       </c>
       <c r="F53" s="25">
         <v>50</v>
       </c>
       <c r="G53" s="25" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="H53" s="24"/>
       <c r="I53" s="24"/>
       <c r="J53" s="25" t="s">
-        <v>121</v>
+        <v>116</v>
       </c>
       <c r="K53" s="2"/>
       <c r="L53" s="2"/>
@@ -4277,27 +4345,27 @@
     <row r="54" spans="1:25" ht="15.75" customHeight="1">
       <c r="A54" s="3"/>
       <c r="B54" s="25">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C54" s="25" t="s">
-        <v>106</v>
+        <v>92</v>
       </c>
       <c r="D54" s="26" t="s">
-        <v>73</v>
+        <v>68</v>
       </c>
       <c r="E54" s="25" t="s">
-        <v>105</v>
+        <v>100</v>
       </c>
       <c r="F54" s="25">
         <v>50</v>
       </c>
       <c r="G54" s="25" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="H54" s="24"/>
       <c r="I54" s="24"/>
       <c r="J54" s="25" t="s">
-        <v>121</v>
+        <v>116</v>
       </c>
       <c r="K54" s="2"/>
       <c r="L54" s="2"/>
@@ -4318,27 +4386,27 @@
     <row r="55" spans="1:25" ht="15.75" customHeight="1">
       <c r="A55" s="3"/>
       <c r="B55" s="25">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C55" s="25" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="D55" s="26" t="s">
         <v>70</v>
       </c>
       <c r="E55" s="25" t="s">
-        <v>105</v>
+        <v>100</v>
       </c>
       <c r="F55" s="25">
         <v>50</v>
       </c>
       <c r="G55" s="25" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="H55" s="24"/>
       <c r="I55" s="24"/>
       <c r="J55" s="25" t="s">
-        <v>121</v>
+        <v>116</v>
       </c>
       <c r="K55" s="2"/>
       <c r="L55" s="2"/>
@@ -4358,15 +4426,29 @@
     </row>
     <row r="56" spans="1:25" ht="15.75" customHeight="1">
       <c r="A56" s="3"/>
-      <c r="B56" s="29"/>
-      <c r="C56" s="29"/>
-      <c r="D56" s="30"/>
-      <c r="E56" s="29"/>
-      <c r="F56" s="29"/>
-      <c r="G56" s="29"/>
-      <c r="H56" s="29"/>
-      <c r="I56" s="17"/>
-      <c r="J56" s="29"/>
+      <c r="B56" s="25">
+        <v>9</v>
+      </c>
+      <c r="C56" s="25" t="s">
+        <v>95</v>
+      </c>
+      <c r="D56" s="26" t="s">
+        <v>67</v>
+      </c>
+      <c r="E56" s="25" t="s">
+        <v>100</v>
+      </c>
+      <c r="F56" s="25">
+        <v>50</v>
+      </c>
+      <c r="G56" s="25" t="s">
+        <v>12</v>
+      </c>
+      <c r="H56" s="24"/>
+      <c r="I56" s="24"/>
+      <c r="J56" s="25" t="s">
+        <v>116</v>
+      </c>
       <c r="K56" s="2"/>
       <c r="L56" s="2"/>
       <c r="M56" s="2"/>
@@ -4384,16 +4466,28 @@
       <c r="Y56" s="2"/>
     </row>
     <row r="57" spans="1:25" ht="15.75" customHeight="1">
-      <c r="A57" s="3"/>
-      <c r="B57" s="29"/>
-      <c r="C57" s="29"/>
-      <c r="D57" s="30"/>
-      <c r="E57" s="29"/>
-      <c r="F57" s="29"/>
-      <c r="G57" s="29"/>
-      <c r="H57" s="17"/>
-      <c r="I57" s="17"/>
-      <c r="J57" s="29"/>
+      <c r="A57" s="37"/>
+      <c r="B57" s="25">
+        <v>10</v>
+      </c>
+      <c r="C57" s="25" t="s">
+        <v>140</v>
+      </c>
+      <c r="D57" s="26" t="s">
+        <v>141</v>
+      </c>
+      <c r="E57" s="25" t="s">
+        <v>142</v>
+      </c>
+      <c r="F57" s="25"/>
+      <c r="G57" s="25" t="s">
+        <v>12</v>
+      </c>
+      <c r="H57" s="27"/>
+      <c r="I57" s="27"/>
+      <c r="J57" s="23" t="s">
+        <v>143</v>
+      </c>
       <c r="K57" s="2"/>
       <c r="L57" s="2"/>
       <c r="M57" s="2"/>
@@ -4412,17 +4506,15 @@
     </row>
     <row r="58" spans="1:25" ht="15.75" customHeight="1">
       <c r="A58" s="3"/>
-      <c r="B58" s="48" t="s">
-        <v>131</v>
-      </c>
-      <c r="C58" s="49"/>
-      <c r="D58" s="49"/>
-      <c r="E58" s="49"/>
-      <c r="F58" s="49"/>
-      <c r="G58" s="49"/>
-      <c r="H58" s="49"/>
-      <c r="I58" s="49"/>
-      <c r="J58" s="49"/>
+      <c r="B58" s="29"/>
+      <c r="C58" s="29"/>
+      <c r="D58" s="30"/>
+      <c r="E58" s="29"/>
+      <c r="F58" s="29"/>
+      <c r="G58" s="29"/>
+      <c r="H58" s="29"/>
+      <c r="I58" s="17"/>
+      <c r="J58" s="29"/>
       <c r="K58" s="2"/>
       <c r="L58" s="2"/>
       <c r="M58" s="2"/>
@@ -4441,33 +4533,15 @@
     </row>
     <row r="59" spans="1:25" ht="15.75" customHeight="1">
       <c r="A59" s="3"/>
-      <c r="B59" s="25" t="s">
-        <v>9</v>
-      </c>
-      <c r="C59" s="25" t="s">
-        <v>15</v>
-      </c>
-      <c r="D59" s="25" t="s">
-        <v>18</v>
-      </c>
-      <c r="E59" s="25" t="s">
-        <v>53</v>
-      </c>
-      <c r="F59" s="25" t="s">
-        <v>11</v>
-      </c>
-      <c r="G59" s="25" t="s">
-        <v>50</v>
-      </c>
-      <c r="H59" s="25" t="s">
-        <v>109</v>
-      </c>
-      <c r="I59" s="25" t="s">
-        <v>8</v>
-      </c>
-      <c r="J59" s="25" t="s">
-        <v>7</v>
-      </c>
+      <c r="B59" s="29"/>
+      <c r="C59" s="29"/>
+      <c r="D59" s="30"/>
+      <c r="E59" s="29"/>
+      <c r="F59" s="29"/>
+      <c r="G59" s="29"/>
+      <c r="H59" s="17"/>
+      <c r="I59" s="17"/>
+      <c r="J59" s="29"/>
       <c r="K59" s="2"/>
       <c r="L59" s="2"/>
       <c r="M59" s="2"/>
@@ -4486,31 +4560,17 @@
     </row>
     <row r="60" spans="1:25" ht="15.75" customHeight="1">
       <c r="A60" s="3"/>
-      <c r="B60" s="25">
-        <v>1</v>
-      </c>
-      <c r="C60" s="25" t="s">
-        <v>107</v>
-      </c>
-      <c r="D60" s="26" t="s">
-        <v>38</v>
-      </c>
-      <c r="E60" s="19" t="s">
-        <v>47</v>
-      </c>
-      <c r="F60" s="25"/>
-      <c r="G60" s="25" t="s">
-        <v>14</v>
-      </c>
-      <c r="H60" s="25" t="s">
-        <v>21</v>
-      </c>
-      <c r="I60" s="25" t="s">
-        <v>6</v>
-      </c>
-      <c r="J60" s="26" t="s">
-        <v>132</v>
-      </c>
+      <c r="B60" s="48" t="s">
+        <v>126</v>
+      </c>
+      <c r="C60" s="49"/>
+      <c r="D60" s="49"/>
+      <c r="E60" s="49"/>
+      <c r="F60" s="49"/>
+      <c r="G60" s="49"/>
+      <c r="H60" s="49"/>
+      <c r="I60" s="49"/>
+      <c r="J60" s="49"/>
       <c r="K60" s="2"/>
       <c r="L60" s="2"/>
       <c r="M60" s="2"/>
@@ -4529,32 +4589,32 @@
     </row>
     <row r="61" spans="1:25" ht="15.75" customHeight="1">
       <c r="A61" s="3"/>
-      <c r="B61" s="25">
-        <v>2</v>
+      <c r="B61" s="50" t="s">
+        <v>8</v>
       </c>
       <c r="C61" s="25" t="s">
-        <v>46</v>
-      </c>
-      <c r="D61" s="26" t="s">
+        <v>13</v>
+      </c>
+      <c r="D61" s="25" t="s">
+        <v>16</v>
+      </c>
+      <c r="E61" s="25" t="s">
+        <v>50</v>
+      </c>
+      <c r="F61" s="25" t="s">
         <v>10</v>
       </c>
-      <c r="E61" s="25" t="s">
-        <v>105</v>
-      </c>
-      <c r="F61" s="24">
-        <v>50</v>
-      </c>
       <c r="G61" s="25" t="s">
-        <v>14</v>
+        <v>47</v>
       </c>
       <c r="H61" s="25" t="s">
-        <v>21</v>
-      </c>
-      <c r="I61" s="27" t="s">
-        <v>3</v>
+        <v>104</v>
+      </c>
+      <c r="I61" s="25" t="s">
+        <v>7</v>
       </c>
       <c r="J61" s="25" t="s">
-        <v>58</v>
+        <v>6</v>
       </c>
       <c r="K61" s="2"/>
       <c r="L61" s="2"/>
@@ -4575,26 +4635,30 @@
     <row r="62" spans="1:25" ht="15.75" customHeight="1">
       <c r="A62" s="3"/>
       <c r="B62" s="25">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C62" s="25" t="s">
-        <v>42</v>
+        <v>102</v>
       </c>
       <c r="D62" s="26" t="s">
-        <v>55</v>
-      </c>
-      <c r="E62" s="25" t="s">
-        <v>105</v>
-      </c>
-      <c r="F62" s="25">
-        <v>50</v>
-      </c>
+        <v>35</v>
+      </c>
+      <c r="E62" s="19" t="s">
+        <v>44</v>
+      </c>
+      <c r="F62" s="25"/>
       <c r="G62" s="25" t="s">
-        <v>14</v>
-      </c>
-      <c r="H62" s="24"/>
-      <c r="I62" s="24"/>
-      <c r="J62" s="26"/>
+        <v>12</v>
+      </c>
+      <c r="H62" s="25" t="s">
+        <v>19</v>
+      </c>
+      <c r="I62" s="25" t="s">
+        <v>5</v>
+      </c>
+      <c r="J62" s="26" t="s">
+        <v>127</v>
+      </c>
       <c r="K62" s="2"/>
       <c r="L62" s="2"/>
       <c r="M62" s="2"/>
@@ -4614,27 +4678,31 @@
     <row r="63" spans="1:25" ht="15.75" customHeight="1">
       <c r="A63" s="3"/>
       <c r="B63" s="25">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C63" s="25" t="s">
-        <v>59</v>
+        <v>43</v>
       </c>
       <c r="D63" s="26" t="s">
-        <v>48</v>
+        <v>9</v>
       </c>
       <c r="E63" s="25" t="s">
-        <v>105</v>
-      </c>
-      <c r="F63" s="25">
-        <v>10</v>
+        <v>100</v>
+      </c>
+      <c r="F63" s="24">
+        <v>50</v>
       </c>
       <c r="G63" s="25" t="s">
-        <v>14</v>
-      </c>
-      <c r="H63" s="25"/>
-      <c r="I63" s="24"/>
+        <v>12</v>
+      </c>
+      <c r="H63" s="25" t="s">
+        <v>19</v>
+      </c>
+      <c r="I63" s="27" t="s">
+        <v>3</v>
+      </c>
       <c r="J63" s="25" t="s">
-        <v>36</v>
+        <v>55</v>
       </c>
       <c r="K63" s="2"/>
       <c r="L63" s="2"/>
@@ -4655,26 +4723,26 @@
     <row r="64" spans="1:25" ht="15.75" customHeight="1">
       <c r="A64" s="3"/>
       <c r="B64" s="25">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C64" s="25" t="s">
-        <v>67</v>
+        <v>39</v>
       </c>
       <c r="D64" s="26" t="s">
-        <v>17</v>
+        <v>52</v>
       </c>
       <c r="E64" s="25" t="s">
-        <v>62</v>
-      </c>
-      <c r="F64" s="25"/>
+        <v>100</v>
+      </c>
+      <c r="F64" s="25">
+        <v>50</v>
+      </c>
       <c r="G64" s="25" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="H64" s="24"/>
       <c r="I64" s="24"/>
-      <c r="J64" s="23" t="s">
-        <v>22</v>
-      </c>
+      <c r="J64" s="26"/>
       <c r="K64" s="2"/>
       <c r="L64" s="2"/>
       <c r="M64" s="2"/>
@@ -4694,26 +4762,28 @@
     <row r="65" spans="1:25" ht="15.75" customHeight="1">
       <c r="A65" s="3"/>
       <c r="B65" s="25">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C65" s="25" t="s">
-        <v>111</v>
+        <v>56</v>
       </c>
       <c r="D65" s="26" t="s">
-        <v>51</v>
+        <v>45</v>
       </c>
       <c r="E65" s="25" t="s">
-        <v>105</v>
+        <v>100</v>
       </c>
       <c r="F65" s="25">
-        <v>2000</v>
+        <v>10</v>
       </c>
       <c r="G65" s="25" t="s">
-        <v>14</v>
-      </c>
-      <c r="H65" s="24"/>
+        <v>12</v>
+      </c>
+      <c r="H65" s="25"/>
       <c r="I65" s="24"/>
-      <c r="J65" s="25"/>
+      <c r="J65" s="25" t="s">
+        <v>33</v>
+      </c>
       <c r="K65" s="2"/>
       <c r="L65" s="2"/>
       <c r="M65" s="2"/>
@@ -4732,15 +4802,27 @@
     </row>
     <row r="66" spans="1:25" ht="15.75" customHeight="1">
       <c r="A66" s="3"/>
-      <c r="B66" s="29"/>
-      <c r="C66" s="29"/>
-      <c r="D66" s="30"/>
-      <c r="E66" s="29"/>
-      <c r="F66" s="29"/>
-      <c r="G66" s="29"/>
-      <c r="H66" s="29"/>
-      <c r="I66" s="17"/>
-      <c r="J66" s="29"/>
+      <c r="B66" s="25">
+        <v>5</v>
+      </c>
+      <c r="C66" s="25" t="s">
+        <v>64</v>
+      </c>
+      <c r="D66" s="26" t="s">
+        <v>15</v>
+      </c>
+      <c r="E66" s="25" t="s">
+        <v>59</v>
+      </c>
+      <c r="F66" s="25"/>
+      <c r="G66" s="25" t="s">
+        <v>12</v>
+      </c>
+      <c r="H66" s="24"/>
+      <c r="I66" s="24"/>
+      <c r="J66" s="23" t="s">
+        <v>20</v>
+      </c>
       <c r="K66" s="2"/>
       <c r="L66" s="2"/>
       <c r="M66" s="2"/>
@@ -4759,15 +4841,27 @@
     </row>
     <row r="67" spans="1:25" ht="15.75" customHeight="1">
       <c r="A67" s="3"/>
-      <c r="B67" s="29"/>
-      <c r="C67" s="29"/>
-      <c r="D67" s="29"/>
-      <c r="E67" s="29"/>
-      <c r="F67" s="29"/>
-      <c r="G67" s="29"/>
-      <c r="H67" s="17"/>
-      <c r="I67" s="17"/>
-      <c r="J67" s="28"/>
+      <c r="B67" s="25">
+        <v>6</v>
+      </c>
+      <c r="C67" s="25" t="s">
+        <v>106</v>
+      </c>
+      <c r="D67" s="26" t="s">
+        <v>48</v>
+      </c>
+      <c r="E67" s="25" t="s">
+        <v>100</v>
+      </c>
+      <c r="F67" s="25">
+        <v>2000</v>
+      </c>
+      <c r="G67" s="25" t="s">
+        <v>12</v>
+      </c>
+      <c r="H67" s="24"/>
+      <c r="I67" s="24"/>
+      <c r="J67" s="25"/>
       <c r="K67" s="2"/>
       <c r="L67" s="2"/>
       <c r="M67" s="2"/>
@@ -4785,18 +4879,26 @@
       <c r="Y67" s="2"/>
     </row>
     <row r="68" spans="1:25" ht="15.75" customHeight="1">
-      <c r="A68" s="3"/>
-      <c r="B68" s="48" t="s">
-        <v>33</v>
-      </c>
-      <c r="C68" s="49"/>
-      <c r="D68" s="49"/>
-      <c r="E68" s="49"/>
-      <c r="F68" s="49"/>
-      <c r="G68" s="49"/>
-      <c r="H68" s="49"/>
-      <c r="I68" s="49"/>
-      <c r="J68" s="49"/>
+      <c r="A68" s="37"/>
+      <c r="B68" s="25">
+        <v>7</v>
+      </c>
+      <c r="C68" s="25" t="s">
+        <v>135</v>
+      </c>
+      <c r="D68" s="26" t="s">
+        <v>136</v>
+      </c>
+      <c r="E68" s="25" t="s">
+        <v>137</v>
+      </c>
+      <c r="F68" s="25"/>
+      <c r="G68" s="25" t="s">
+        <v>12</v>
+      </c>
+      <c r="H68" s="27"/>
+      <c r="I68" s="27"/>
+      <c r="J68" s="25"/>
       <c r="K68" s="2"/>
       <c r="L68" s="2"/>
       <c r="M68" s="2"/>
@@ -4815,33 +4917,15 @@
     </row>
     <row r="69" spans="1:25" ht="15.75" customHeight="1">
       <c r="A69" s="3"/>
-      <c r="B69" s="25" t="s">
-        <v>9</v>
-      </c>
-      <c r="C69" s="25" t="s">
-        <v>15</v>
-      </c>
-      <c r="D69" s="25" t="s">
-        <v>18</v>
-      </c>
-      <c r="E69" s="25" t="s">
-        <v>53</v>
-      </c>
-      <c r="F69" s="25" t="s">
-        <v>11</v>
-      </c>
-      <c r="G69" s="25" t="s">
-        <v>50</v>
-      </c>
-      <c r="H69" s="25" t="s">
-        <v>109</v>
-      </c>
-      <c r="I69" s="25" t="s">
-        <v>8</v>
-      </c>
-      <c r="J69" s="25" t="s">
-        <v>7</v>
-      </c>
+      <c r="B69" s="29"/>
+      <c r="C69" s="29"/>
+      <c r="D69" s="30"/>
+      <c r="E69" s="29"/>
+      <c r="F69" s="29"/>
+      <c r="G69" s="29"/>
+      <c r="H69" s="29"/>
+      <c r="I69" s="17"/>
+      <c r="J69" s="29"/>
       <c r="K69" s="2"/>
       <c r="L69" s="2"/>
       <c r="M69" s="2"/>
@@ -4860,31 +4944,15 @@
     </row>
     <row r="70" spans="1:25" ht="15.75" customHeight="1">
       <c r="A70" s="3"/>
-      <c r="B70" s="25">
-        <v>1</v>
-      </c>
-      <c r="C70" s="25" t="s">
-        <v>98</v>
-      </c>
-      <c r="D70" s="26" t="s">
-        <v>66</v>
-      </c>
-      <c r="E70" s="19" t="s">
-        <v>47</v>
-      </c>
-      <c r="F70" s="25"/>
-      <c r="G70" s="25" t="s">
-        <v>14</v>
-      </c>
-      <c r="H70" s="25" t="s">
-        <v>21</v>
-      </c>
-      <c r="I70" s="25" t="s">
-        <v>6</v>
-      </c>
-      <c r="J70" s="26" t="s">
-        <v>129</v>
-      </c>
+      <c r="B70" s="29"/>
+      <c r="C70" s="29"/>
+      <c r="D70" s="29"/>
+      <c r="E70" s="29"/>
+      <c r="F70" s="29"/>
+      <c r="G70" s="29"/>
+      <c r="H70" s="17"/>
+      <c r="I70" s="17"/>
+      <c r="J70" s="28"/>
       <c r="K70" s="2"/>
       <c r="L70" s="2"/>
       <c r="M70" s="2"/>
@@ -4903,27 +4971,17 @@
     </row>
     <row r="71" spans="1:25" ht="15.75" customHeight="1">
       <c r="A71" s="3"/>
-      <c r="B71" s="25">
-        <v>2</v>
-      </c>
-      <c r="C71" s="25" t="s">
-        <v>49</v>
-      </c>
-      <c r="D71" s="26" t="s">
-        <v>20</v>
-      </c>
-      <c r="E71" s="25" t="s">
-        <v>105</v>
-      </c>
-      <c r="F71" s="24">
-        <v>50</v>
-      </c>
-      <c r="G71" s="25" t="s">
-        <v>14</v>
-      </c>
-      <c r="H71" s="25"/>
-      <c r="I71" s="27"/>
-      <c r="J71" s="25"/>
+      <c r="B71" s="48" t="s">
+        <v>31</v>
+      </c>
+      <c r="C71" s="49"/>
+      <c r="D71" s="49"/>
+      <c r="E71" s="49"/>
+      <c r="F71" s="49"/>
+      <c r="G71" s="49"/>
+      <c r="H71" s="49"/>
+      <c r="I71" s="49"/>
+      <c r="J71" s="49"/>
       <c r="K71" s="2"/>
       <c r="L71" s="2"/>
       <c r="M71" s="2"/>
@@ -4942,27 +5000,33 @@
     </row>
     <row r="72" spans="1:25" ht="15.75" customHeight="1">
       <c r="A72" s="3"/>
-      <c r="B72" s="25">
-        <v>3</v>
+      <c r="B72" s="51" t="s">
+        <v>139</v>
       </c>
       <c r="C72" s="25" t="s">
-        <v>114</v>
-      </c>
-      <c r="D72" s="26" t="s">
+        <v>13</v>
+      </c>
+      <c r="D72" s="25" t="s">
         <v>16</v>
       </c>
       <c r="E72" s="25" t="s">
-        <v>105</v>
-      </c>
-      <c r="F72" s="25">
-        <v>2000</v>
+        <v>50</v>
+      </c>
+      <c r="F72" s="25" t="s">
+        <v>10</v>
       </c>
       <c r="G72" s="25" t="s">
-        <v>14</v>
-      </c>
-      <c r="H72" s="24"/>
-      <c r="I72" s="24"/>
-      <c r="J72" s="26"/>
+        <v>47</v>
+      </c>
+      <c r="H72" s="25" t="s">
+        <v>104</v>
+      </c>
+      <c r="I72" s="25" t="s">
+        <v>7</v>
+      </c>
+      <c r="J72" s="25" t="s">
+        <v>6</v>
+      </c>
       <c r="K72" s="2"/>
       <c r="L72" s="2"/>
       <c r="M72" s="2"/>
@@ -4982,27 +5046,29 @@
     <row r="73" spans="1:25" ht="15.75" customHeight="1">
       <c r="A73" s="3"/>
       <c r="B73" s="25">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="C73" s="25" t="s">
-        <v>64</v>
+        <v>93</v>
       </c>
       <c r="D73" s="26" t="s">
-        <v>2</v>
-      </c>
-      <c r="E73" s="25" t="s">
-        <v>105</v>
-      </c>
-      <c r="F73" s="25">
-        <v>50</v>
-      </c>
+        <v>63</v>
+      </c>
+      <c r="E73" s="19" t="s">
+        <v>44</v>
+      </c>
+      <c r="F73" s="25"/>
       <c r="G73" s="25" t="s">
-        <v>21</v>
-      </c>
-      <c r="H73" s="25"/>
-      <c r="I73" s="24"/>
-      <c r="J73" s="25" t="s">
-        <v>121</v>
+        <v>12</v>
+      </c>
+      <c r="H73" s="25" t="s">
+        <v>19</v>
+      </c>
+      <c r="I73" s="25" t="s">
+        <v>5</v>
+      </c>
+      <c r="J73" s="26" t="s">
+        <v>124</v>
       </c>
       <c r="K73" s="2"/>
       <c r="L73" s="2"/>
@@ -5023,26 +5089,26 @@
     <row r="74" spans="1:25" ht="15.75" customHeight="1">
       <c r="A74" s="3"/>
       <c r="B74" s="25">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="C74" s="25" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="D74" s="26" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="E74" s="25" t="s">
-        <v>62</v>
-      </c>
-      <c r="F74" s="25"/>
+        <v>100</v>
+      </c>
+      <c r="F74" s="24">
+        <v>50</v>
+      </c>
       <c r="G74" s="25" t="s">
-        <v>14</v>
-      </c>
-      <c r="H74" s="24"/>
-      <c r="I74" s="24"/>
-      <c r="J74" s="25" t="s">
-        <v>22</v>
-      </c>
+        <v>12</v>
+      </c>
+      <c r="H74" s="25"/>
+      <c r="I74" s="27"/>
+      <c r="J74" s="25"/>
       <c r="K74" s="2"/>
       <c r="L74" s="2"/>
       <c r="M74" s="2"/>
@@ -5062,28 +5128,26 @@
     <row r="75" spans="1:25" ht="15.75" customHeight="1">
       <c r="A75" s="3"/>
       <c r="B75" s="25">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="C75" s="25" t="s">
-        <v>103</v>
+        <v>109</v>
       </c>
       <c r="D75" s="26" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="E75" s="25" t="s">
-        <v>105</v>
+        <v>100</v>
       </c>
       <c r="F75" s="25">
-        <v>20</v>
+        <v>2000</v>
       </c>
       <c r="G75" s="25" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="H75" s="24"/>
       <c r="I75" s="24"/>
-      <c r="J75" s="23" t="s">
-        <v>5</v>
-      </c>
+      <c r="J75" s="26"/>
       <c r="K75" s="2"/>
       <c r="L75" s="2"/>
       <c r="M75" s="2"/>
@@ -5102,15 +5166,29 @@
     </row>
     <row r="76" spans="1:25" ht="15.75" customHeight="1">
       <c r="A76" s="3"/>
-      <c r="B76" s="3"/>
-      <c r="C76" s="3"/>
-      <c r="D76" s="3"/>
-      <c r="E76" s="3"/>
-      <c r="F76" s="3"/>
-      <c r="G76" s="3"/>
-      <c r="H76" s="3"/>
-      <c r="I76" s="3"/>
-      <c r="J76" s="4"/>
+      <c r="B76" s="25">
+        <v>4</v>
+      </c>
+      <c r="C76" s="25" t="s">
+        <v>61</v>
+      </c>
+      <c r="D76" s="26" t="s">
+        <v>2</v>
+      </c>
+      <c r="E76" s="25" t="s">
+        <v>100</v>
+      </c>
+      <c r="F76" s="25">
+        <v>50</v>
+      </c>
+      <c r="G76" s="25" t="s">
+        <v>19</v>
+      </c>
+      <c r="H76" s="25"/>
+      <c r="I76" s="24"/>
+      <c r="J76" s="25" t="s">
+        <v>116</v>
+      </c>
       <c r="K76" s="2"/>
       <c r="L76" s="2"/>
       <c r="M76" s="2"/>
@@ -5129,17 +5207,27 @@
     </row>
     <row r="77" spans="1:25" ht="15.75" customHeight="1">
       <c r="A77" s="3"/>
-      <c r="B77" s="39" t="s">
-        <v>35</v>
-      </c>
-      <c r="C77" s="40"/>
-      <c r="D77" s="40"/>
-      <c r="E77" s="40"/>
-      <c r="F77" s="40"/>
-      <c r="G77" s="40"/>
-      <c r="H77" s="40"/>
-      <c r="I77" s="40"/>
-      <c r="J77" s="41"/>
+      <c r="B77" s="25">
+        <v>5</v>
+      </c>
+      <c r="C77" s="25" t="s">
+        <v>40</v>
+      </c>
+      <c r="D77" s="26" t="s">
+        <v>15</v>
+      </c>
+      <c r="E77" s="25" t="s">
+        <v>59</v>
+      </c>
+      <c r="F77" s="25"/>
+      <c r="G77" s="25" t="s">
+        <v>12</v>
+      </c>
+      <c r="H77" s="24"/>
+      <c r="I77" s="24"/>
+      <c r="J77" s="25" t="s">
+        <v>20</v>
+      </c>
       <c r="K77" s="2"/>
       <c r="L77" s="2"/>
       <c r="M77" s="2"/>
@@ -5156,86 +5244,84 @@
       <c r="X77" s="2"/>
       <c r="Y77" s="2"/>
     </row>
-    <row r="78" spans="1:25" ht="15" customHeight="1">
-      <c r="B78" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="C78" s="34" t="s">
-        <v>15</v>
-      </c>
-      <c r="D78" s="34" t="s">
-        <v>18</v>
-      </c>
-      <c r="E78" s="34" t="s">
-        <v>53</v>
-      </c>
-      <c r="F78" s="34" t="s">
-        <v>11</v>
-      </c>
-      <c r="G78" s="34" t="s">
-        <v>50</v>
-      </c>
-      <c r="H78" s="34" t="s">
+    <row r="78" spans="1:25" ht="15.75" customHeight="1">
+      <c r="A78" s="3"/>
+      <c r="B78" s="25">
+        <v>6</v>
+      </c>
+      <c r="C78" s="25" t="s">
+        <v>98</v>
+      </c>
+      <c r="D78" s="26" t="s">
+        <v>17</v>
+      </c>
+      <c r="E78" s="25" t="s">
+        <v>100</v>
+      </c>
+      <c r="F78" s="25">
+        <v>20</v>
+      </c>
+      <c r="G78" s="25" t="s">
+        <v>12</v>
+      </c>
+      <c r="H78" s="24"/>
+      <c r="I78" s="24"/>
+      <c r="J78" s="23" t="s">
         <v>4</v>
       </c>
-      <c r="I78" s="34" t="s">
-        <v>8</v>
-      </c>
-      <c r="J78" s="34" t="s">
-        <v>7</v>
-      </c>
-      <c r="K78" s="3"/>
-    </row>
-    <row r="79" spans="1:25" ht="15" customHeight="1">
-      <c r="B79" s="5">
-        <v>1</v>
-      </c>
-      <c r="C79" s="25" t="s">
-        <v>46</v>
-      </c>
-      <c r="D79" s="35" t="s">
-        <v>84</v>
-      </c>
-      <c r="E79" s="34" t="s">
-        <v>105</v>
-      </c>
-      <c r="F79" s="34">
-        <v>70</v>
-      </c>
-      <c r="G79" s="34" t="s">
-        <v>14</v>
-      </c>
-      <c r="H79" s="34" t="s">
-        <v>21</v>
-      </c>
-      <c r="I79" s="34" t="s">
-        <v>6</v>
-      </c>
-      <c r="J79" s="34"/>
-      <c r="K79" s="3"/>
+      <c r="K78" s="2"/>
+      <c r="L78" s="2"/>
+      <c r="M78" s="2"/>
+      <c r="N78" s="2"/>
+      <c r="O78" s="2"/>
+      <c r="P78" s="2"/>
+      <c r="Q78" s="2"/>
+      <c r="R78" s="2"/>
+      <c r="S78" s="2"/>
+      <c r="T78" s="2"/>
+      <c r="U78" s="2"/>
+      <c r="V78" s="2"/>
+      <c r="W78" s="2"/>
+      <c r="X78" s="2"/>
+      <c r="Y78" s="2"/>
+    </row>
+    <row r="79" spans="1:25" ht="15.75" customHeight="1">
+      <c r="A79" s="3"/>
+      <c r="B79" s="3"/>
+      <c r="C79" s="3"/>
+      <c r="D79" s="3"/>
+      <c r="E79" s="3"/>
+      <c r="F79" s="3"/>
+      <c r="G79" s="3"/>
+      <c r="H79" s="3"/>
+      <c r="I79" s="3"/>
+      <c r="J79" s="4"/>
+      <c r="K79" s="2"/>
+      <c r="L79" s="2"/>
+      <c r="M79" s="2"/>
+      <c r="N79" s="2"/>
+      <c r="O79" s="2"/>
+      <c r="P79" s="2"/>
+      <c r="Q79" s="2"/>
+      <c r="R79" s="2"/>
+      <c r="S79" s="2"/>
+      <c r="T79" s="2"/>
+      <c r="U79" s="2"/>
+      <c r="V79" s="2"/>
+      <c r="W79" s="2"/>
+      <c r="X79" s="2"/>
+      <c r="Y79" s="2"/>
     </row>
     <row r="80" spans="1:25" ht="15" customHeight="1">
-      <c r="B80" s="5">
-        <v>2</v>
-      </c>
-      <c r="C80" s="34" t="s">
-        <v>77</v>
-      </c>
-      <c r="D80" s="35" t="s">
-        <v>13</v>
-      </c>
-      <c r="E80" s="34" t="s">
-        <v>105</v>
-      </c>
-      <c r="F80" s="34">
-        <v>70</v>
-      </c>
-      <c r="G80" s="34" t="s">
-        <v>14</v>
-      </c>
-      <c r="H80" s="34"/>
-      <c r="I80" s="34"/>
-      <c r="J80" s="34"/>
+      <c r="B80" s="3"/>
+      <c r="C80" s="3"/>
+      <c r="D80" s="3"/>
+      <c r="E80" s="3"/>
+      <c r="F80" s="3"/>
+      <c r="G80" s="3"/>
+      <c r="H80" s="3"/>
+      <c r="I80" s="3"/>
+      <c r="J80" s="3"/>
       <c r="K80" s="3"/>
     </row>
     <row r="81" spans="1:25" ht="15" customHeight="1">
@@ -5286,7 +5372,8 @@
       <c r="J84" s="3"/>
       <c r="K84" s="3"/>
     </row>
-    <row r="85" spans="1:25" ht="15" customHeight="1">
+    <row r="85" spans="1:25" ht="15.75" customHeight="1">
+      <c r="A85" s="3"/>
       <c r="B85" s="3"/>
       <c r="C85" s="3"/>
       <c r="D85" s="3"/>
@@ -5297,6 +5384,20 @@
       <c r="I85" s="3"/>
       <c r="J85" s="3"/>
       <c r="K85" s="3"/>
+      <c r="L85" s="2"/>
+      <c r="M85" s="2"/>
+      <c r="N85" s="2"/>
+      <c r="O85" s="2"/>
+      <c r="P85" s="2"/>
+      <c r="Q85" s="2"/>
+      <c r="R85" s="2"/>
+      <c r="S85" s="2"/>
+      <c r="T85" s="2"/>
+      <c r="U85" s="2"/>
+      <c r="V85" s="2"/>
+      <c r="W85" s="2"/>
+      <c r="X85" s="2"/>
+      <c r="Y85" s="2"/>
     </row>
     <row r="86" spans="1:25" ht="15.75" customHeight="1">
       <c r="A86" s="3"/>
@@ -5416,8 +5517,8 @@
       <c r="G90" s="3"/>
       <c r="H90" s="3"/>
       <c r="I90" s="3"/>
-      <c r="J90" s="3"/>
-      <c r="K90" s="3"/>
+      <c r="J90" s="4"/>
+      <c r="K90" s="2"/>
       <c r="L90" s="2"/>
       <c r="M90" s="2"/>
       <c r="N90" s="2"/>
@@ -7541,15 +7642,15 @@
     </row>
     <row r="169" spans="1:25" ht="15.75" customHeight="1">
       <c r="A169" s="3"/>
-      <c r="B169" s="3"/>
-      <c r="C169" s="3"/>
-      <c r="D169" s="3"/>
-      <c r="E169" s="3"/>
-      <c r="F169" s="3"/>
-      <c r="G169" s="3"/>
-      <c r="H169" s="3"/>
-      <c r="I169" s="3"/>
-      <c r="J169" s="4"/>
+      <c r="B169" s="2"/>
+      <c r="C169" s="2"/>
+      <c r="D169" s="2"/>
+      <c r="E169" s="2"/>
+      <c r="F169" s="2"/>
+      <c r="G169" s="2"/>
+      <c r="H169" s="2"/>
+      <c r="I169" s="2"/>
+      <c r="J169" s="2"/>
       <c r="K169" s="2"/>
       <c r="L169" s="2"/>
       <c r="M169" s="2"/>
@@ -7567,7 +7668,7 @@
       <c r="Y169" s="2"/>
     </row>
     <row r="170" spans="1:25" ht="15.75" customHeight="1">
-      <c r="A170" s="3"/>
+      <c r="A170" s="2"/>
       <c r="B170" s="2"/>
       <c r="C170" s="2"/>
       <c r="D170" s="2"/>
@@ -27386,15 +27487,6 @@
     </row>
     <row r="904" spans="1:25" ht="15.75" customHeight="1">
       <c r="A904" s="2"/>
-      <c r="B904" s="2"/>
-      <c r="C904" s="2"/>
-      <c r="D904" s="2"/>
-      <c r="E904" s="2"/>
-      <c r="F904" s="2"/>
-      <c r="G904" s="2"/>
-      <c r="H904" s="2"/>
-      <c r="I904" s="2"/>
-      <c r="J904" s="2"/>
       <c r="K904" s="2"/>
       <c r="L904" s="2"/>
       <c r="M904" s="2"/>
@@ -27411,34 +27503,15 @@
       <c r="X904" s="2"/>
       <c r="Y904" s="2"/>
     </row>
-    <row r="905" spans="1:25" ht="15.75" customHeight="1">
-      <c r="A905" s="2"/>
-      <c r="K905" s="2"/>
-      <c r="L905" s="2"/>
-      <c r="M905" s="2"/>
-      <c r="N905" s="2"/>
-      <c r="O905" s="2"/>
-      <c r="P905" s="2"/>
-      <c r="Q905" s="2"/>
-      <c r="R905" s="2"/>
-      <c r="S905" s="2"/>
-      <c r="T905" s="2"/>
-      <c r="U905" s="2"/>
-      <c r="V905" s="2"/>
-      <c r="W905" s="2"/>
-      <c r="X905" s="2"/>
-      <c r="Y905" s="2"/>
-    </row>
   </sheetData>
-  <mergeCells count="8">
-    <mergeCell ref="B77:J77"/>
+  <mergeCells count="7">
     <mergeCell ref="B2:J3"/>
     <mergeCell ref="B17:J17"/>
-    <mergeCell ref="B58:J58"/>
-    <mergeCell ref="B45:J45"/>
-    <mergeCell ref="B68:J68"/>
+    <mergeCell ref="B60:J60"/>
+    <mergeCell ref="B46:J46"/>
+    <mergeCell ref="B71:J71"/>
     <mergeCell ref="B6:J6"/>
-    <mergeCell ref="B36:J36"/>
+    <mergeCell ref="B35:J35"/>
   </mergeCells>
   <phoneticPr fontId="9" type="noConversion"/>
   <pageMargins left="0.69972223043441772" right="0.69972223043441772" top="0.75" bottom="0.75" header="0" footer="0"/>

--- a/프로젝트 산출물/5. 테이블명세서/캠플렉스 테이블 명세서.xlsx
+++ b/프로젝트 산출물/5. 테이블명세서/캠플렉스 테이블 명세서.xlsx
@@ -1822,7 +1822,7 @@
       <charset val="129"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1839,12 +1839,6 @@
       <patternFill patternType="solid">
         <fgColor rgb="FFFFFF00"/>
         <bgColor rgb="FFFFFF00"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.39997558519241921"/>
-        <bgColor rgb="FFFFFFFF"/>
       </patternFill>
     </fill>
   </fills>
@@ -2101,11 +2095,9 @@
     <xf numFmtId="0" fontId="7" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="8" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2114,20 +2106,22 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="5" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -2349,7 +2343,7 @@
   <dimension ref="A1:Y904"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="E48" sqref="E48"/>
+      <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="12.75"/>
@@ -2394,17 +2388,17 @@
     </row>
     <row r="2" spans="1:25" ht="15.75" customHeight="1">
       <c r="A2" s="1"/>
-      <c r="B2" s="42" t="s">
+      <c r="B2" s="40" t="s">
         <v>58</v>
       </c>
-      <c r="C2" s="43"/>
-      <c r="D2" s="43"/>
-      <c r="E2" s="43"/>
-      <c r="F2" s="43"/>
-      <c r="G2" s="43"/>
-      <c r="H2" s="43"/>
-      <c r="I2" s="43"/>
-      <c r="J2" s="44"/>
+      <c r="C2" s="41"/>
+      <c r="D2" s="41"/>
+      <c r="E2" s="41"/>
+      <c r="F2" s="41"/>
+      <c r="G2" s="41"/>
+      <c r="H2" s="41"/>
+      <c r="I2" s="41"/>
+      <c r="J2" s="42"/>
       <c r="K2" s="2"/>
       <c r="L2" s="2"/>
       <c r="M2" s="2"/>
@@ -2423,15 +2417,15 @@
     </row>
     <row r="3" spans="1:25" ht="15.75" customHeight="1">
       <c r="A3" s="1"/>
-      <c r="B3" s="45"/>
-      <c r="C3" s="46"/>
-      <c r="D3" s="46"/>
-      <c r="E3" s="46"/>
-      <c r="F3" s="46"/>
-      <c r="G3" s="46"/>
-      <c r="H3" s="46"/>
-      <c r="I3" s="46"/>
-      <c r="J3" s="47"/>
+      <c r="B3" s="43"/>
+      <c r="C3" s="44"/>
+      <c r="D3" s="44"/>
+      <c r="E3" s="44"/>
+      <c r="F3" s="44"/>
+      <c r="G3" s="44"/>
+      <c r="H3" s="44"/>
+      <c r="I3" s="44"/>
+      <c r="J3" s="45"/>
       <c r="K3" s="2"/>
       <c r="L3" s="2"/>
       <c r="M3" s="2"/>
@@ -2504,17 +2498,17 @@
     </row>
     <row r="6" spans="1:25" ht="15.75" customHeight="1">
       <c r="A6" s="17"/>
-      <c r="B6" s="48" t="s">
+      <c r="B6" s="49" t="s">
         <v>22</v>
       </c>
-      <c r="C6" s="49"/>
-      <c r="D6" s="49"/>
-      <c r="E6" s="49"/>
-      <c r="F6" s="49"/>
-      <c r="G6" s="49"/>
-      <c r="H6" s="49"/>
-      <c r="I6" s="49"/>
-      <c r="J6" s="49"/>
+      <c r="C6" s="50"/>
+      <c r="D6" s="50"/>
+      <c r="E6" s="50"/>
+      <c r="F6" s="50"/>
+      <c r="G6" s="50"/>
+      <c r="H6" s="50"/>
+      <c r="I6" s="50"/>
+      <c r="J6" s="50"/>
       <c r="K6" s="2"/>
       <c r="L6" s="2"/>
       <c r="M6" s="2"/>
@@ -2533,7 +2527,7 @@
     </row>
     <row r="7" spans="1:25" ht="15.75" customHeight="1">
       <c r="A7" s="17"/>
-      <c r="B7" s="50" t="s">
+      <c r="B7" s="52" t="s">
         <v>8</v>
       </c>
       <c r="C7" s="25" t="s">
@@ -2919,17 +2913,17 @@
     </row>
     <row r="17" spans="1:25" ht="15.75" customHeight="1">
       <c r="A17" s="4"/>
-      <c r="B17" s="39" t="s">
+      <c r="B17" s="46" t="s">
         <v>128</v>
       </c>
-      <c r="C17" s="40"/>
-      <c r="D17" s="40"/>
-      <c r="E17" s="40"/>
-      <c r="F17" s="40"/>
-      <c r="G17" s="40"/>
-      <c r="H17" s="40"/>
-      <c r="I17" s="40"/>
-      <c r="J17" s="41"/>
+      <c r="C17" s="47"/>
+      <c r="D17" s="47"/>
+      <c r="E17" s="47"/>
+      <c r="F17" s="47"/>
+      <c r="G17" s="47"/>
+      <c r="H17" s="47"/>
+      <c r="I17" s="47"/>
+      <c r="J17" s="48"/>
       <c r="K17" s="2"/>
       <c r="L17" s="2"/>
       <c r="M17" s="2"/>
@@ -2948,7 +2942,7 @@
     </row>
     <row r="18" spans="1:25" ht="15.75" customHeight="1">
       <c r="A18" s="4"/>
-      <c r="B18" s="52" t="s">
+      <c r="B18" s="53" t="s">
         <v>8</v>
       </c>
       <c r="C18" s="6" t="s">
@@ -3613,17 +3607,17 @@
     </row>
     <row r="35" spans="1:25" ht="15.75" customHeight="1">
       <c r="A35" s="17"/>
-      <c r="B35" s="48" t="s">
+      <c r="B35" s="49" t="s">
         <v>23</v>
       </c>
-      <c r="C35" s="49"/>
-      <c r="D35" s="49"/>
-      <c r="E35" s="49"/>
-      <c r="F35" s="49"/>
-      <c r="G35" s="49"/>
-      <c r="H35" s="49"/>
-      <c r="I35" s="49"/>
-      <c r="J35" s="49"/>
+      <c r="C35" s="50"/>
+      <c r="D35" s="50"/>
+      <c r="E35" s="50"/>
+      <c r="F35" s="50"/>
+      <c r="G35" s="50"/>
+      <c r="H35" s="50"/>
+      <c r="I35" s="50"/>
+      <c r="J35" s="50"/>
       <c r="K35" s="2"/>
       <c r="L35" s="2"/>
       <c r="M35" s="2"/>
@@ -3831,7 +3825,7 @@
       <c r="H40" s="34" t="s">
         <v>19</v>
       </c>
-      <c r="I40" s="53" t="s">
+      <c r="I40" s="39" t="s">
         <v>148</v>
       </c>
       <c r="J40" s="34"/>
@@ -4026,17 +4020,17 @@
     </row>
     <row r="46" spans="1:25" ht="15.75" customHeight="1">
       <c r="A46" s="3"/>
-      <c r="B46" s="48" t="s">
+      <c r="B46" s="49" t="s">
         <v>132</v>
       </c>
-      <c r="C46" s="49"/>
-      <c r="D46" s="49"/>
-      <c r="E46" s="49"/>
-      <c r="F46" s="49"/>
-      <c r="G46" s="49"/>
-      <c r="H46" s="49"/>
-      <c r="I46" s="49"/>
-      <c r="J46" s="49"/>
+      <c r="C46" s="50"/>
+      <c r="D46" s="50"/>
+      <c r="E46" s="50"/>
+      <c r="F46" s="50"/>
+      <c r="G46" s="50"/>
+      <c r="H46" s="50"/>
+      <c r="I46" s="50"/>
+      <c r="J46" s="50"/>
       <c r="K46" s="2"/>
       <c r="L46" s="2"/>
       <c r="M46" s="2"/>
@@ -4055,7 +4049,7 @@
     </row>
     <row r="47" spans="1:25" ht="15.75" customHeight="1">
       <c r="A47" s="3"/>
-      <c r="B47" s="50" t="s">
+      <c r="B47" s="52" t="s">
         <v>8</v>
       </c>
       <c r="C47" s="25" t="s">
@@ -4560,17 +4554,17 @@
     </row>
     <row r="60" spans="1:25" ht="15.75" customHeight="1">
       <c r="A60" s="3"/>
-      <c r="B60" s="48" t="s">
+      <c r="B60" s="49" t="s">
         <v>126</v>
       </c>
-      <c r="C60" s="49"/>
-      <c r="D60" s="49"/>
-      <c r="E60" s="49"/>
-      <c r="F60" s="49"/>
-      <c r="G60" s="49"/>
-      <c r="H60" s="49"/>
-      <c r="I60" s="49"/>
-      <c r="J60" s="49"/>
+      <c r="C60" s="50"/>
+      <c r="D60" s="50"/>
+      <c r="E60" s="50"/>
+      <c r="F60" s="50"/>
+      <c r="G60" s="50"/>
+      <c r="H60" s="50"/>
+      <c r="I60" s="50"/>
+      <c r="J60" s="50"/>
       <c r="K60" s="2"/>
       <c r="L60" s="2"/>
       <c r="M60" s="2"/>
@@ -4589,7 +4583,7 @@
     </row>
     <row r="61" spans="1:25" ht="15.75" customHeight="1">
       <c r="A61" s="3"/>
-      <c r="B61" s="50" t="s">
+      <c r="B61" s="52" t="s">
         <v>8</v>
       </c>
       <c r="C61" s="25" t="s">
@@ -4971,17 +4965,17 @@
     </row>
     <row r="71" spans="1:25" ht="15.75" customHeight="1">
       <c r="A71" s="3"/>
-      <c r="B71" s="48" t="s">
+      <c r="B71" s="49" t="s">
         <v>31</v>
       </c>
-      <c r="C71" s="49"/>
-      <c r="D71" s="49"/>
-      <c r="E71" s="49"/>
-      <c r="F71" s="49"/>
-      <c r="G71" s="49"/>
-      <c r="H71" s="49"/>
-      <c r="I71" s="49"/>
-      <c r="J71" s="49"/>
+      <c r="C71" s="50"/>
+      <c r="D71" s="50"/>
+      <c r="E71" s="50"/>
+      <c r="F71" s="50"/>
+      <c r="G71" s="50"/>
+      <c r="H71" s="50"/>
+      <c r="I71" s="50"/>
+      <c r="J71" s="50"/>
       <c r="K71" s="2"/>
       <c r="L71" s="2"/>
       <c r="M71" s="2"/>
